--- a/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
+++ b/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\joh\Joh\07 Dev\FM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -469,7 +469,7 @@
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -879,7 +879,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1061,6 +1061,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1081,6 +1085,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1112,25 +1131,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1508,7 +1509,7 @@
       <c r="C3" s="93"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="121"/>
+      <c r="A4" s="99"/>
     </row>
     <row r="5" spans="1:3" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1630,7 +1631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:R14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1651,7 +1654,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="122"/>
+      <c r="A1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="89" t="s">
@@ -1662,6 +1665,7 @@
       <c r="A3" s="90" t="s">
         <v>85</v>
       </c>
+      <c r="L3" s="125"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -1670,29 +1674,29 @@
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="104" t="s">
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
@@ -2922,10 +2926,10 @@
   <dimension ref="A1:U166"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2954,7 +2958,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="122"/>
+      <c r="A1" s="100"/>
     </row>
     <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="89" t="s">
@@ -3081,11 +3085,11 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
@@ -3150,9 +3154,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="110"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="112"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="33" t="s">
         <v>39</v>
       </c>
@@ -3217,9 +3221,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="110"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
@@ -3284,9 +3288,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3371,13 +3375,13 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="106"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
@@ -3420,9 +3424,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
@@ -3475,9 +3479,9 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
@@ -3530,11 +3534,11 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
-      <c r="B16" s="107" t="s">
+      <c r="A16" s="115"/>
+      <c r="B16" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="109"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="33" t="s">
         <v>38</v>
       </c>
@@ -3599,9 +3603,9 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="112"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
@@ -3666,9 +3670,9 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="112"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
@@ -3733,9 +3737,9 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="115"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
@@ -3840,13 +3844,13 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="112" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3901,9 +3905,9 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
@@ -3956,9 +3960,9 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="116"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
@@ -4011,9 +4015,9 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="116"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="36" t="s">
         <v>53</v>
       </c>
@@ -4066,9 +4070,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="116" t="s">
+      <c r="A26" s="115"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="112" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -4123,9 +4127,9 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="116"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
@@ -4187,11 +4191,11 @@
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106" t="s">
+      <c r="A28" s="115"/>
+      <c r="B28" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="112" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -4225,9 +4229,9 @@
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="36" t="s">
         <v>59</v>
       </c>
@@ -4289,9 +4293,9 @@
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="116" t="s">
+      <c r="A30" s="115"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="112" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -4325,9 +4329,9 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="106"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="116"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
@@ -4394,20 +4398,20 @@
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B32" s="47"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
@@ -4434,13 +4438,13 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="119" t="s">
+      <c r="A34" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="116" t="s">
+      <c r="C34" s="112" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4483,9 +4487,9 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="120"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="112"/>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
@@ -4526,9 +4530,9 @@
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="120"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="116"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="112"/>
       <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4569,9 +4573,9 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="120"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="116"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="112"/>
       <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
@@ -4612,9 +4616,9 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="120"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="116"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="112"/>
       <c r="D38" s="48" t="s">
         <v>61</v>
       </c>
@@ -4667,9 +4671,9 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="120"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="116"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
@@ -4710,9 +4714,9 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="120"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="116"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="112"/>
       <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
@@ -4765,9 +4769,9 @@
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="120"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="116"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="112"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -4808,9 +4812,9 @@
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="120"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="116"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="48" t="s">
         <v>63</v>
       </c>
@@ -4863,9 +4867,9 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="120"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="116"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="112"/>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
@@ -4906,9 +4910,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="120"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="116"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4949,9 +4953,9 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="120"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="116"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="112"/>
       <c r="D45" s="49" t="s">
         <v>64</v>
       </c>
@@ -5016,9 +5020,9 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="120"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="116"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="112"/>
       <c r="D46" s="36" t="s">
         <v>65</v>
       </c>
@@ -5083,11 +5087,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="120"/>
-      <c r="B47" s="106" t="s">
+      <c r="A47" s="114"/>
+      <c r="B47" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="116" t="s">
+      <c r="C47" s="112" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="10"/>
@@ -5110,9 +5114,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="120"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="116"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
@@ -5138,9 +5142,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="120"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="116"/>
+      <c r="A49" s="114"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="112"/>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
@@ -5166,9 +5170,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="120"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="116"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="112"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
@@ -5194,9 +5198,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="120"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="116"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="112"/>
       <c r="D51" s="9" t="s">
         <v>22</v>
       </c>
@@ -5222,9 +5226,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="120"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="116"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="112"/>
       <c r="D52" s="48" t="s">
         <v>61</v>
       </c>
@@ -5256,9 +5260,9 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="120"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="116"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="112"/>
       <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
@@ -5284,9 +5288,9 @@
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="120"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="116"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="112"/>
       <c r="D54" s="48" t="s">
         <v>62</v>
       </c>
@@ -5318,9 +5322,9 @@
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="120"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="116"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="112"/>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
@@ -5346,9 +5350,9 @@
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="120"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="116"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="112"/>
       <c r="D56" s="48" t="s">
         <v>63</v>
       </c>
@@ -5380,9 +5384,9 @@
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="120"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="116"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="112"/>
       <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
@@ -5408,9 +5412,9 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="120"/>
-      <c r="B58" s="106"/>
-      <c r="C58" s="116"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="112"/>
       <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
@@ -5436,9 +5440,9 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="120"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="116"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="112"/>
       <c r="D59" s="49" t="s">
         <v>64</v>
       </c>
@@ -5503,9 +5507,9 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="120"/>
-      <c r="B60" s="106"/>
-      <c r="C60" s="116"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="112"/>
       <c r="D60" s="36" t="s">
         <v>66</v>
       </c>
@@ -5570,13 +5574,13 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="119" t="s">
+      <c r="A61" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="106" t="s">
+      <c r="B61" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="117" t="s">
+      <c r="C61" s="110" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="10"/>
@@ -5599,9 +5603,9 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="120"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="118"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="111"/>
       <c r="D62" s="9" t="s">
         <v>25</v>
       </c>
@@ -5642,9 +5646,9 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="120"/>
-      <c r="B63" s="106"/>
-      <c r="C63" s="118"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="111"/>
       <c r="D63" s="9" t="s">
         <v>14</v>
       </c>
@@ -5685,9 +5689,9 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="120"/>
-      <c r="B64" s="106"/>
-      <c r="C64" s="118"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="111"/>
       <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5728,9 +5732,9 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="120"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="118"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="111"/>
       <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
@@ -5771,9 +5775,9 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="120"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="118"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="111"/>
       <c r="D66" s="48" t="s">
         <v>61</v>
       </c>
@@ -5826,9 +5830,9 @@
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="120"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="118"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="111"/>
       <c r="D67" s="9" t="s">
         <v>21</v>
       </c>
@@ -5869,9 +5873,9 @@
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="120"/>
-      <c r="B68" s="106"/>
-      <c r="C68" s="118"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="111"/>
       <c r="D68" s="48" t="s">
         <v>62</v>
       </c>
@@ -5924,9 +5928,9 @@
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="120"/>
-      <c r="B69" s="106"/>
-      <c r="C69" s="118"/>
+      <c r="A69" s="114"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="111"/>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
@@ -5967,9 +5971,9 @@
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="120"/>
-      <c r="B70" s="106"/>
-      <c r="C70" s="118"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="111"/>
       <c r="D70" s="48" t="s">
         <v>63</v>
       </c>
@@ -6034,9 +6038,9 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="120"/>
-      <c r="B71" s="106"/>
-      <c r="C71" s="118"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="115"/>
+      <c r="C71" s="111"/>
       <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
@@ -6077,9 +6081,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="120"/>
-      <c r="B72" s="106"/>
-      <c r="C72" s="118"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="111"/>
       <c r="D72" s="9" t="s">
         <v>24</v>
       </c>
@@ -6105,9 +6109,9 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="120"/>
-      <c r="B73" s="106"/>
-      <c r="C73" s="118"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="111"/>
       <c r="D73" s="49" t="s">
         <v>64</v>
       </c>
@@ -6172,9 +6176,9 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="120"/>
-      <c r="B74" s="106"/>
-      <c r="C74" s="116" t="s">
+      <c r="A74" s="114"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="112" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="10"/>
@@ -6197,9 +6201,9 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="120"/>
-      <c r="B75" s="106"/>
-      <c r="C75" s="116"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="112"/>
       <c r="D75" s="9" t="s">
         <v>25</v>
       </c>
@@ -6234,9 +6238,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="120"/>
-      <c r="B76" s="106"/>
-      <c r="C76" s="116"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="112"/>
       <c r="D76" s="9" t="s">
         <v>14</v>
       </c>
@@ -6271,9 +6275,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="120"/>
-      <c r="B77" s="106"/>
-      <c r="C77" s="116"/>
+      <c r="A77" s="114"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="112"/>
       <c r="D77" s="9" t="s">
         <v>36</v>
       </c>
@@ -6308,9 +6312,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="120"/>
-      <c r="B78" s="106"/>
-      <c r="C78" s="116"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="112"/>
       <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
@@ -6345,9 +6349,9 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="120"/>
-      <c r="B79" s="106"/>
-      <c r="C79" s="116"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="112"/>
       <c r="D79" s="48" t="s">
         <v>61</v>
       </c>
@@ -6400,9 +6404,9 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="120"/>
-      <c r="B80" s="106"/>
-      <c r="C80" s="116"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="112"/>
       <c r="D80" s="9" t="s">
         <v>21</v>
       </c>
@@ -6437,9 +6441,9 @@
       <c r="U80" s="10"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="120"/>
-      <c r="B81" s="106"/>
-      <c r="C81" s="116"/>
+      <c r="A81" s="114"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="112"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -6492,9 +6496,9 @@
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="120"/>
-      <c r="B82" s="106"/>
-      <c r="C82" s="116"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="112"/>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
@@ -6529,9 +6533,9 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="120"/>
-      <c r="B83" s="106"/>
-      <c r="C83" s="116"/>
+      <c r="A83" s="114"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="112"/>
       <c r="D83" s="48" t="s">
         <v>63</v>
       </c>
@@ -6596,9 +6600,9 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="120"/>
-      <c r="B84" s="106"/>
-      <c r="C84" s="116"/>
+      <c r="A84" s="114"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="112"/>
       <c r="D84" s="9" t="s">
         <v>20</v>
       </c>
@@ -6633,9 +6637,9 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="120"/>
-      <c r="B85" s="106"/>
-      <c r="C85" s="116"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="115"/>
+      <c r="C85" s="112"/>
       <c r="D85" s="9" t="s">
         <v>24</v>
       </c>
@@ -6661,9 +6665,9 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="120"/>
-      <c r="B86" s="106"/>
-      <c r="C86" s="116"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="112"/>
       <c r="D86" s="49" t="s">
         <v>64</v>
       </c>
@@ -6728,9 +6732,9 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="120"/>
-      <c r="B87" s="106"/>
-      <c r="C87" s="116"/>
+      <c r="A87" s="114"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="112"/>
       <c r="D87" s="36" t="s">
         <v>68</v>
       </c>
@@ -6795,11 +6799,11 @@
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="120"/>
-      <c r="B88" s="106" t="s">
+      <c r="A88" s="114"/>
+      <c r="B88" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="117" t="s">
+      <c r="C88" s="110" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="10"/>
@@ -6822,9 +6826,9 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="120"/>
-      <c r="B89" s="106"/>
-      <c r="C89" s="118"/>
+      <c r="A89" s="114"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="111"/>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
@@ -6877,9 +6881,9 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="120"/>
-      <c r="B90" s="106"/>
-      <c r="C90" s="118"/>
+      <c r="A90" s="114"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="111"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -6932,9 +6936,9 @@
       <c r="U90" s="10"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="120"/>
-      <c r="B91" s="106"/>
-      <c r="C91" s="118"/>
+      <c r="A91" s="114"/>
+      <c r="B91" s="115"/>
+      <c r="C91" s="111"/>
       <c r="D91" s="9" t="s">
         <v>36</v>
       </c>
@@ -6983,9 +6987,9 @@
       <c r="S91" s="61"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="120"/>
-      <c r="B92" s="106"/>
-      <c r="C92" s="118"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="111"/>
       <c r="D92" s="9" t="s">
         <v>22</v>
       </c>
@@ -7034,9 +7038,9 @@
       <c r="S92" s="61"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="120"/>
-      <c r="B93" s="106"/>
-      <c r="C93" s="118"/>
+      <c r="A93" s="114"/>
+      <c r="B93" s="115"/>
+      <c r="C93" s="111"/>
       <c r="D93" s="48" t="s">
         <v>61</v>
       </c>
@@ -7085,9 +7089,9 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="120"/>
-      <c r="B94" s="106"/>
-      <c r="C94" s="118"/>
+      <c r="A94" s="114"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="111"/>
       <c r="D94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7136,9 +7140,9 @@
       <c r="S94" s="61"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="120"/>
-      <c r="B95" s="106"/>
-      <c r="C95" s="118"/>
+      <c r="A95" s="114"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="111"/>
       <c r="D95" s="48" t="s">
         <v>62</v>
       </c>
@@ -7187,9 +7191,9 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="120"/>
-      <c r="B96" s="106"/>
-      <c r="C96" s="118"/>
+      <c r="A96" s="114"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="111"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
@@ -7238,9 +7242,9 @@
       <c r="S96" s="61"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="120"/>
-      <c r="B97" s="106"/>
-      <c r="C97" s="118"/>
+      <c r="A97" s="114"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="111"/>
       <c r="D97" s="48" t="s">
         <v>63</v>
       </c>
@@ -7302,9 +7306,9 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="120"/>
-      <c r="B98" s="106"/>
-      <c r="C98" s="118"/>
+      <c r="A98" s="114"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="111"/>
       <c r="D98" s="9" t="s">
         <v>20</v>
       </c>
@@ -7353,9 +7357,9 @@
       <c r="S98" s="61"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="120"/>
-      <c r="B99" s="106"/>
-      <c r="C99" s="118"/>
+      <c r="A99" s="114"/>
+      <c r="B99" s="115"/>
+      <c r="C99" s="111"/>
       <c r="D99" s="9" t="s">
         <v>24</v>
       </c>
@@ -7378,9 +7382,9 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="120"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="118"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="111"/>
       <c r="D100" s="49" t="s">
         <v>64</v>
       </c>
@@ -7445,9 +7449,9 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="120"/>
-      <c r="B101" s="106"/>
-      <c r="C101" s="117" t="s">
+      <c r="A101" s="114"/>
+      <c r="B101" s="115"/>
+      <c r="C101" s="110" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="10"/>
@@ -7459,9 +7463,9 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="120"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="118"/>
+      <c r="A102" s="114"/>
+      <c r="B102" s="115"/>
+      <c r="C102" s="111"/>
       <c r="D102" s="9" t="s">
         <v>25</v>
       </c>
@@ -7514,9 +7518,9 @@
       <c r="U102" s="10"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="120"/>
-      <c r="B103" s="106"/>
-      <c r="C103" s="118"/>
+      <c r="A103" s="114"/>
+      <c r="B103" s="115"/>
+      <c r="C103" s="111"/>
       <c r="D103" s="9" t="s">
         <v>14</v>
       </c>
@@ -7569,9 +7573,9 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="120"/>
-      <c r="B104" s="106"/>
-      <c r="C104" s="118"/>
+      <c r="A104" s="114"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="111"/>
       <c r="D104" s="9" t="s">
         <v>36</v>
       </c>
@@ -7620,9 +7624,9 @@
       <c r="S104" s="61"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="120"/>
-      <c r="B105" s="106"/>
-      <c r="C105" s="118"/>
+      <c r="A105" s="114"/>
+      <c r="B105" s="115"/>
+      <c r="C105" s="111"/>
       <c r="D105" s="9" t="s">
         <v>22</v>
       </c>
@@ -7671,9 +7675,9 @@
       <c r="S105" s="61"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="120"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="118"/>
+      <c r="A106" s="114"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="111"/>
       <c r="D106" s="48" t="s">
         <v>61</v>
       </c>
@@ -7722,9 +7726,9 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="120"/>
-      <c r="B107" s="106"/>
-      <c r="C107" s="118"/>
+      <c r="A107" s="114"/>
+      <c r="B107" s="115"/>
+      <c r="C107" s="111"/>
       <c r="D107" s="9" t="s">
         <v>21</v>
       </c>
@@ -7773,9 +7777,9 @@
       <c r="S107" s="61"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="120"/>
-      <c r="B108" s="106"/>
-      <c r="C108" s="118"/>
+      <c r="A108" s="114"/>
+      <c r="B108" s="115"/>
+      <c r="C108" s="111"/>
       <c r="D108" s="48" t="s">
         <v>62</v>
       </c>
@@ -7824,9 +7828,9 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="120"/>
-      <c r="B109" s="106"/>
-      <c r="C109" s="118"/>
+      <c r="A109" s="114"/>
+      <c r="B109" s="115"/>
+      <c r="C109" s="111"/>
       <c r="D109" s="9" t="s">
         <v>23</v>
       </c>
@@ -7875,9 +7879,9 @@
       <c r="S109" s="61"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="120"/>
-      <c r="B110" s="106"/>
-      <c r="C110" s="118"/>
+      <c r="A110" s="114"/>
+      <c r="B110" s="115"/>
+      <c r="C110" s="111"/>
       <c r="D110" s="48" t="s">
         <v>63</v>
       </c>
@@ -7939,9 +7943,9 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="120"/>
-      <c r="B111" s="106"/>
-      <c r="C111" s="118"/>
+      <c r="A111" s="114"/>
+      <c r="B111" s="115"/>
+      <c r="C111" s="111"/>
       <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
@@ -7990,9 +7994,9 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="120"/>
-      <c r="B112" s="106"/>
-      <c r="C112" s="118"/>
+      <c r="A112" s="114"/>
+      <c r="B112" s="115"/>
+      <c r="C112" s="111"/>
       <c r="D112" s="9" t="s">
         <v>24</v>
       </c>
@@ -8015,9 +8019,9 @@
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="120"/>
-      <c r="B113" s="106"/>
-      <c r="C113" s="118"/>
+      <c r="A113" s="114"/>
+      <c r="B113" s="115"/>
+      <c r="C113" s="111"/>
       <c r="D113" s="49" t="s">
         <v>64</v>
       </c>
@@ -8082,11 +8086,11 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="119" t="s">
+      <c r="A114" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="106"/>
-      <c r="C114" s="117" t="s">
+      <c r="B114" s="115"/>
+      <c r="C114" s="110" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="10"/>
@@ -8098,9 +8102,9 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="120"/>
-      <c r="B115" s="106"/>
-      <c r="C115" s="118"/>
+      <c r="A115" s="114"/>
+      <c r="B115" s="115"/>
+      <c r="C115" s="111"/>
       <c r="D115" s="9" t="s">
         <v>25</v>
       </c>
@@ -8153,9 +8157,9 @@
       <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="120"/>
-      <c r="B116" s="106"/>
-      <c r="C116" s="118"/>
+      <c r="A116" s="114"/>
+      <c r="B116" s="115"/>
+      <c r="C116" s="111"/>
       <c r="D116" s="9" t="s">
         <v>14</v>
       </c>
@@ -8208,9 +8212,9 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="120"/>
-      <c r="B117" s="106"/>
-      <c r="C117" s="118"/>
+      <c r="A117" s="114"/>
+      <c r="B117" s="115"/>
+      <c r="C117" s="111"/>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
@@ -8259,9 +8263,9 @@
       <c r="S117" s="61"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="120"/>
-      <c r="B118" s="106"/>
-      <c r="C118" s="118"/>
+      <c r="A118" s="114"/>
+      <c r="B118" s="115"/>
+      <c r="C118" s="111"/>
       <c r="D118" s="9" t="s">
         <v>22</v>
       </c>
@@ -8310,9 +8314,9 @@
       <c r="S118" s="61"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="120"/>
-      <c r="B119" s="106"/>
-      <c r="C119" s="118"/>
+      <c r="A119" s="114"/>
+      <c r="B119" s="115"/>
+      <c r="C119" s="111"/>
       <c r="D119" s="48" t="s">
         <v>61</v>
       </c>
@@ -8361,9 +8365,9 @@
       <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="120"/>
-      <c r="B120" s="106"/>
-      <c r="C120" s="118"/>
+      <c r="A120" s="114"/>
+      <c r="B120" s="115"/>
+      <c r="C120" s="111"/>
       <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
@@ -8412,9 +8416,9 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="120"/>
-      <c r="B121" s="106"/>
-      <c r="C121" s="118"/>
+      <c r="A121" s="114"/>
+      <c r="B121" s="115"/>
+      <c r="C121" s="111"/>
       <c r="D121" s="48" t="s">
         <v>62</v>
       </c>
@@ -8463,9 +8467,9 @@
       <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="120"/>
-      <c r="B122" s="106"/>
-      <c r="C122" s="118"/>
+      <c r="A122" s="114"/>
+      <c r="B122" s="115"/>
+      <c r="C122" s="111"/>
       <c r="D122" s="9" t="s">
         <v>23</v>
       </c>
@@ -8514,9 +8518,9 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="120"/>
-      <c r="B123" s="106"/>
-      <c r="C123" s="118"/>
+      <c r="A123" s="114"/>
+      <c r="B123" s="115"/>
+      <c r="C123" s="111"/>
       <c r="D123" s="48" t="s">
         <v>63</v>
       </c>
@@ -8578,9 +8582,9 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="120"/>
-      <c r="B124" s="106"/>
-      <c r="C124" s="118"/>
+      <c r="A124" s="114"/>
+      <c r="B124" s="115"/>
+      <c r="C124" s="111"/>
       <c r="D124" s="9" t="s">
         <v>20</v>
       </c>
@@ -8629,9 +8633,9 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="120"/>
-      <c r="B125" s="106"/>
-      <c r="C125" s="118"/>
+      <c r="A125" s="114"/>
+      <c r="B125" s="115"/>
+      <c r="C125" s="111"/>
       <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
@@ -8654,9 +8658,9 @@
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="120"/>
-      <c r="B126" s="106"/>
-      <c r="C126" s="118"/>
+      <c r="A126" s="114"/>
+      <c r="B126" s="115"/>
+      <c r="C126" s="111"/>
       <c r="D126" s="49" t="s">
         <v>64</v>
       </c>
@@ -8721,9 +8725,9 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="120"/>
-      <c r="B127" s="106"/>
-      <c r="C127" s="117" t="s">
+      <c r="A127" s="114"/>
+      <c r="B127" s="115"/>
+      <c r="C127" s="110" t="s">
         <v>79</v>
       </c>
       <c r="I127" s="10"/>
@@ -8735,9 +8739,9 @@
       <c r="U127" s="10"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="120"/>
-      <c r="B128" s="106"/>
-      <c r="C128" s="118"/>
+      <c r="A128" s="114"/>
+      <c r="B128" s="115"/>
+      <c r="C128" s="111"/>
       <c r="D128" s="9" t="s">
         <v>25</v>
       </c>
@@ -8790,9 +8794,9 @@
       <c r="U128" s="10"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="120"/>
-      <c r="B129" s="106"/>
-      <c r="C129" s="118"/>
+      <c r="A129" s="114"/>
+      <c r="B129" s="115"/>
+      <c r="C129" s="111"/>
       <c r="D129" s="9" t="s">
         <v>14</v>
       </c>
@@ -8845,9 +8849,9 @@
       <c r="U129" s="10"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="120"/>
-      <c r="B130" s="106"/>
-      <c r="C130" s="118"/>
+      <c r="A130" s="114"/>
+      <c r="B130" s="115"/>
+      <c r="C130" s="111"/>
       <c r="D130" s="9" t="s">
         <v>36</v>
       </c>
@@ -8896,9 +8900,9 @@
       <c r="S130" s="61"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="120"/>
-      <c r="B131" s="106"/>
-      <c r="C131" s="118"/>
+      <c r="A131" s="114"/>
+      <c r="B131" s="115"/>
+      <c r="C131" s="111"/>
       <c r="D131" s="9" t="s">
         <v>22</v>
       </c>
@@ -8947,9 +8951,9 @@
       <c r="S131" s="61"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="120"/>
-      <c r="B132" s="106"/>
-      <c r="C132" s="118"/>
+      <c r="A132" s="114"/>
+      <c r="B132" s="115"/>
+      <c r="C132" s="111"/>
       <c r="D132" s="48" t="s">
         <v>61</v>
       </c>
@@ -8998,9 +9002,9 @@
       <c r="S132" s="10"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="120"/>
-      <c r="B133" s="106"/>
-      <c r="C133" s="118"/>
+      <c r="A133" s="114"/>
+      <c r="B133" s="115"/>
+      <c r="C133" s="111"/>
       <c r="D133" s="9" t="s">
         <v>21</v>
       </c>
@@ -9049,9 +9053,9 @@
       <c r="S133" s="61"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="120"/>
-      <c r="B134" s="106"/>
-      <c r="C134" s="118"/>
+      <c r="A134" s="114"/>
+      <c r="B134" s="115"/>
+      <c r="C134" s="111"/>
       <c r="D134" s="48" t="s">
         <v>62</v>
       </c>
@@ -9100,9 +9104,9 @@
       <c r="S134" s="10"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="120"/>
-      <c r="B135" s="106"/>
-      <c r="C135" s="118"/>
+      <c r="A135" s="114"/>
+      <c r="B135" s="115"/>
+      <c r="C135" s="111"/>
       <c r="D135" s="9" t="s">
         <v>23</v>
       </c>
@@ -9151,9 +9155,9 @@
       <c r="S135" s="61"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="120"/>
-      <c r="B136" s="106"/>
-      <c r="C136" s="118"/>
+      <c r="A136" s="114"/>
+      <c r="B136" s="115"/>
+      <c r="C136" s="111"/>
       <c r="D136" s="48" t="s">
         <v>63</v>
       </c>
@@ -9215,9 +9219,9 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="120"/>
-      <c r="B137" s="106"/>
-      <c r="C137" s="118"/>
+      <c r="A137" s="114"/>
+      <c r="B137" s="115"/>
+      <c r="C137" s="111"/>
       <c r="D137" s="9" t="s">
         <v>20</v>
       </c>
@@ -9266,9 +9270,9 @@
       <c r="S137" s="61"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="120"/>
-      <c r="B138" s="106"/>
-      <c r="C138" s="118"/>
+      <c r="A138" s="114"/>
+      <c r="B138" s="115"/>
+      <c r="C138" s="111"/>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
@@ -9291,9 +9295,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="120"/>
-      <c r="B139" s="106"/>
-      <c r="C139" s="118"/>
+      <c r="A139" s="114"/>
+      <c r="B139" s="115"/>
+      <c r="C139" s="111"/>
       <c r="D139" s="49" t="s">
         <v>64</v>
       </c>
@@ -9358,9 +9362,9 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="120"/>
-      <c r="B140" s="106"/>
-      <c r="C140" s="116" t="s">
+      <c r="A140" s="114"/>
+      <c r="B140" s="115"/>
+      <c r="C140" s="112" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="10"/>
@@ -9372,9 +9376,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="120"/>
-      <c r="B141" s="106"/>
-      <c r="C141" s="116"/>
+      <c r="A141" s="114"/>
+      <c r="B141" s="115"/>
+      <c r="C141" s="112"/>
       <c r="D141" s="9" t="s">
         <v>25</v>
       </c>
@@ -9427,9 +9431,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="120"/>
-      <c r="B142" s="106"/>
-      <c r="C142" s="116"/>
+      <c r="A142" s="114"/>
+      <c r="B142" s="115"/>
+      <c r="C142" s="112"/>
       <c r="D142" s="9" t="s">
         <v>14</v>
       </c>
@@ -9482,9 +9486,9 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="120"/>
-      <c r="B143" s="106"/>
-      <c r="C143" s="116"/>
+      <c r="A143" s="114"/>
+      <c r="B143" s="115"/>
+      <c r="C143" s="112"/>
       <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
@@ -9533,9 +9537,9 @@
       <c r="S143" s="61"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="120"/>
-      <c r="B144" s="106"/>
-      <c r="C144" s="116"/>
+      <c r="A144" s="114"/>
+      <c r="B144" s="115"/>
+      <c r="C144" s="112"/>
       <c r="D144" s="9" t="s">
         <v>22</v>
       </c>
@@ -9584,9 +9588,9 @@
       <c r="S144" s="61"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="120"/>
-      <c r="B145" s="106"/>
-      <c r="C145" s="116"/>
+      <c r="A145" s="114"/>
+      <c r="B145" s="115"/>
+      <c r="C145" s="112"/>
       <c r="D145" s="48" t="s">
         <v>61</v>
       </c>
@@ -9635,9 +9639,9 @@
       <c r="S145" s="10"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="120"/>
-      <c r="B146" s="106"/>
-      <c r="C146" s="116"/>
+      <c r="A146" s="114"/>
+      <c r="B146" s="115"/>
+      <c r="C146" s="112"/>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
@@ -9686,9 +9690,9 @@
       <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="120"/>
-      <c r="B147" s="106"/>
-      <c r="C147" s="116"/>
+      <c r="A147" s="114"/>
+      <c r="B147" s="115"/>
+      <c r="C147" s="112"/>
       <c r="D147" s="48" t="s">
         <v>62</v>
       </c>
@@ -9737,9 +9741,9 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="120"/>
-      <c r="B148" s="106"/>
-      <c r="C148" s="116"/>
+      <c r="A148" s="114"/>
+      <c r="B148" s="115"/>
+      <c r="C148" s="112"/>
       <c r="D148" s="9" t="s">
         <v>23</v>
       </c>
@@ -9788,9 +9792,9 @@
       <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="120"/>
-      <c r="B149" s="106"/>
-      <c r="C149" s="116"/>
+      <c r="A149" s="114"/>
+      <c r="B149" s="115"/>
+      <c r="C149" s="112"/>
       <c r="D149" s="48" t="s">
         <v>63</v>
       </c>
@@ -9852,9 +9856,9 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="120"/>
-      <c r="B150" s="106"/>
-      <c r="C150" s="116"/>
+      <c r="A150" s="114"/>
+      <c r="B150" s="115"/>
+      <c r="C150" s="112"/>
       <c r="D150" s="9" t="s">
         <v>20</v>
       </c>
@@ -9903,9 +9907,9 @@
       <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="120"/>
-      <c r="B151" s="106"/>
-      <c r="C151" s="116"/>
+      <c r="A151" s="114"/>
+      <c r="B151" s="115"/>
+      <c r="C151" s="112"/>
       <c r="D151" s="9" t="s">
         <v>24</v>
       </c>
@@ -9928,9 +9932,9 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="120"/>
-      <c r="B152" s="106"/>
-      <c r="C152" s="116"/>
+      <c r="A152" s="114"/>
+      <c r="B152" s="115"/>
+      <c r="C152" s="112"/>
       <c r="D152" s="49" t="s">
         <v>64</v>
       </c>
@@ -9995,9 +9999,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="120"/>
-      <c r="B153" s="106"/>
-      <c r="C153" s="116"/>
+      <c r="A153" s="114"/>
+      <c r="B153" s="115"/>
+      <c r="C153" s="112"/>
       <c r="D153" s="52" t="s">
         <v>67</v>
       </c>
@@ -10099,6 +10103,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C127:C139"/>
     <mergeCell ref="C140:C153"/>
     <mergeCell ref="A34:A60"/>
@@ -10115,17 +10130,6 @@
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="C47:C60"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A8:C11"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="5" orientation="landscape" r:id="rId1"/>
@@ -10139,10 +10143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y224"/>
+  <dimension ref="A1:Y222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167:XFD167"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11580,7 +11584,7 @@
         <v>12</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -11648,7 +11652,7 @@
         <v>12</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" s="95">
         <v>1</v>
@@ -11716,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" s="95">
         <v>1</v>
@@ -11784,7 +11788,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" s="95">
         <v>1</v>
@@ -11852,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" s="95">
         <v>1</v>
@@ -11920,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" s="95">
         <v>1</v>
@@ -11988,7 +11992,7 @@
         <v>16</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M43" s="95">
         <v>1</v>
@@ -12056,7 +12060,7 @@
         <v>14</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44" s="95">
         <v>1</v>
@@ -12124,7 +12128,7 @@
         <v>14</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45" s="95">
         <v>1</v>
@@ -12808,7 +12812,7 @@
         <v>9</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S59" s="95">
         <v>23</v>
@@ -12852,7 +12856,7 @@
         <v>10</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S60" s="95">
         <v>24</v>
@@ -12886,17 +12890,17 @@
       <c r="C61">
         <v>14</v>
       </c>
-      <c r="E61" s="95">
-        <v>1</v>
-      </c>
-      <c r="F61" s="95">
-        <v>2</v>
-      </c>
-      <c r="G61" s="95">
-        <v>11</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" s="95">
+        <v>10</v>
       </c>
       <c r="S61" s="95">
         <v>25</v>
@@ -12930,17 +12934,17 @@
       <c r="C62">
         <v>14</v>
       </c>
-      <c r="E62" s="95">
-        <v>1</v>
-      </c>
-      <c r="F62" s="95">
-        <v>2</v>
-      </c>
-      <c r="G62" s="95">
-        <v>12</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" s="95">
+        <v>11</v>
       </c>
       <c r="S62" s="95">
         <v>26</v>
@@ -12974,17 +12978,17 @@
       <c r="C63">
         <v>14</v>
       </c>
-      <c r="E63" s="95">
-        <v>1</v>
-      </c>
-      <c r="F63" s="95">
-        <v>2</v>
-      </c>
-      <c r="G63" s="95">
-        <v>13</v>
-      </c>
-      <c r="H63" s="95">
-        <v>8</v>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>11</v>
       </c>
       <c r="S63" s="95">
         <v>27</v>
@@ -13022,13 +13026,13 @@
         <v>1</v>
       </c>
       <c r="F64" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G64" s="95">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H64" s="95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V64" s="95">
         <v>1</v>
@@ -13051,19 +13055,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="95">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" s="95">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V65" s="95">
         <v>1</v>
@@ -13086,19 +13078,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="95">
-        <v>3</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="H66" s="95">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="V66" s="95">
         <v>1</v>
@@ -13121,19 +13101,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="95">
-        <v>4</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-      <c r="G67">
-        <v>3</v>
-      </c>
-      <c r="H67">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="V67" s="95">
         <v>1</v>
@@ -13156,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V68" s="95">
         <v>1</v>
@@ -13179,7 +13147,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V69" s="95">
         <v>1</v>
@@ -13202,7 +13170,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V70" s="95">
         <v>1</v>
@@ -13225,7 +13193,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V71" s="95">
         <v>1</v>
@@ -13248,7 +13216,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V72" s="95">
         <v>1</v>
@@ -13271,7 +13239,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V73" s="95">
         <v>1</v>
@@ -13294,7 +13262,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="95">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V74" s="95">
         <v>1</v>
@@ -13317,7 +13285,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="95">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V75" s="95">
         <v>1</v>
@@ -13340,7 +13308,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="95">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="V76" s="95">
         <v>1</v>
@@ -13363,7 +13331,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="95">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V77" s="95">
         <v>1</v>
@@ -13477,8 +13445,8 @@
       <c r="B82" s="95">
         <v>3</v>
       </c>
-      <c r="C82">
-        <v>1</v>
+      <c r="C82" s="95">
+        <v>2</v>
       </c>
       <c r="V82" s="95">
         <v>1</v>
@@ -13500,8 +13468,8 @@
       <c r="B83" s="95">
         <v>3</v>
       </c>
-      <c r="C83">
-        <v>1</v>
+      <c r="C83" s="95">
+        <v>2</v>
       </c>
       <c r="V83" s="95">
         <v>1</v>
@@ -13523,8 +13491,8 @@
       <c r="B84" s="95">
         <v>3</v>
       </c>
-      <c r="C84">
-        <v>1</v>
+      <c r="C84" s="95">
+        <v>2</v>
       </c>
       <c r="V84" s="95">
         <v>1</v>
@@ -13546,8 +13514,8 @@
       <c r="B85" s="95">
         <v>3</v>
       </c>
-      <c r="C85">
-        <v>1</v>
+      <c r="C85" s="95">
+        <v>2</v>
       </c>
       <c r="V85" s="95">
         <v>1</v>
@@ -13569,8 +13537,8 @@
       <c r="B86" s="95">
         <v>3</v>
       </c>
-      <c r="C86">
-        <v>2</v>
+      <c r="C86" s="95">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
@@ -13581,170 +13549,265 @@
         <v>3</v>
       </c>
       <c r="C87" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="95">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B88" s="95">
+        <v>4</v>
+      </c>
+      <c r="C88" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="95">
+        <v>2</v>
+      </c>
+      <c r="B89" s="95">
+        <v>4</v>
+      </c>
+      <c r="C89" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>3</v>
       </c>
-      <c r="C88" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A89" s="95">
-        <v>12</v>
-      </c>
-      <c r="B89" s="95">
-        <v>3</v>
-      </c>
-      <c r="C89" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A90" s="95">
-        <v>13</v>
-      </c>
-      <c r="B90" s="95">
-        <v>3</v>
+      <c r="B90">
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A91" s="95">
-        <v>14</v>
-      </c>
-      <c r="B91" s="95">
-        <v>3</v>
-      </c>
-      <c r="C91">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
+      <c r="A94" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="95"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="95"/>
+      <c r="E94" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="95"/>
+      <c r="G94" s="95"/>
+      <c r="H94" s="95"/>
+      <c r="I94" s="95"/>
+      <c r="J94" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="K94" s="95"/>
+      <c r="L94" s="95"/>
+      <c r="N94" s="95"/>
+      <c r="O94" s="95"/>
+      <c r="P94" s="95"/>
+      <c r="Q94" s="95"/>
+      <c r="S94" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="T94" s="95"/>
+      <c r="U94" s="95"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A95" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="95"/>
+      <c r="E95" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="G95" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H95" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="I95" s="95"/>
+      <c r="J95" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="K95" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="L95" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="M95" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="N95" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="O95" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="P95" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q95" s="95"/>
+      <c r="S95" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="T95" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="U95" s="95" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A96" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="B96" s="95"/>
-      <c r="C96" s="95"/>
-      <c r="D96" s="95"/>
-      <c r="E96" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="F96" s="95"/>
-      <c r="G96" s="95"/>
-      <c r="H96" s="95"/>
-      <c r="I96" s="95"/>
-      <c r="J96" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="K96" s="95"/>
-      <c r="L96" s="95"/>
-      <c r="N96" s="95"/>
-      <c r="O96" s="95"/>
-      <c r="P96" s="95"/>
-      <c r="Q96" s="95"/>
-      <c r="S96" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="T96" s="95"/>
-      <c r="U96" s="95"/>
+      <c r="A96" s="95">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" s="95">
+        <v>2</v>
+      </c>
+      <c r="L96" s="95">
+        <v>0</v>
+      </c>
+      <c r="M96" s="95">
+        <v>1</v>
+      </c>
+      <c r="N96" s="95">
+        <v>20000000</v>
+      </c>
+      <c r="O96" s="95">
+        <v>50000000</v>
+      </c>
+      <c r="P96" s="95">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96" s="95">
+        <v>1</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="B97" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" s="95"/>
-      <c r="E97" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="F97" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="G97" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="H97" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="I97" s="95"/>
-      <c r="J97" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="K97" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="L97" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="M97" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="N97" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="O97" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="P97" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q97" s="95"/>
-      <c r="S97" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="T97" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="U97" s="95" t="s">
-        <v>124</v>
+      <c r="A97" s="95">
+        <v>2</v>
+      </c>
+      <c r="B97" s="95">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="95">
+        <v>1</v>
+      </c>
+      <c r="F97" s="95">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97" s="95">
+        <v>2</v>
+      </c>
+      <c r="L97" s="95">
+        <v>0</v>
+      </c>
+      <c r="M97" s="95">
+        <v>1</v>
+      </c>
+      <c r="N97" s="95">
+        <v>20000000</v>
+      </c>
+      <c r="O97" s="95">
+        <v>50000000</v>
+      </c>
+      <c r="P97" s="95">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97" s="95">
+        <v>2</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="95">
-        <v>1</v>
-      </c>
-      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="B98" s="95">
         <v>1</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
+      <c r="E98" s="95">
+        <v>1</v>
+      </c>
+      <c r="F98" s="95">
+        <v>1</v>
+      </c>
+      <c r="G98" s="95">
+        <v>3</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K98" s="95">
         <v>2</v>
@@ -13759,16 +13822,16 @@
         <v>20000000</v>
       </c>
       <c r="O98" s="95">
-        <v>50000000</v>
+        <v>31411111</v>
       </c>
       <c r="P98" s="95">
         <v>1</v>
       </c>
       <c r="S98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T98" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U98">
         <v>1</v>
@@ -13776,13 +13839,13 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B99" s="95">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" s="95">
         <v>1</v>
@@ -13790,17 +13853,17 @@
       <c r="F99" s="95">
         <v>1</v>
       </c>
-      <c r="G99">
-        <v>2</v>
+      <c r="G99" s="95">
+        <v>4</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K99" s="95">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L99" s="95">
         <v>0</v>
@@ -13809,19 +13872,19 @@
         <v>1</v>
       </c>
       <c r="N99" s="95">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="O99" s="95">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="P99" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T99" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U99">
         <v>1</v>
@@ -13829,13 +13892,13 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B100" s="95">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="95">
         <v>1</v>
@@ -13844,13 +13907,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K100" s="95">
         <v>2</v>
@@ -13862,19 +13925,19 @@
         <v>1</v>
       </c>
       <c r="N100" s="95">
-        <v>20000000</v>
+        <v>75000000</v>
       </c>
       <c r="O100" s="95">
-        <v>31411111</v>
+        <v>25000000</v>
       </c>
       <c r="P100" s="95">
         <v>1</v>
       </c>
       <c r="S100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T100" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U100">
         <v>1</v>
@@ -13882,7 +13945,7 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B101" s="95">
         <v>1</v>
@@ -13897,37 +13960,37 @@
         <v>1</v>
       </c>
       <c r="G101" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H101">
         <v>4</v>
       </c>
       <c r="J101">
-        <v>4</v>
-      </c>
-      <c r="K101" s="95">
-        <v>12</v>
-      </c>
-      <c r="L101" s="95">
+        <v>6</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
         <v>0</v>
       </c>
       <c r="M101" s="95">
         <v>1</v>
       </c>
-      <c r="N101" s="95">
-        <v>0</v>
-      </c>
-      <c r="O101" s="95">
-        <v>0</v>
-      </c>
-      <c r="P101" s="95">
-        <v>0</v>
+      <c r="N101">
+        <v>575000</v>
+      </c>
+      <c r="O101">
+        <v>175000</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
       </c>
       <c r="S101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T101" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U101">
         <v>1</v>
@@ -13935,13 +13998,13 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B102" s="95">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E102" s="95">
         <v>1</v>
@@ -13950,37 +14013,37 @@
         <v>1</v>
       </c>
       <c r="G102" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J102">
-        <v>5</v>
-      </c>
-      <c r="K102" s="95">
-        <v>2</v>
-      </c>
-      <c r="L102" s="95">
+        <v>7</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
         <v>0</v>
       </c>
       <c r="M102" s="95">
         <v>1</v>
       </c>
-      <c r="N102" s="95">
-        <v>75000000</v>
-      </c>
-      <c r="O102" s="95">
-        <v>25000000</v>
-      </c>
-      <c r="P102" s="95">
+      <c r="N102">
+        <v>15000000</v>
+      </c>
+      <c r="O102">
+        <v>5000000</v>
+      </c>
+      <c r="P102">
         <v>1</v>
       </c>
       <c r="S102">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T102" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U102">
         <v>1</v>
@@ -13988,13 +14051,13 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B103" s="95">
         <v>1</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E103" s="95">
         <v>1</v>
@@ -14003,37 +14066,17 @@
         <v>1</v>
       </c>
       <c r="G103" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H103">
-        <v>4</v>
-      </c>
-      <c r="J103">
-        <v>6</v>
-      </c>
-      <c r="K103">
-        <v>2</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103" s="95">
-        <v>1</v>
-      </c>
-      <c r="N103">
-        <v>575000</v>
-      </c>
-      <c r="O103">
-        <v>175000</v>
-      </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M103" s="95"/>
       <c r="S103">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T103" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U103">
         <v>1</v>
@@ -14041,7 +14084,7 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B104" s="95">
         <v>1</v>
@@ -14056,37 +14099,17 @@
         <v>1</v>
       </c>
       <c r="G104" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H104">
-        <v>6</v>
-      </c>
-      <c r="J104">
-        <v>7</v>
-      </c>
-      <c r="K104">
-        <v>2</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104" s="95">
-        <v>1</v>
-      </c>
-      <c r="N104">
-        <v>15000000</v>
-      </c>
-      <c r="O104">
-        <v>5000000</v>
-      </c>
-      <c r="P104">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M104" s="95"/>
       <c r="S104">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T104" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U104">
         <v>1</v>
@@ -14094,13 +14117,13 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B105" s="95">
         <v>1</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E105" s="95">
         <v>1</v>
@@ -14109,17 +14132,17 @@
         <v>1</v>
       </c>
       <c r="G105" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H105">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M105" s="95"/>
       <c r="S105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T105" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U105">
         <v>1</v>
@@ -14127,40 +14150,19 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B106" s="95">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>3</v>
-      </c>
-      <c r="E106" s="95">
-        <v>1</v>
-      </c>
-      <c r="F106" s="95">
-        <v>1</v>
-      </c>
-      <c r="G106" s="95">
-        <v>9</v>
-      </c>
-      <c r="H106">
         <v>4</v>
       </c>
       <c r="M106" s="95"/>
-      <c r="S106">
-        <v>9</v>
-      </c>
-      <c r="T106" s="95">
-        <v>9</v>
-      </c>
-      <c r="U106">
-        <v>1</v>
-      </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="95">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B107" s="95">
         <v>1</v>
@@ -14168,55 +14170,32 @@
       <c r="C107">
         <v>4</v>
       </c>
-      <c r="E107" s="95">
-        <v>1</v>
-      </c>
-      <c r="F107" s="95">
-        <v>1</v>
-      </c>
-      <c r="G107" s="95">
-        <v>10</v>
-      </c>
-      <c r="H107">
-        <v>4</v>
-      </c>
-      <c r="M107" s="95"/>
-      <c r="S107">
-        <v>10</v>
-      </c>
-      <c r="T107" s="95">
-        <v>10</v>
-      </c>
-      <c r="U107">
-        <v>1</v>
-      </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="95">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B108" s="95">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>4</v>
-      </c>
-      <c r="M108" s="95"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="95">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B109" s="95">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="95">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B110" s="95">
         <v>1</v>
@@ -14227,95 +14206,95 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="95">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B111" s="95">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="95">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B112" s="95">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="95">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B113" s="95">
         <v>1</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="95">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B114" s="95">
         <v>1</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="95">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B115" s="95">
         <v>1</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="95">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B116" s="95">
         <v>1</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="95">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B117" s="95">
         <v>1</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="95">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B118" s="95">
         <v>1</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="95">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B119" s="95">
         <v>1</v>
@@ -14326,29 +14305,29 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="95">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B120" s="95">
         <v>1</v>
       </c>
       <c r="C120">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="95">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B121" s="95">
         <v>1</v>
       </c>
       <c r="C121">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="95">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B122" s="95">
         <v>1</v>
@@ -14357,122 +14336,212 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="95">
-        <v>26</v>
-      </c>
-      <c r="B123" s="95">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="95">
-        <v>27</v>
-      </c>
-      <c r="B124" s="95">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="124" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A126" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="95"/>
+      <c r="C126" s="95"/>
+      <c r="D126" s="95"/>
+      <c r="E126" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="F126" s="95"/>
+      <c r="G126" s="95"/>
+      <c r="H126" s="95"/>
+      <c r="I126" s="95"/>
+      <c r="J126" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="K126" s="95"/>
+      <c r="L126" s="95"/>
+      <c r="N126" s="95"/>
+      <c r="O126" s="95"/>
+      <c r="P126" s="95"/>
+      <c r="Q126" s="95"/>
+      <c r="S126" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="T126" s="95"/>
+      <c r="U126" s="95"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A127" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B127" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C127" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D127" s="95"/>
+      <c r="E127" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F127" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="G127" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H127" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="I127" s="95"/>
+      <c r="J127" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="K127" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="L127" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="M127" t="s">
+        <v>138</v>
+      </c>
+      <c r="N127" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="O127" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="P127" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q127" s="95"/>
+      <c r="S127" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="T127" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="U127" s="95" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="B128" s="95"/>
-      <c r="C128" s="95"/>
+      <c r="A128" s="95">
+        <v>1</v>
+      </c>
+      <c r="B128" s="95">
+        <v>1</v>
+      </c>
+      <c r="C128" s="95">
+        <v>1</v>
+      </c>
       <c r="D128" s="95"/>
-      <c r="E128" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="F128" s="95"/>
-      <c r="G128" s="95"/>
-      <c r="H128" s="95"/>
+      <c r="E128" s="95">
+        <v>1</v>
+      </c>
+      <c r="F128" s="95">
+        <v>1</v>
+      </c>
+      <c r="G128" s="95">
+        <v>1</v>
+      </c>
+      <c r="H128" s="95">
+        <v>1</v>
+      </c>
       <c r="I128" s="95"/>
-      <c r="J128" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="K128" s="95"/>
-      <c r="L128" s="95"/>
-      <c r="N128" s="95"/>
-      <c r="O128" s="95"/>
-      <c r="P128" s="95"/>
+      <c r="J128" s="95">
+        <v>1</v>
+      </c>
+      <c r="K128" s="95">
+        <v>2</v>
+      </c>
+      <c r="L128" s="95">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128" s="95">
+        <v>20000000</v>
+      </c>
+      <c r="O128" s="95">
+        <v>50000000</v>
+      </c>
+      <c r="P128" s="95">
+        <v>1</v>
+      </c>
       <c r="Q128" s="95"/>
-      <c r="S128" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="T128" s="95"/>
-      <c r="U128" s="95"/>
+      <c r="S128" s="95">
+        <v>1</v>
+      </c>
+      <c r="T128" s="95">
+        <v>1</v>
+      </c>
+      <c r="U128" s="95">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="B129" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="C129" s="95" t="s">
-        <v>122</v>
+      <c r="A129" s="95">
+        <v>2</v>
+      </c>
+      <c r="B129" s="95">
+        <v>1</v>
+      </c>
+      <c r="C129" s="95">
+        <v>1</v>
       </c>
       <c r="D129" s="95"/>
-      <c r="E129" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="F129" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="G129" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="H129" s="95" t="s">
-        <v>126</v>
+      <c r="E129" s="95">
+        <v>1</v>
+      </c>
+      <c r="F129" s="95">
+        <v>1</v>
+      </c>
+      <c r="G129" s="95">
+        <v>2</v>
+      </c>
+      <c r="H129" s="95">
+        <v>2</v>
       </c>
       <c r="I129" s="95"/>
-      <c r="J129" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="K129" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="L129" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="M129" t="s">
-        <v>138</v>
-      </c>
-      <c r="N129" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="O129" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="P129" s="95" t="s">
-        <v>131</v>
+      <c r="J129" s="95">
+        <v>2</v>
+      </c>
+      <c r="K129" s="95">
+        <v>12</v>
+      </c>
+      <c r="L129" s="95">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129" s="95">
+        <v>0</v>
+      </c>
+      <c r="O129" s="95">
+        <v>0</v>
+      </c>
+      <c r="P129" s="95">
+        <v>0</v>
       </c>
       <c r="Q129" s="95"/>
-      <c r="S129" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="T129" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="U129" s="95" t="s">
-        <v>124</v>
+      <c r="S129" s="95">
+        <v>2</v>
+      </c>
+      <c r="T129" s="95">
+        <v>2</v>
+      </c>
+      <c r="U129" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B130" s="95">
         <v>1</v>
@@ -14488,39 +14557,24 @@
         <v>1</v>
       </c>
       <c r="G130" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H130" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" s="95"/>
-      <c r="J130" s="95">
-        <v>1</v>
-      </c>
-      <c r="K130" s="95">
-        <v>2</v>
-      </c>
-      <c r="L130" s="95">
-        <v>2</v>
-      </c>
-      <c r="M130">
-        <v>1</v>
-      </c>
-      <c r="N130" s="95">
-        <v>0</v>
-      </c>
-      <c r="O130" s="95">
-        <v>450000000</v>
-      </c>
-      <c r="P130" s="95">
-        <v>0.15555555555555556</v>
-      </c>
+      <c r="J130" s="95"/>
+      <c r="K130" s="95"/>
+      <c r="L130" s="95"/>
+      <c r="N130" s="95"/>
+      <c r="O130" s="95"/>
+      <c r="P130" s="95"/>
       <c r="Q130" s="95"/>
       <c r="S130" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T130" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U130" s="95">
         <v>1</v>
@@ -14528,7 +14582,7 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B131" s="95">
         <v>1</v>
@@ -14537,46 +14591,23 @@
         <v>1</v>
       </c>
       <c r="D131" s="95"/>
-      <c r="E131" s="95">
-        <v>1</v>
-      </c>
-      <c r="F131" s="95">
-        <v>1</v>
-      </c>
-      <c r="G131" s="95">
-        <v>2</v>
-      </c>
-      <c r="H131" s="95">
-        <v>2</v>
-      </c>
+      <c r="E131" s="95"/>
+      <c r="F131" s="95"/>
+      <c r="G131" s="95"/>
+      <c r="H131" s="95"/>
       <c r="I131" s="95"/>
-      <c r="J131" s="95">
-        <v>2</v>
-      </c>
-      <c r="K131" s="95">
-        <v>12</v>
-      </c>
-      <c r="L131" s="95">
-        <v>2</v>
-      </c>
-      <c r="M131">
-        <v>1</v>
-      </c>
-      <c r="N131" s="95">
-        <v>0</v>
-      </c>
-      <c r="O131" s="95">
-        <v>0</v>
-      </c>
-      <c r="P131" s="95">
-        <v>0</v>
-      </c>
+      <c r="J131" s="95"/>
+      <c r="K131" s="95"/>
+      <c r="L131" s="95"/>
+      <c r="N131" s="95"/>
+      <c r="O131" s="95"/>
+      <c r="P131" s="95"/>
       <c r="Q131" s="95"/>
       <c r="S131" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T131" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U131" s="95">
         <v>1</v>
@@ -14584,27 +14615,19 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B132" s="95">
         <v>1</v>
       </c>
       <c r="C132" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" s="95"/>
-      <c r="E132" s="95">
-        <v>1</v>
-      </c>
-      <c r="F132" s="95">
-        <v>1</v>
-      </c>
-      <c r="G132" s="95">
-        <v>3</v>
-      </c>
-      <c r="H132" s="95">
-        <v>2</v>
-      </c>
+      <c r="E132" s="95"/>
+      <c r="F132" s="95"/>
+      <c r="G132" s="95"/>
+      <c r="H132" s="95"/>
       <c r="I132" s="95"/>
       <c r="J132" s="95"/>
       <c r="K132" s="95"/>
@@ -14614,10 +14637,10 @@
       <c r="P132" s="95"/>
       <c r="Q132" s="95"/>
       <c r="S132" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T132" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U132" s="95">
         <v>1</v>
@@ -14625,13 +14648,13 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B133" s="95">
         <v>1</v>
       </c>
       <c r="C133" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" s="95"/>
       <c r="E133" s="95"/>
@@ -14647,10 +14670,10 @@
       <c r="P133" s="95"/>
       <c r="Q133" s="95"/>
       <c r="S133" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T133" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U133" s="95">
         <v>1</v>
@@ -14658,7 +14681,7 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B134" s="95">
         <v>1</v>
@@ -14680,10 +14703,10 @@
       <c r="P134" s="95"/>
       <c r="Q134" s="95"/>
       <c r="S134" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T134" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U134" s="95">
         <v>1</v>
@@ -14691,7 +14714,7 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B135" s="95">
         <v>1</v>
@@ -14713,10 +14736,10 @@
       <c r="P135" s="95"/>
       <c r="Q135" s="95"/>
       <c r="S135" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T135" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U135" s="95">
         <v>1</v>
@@ -14724,13 +14747,13 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B136" s="95">
         <v>1</v>
       </c>
       <c r="C136" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136" s="95"/>
       <c r="E136" s="95"/>
@@ -14746,10 +14769,10 @@
       <c r="P136" s="95"/>
       <c r="Q136" s="95"/>
       <c r="S136" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T136" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U136" s="95">
         <v>1</v>
@@ -14757,13 +14780,13 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B137" s="95">
         <v>1</v>
       </c>
       <c r="C137" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137" s="95"/>
       <c r="E137" s="95"/>
@@ -14779,180 +14802,220 @@
       <c r="P137" s="95"/>
       <c r="Q137" s="95"/>
       <c r="S137" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T137" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U137" s="95">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="95">
-        <v>9</v>
-      </c>
-      <c r="B138" s="95">
-        <v>1</v>
-      </c>
-      <c r="C138" s="95">
-        <v>3</v>
-      </c>
-      <c r="D138" s="95"/>
-      <c r="E138" s="95"/>
-      <c r="F138" s="95"/>
-      <c r="G138" s="95"/>
-      <c r="H138" s="95"/>
-      <c r="I138" s="95"/>
-      <c r="J138" s="95"/>
-      <c r="K138" s="95"/>
-      <c r="L138" s="95"/>
-      <c r="N138" s="95"/>
-      <c r="O138" s="95"/>
-      <c r="P138" s="95"/>
-      <c r="Q138" s="95"/>
-      <c r="S138" s="95">
-        <v>9</v>
-      </c>
-      <c r="T138" s="95">
-        <v>9</v>
-      </c>
-      <c r="U138" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="95">
-        <v>10</v>
-      </c>
-      <c r="B139" s="95">
-        <v>1</v>
-      </c>
-      <c r="C139" s="95">
-        <v>3</v>
-      </c>
-      <c r="D139" s="95"/>
-      <c r="E139" s="95"/>
-      <c r="F139" s="95"/>
-      <c r="G139" s="95"/>
-      <c r="H139" s="95"/>
-      <c r="I139" s="95"/>
-      <c r="J139" s="95"/>
-      <c r="K139" s="95"/>
-      <c r="L139" s="95"/>
-      <c r="N139" s="95"/>
-      <c r="O139" s="95"/>
-      <c r="P139" s="95"/>
-      <c r="Q139" s="95"/>
-      <c r="S139" s="95">
-        <v>10</v>
-      </c>
-      <c r="T139" s="95">
-        <v>10</v>
-      </c>
-      <c r="U139" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+    <row r="139" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A141" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B141" s="95"/>
+      <c r="C141" s="95"/>
+      <c r="D141" s="95"/>
+      <c r="E141" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="F141" s="95"/>
+      <c r="G141" s="95"/>
+      <c r="H141" s="95"/>
+      <c r="I141" s="95"/>
+      <c r="J141" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="K141" s="95"/>
+      <c r="L141" s="95"/>
+      <c r="M141" s="95"/>
+      <c r="N141" s="95"/>
+      <c r="O141" s="95"/>
+      <c r="P141" s="95"/>
+      <c r="Q141" s="95"/>
+      <c r="S141" s="95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A142" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B142" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C142" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D142" s="95"/>
+      <c r="E142" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F142" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="G142" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H142" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="I142" s="95"/>
+      <c r="J142" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="K142" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="L142" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="M142" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="N142" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="O142" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="P142" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q142" s="95"/>
+      <c r="S142" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="T142" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="U142" s="95" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="B143" s="95"/>
-      <c r="C143" s="95"/>
-      <c r="D143" s="95"/>
-      <c r="E143" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="F143" s="95"/>
-      <c r="G143" s="95"/>
-      <c r="H143" s="95"/>
-      <c r="I143" s="95"/>
-      <c r="J143" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="K143" s="95"/>
-      <c r="L143" s="95"/>
-      <c r="M143" s="95"/>
-      <c r="N143" s="95"/>
-      <c r="O143" s="95"/>
-      <c r="P143" s="95"/>
-      <c r="Q143" s="95"/>
-      <c r="S143" s="95" t="s">
-        <v>133</v>
+      <c r="A143" s="95">
+        <v>1</v>
+      </c>
+      <c r="B143" s="95">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" s="95">
+        <v>1</v>
+      </c>
+      <c r="G143" s="95">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>12</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="S143" s="95">
+        <v>1</v>
+      </c>
+      <c r="T143" s="95">
+        <v>1</v>
+      </c>
+      <c r="U143" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="B144" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="C144" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="D144" s="95"/>
-      <c r="E144" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="F144" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="G144" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="H144" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="I144" s="95"/>
-      <c r="J144" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="K144" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="L144" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="M144" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="N144" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="O144" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="P144" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q144" s="95"/>
-      <c r="S144" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="T144" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="U144" s="95" t="s">
-        <v>124</v>
+      <c r="A144" s="95">
+        <v>2</v>
+      </c>
+      <c r="B144" s="95">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" s="95">
+        <v>1</v>
+      </c>
+      <c r="G144" s="95">
+        <v>2</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>1000000000</v>
+      </c>
+      <c r="P144">
+        <v>0.2</v>
+      </c>
+      <c r="S144" s="95">
+        <v>2</v>
+      </c>
+      <c r="T144" s="95">
+        <v>2</v>
+      </c>
+      <c r="U144" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B145" s="95">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -14961,16 +15024,16 @@
         <v>1</v>
       </c>
       <c r="G145" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K145">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L145">
         <v>0</v>
@@ -14981,17 +15044,17 @@
       <c r="N145">
         <v>0</v>
       </c>
-      <c r="O145">
-        <v>0</v>
+      <c r="O145" s="95">
+        <v>1000000000</v>
       </c>
       <c r="P145">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S145" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T145" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U145" s="95">
         <v>1</v>
@@ -14999,13 +15062,13 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B146" s="95">
         <v>1</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -15014,13 +15077,13 @@
         <v>1</v>
       </c>
       <c r="G146" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="J146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K146">
         <v>2</v>
@@ -15034,17 +15097,17 @@
       <c r="N146">
         <v>0</v>
       </c>
-      <c r="O146">
+      <c r="O146" s="95">
         <v>1000000000</v>
       </c>
       <c r="P146">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S146" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T146" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U146" s="95">
         <v>1</v>
@@ -15052,13 +15115,13 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B147" s="95">
         <v>1</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -15067,13 +15130,13 @@
         <v>1</v>
       </c>
       <c r="G147" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K147">
         <v>2</v>
@@ -15091,13 +15154,13 @@
         <v>1000000000</v>
       </c>
       <c r="P147">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="S147" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T147" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U147" s="95">
         <v>1</v>
@@ -15105,13 +15168,13 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B148" s="95">
         <v>1</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -15120,13 +15183,13 @@
         <v>1</v>
       </c>
       <c r="G148" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -15144,13 +15207,13 @@
         <v>1000000000</v>
       </c>
       <c r="P148">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="S148" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T148" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U148" s="95">
         <v>1</v>
@@ -15158,13 +15221,13 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B149" s="95">
         <v>1</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -15173,37 +15236,37 @@
         <v>1</v>
       </c>
       <c r="G149" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H149">
         <v>2</v>
       </c>
-      <c r="J149">
-        <v>5</v>
-      </c>
-      <c r="K149">
-        <v>2</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <v>1</v>
-      </c>
-      <c r="N149">
+      <c r="J149" s="95">
+        <v>7</v>
+      </c>
+      <c r="K149" s="95">
+        <v>2</v>
+      </c>
+      <c r="L149" s="95">
+        <v>0</v>
+      </c>
+      <c r="M149" s="95">
+        <v>1</v>
+      </c>
+      <c r="N149" s="95">
         <v>0</v>
       </c>
       <c r="O149" s="95">
         <v>1000000000</v>
       </c>
       <c r="P149">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="S149" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T149" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U149" s="95">
         <v>1</v>
@@ -15211,13 +15274,13 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B150" s="95">
         <v>1</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -15226,37 +15289,37 @@
         <v>1</v>
       </c>
       <c r="G150" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H150">
-        <v>3</v>
-      </c>
-      <c r="J150">
-        <v>6</v>
-      </c>
-      <c r="K150">
-        <v>2</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>1</v>
-      </c>
-      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="J150" s="95">
+        <v>8</v>
+      </c>
+      <c r="K150" s="95">
+        <v>2</v>
+      </c>
+      <c r="L150" s="95">
+        <v>0</v>
+      </c>
+      <c r="M150" s="95">
+        <v>1</v>
+      </c>
+      <c r="N150" s="95">
         <v>0</v>
       </c>
       <c r="O150" s="95">
         <v>1000000000</v>
       </c>
       <c r="P150">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="S150" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T150" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U150" s="95">
         <v>1</v>
@@ -15264,13 +15327,13 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B151" s="95">
         <v>1</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -15279,37 +15342,37 @@
         <v>1</v>
       </c>
       <c r="G151" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H151">
-        <v>2</v>
-      </c>
-      <c r="J151" s="95">
-        <v>7</v>
-      </c>
-      <c r="K151" s="95">
-        <v>2</v>
-      </c>
-      <c r="L151" s="95">
-        <v>0</v>
-      </c>
-      <c r="M151" s="95">
-        <v>1</v>
-      </c>
-      <c r="N151" s="95">
-        <v>0</v>
-      </c>
-      <c r="O151" s="95">
-        <v>1000000000</v>
+        <v>5</v>
+      </c>
+      <c r="J151">
+        <v>9</v>
+      </c>
+      <c r="K151">
+        <v>14</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>60000000</v>
       </c>
       <c r="P151">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="S151" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T151" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U151" s="95">
         <v>1</v>
@@ -15317,13 +15380,13 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B152" s="95">
         <v>1</v>
       </c>
       <c r="C152">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -15332,37 +15395,16 @@
         <v>1</v>
       </c>
       <c r="G152" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H152">
-        <v>4</v>
-      </c>
-      <c r="J152" s="95">
-        <v>8</v>
-      </c>
-      <c r="K152" s="95">
-        <v>2</v>
-      </c>
-      <c r="L152" s="95">
-        <v>0</v>
-      </c>
-      <c r="M152" s="95">
-        <v>1</v>
-      </c>
-      <c r="N152" s="95">
-        <v>0</v>
-      </c>
-      <c r="O152" s="95">
-        <v>1000000000</v>
-      </c>
-      <c r="P152">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="S152" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T152" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U152" s="95">
         <v>1</v>
@@ -15370,92 +15412,53 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="95">
-        <v>9</v>
-      </c>
-      <c r="B153" s="95">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153" s="95">
-        <v>1</v>
-      </c>
-      <c r="G153" s="95">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>5</v>
       </c>
       <c r="H153">
-        <v>5</v>
-      </c>
-      <c r="J153">
-        <v>9</v>
-      </c>
-      <c r="K153">
-        <v>14</v>
-      </c>
-      <c r="L153">
-        <v>2</v>
-      </c>
-      <c r="M153">
-        <v>1</v>
-      </c>
-      <c r="N153">
-        <v>0</v>
-      </c>
-      <c r="O153">
-        <v>60000000</v>
-      </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-      <c r="S153" s="95">
-        <v>9</v>
-      </c>
-      <c r="T153" s="95">
-        <v>9</v>
-      </c>
-      <c r="U153" s="95">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="95">
-        <v>10</v>
-      </c>
-      <c r="B154" s="95">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154" s="95">
-        <v>1</v>
-      </c>
-      <c r="G154" s="95">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>7</v>
       </c>
       <c r="H154">
-        <v>6</v>
-      </c>
-      <c r="S154" s="95">
-        <v>10</v>
-      </c>
-      <c r="T154" s="95">
-        <v>10</v>
-      </c>
-      <c r="U154" s="95">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -15470,15 +15473,15 @@
         <v>1</v>
       </c>
       <c r="G155">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H155">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -15493,15 +15496,15 @@
         <v>1</v>
       </c>
       <c r="G156">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H156">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -15510,21 +15513,21 @@
         <v>1</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G157">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B158">
         <v>2</v>
@@ -15536,64 +15539,40 @@
         <v>2</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
         <v>9</v>
-      </c>
-      <c r="H158">
-        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="C159">
         <v>1</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159">
-        <v>2</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159">
-        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
       <c r="C160">
         <v>1</v>
-      </c>
-      <c r="E160">
-        <v>2</v>
-      </c>
-      <c r="F160">
-        <v>2</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -15604,7 +15583,7 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -15613,129 +15592,213 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A163" s="95">
-        <v>9</v>
-      </c>
-      <c r="B163">
-        <v>2</v>
-      </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A164" s="95">
-        <v>10</v>
-      </c>
-      <c r="B164">
-        <v>2</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+    <row r="164" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A166" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B166" s="95"/>
+      <c r="C166" s="95"/>
+      <c r="D166" s="95"/>
+      <c r="E166" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="F166" s="95"/>
+      <c r="G166" s="95"/>
+      <c r="H166" s="95"/>
+      <c r="I166" s="95"/>
+      <c r="J166" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="K166" s="95"/>
+      <c r="L166" s="95"/>
+      <c r="M166" s="95"/>
+      <c r="N166" s="95"/>
+      <c r="O166" s="95"/>
+      <c r="P166" s="95"/>
+      <c r="Q166" s="95"/>
+      <c r="S166" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="T166" s="95"/>
+      <c r="U166" s="95"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A167" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B167" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D167" s="95"/>
+      <c r="E167" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F167" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="G167" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H167" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="I167" s="95"/>
+      <c r="J167" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="K167" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="L167" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="M167" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="N167" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="O167" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="P167" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q167" s="95"/>
+      <c r="S167" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="T167" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="U167" s="95" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A168" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="B168" s="95"/>
-      <c r="C168" s="95"/>
-      <c r="D168" s="95"/>
-      <c r="E168" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="F168" s="95"/>
-      <c r="G168" s="95"/>
-      <c r="H168" s="95"/>
-      <c r="I168" s="95"/>
-      <c r="J168" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="K168" s="95"/>
-      <c r="L168" s="95"/>
-      <c r="M168" s="95"/>
-      <c r="N168" s="95"/>
-      <c r="O168" s="95"/>
-      <c r="P168" s="95"/>
-      <c r="Q168" s="95"/>
-      <c r="S168" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="T168" s="95"/>
-      <c r="U168" s="95"/>
+      <c r="A168" s="95">
+        <v>1</v>
+      </c>
+      <c r="B168" s="95">
+        <v>1</v>
+      </c>
+      <c r="C168" s="95">
+        <v>1</v>
+      </c>
+      <c r="E168" s="95">
+        <v>1</v>
+      </c>
+      <c r="F168" s="95">
+        <v>1</v>
+      </c>
+      <c r="G168" s="95">
+        <v>1</v>
+      </c>
+      <c r="H168" s="95">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>1000000</v>
+      </c>
+      <c r="O168">
+        <v>1000000</v>
+      </c>
+      <c r="P168">
+        <v>0.5</v>
+      </c>
+      <c r="S168" s="95">
+        <v>1</v>
+      </c>
+      <c r="T168" s="95">
+        <v>1</v>
+      </c>
+      <c r="U168" s="95">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="B169" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="C169" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="D169" s="95"/>
-      <c r="E169" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="F169" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="G169" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="H169" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="I169" s="95"/>
-      <c r="J169" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="K169" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="L169" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="M169" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="N169" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="O169" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="P169" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q169" s="95"/>
-      <c r="S169" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="T169" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="U169" s="95" t="s">
-        <v>124</v>
+      <c r="A169" s="95">
+        <v>2</v>
+      </c>
+      <c r="B169" s="95">
+        <v>1</v>
+      </c>
+      <c r="C169" s="95">
+        <v>2</v>
+      </c>
+      <c r="E169" s="95">
+        <v>1</v>
+      </c>
+      <c r="F169" s="95">
+        <v>1</v>
+      </c>
+      <c r="G169" s="95">
+        <v>2</v>
+      </c>
+      <c r="H169" s="95">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>2000000</v>
+      </c>
+      <c r="O169">
+        <v>3000000</v>
+      </c>
+      <c r="P169">
+        <v>0.9</v>
+      </c>
+      <c r="S169" s="95">
+        <v>2</v>
+      </c>
+      <c r="T169" s="95">
+        <v>2</v>
+      </c>
+      <c r="U169" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B170" s="95">
         <v>1</v>
       </c>
       <c r="C170" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E170" s="95">
         <v>1</v>
@@ -15744,13 +15807,13 @@
         <v>1</v>
       </c>
       <c r="G170" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H170" s="95">
         <v>1</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15762,19 +15825,19 @@
         <v>1</v>
       </c>
       <c r="N170">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="O170">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="P170">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S170" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T170" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U170" s="95">
         <v>1</v>
@@ -15782,13 +15845,13 @@
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B171" s="95">
         <v>1</v>
       </c>
       <c r="C171" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E171" s="95">
         <v>1</v>
@@ -15797,13 +15860,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H171" s="95">
         <v>1</v>
       </c>
       <c r="J171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K171">
         <v>2</v>
@@ -15815,19 +15878,19 @@
         <v>1</v>
       </c>
       <c r="N171">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="O171">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="P171">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S171" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T171" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U171" s="95">
         <v>1</v>
@@ -15835,13 +15898,13 @@
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B172" s="95">
         <v>1</v>
       </c>
       <c r="C172" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E172" s="95">
         <v>1</v>
@@ -15850,13 +15913,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H172" s="95">
         <v>1</v>
       </c>
       <c r="J172">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K172">
         <v>2</v>
@@ -15868,19 +15931,19 @@
         <v>1</v>
       </c>
       <c r="N172">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="O172">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="P172">
         <v>1</v>
       </c>
       <c r="S172" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T172" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U172" s="95">
         <v>1</v>
@@ -15888,13 +15951,13 @@
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B173" s="95">
         <v>1</v>
       </c>
       <c r="C173" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E173" s="95">
         <v>1</v>
@@ -15903,37 +15966,37 @@
         <v>1</v>
       </c>
       <c r="G173" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H173" s="95">
         <v>1</v>
       </c>
       <c r="J173">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L173">
-        <v>0</v>
-      </c>
-      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="M173" s="95">
         <v>1</v>
       </c>
       <c r="N173">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="O173">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="P173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S173" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T173" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U173" s="95">
         <v>1</v>
@@ -15941,13 +16004,13 @@
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B174" s="95">
         <v>1</v>
       </c>
       <c r="C174" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E174" s="95">
         <v>1</v>
@@ -15956,37 +16019,37 @@
         <v>1</v>
       </c>
       <c r="G174" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H174" s="95">
         <v>1</v>
       </c>
       <c r="J174">
-        <v>5</v>
-      </c>
-      <c r="K174">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="K174" s="95">
+        <v>14</v>
       </c>
       <c r="L174">
-        <v>0</v>
-      </c>
-      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="M174" s="95">
         <v>1</v>
       </c>
       <c r="N174">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="O174">
-        <v>10000000</v>
+        <v>9000000</v>
       </c>
       <c r="P174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S174" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T174" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U174" s="95">
         <v>1</v>
@@ -15994,13 +16057,13 @@
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B175" s="95">
         <v>1</v>
       </c>
       <c r="C175" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E175" s="95">
         <v>1</v>
@@ -16009,15 +16072,15 @@
         <v>1</v>
       </c>
       <c r="G175" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H175" s="95">
         <v>1</v>
       </c>
       <c r="J175">
-        <v>6</v>
-      </c>
-      <c r="K175">
+        <v>8</v>
+      </c>
+      <c r="K175" s="95">
         <v>14</v>
       </c>
       <c r="L175">
@@ -16030,16 +16093,16 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="P175">
         <v>0</v>
       </c>
       <c r="S175" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T175" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U175" s="95">
         <v>1</v>
@@ -16047,13 +16110,13 @@
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B176" s="95">
         <v>1</v>
       </c>
       <c r="C176" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E176" s="95">
         <v>1</v>
@@ -16062,13 +16125,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H176" s="95">
         <v>1</v>
       </c>
       <c r="J176">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K176" s="95">
         <v>14</v>
@@ -16083,16 +16146,16 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>9000000</v>
+        <v>20000000</v>
       </c>
       <c r="P176">
         <v>0</v>
       </c>
       <c r="S176" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T176" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U176" s="95">
         <v>1</v>
@@ -16100,13 +16163,13 @@
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B177" s="95">
         <v>1</v>
       </c>
       <c r="C177" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E177" s="95">
         <v>1</v>
@@ -16115,13 +16178,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H177" s="95">
         <v>1</v>
       </c>
       <c r="J177">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K177" s="95">
         <v>14</v>
@@ -16136,16 +16199,16 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="P177">
         <v>0</v>
       </c>
       <c r="S177" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T177" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U177" s="95">
         <v>1</v>
@@ -16153,113 +16216,53 @@
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="95">
-        <v>9</v>
-      </c>
-      <c r="B178" s="95">
-        <v>1</v>
-      </c>
-      <c r="C178" s="95">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
       </c>
       <c r="E178" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F178" s="95">
         <v>1</v>
       </c>
       <c r="G178" s="95">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H178" s="95">
-        <v>1</v>
-      </c>
-      <c r="J178">
-        <v>9</v>
-      </c>
-      <c r="K178" s="95">
-        <v>14</v>
-      </c>
-      <c r="L178">
-        <v>2</v>
-      </c>
-      <c r="M178" s="95">
-        <v>1</v>
-      </c>
-      <c r="N178">
-        <v>0</v>
-      </c>
-      <c r="O178">
-        <v>20000000</v>
-      </c>
-      <c r="P178">
-        <v>0</v>
-      </c>
-      <c r="S178" s="95">
-        <v>9</v>
-      </c>
-      <c r="T178" s="95">
-        <v>9</v>
-      </c>
-      <c r="U178" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="95">
-        <v>10</v>
-      </c>
-      <c r="B179" s="95">
-        <v>1</v>
-      </c>
-      <c r="C179" s="95">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
       </c>
       <c r="E179" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" s="95">
         <v>1</v>
       </c>
       <c r="G179" s="95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H179" s="95">
-        <v>1</v>
-      </c>
-      <c r="J179">
-        <v>10</v>
-      </c>
-      <c r="K179" s="95">
-        <v>14</v>
-      </c>
-      <c r="L179">
-        <v>2</v>
-      </c>
-      <c r="M179" s="95">
-        <v>1</v>
-      </c>
-      <c r="N179">
-        <v>0</v>
-      </c>
-      <c r="O179">
-        <v>10000000</v>
-      </c>
-      <c r="P179">
-        <v>0</v>
-      </c>
-      <c r="S179" s="95">
-        <v>10</v>
-      </c>
-      <c r="T179" s="95">
-        <v>10</v>
-      </c>
-      <c r="U179" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -16274,7 +16277,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H180" s="95">
         <v>2</v>
@@ -16282,7 +16285,7 @@
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B181">
         <v>2</v>
@@ -16297,7 +16300,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H181" s="95">
         <v>2</v>
@@ -16305,7 +16308,7 @@
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -16320,7 +16323,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H182" s="95">
         <v>2</v>
@@ -16328,7 +16331,7 @@
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -16343,7 +16346,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H183" s="95">
         <v>2</v>
@@ -16351,7 +16354,7 @@
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -16366,7 +16369,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H184" s="95">
         <v>2</v>
@@ -16374,7 +16377,7 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -16389,7 +16392,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H185" s="95">
         <v>2</v>
@@ -16397,7 +16400,7 @@
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -16412,7 +16415,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H186" s="95">
         <v>2</v>
@@ -16420,7 +16423,7 @@
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -16435,56 +16438,38 @@
         <v>1</v>
       </c>
       <c r="G187" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H187" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A188" s="95">
-        <v>9</v>
-      </c>
-      <c r="B188">
-        <v>2</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
       <c r="E188" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F188" s="95">
         <v>1</v>
       </c>
       <c r="G188" s="95">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H188" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A189" s="95">
-        <v>10</v>
-      </c>
-      <c r="B189">
-        <v>2</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
       <c r="E189" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F189" s="95">
         <v>1</v>
       </c>
       <c r="G189" s="95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H189" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.3">
@@ -16495,7 +16480,7 @@
         <v>1</v>
       </c>
       <c r="G190" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H190" s="95">
         <v>3</v>
@@ -16509,7 +16494,7 @@
         <v>1</v>
       </c>
       <c r="G191" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H191" s="95">
         <v>3</v>
@@ -16523,7 +16508,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H192" s="95">
         <v>3</v>
@@ -16537,7 +16522,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H193" s="95">
         <v>3</v>
@@ -16551,7 +16536,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H194" s="95">
         <v>3</v>
@@ -16565,7 +16550,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H195" s="95">
         <v>3</v>
@@ -16579,7 +16564,7 @@
         <v>1</v>
       </c>
       <c r="G196" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H196" s="95">
         <v>3</v>
@@ -16593,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H197" s="95">
         <v>3</v>
@@ -16601,30 +16586,30 @@
     </row>
     <row r="198" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E198" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F198" s="95">
         <v>1</v>
       </c>
       <c r="G198" s="95">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H198" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E199" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F199" s="95">
         <v>1</v>
       </c>
       <c r="G199" s="95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H199" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="5:8" x14ac:dyDescent="0.3">
@@ -16635,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="G200" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H200" s="95">
         <v>4</v>
@@ -16649,7 +16634,7 @@
         <v>1</v>
       </c>
       <c r="G201" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H201" s="95">
         <v>4</v>
@@ -16663,7 +16648,7 @@
         <v>1</v>
       </c>
       <c r="G202" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H202" s="95">
         <v>4</v>
@@ -16677,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="G203" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H203" s="95">
         <v>4</v>
@@ -16691,7 +16676,7 @@
         <v>1</v>
       </c>
       <c r="G204" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H204" s="95">
         <v>4</v>
@@ -16705,7 +16690,7 @@
         <v>1</v>
       </c>
       <c r="G205" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H205" s="95">
         <v>4</v>
@@ -16719,7 +16704,7 @@
         <v>1</v>
       </c>
       <c r="G206" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H206" s="95">
         <v>4</v>
@@ -16733,7 +16718,7 @@
         <v>1</v>
       </c>
       <c r="G207" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H207" s="95">
         <v>4</v>
@@ -16741,30 +16726,30 @@
     </row>
     <row r="208" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E208" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F208" s="95">
         <v>1</v>
       </c>
       <c r="G208" s="95">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H208" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E209" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F209" s="95">
         <v>1</v>
       </c>
       <c r="G209" s="95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H209" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="5:8" x14ac:dyDescent="0.3">
@@ -16775,7 +16760,7 @@
         <v>1</v>
       </c>
       <c r="G210" s="95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H210" s="95">
         <v>5</v>
@@ -16789,7 +16774,7 @@
         <v>1</v>
       </c>
       <c r="G211" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H211" s="95">
         <v>5</v>
@@ -16803,7 +16788,7 @@
         <v>1</v>
       </c>
       <c r="G212" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H212" s="95">
         <v>5</v>
@@ -16817,7 +16802,7 @@
         <v>1</v>
       </c>
       <c r="G213" s="95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H213" s="95">
         <v>5</v>
@@ -16831,7 +16816,7 @@
         <v>1</v>
       </c>
       <c r="G214" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H214" s="95">
         <v>5</v>
@@ -16845,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="G215" s="95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H215" s="95">
         <v>5</v>
@@ -16859,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="G216" s="95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H216" s="95">
         <v>5</v>
@@ -16873,43 +16858,43 @@
         <v>1</v>
       </c>
       <c r="G217" s="95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H217" s="95">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E218" s="95">
-        <v>5</v>
-      </c>
-      <c r="F218" s="95">
-        <v>1</v>
-      </c>
-      <c r="G218" s="95">
-        <v>9</v>
-      </c>
-      <c r="H218" s="95">
-        <v>5</v>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E219" s="95">
-        <v>5</v>
-      </c>
-      <c r="F219" s="95">
-        <v>1</v>
-      </c>
-      <c r="G219" s="95">
-        <v>10</v>
-      </c>
-      <c r="H219" s="95">
-        <v>5</v>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -16918,12 +16903,12 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F221">
         <v>2</v>
@@ -16932,12 +16917,12 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E222">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F222">
         <v>2</v>
@@ -16946,34 +16931,6 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E223">
-        <v>4</v>
-      </c>
-      <c r="F223">
-        <v>2</v>
-      </c>
-      <c r="G223">
-        <v>1</v>
-      </c>
-      <c r="H223">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E224">
-        <v>5</v>
-      </c>
-      <c r="F224">
-        <v>2</v>
-      </c>
-      <c r="G224">
-        <v>1</v>
-      </c>
-      <c r="H224">
         <v>10</v>
       </c>
     </row>

--- a/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
+++ b/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
@@ -1065,6 +1065,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,21 +1086,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1131,7 +1117,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1665,7 +1665,7 @@
       <c r="A3" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="125"/>
+      <c r="L3" s="103"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -1674,29 +1674,29 @@
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105" t="s">
+      <c r="E5" s="105"/>
+      <c r="F5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="108" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="110"/>
     </row>
     <row r="6" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
@@ -3085,11 +3085,11 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
@@ -3154,9 +3154,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="119"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="33" t="s">
         <v>39</v>
       </c>
@@ -3221,9 +3221,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="119"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
@@ -3288,9 +3288,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="122"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3375,13 +3375,13 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="115"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
@@ -3424,9 +3424,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
@@ -3479,9 +3479,9 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
@@ -3534,11 +3534,11 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="33" t="s">
         <v>38</v>
       </c>
@@ -3603,9 +3603,9 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="121"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
@@ -3670,9 +3670,9 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="121"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
@@ -3737,9 +3737,9 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="124"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
@@ -3844,13 +3844,13 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="121" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3905,9 +3905,9 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="112"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
@@ -3960,9 +3960,9 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="112"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
@@ -4015,9 +4015,9 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="112"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="36" t="s">
         <v>53</v>
       </c>
@@ -4070,9 +4070,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="112" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="121" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -4127,9 +4127,9 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="115"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="112"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
@@ -4191,11 +4191,11 @@
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="115"/>
-      <c r="B28" s="115" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="121" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -4229,9 +4229,9 @@
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="115"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="112"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="36" t="s">
         <v>59</v>
       </c>
@@ -4293,9 +4293,9 @@
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="112" t="s">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="121" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -4329,9 +4329,9 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="115"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="112"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
@@ -4438,13 +4438,13 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="112" t="s">
+      <c r="C34" s="121" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4487,9 +4487,9 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="112"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
@@ -4530,9 +4530,9 @@
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="112"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4573,9 +4573,9 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="112"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
@@ -4616,9 +4616,9 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="114"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="112"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="48" t="s">
         <v>61</v>
       </c>
@@ -4671,9 +4671,9 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="114"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="112"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="121"/>
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
@@ -4714,9 +4714,9 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="114"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="112"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="121"/>
       <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
@@ -4769,9 +4769,9 @@
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="114"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="112"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -4812,9 +4812,9 @@
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="112"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="48" t="s">
         <v>63</v>
       </c>
@@ -4867,9 +4867,9 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="112"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
@@ -4910,9 +4910,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="112"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4953,9 +4953,9 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="114"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="112"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="49" t="s">
         <v>64</v>
       </c>
@@ -5020,9 +5020,9 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="114"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="112"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="36" t="s">
         <v>65</v>
       </c>
@@ -5087,11 +5087,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="114"/>
-      <c r="B47" s="115" t="s">
+      <c r="A47" s="125"/>
+      <c r="B47" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="112" t="s">
+      <c r="C47" s="121" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="10"/>
@@ -5114,9 +5114,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="114"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="112"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="121"/>
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
@@ -5142,9 +5142,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="114"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="112"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="121"/>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
@@ -5170,9 +5170,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="114"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="112"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="121"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
@@ -5198,9 +5198,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="114"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="112"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="121"/>
       <c r="D51" s="9" t="s">
         <v>22</v>
       </c>
@@ -5226,9 +5226,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="114"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="112"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="121"/>
       <c r="D52" s="48" t="s">
         <v>61</v>
       </c>
@@ -5260,9 +5260,9 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="114"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="112"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
@@ -5288,9 +5288,9 @@
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="114"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="112"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="48" t="s">
         <v>62</v>
       </c>
@@ -5322,9 +5322,9 @@
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="114"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="112"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
@@ -5350,9 +5350,9 @@
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="114"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="112"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="48" t="s">
         <v>63</v>
       </c>
@@ -5384,9 +5384,9 @@
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="114"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="112"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
@@ -5412,9 +5412,9 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="112"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="121"/>
       <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
@@ -5440,9 +5440,9 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="114"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="112"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="121"/>
       <c r="D59" s="49" t="s">
         <v>64</v>
       </c>
@@ -5507,9 +5507,9 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="112"/>
+      <c r="A60" s="125"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="121"/>
       <c r="D60" s="36" t="s">
         <v>66</v>
       </c>
@@ -5574,13 +5574,13 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="113" t="s">
+      <c r="A61" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="115" t="s">
+      <c r="B61" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="110" t="s">
+      <c r="C61" s="122" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="10"/>
@@ -5603,9 +5603,9 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="114"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="111"/>
+      <c r="A62" s="125"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="9" t="s">
         <v>25</v>
       </c>
@@ -5646,9 +5646,9 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="114"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="111"/>
+      <c r="A63" s="125"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="9" t="s">
         <v>14</v>
       </c>
@@ -5689,9 +5689,9 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="114"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="111"/>
+      <c r="A64" s="125"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5732,9 +5732,9 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="114"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="111"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
@@ -5775,9 +5775,9 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="114"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="111"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="48" t="s">
         <v>61</v>
       </c>
@@ -5830,9 +5830,9 @@
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="114"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="111"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="9" t="s">
         <v>21</v>
       </c>
@@ -5873,9 +5873,9 @@
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="114"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="111"/>
+      <c r="A68" s="125"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="48" t="s">
         <v>62</v>
       </c>
@@ -5928,9 +5928,9 @@
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="114"/>
-      <c r="B69" s="115"/>
-      <c r="C69" s="111"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
@@ -5971,9 +5971,9 @@
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="114"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="111"/>
+      <c r="A70" s="125"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="48" t="s">
         <v>63</v>
       </c>
@@ -6038,9 +6038,9 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="114"/>
-      <c r="B71" s="115"/>
-      <c r="C71" s="111"/>
+      <c r="A71" s="125"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
@@ -6081,9 +6081,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="114"/>
-      <c r="B72" s="115"/>
-      <c r="C72" s="111"/>
+      <c r="A72" s="125"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="123"/>
       <c r="D72" s="9" t="s">
         <v>24</v>
       </c>
@@ -6109,9 +6109,9 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="114"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="111"/>
+      <c r="A73" s="125"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="49" t="s">
         <v>64</v>
       </c>
@@ -6176,9 +6176,9 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="114"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="112" t="s">
+      <c r="A74" s="125"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="121" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="10"/>
@@ -6201,9 +6201,9 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="114"/>
-      <c r="B75" s="115"/>
-      <c r="C75" s="112"/>
+      <c r="A75" s="125"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="121"/>
       <c r="D75" s="9" t="s">
         <v>25</v>
       </c>
@@ -6238,9 +6238,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="114"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="112"/>
+      <c r="A76" s="125"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="121"/>
       <c r="D76" s="9" t="s">
         <v>14</v>
       </c>
@@ -6275,9 +6275,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="114"/>
-      <c r="B77" s="115"/>
-      <c r="C77" s="112"/>
+      <c r="A77" s="125"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="121"/>
       <c r="D77" s="9" t="s">
         <v>36</v>
       </c>
@@ -6312,9 +6312,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="114"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="112"/>
+      <c r="A78" s="125"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="121"/>
       <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
@@ -6349,9 +6349,9 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="114"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="112"/>
+      <c r="A79" s="125"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="121"/>
       <c r="D79" s="48" t="s">
         <v>61</v>
       </c>
@@ -6404,9 +6404,9 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="114"/>
-      <c r="B80" s="115"/>
-      <c r="C80" s="112"/>
+      <c r="A80" s="125"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="121"/>
       <c r="D80" s="9" t="s">
         <v>21</v>
       </c>
@@ -6441,9 +6441,9 @@
       <c r="U80" s="10"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="114"/>
-      <c r="B81" s="115"/>
-      <c r="C81" s="112"/>
+      <c r="A81" s="125"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="121"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -6496,9 +6496,9 @@
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="114"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="112"/>
+      <c r="A82" s="125"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="121"/>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
@@ -6533,9 +6533,9 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="114"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="112"/>
+      <c r="A83" s="125"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="121"/>
       <c r="D83" s="48" t="s">
         <v>63</v>
       </c>
@@ -6600,9 +6600,9 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="114"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="112"/>
+      <c r="A84" s="125"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="121"/>
       <c r="D84" s="9" t="s">
         <v>20</v>
       </c>
@@ -6637,9 +6637,9 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="114"/>
-      <c r="B85" s="115"/>
-      <c r="C85" s="112"/>
+      <c r="A85" s="125"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="121"/>
       <c r="D85" s="9" t="s">
         <v>24</v>
       </c>
@@ -6665,9 +6665,9 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="114"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="112"/>
+      <c r="A86" s="125"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="121"/>
       <c r="D86" s="49" t="s">
         <v>64</v>
       </c>
@@ -6732,9 +6732,9 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="114"/>
-      <c r="B87" s="115"/>
-      <c r="C87" s="112"/>
+      <c r="A87" s="125"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="121"/>
       <c r="D87" s="36" t="s">
         <v>68</v>
       </c>
@@ -6799,11 +6799,11 @@
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="114"/>
-      <c r="B88" s="115" t="s">
+      <c r="A88" s="125"/>
+      <c r="B88" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="110" t="s">
+      <c r="C88" s="122" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="10"/>
@@ -6826,9 +6826,9 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="114"/>
-      <c r="B89" s="115"/>
-      <c r="C89" s="111"/>
+      <c r="A89" s="125"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="123"/>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
@@ -6881,9 +6881,9 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="114"/>
-      <c r="B90" s="115"/>
-      <c r="C90" s="111"/>
+      <c r="A90" s="125"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="123"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -6936,9 +6936,9 @@
       <c r="U90" s="10"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="114"/>
-      <c r="B91" s="115"/>
-      <c r="C91" s="111"/>
+      <c r="A91" s="125"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="123"/>
       <c r="D91" s="9" t="s">
         <v>36</v>
       </c>
@@ -6987,9 +6987,9 @@
       <c r="S91" s="61"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="114"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="111"/>
+      <c r="A92" s="125"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="123"/>
       <c r="D92" s="9" t="s">
         <v>22</v>
       </c>
@@ -7038,9 +7038,9 @@
       <c r="S92" s="61"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="114"/>
-      <c r="B93" s="115"/>
-      <c r="C93" s="111"/>
+      <c r="A93" s="125"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="48" t="s">
         <v>61</v>
       </c>
@@ -7089,9 +7089,9 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="114"/>
-      <c r="B94" s="115"/>
-      <c r="C94" s="111"/>
+      <c r="A94" s="125"/>
+      <c r="B94" s="111"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7140,9 +7140,9 @@
       <c r="S94" s="61"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="114"/>
-      <c r="B95" s="115"/>
-      <c r="C95" s="111"/>
+      <c r="A95" s="125"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="48" t="s">
         <v>62</v>
       </c>
@@ -7191,9 +7191,9 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="114"/>
-      <c r="B96" s="115"/>
-      <c r="C96" s="111"/>
+      <c r="A96" s="125"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
@@ -7242,9 +7242,9 @@
       <c r="S96" s="61"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="114"/>
-      <c r="B97" s="115"/>
-      <c r="C97" s="111"/>
+      <c r="A97" s="125"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="123"/>
       <c r="D97" s="48" t="s">
         <v>63</v>
       </c>
@@ -7306,9 +7306,9 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="114"/>
-      <c r="B98" s="115"/>
-      <c r="C98" s="111"/>
+      <c r="A98" s="125"/>
+      <c r="B98" s="111"/>
+      <c r="C98" s="123"/>
       <c r="D98" s="9" t="s">
         <v>20</v>
       </c>
@@ -7357,9 +7357,9 @@
       <c r="S98" s="61"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="114"/>
-      <c r="B99" s="115"/>
-      <c r="C99" s="111"/>
+      <c r="A99" s="125"/>
+      <c r="B99" s="111"/>
+      <c r="C99" s="123"/>
       <c r="D99" s="9" t="s">
         <v>24</v>
       </c>
@@ -7382,9 +7382,9 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="114"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="111"/>
+      <c r="A100" s="125"/>
+      <c r="B100" s="111"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="49" t="s">
         <v>64</v>
       </c>
@@ -7449,9 +7449,9 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="114"/>
-      <c r="B101" s="115"/>
-      <c r="C101" s="110" t="s">
+      <c r="A101" s="125"/>
+      <c r="B101" s="111"/>
+      <c r="C101" s="122" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="10"/>
@@ -7463,9 +7463,9 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="114"/>
-      <c r="B102" s="115"/>
-      <c r="C102" s="111"/>
+      <c r="A102" s="125"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="123"/>
       <c r="D102" s="9" t="s">
         <v>25</v>
       </c>
@@ -7518,9 +7518,9 @@
       <c r="U102" s="10"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="114"/>
-      <c r="B103" s="115"/>
-      <c r="C103" s="111"/>
+      <c r="A103" s="125"/>
+      <c r="B103" s="111"/>
+      <c r="C103" s="123"/>
       <c r="D103" s="9" t="s">
         <v>14</v>
       </c>
@@ -7573,9 +7573,9 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="114"/>
-      <c r="B104" s="115"/>
-      <c r="C104" s="111"/>
+      <c r="A104" s="125"/>
+      <c r="B104" s="111"/>
+      <c r="C104" s="123"/>
       <c r="D104" s="9" t="s">
         <v>36</v>
       </c>
@@ -7624,9 +7624,9 @@
       <c r="S104" s="61"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="114"/>
-      <c r="B105" s="115"/>
-      <c r="C105" s="111"/>
+      <c r="A105" s="125"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="123"/>
       <c r="D105" s="9" t="s">
         <v>22</v>
       </c>
@@ -7675,9 +7675,9 @@
       <c r="S105" s="61"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="114"/>
-      <c r="B106" s="115"/>
-      <c r="C106" s="111"/>
+      <c r="A106" s="125"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="123"/>
       <c r="D106" s="48" t="s">
         <v>61</v>
       </c>
@@ -7726,9 +7726,9 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="114"/>
-      <c r="B107" s="115"/>
-      <c r="C107" s="111"/>
+      <c r="A107" s="125"/>
+      <c r="B107" s="111"/>
+      <c r="C107" s="123"/>
       <c r="D107" s="9" t="s">
         <v>21</v>
       </c>
@@ -7777,9 +7777,9 @@
       <c r="S107" s="61"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="114"/>
-      <c r="B108" s="115"/>
-      <c r="C108" s="111"/>
+      <c r="A108" s="125"/>
+      <c r="B108" s="111"/>
+      <c r="C108" s="123"/>
       <c r="D108" s="48" t="s">
         <v>62</v>
       </c>
@@ -7828,9 +7828,9 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="114"/>
-      <c r="B109" s="115"/>
-      <c r="C109" s="111"/>
+      <c r="A109" s="125"/>
+      <c r="B109" s="111"/>
+      <c r="C109" s="123"/>
       <c r="D109" s="9" t="s">
         <v>23</v>
       </c>
@@ -7879,9 +7879,9 @@
       <c r="S109" s="61"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="114"/>
-      <c r="B110" s="115"/>
-      <c r="C110" s="111"/>
+      <c r="A110" s="125"/>
+      <c r="B110" s="111"/>
+      <c r="C110" s="123"/>
       <c r="D110" s="48" t="s">
         <v>63</v>
       </c>
@@ -7943,9 +7943,9 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="114"/>
-      <c r="B111" s="115"/>
-      <c r="C111" s="111"/>
+      <c r="A111" s="125"/>
+      <c r="B111" s="111"/>
+      <c r="C111" s="123"/>
       <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
@@ -7994,9 +7994,9 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="114"/>
-      <c r="B112" s="115"/>
-      <c r="C112" s="111"/>
+      <c r="A112" s="125"/>
+      <c r="B112" s="111"/>
+      <c r="C112" s="123"/>
       <c r="D112" s="9" t="s">
         <v>24</v>
       </c>
@@ -8019,9 +8019,9 @@
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="114"/>
-      <c r="B113" s="115"/>
-      <c r="C113" s="111"/>
+      <c r="A113" s="125"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="123"/>
       <c r="D113" s="49" t="s">
         <v>64</v>
       </c>
@@ -8086,11 +8086,11 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="113" t="s">
+      <c r="A114" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="115"/>
-      <c r="C114" s="110" t="s">
+      <c r="B114" s="111"/>
+      <c r="C114" s="122" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="10"/>
@@ -8102,9 +8102,9 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="114"/>
-      <c r="B115" s="115"/>
-      <c r="C115" s="111"/>
+      <c r="A115" s="125"/>
+      <c r="B115" s="111"/>
+      <c r="C115" s="123"/>
       <c r="D115" s="9" t="s">
         <v>25</v>
       </c>
@@ -8157,9 +8157,9 @@
       <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="114"/>
-      <c r="B116" s="115"/>
-      <c r="C116" s="111"/>
+      <c r="A116" s="125"/>
+      <c r="B116" s="111"/>
+      <c r="C116" s="123"/>
       <c r="D116" s="9" t="s">
         <v>14</v>
       </c>
@@ -8212,9 +8212,9 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="114"/>
-      <c r="B117" s="115"/>
-      <c r="C117" s="111"/>
+      <c r="A117" s="125"/>
+      <c r="B117" s="111"/>
+      <c r="C117" s="123"/>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
@@ -8263,9 +8263,9 @@
       <c r="S117" s="61"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="114"/>
-      <c r="B118" s="115"/>
-      <c r="C118" s="111"/>
+      <c r="A118" s="125"/>
+      <c r="B118" s="111"/>
+      <c r="C118" s="123"/>
       <c r="D118" s="9" t="s">
         <v>22</v>
       </c>
@@ -8314,9 +8314,9 @@
       <c r="S118" s="61"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="114"/>
-      <c r="B119" s="115"/>
-      <c r="C119" s="111"/>
+      <c r="A119" s="125"/>
+      <c r="B119" s="111"/>
+      <c r="C119" s="123"/>
       <c r="D119" s="48" t="s">
         <v>61</v>
       </c>
@@ -8365,9 +8365,9 @@
       <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="114"/>
-      <c r="B120" s="115"/>
-      <c r="C120" s="111"/>
+      <c r="A120" s="125"/>
+      <c r="B120" s="111"/>
+      <c r="C120" s="123"/>
       <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
@@ -8416,9 +8416,9 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="114"/>
-      <c r="B121" s="115"/>
-      <c r="C121" s="111"/>
+      <c r="A121" s="125"/>
+      <c r="B121" s="111"/>
+      <c r="C121" s="123"/>
       <c r="D121" s="48" t="s">
         <v>62</v>
       </c>
@@ -8467,9 +8467,9 @@
       <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="114"/>
-      <c r="B122" s="115"/>
-      <c r="C122" s="111"/>
+      <c r="A122" s="125"/>
+      <c r="B122" s="111"/>
+      <c r="C122" s="123"/>
       <c r="D122" s="9" t="s">
         <v>23</v>
       </c>
@@ -8518,9 +8518,9 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="114"/>
-      <c r="B123" s="115"/>
-      <c r="C123" s="111"/>
+      <c r="A123" s="125"/>
+      <c r="B123" s="111"/>
+      <c r="C123" s="123"/>
       <c r="D123" s="48" t="s">
         <v>63</v>
       </c>
@@ -8582,9 +8582,9 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="114"/>
-      <c r="B124" s="115"/>
-      <c r="C124" s="111"/>
+      <c r="A124" s="125"/>
+      <c r="B124" s="111"/>
+      <c r="C124" s="123"/>
       <c r="D124" s="9" t="s">
         <v>20</v>
       </c>
@@ -8633,9 +8633,9 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="114"/>
-      <c r="B125" s="115"/>
-      <c r="C125" s="111"/>
+      <c r="A125" s="125"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="123"/>
       <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
@@ -8658,9 +8658,9 @@
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="114"/>
-      <c r="B126" s="115"/>
-      <c r="C126" s="111"/>
+      <c r="A126" s="125"/>
+      <c r="B126" s="111"/>
+      <c r="C126" s="123"/>
       <c r="D126" s="49" t="s">
         <v>64</v>
       </c>
@@ -8725,9 +8725,9 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="114"/>
-      <c r="B127" s="115"/>
-      <c r="C127" s="110" t="s">
+      <c r="A127" s="125"/>
+      <c r="B127" s="111"/>
+      <c r="C127" s="122" t="s">
         <v>79</v>
       </c>
       <c r="I127" s="10"/>
@@ -8739,9 +8739,9 @@
       <c r="U127" s="10"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="114"/>
-      <c r="B128" s="115"/>
-      <c r="C128" s="111"/>
+      <c r="A128" s="125"/>
+      <c r="B128" s="111"/>
+      <c r="C128" s="123"/>
       <c r="D128" s="9" t="s">
         <v>25</v>
       </c>
@@ -8794,9 +8794,9 @@
       <c r="U128" s="10"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="114"/>
-      <c r="B129" s="115"/>
-      <c r="C129" s="111"/>
+      <c r="A129" s="125"/>
+      <c r="B129" s="111"/>
+      <c r="C129" s="123"/>
       <c r="D129" s="9" t="s">
         <v>14</v>
       </c>
@@ -8849,9 +8849,9 @@
       <c r="U129" s="10"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="114"/>
-      <c r="B130" s="115"/>
-      <c r="C130" s="111"/>
+      <c r="A130" s="125"/>
+      <c r="B130" s="111"/>
+      <c r="C130" s="123"/>
       <c r="D130" s="9" t="s">
         <v>36</v>
       </c>
@@ -8900,9 +8900,9 @@
       <c r="S130" s="61"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="114"/>
-      <c r="B131" s="115"/>
-      <c r="C131" s="111"/>
+      <c r="A131" s="125"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="123"/>
       <c r="D131" s="9" t="s">
         <v>22</v>
       </c>
@@ -8951,9 +8951,9 @@
       <c r="S131" s="61"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="114"/>
-      <c r="B132" s="115"/>
-      <c r="C132" s="111"/>
+      <c r="A132" s="125"/>
+      <c r="B132" s="111"/>
+      <c r="C132" s="123"/>
       <c r="D132" s="48" t="s">
         <v>61</v>
       </c>
@@ -9002,9 +9002,9 @@
       <c r="S132" s="10"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="114"/>
-      <c r="B133" s="115"/>
-      <c r="C133" s="111"/>
+      <c r="A133" s="125"/>
+      <c r="B133" s="111"/>
+      <c r="C133" s="123"/>
       <c r="D133" s="9" t="s">
         <v>21</v>
       </c>
@@ -9053,9 +9053,9 @@
       <c r="S133" s="61"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="114"/>
-      <c r="B134" s="115"/>
-      <c r="C134" s="111"/>
+      <c r="A134" s="125"/>
+      <c r="B134" s="111"/>
+      <c r="C134" s="123"/>
       <c r="D134" s="48" t="s">
         <v>62</v>
       </c>
@@ -9104,9 +9104,9 @@
       <c r="S134" s="10"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="114"/>
-      <c r="B135" s="115"/>
-      <c r="C135" s="111"/>
+      <c r="A135" s="125"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="123"/>
       <c r="D135" s="9" t="s">
         <v>23</v>
       </c>
@@ -9155,9 +9155,9 @@
       <c r="S135" s="61"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="114"/>
-      <c r="B136" s="115"/>
-      <c r="C136" s="111"/>
+      <c r="A136" s="125"/>
+      <c r="B136" s="111"/>
+      <c r="C136" s="123"/>
       <c r="D136" s="48" t="s">
         <v>63</v>
       </c>
@@ -9219,9 +9219,9 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="114"/>
-      <c r="B137" s="115"/>
-      <c r="C137" s="111"/>
+      <c r="A137" s="125"/>
+      <c r="B137" s="111"/>
+      <c r="C137" s="123"/>
       <c r="D137" s="9" t="s">
         <v>20</v>
       </c>
@@ -9270,9 +9270,9 @@
       <c r="S137" s="61"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="114"/>
-      <c r="B138" s="115"/>
-      <c r="C138" s="111"/>
+      <c r="A138" s="125"/>
+      <c r="B138" s="111"/>
+      <c r="C138" s="123"/>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
@@ -9295,9 +9295,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="114"/>
-      <c r="B139" s="115"/>
-      <c r="C139" s="111"/>
+      <c r="A139" s="125"/>
+      <c r="B139" s="111"/>
+      <c r="C139" s="123"/>
       <c r="D139" s="49" t="s">
         <v>64</v>
       </c>
@@ -9362,9 +9362,9 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="114"/>
-      <c r="B140" s="115"/>
-      <c r="C140" s="112" t="s">
+      <c r="A140" s="125"/>
+      <c r="B140" s="111"/>
+      <c r="C140" s="121" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="10"/>
@@ -9376,9 +9376,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="114"/>
-      <c r="B141" s="115"/>
-      <c r="C141" s="112"/>
+      <c r="A141" s="125"/>
+      <c r="B141" s="111"/>
+      <c r="C141" s="121"/>
       <c r="D141" s="9" t="s">
         <v>25</v>
       </c>
@@ -9431,9 +9431,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="114"/>
-      <c r="B142" s="115"/>
-      <c r="C142" s="112"/>
+      <c r="A142" s="125"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="121"/>
       <c r="D142" s="9" t="s">
         <v>14</v>
       </c>
@@ -9486,9 +9486,9 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="114"/>
-      <c r="B143" s="115"/>
-      <c r="C143" s="112"/>
+      <c r="A143" s="125"/>
+      <c r="B143" s="111"/>
+      <c r="C143" s="121"/>
       <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
@@ -9537,9 +9537,9 @@
       <c r="S143" s="61"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="114"/>
-      <c r="B144" s="115"/>
-      <c r="C144" s="112"/>
+      <c r="A144" s="125"/>
+      <c r="B144" s="111"/>
+      <c r="C144" s="121"/>
       <c r="D144" s="9" t="s">
         <v>22</v>
       </c>
@@ -9588,9 +9588,9 @@
       <c r="S144" s="61"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="114"/>
-      <c r="B145" s="115"/>
-      <c r="C145" s="112"/>
+      <c r="A145" s="125"/>
+      <c r="B145" s="111"/>
+      <c r="C145" s="121"/>
       <c r="D145" s="48" t="s">
         <v>61</v>
       </c>
@@ -9639,9 +9639,9 @@
       <c r="S145" s="10"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="114"/>
-      <c r="B146" s="115"/>
-      <c r="C146" s="112"/>
+      <c r="A146" s="125"/>
+      <c r="B146" s="111"/>
+      <c r="C146" s="121"/>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
@@ -9690,9 +9690,9 @@
       <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="114"/>
-      <c r="B147" s="115"/>
-      <c r="C147" s="112"/>
+      <c r="A147" s="125"/>
+      <c r="B147" s="111"/>
+      <c r="C147" s="121"/>
       <c r="D147" s="48" t="s">
         <v>62</v>
       </c>
@@ -9741,9 +9741,9 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="114"/>
-      <c r="B148" s="115"/>
-      <c r="C148" s="112"/>
+      <c r="A148" s="125"/>
+      <c r="B148" s="111"/>
+      <c r="C148" s="121"/>
       <c r="D148" s="9" t="s">
         <v>23</v>
       </c>
@@ -9792,9 +9792,9 @@
       <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="114"/>
-      <c r="B149" s="115"/>
-      <c r="C149" s="112"/>
+      <c r="A149" s="125"/>
+      <c r="B149" s="111"/>
+      <c r="C149" s="121"/>
       <c r="D149" s="48" t="s">
         <v>63</v>
       </c>
@@ -9856,9 +9856,9 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="114"/>
-      <c r="B150" s="115"/>
-      <c r="C150" s="112"/>
+      <c r="A150" s="125"/>
+      <c r="B150" s="111"/>
+      <c r="C150" s="121"/>
       <c r="D150" s="9" t="s">
         <v>20</v>
       </c>
@@ -9907,9 +9907,9 @@
       <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="114"/>
-      <c r="B151" s="115"/>
-      <c r="C151" s="112"/>
+      <c r="A151" s="125"/>
+      <c r="B151" s="111"/>
+      <c r="C151" s="121"/>
       <c r="D151" s="9" t="s">
         <v>24</v>
       </c>
@@ -9932,9 +9932,9 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="114"/>
-      <c r="B152" s="115"/>
-      <c r="C152" s="112"/>
+      <c r="A152" s="125"/>
+      <c r="B152" s="111"/>
+      <c r="C152" s="121"/>
       <c r="D152" s="49" t="s">
         <v>64</v>
       </c>
@@ -9999,9 +9999,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="114"/>
-      <c r="B153" s="115"/>
-      <c r="C153" s="112"/>
+      <c r="A153" s="125"/>
+      <c r="B153" s="111"/>
+      <c r="C153" s="121"/>
       <c r="D153" s="52" t="s">
         <v>67</v>
       </c>
@@ -10103,17 +10103,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A8:C11"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C127:C139"/>
     <mergeCell ref="C140:C153"/>
     <mergeCell ref="A34:A60"/>
@@ -10130,6 +10119,17 @@
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="C47:C60"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="5" orientation="landscape" r:id="rId1"/>
@@ -10143,10 +10143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y222"/>
+  <dimension ref="A1:Y226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K128" sqref="K128"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11583,8 +11583,8 @@
       <c r="K37">
         <v>12</v>
       </c>
-      <c r="L37">
-        <v>2</v>
+      <c r="L37" s="95">
+        <v>0</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -11651,8 +11651,8 @@
       <c r="K38">
         <v>12</v>
       </c>
-      <c r="L38">
-        <v>2</v>
+      <c r="L38" s="95">
+        <v>0</v>
       </c>
       <c r="M38" s="95">
         <v>1</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M39" s="95">
         <v>1</v>
@@ -11788,7 +11788,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" s="95">
         <v>1</v>
@@ -11856,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41" s="95">
         <v>1</v>
@@ -11924,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" s="95">
         <v>1</v>
@@ -11991,8 +11991,8 @@
       <c r="K43">
         <v>16</v>
       </c>
-      <c r="L43">
-        <v>2</v>
+      <c r="L43" s="95">
+        <v>0</v>
       </c>
       <c r="M43" s="95">
         <v>1</v>
@@ -12059,8 +12059,8 @@
       <c r="K44">
         <v>14</v>
       </c>
-      <c r="L44">
-        <v>2</v>
+      <c r="L44" s="95">
+        <v>0</v>
       </c>
       <c r="M44" s="95">
         <v>1</v>
@@ -12128,7 +12128,7 @@
         <v>14</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45" s="95">
         <v>1</v>
@@ -12811,8 +12811,8 @@
       <c r="G59" s="95">
         <v>9</v>
       </c>
-      <c r="H59">
-        <v>8</v>
+      <c r="H59" s="95">
+        <v>1</v>
       </c>
       <c r="S59" s="95">
         <v>23</v>
@@ -12855,8 +12855,8 @@
       <c r="G60" s="95">
         <v>10</v>
       </c>
-      <c r="H60">
-        <v>9</v>
+      <c r="H60" s="95">
+        <v>1</v>
       </c>
       <c r="S60" s="95">
         <v>24</v>
@@ -12890,17 +12890,17 @@
       <c r="C61">
         <v>14</v>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>3</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
+      <c r="E61" s="95">
+        <v>1</v>
+      </c>
+      <c r="F61" s="95">
+        <v>2</v>
+      </c>
+      <c r="G61" s="95">
+        <v>11</v>
       </c>
       <c r="H61" s="95">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S61" s="95">
         <v>25</v>
@@ -12934,17 +12934,17 @@
       <c r="C62">
         <v>14</v>
       </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
+      <c r="E62" s="95">
+        <v>1</v>
+      </c>
+      <c r="F62" s="95">
+        <v>2</v>
+      </c>
+      <c r="G62" s="95">
+        <v>12</v>
       </c>
       <c r="H62" s="95">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S62" s="95">
         <v>26</v>
@@ -12978,17 +12978,17 @@
       <c r="C63">
         <v>14</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>3</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
+      <c r="E63" s="95">
+        <v>1</v>
+      </c>
+      <c r="F63" s="95">
+        <v>2</v>
+      </c>
+      <c r="G63" s="95">
+        <v>13</v>
       </c>
       <c r="H63">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S63" s="95">
         <v>27</v>
@@ -13026,13 +13026,13 @@
         <v>1</v>
       </c>
       <c r="F64" s="95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" s="95">
-        <v>1</v>
-      </c>
-      <c r="H64" s="95">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H64">
+        <v>9</v>
       </c>
       <c r="V64" s="95">
         <v>1</v>
@@ -13055,7 +13055,19 @@
         <v>2</v>
       </c>
       <c r="C65" s="95">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" s="95">
+        <v>10</v>
       </c>
       <c r="V65" s="95">
         <v>1</v>
@@ -13078,7 +13090,19 @@
         <v>2</v>
       </c>
       <c r="C66" s="95">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66" s="95">
+        <v>11</v>
       </c>
       <c r="V66" s="95">
         <v>1</v>
@@ -13101,7 +13125,19 @@
         <v>2</v>
       </c>
       <c r="C67" s="95">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>11</v>
       </c>
       <c r="V67" s="95">
         <v>1</v>
@@ -13124,8 +13160,12 @@
         <v>2</v>
       </c>
       <c r="C68" s="95">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
       <c r="V68" s="95">
         <v>1</v>
       </c>
@@ -13147,7 +13187,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V69" s="95">
         <v>1</v>
@@ -13170,7 +13210,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V70" s="95">
         <v>1</v>
@@ -13193,7 +13233,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V71" s="95">
         <v>1</v>
@@ -13216,7 +13256,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="95">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V72" s="95">
         <v>1</v>
@@ -13239,7 +13279,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="95">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V73" s="95">
         <v>1</v>
@@ -13262,7 +13302,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="95">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V74" s="95">
         <v>1</v>
@@ -13285,7 +13325,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="95">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V75" s="95">
         <v>1</v>
@@ -13308,7 +13348,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="95">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V76" s="95">
         <v>1</v>
@@ -13331,7 +13371,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="95">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V77" s="95">
         <v>1</v>
@@ -13446,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V82" s="95">
         <v>1</v>
@@ -13469,7 +13509,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V83" s="95">
         <v>1</v>
@@ -13492,7 +13532,7 @@
         <v>3</v>
       </c>
       <c r="C84" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V84" s="95">
         <v>1</v>
@@ -13515,7 +13555,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V85" s="95">
         <v>1</v>
@@ -13538,7 +13578,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
@@ -13549,371 +13589,172 @@
         <v>3</v>
       </c>
       <c r="C87" s="95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="95">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B88" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="95">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B89" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="95">
+        <v>13</v>
+      </c>
+      <c r="B90" s="95">
         <v>3</v>
       </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="C90" s="95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="95">
+        <v>14</v>
+      </c>
+      <c r="B91" s="95">
+        <v>3</v>
+      </c>
+      <c r="C91" s="95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A94" s="95" t="s">
+    <row r="97" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A98" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="95"/>
-      <c r="C94" s="95"/>
-      <c r="D94" s="95"/>
-      <c r="E94" s="95" t="s">
+      <c r="B98" s="95"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="95"/>
+      <c r="E98" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="F94" s="95"/>
-      <c r="G94" s="95"/>
-      <c r="H94" s="95"/>
-      <c r="I94" s="95"/>
-      <c r="J94" s="95" t="s">
+      <c r="F98" s="95"/>
+      <c r="G98" s="95"/>
+      <c r="H98" s="95"/>
+      <c r="I98" s="95"/>
+      <c r="J98" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="K94" s="95"/>
-      <c r="L94" s="95"/>
-      <c r="N94" s="95"/>
-      <c r="O94" s="95"/>
-      <c r="P94" s="95"/>
-      <c r="Q94" s="95"/>
-      <c r="S94" s="95" t="s">
+      <c r="K98" s="95"/>
+      <c r="L98" s="95"/>
+      <c r="N98" s="95"/>
+      <c r="O98" s="95"/>
+      <c r="P98" s="95"/>
+      <c r="Q98" s="95"/>
+      <c r="S98" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="T94" s="95"/>
-      <c r="U94" s="95"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A95" s="95" t="s">
+      <c r="T98" s="95"/>
+      <c r="U98" s="95"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A99" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="95" t="s">
+      <c r="B99" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="C95" s="95" t="s">
+      <c r="C99" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="95"/>
-      <c r="E95" s="95" t="s">
+      <c r="D99" s="95"/>
+      <c r="E99" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="F95" s="95" t="s">
+      <c r="F99" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="G95" s="95" t="s">
+      <c r="G99" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="H95" s="95" t="s">
+      <c r="H99" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="I95" s="95"/>
-      <c r="J95" s="95" t="s">
+      <c r="I99" s="95"/>
+      <c r="J99" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="K95" s="95" t="s">
+      <c r="K99" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="L95" s="95" t="s">
+      <c r="L99" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="M95" s="95" t="s">
+      <c r="M99" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="N95" s="95" t="s">
+      <c r="N99" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="O95" s="95" t="s">
+      <c r="O99" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="P95" s="95" t="s">
+      <c r="P99" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="Q95" s="95"/>
-      <c r="S95" s="95" t="s">
+      <c r="Q99" s="95"/>
+      <c r="S99" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="T95" s="95" t="s">
+      <c r="T99" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="U95" s="95" t="s">
+      <c r="U99" s="95" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A96" s="95">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96" s="95">
-        <v>2</v>
-      </c>
-      <c r="L96" s="95">
-        <v>0</v>
-      </c>
-      <c r="M96" s="95">
-        <v>1</v>
-      </c>
-      <c r="N96" s="95">
-        <v>20000000</v>
-      </c>
-      <c r="O96" s="95">
-        <v>50000000</v>
-      </c>
-      <c r="P96" s="95">
-        <v>1</v>
-      </c>
-      <c r="S96">
-        <v>1</v>
-      </c>
-      <c r="T96" s="95">
-        <v>1</v>
-      </c>
-      <c r="U96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="95">
-        <v>2</v>
-      </c>
-      <c r="B97" s="95">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="E97" s="95">
-        <v>1</v>
-      </c>
-      <c r="F97" s="95">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>2</v>
-      </c>
-      <c r="H97">
-        <v>2</v>
-      </c>
-      <c r="J97">
-        <v>2</v>
-      </c>
-      <c r="K97" s="95">
-        <v>2</v>
-      </c>
-      <c r="L97" s="95">
-        <v>0</v>
-      </c>
-      <c r="M97" s="95">
-        <v>1</v>
-      </c>
-      <c r="N97" s="95">
-        <v>20000000</v>
-      </c>
-      <c r="O97" s="95">
-        <v>50000000</v>
-      </c>
-      <c r="P97" s="95">
-        <v>1</v>
-      </c>
-      <c r="S97">
-        <v>2</v>
-      </c>
-      <c r="T97" s="95">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="95">
-        <v>3</v>
-      </c>
-      <c r="B98" s="95">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="E98" s="95">
-        <v>1</v>
-      </c>
-      <c r="F98" s="95">
-        <v>1</v>
-      </c>
-      <c r="G98" s="95">
-        <v>3</v>
-      </c>
-      <c r="H98">
-        <v>3</v>
-      </c>
-      <c r="J98">
-        <v>3</v>
-      </c>
-      <c r="K98" s="95">
-        <v>2</v>
-      </c>
-      <c r="L98" s="95">
-        <v>0</v>
-      </c>
-      <c r="M98" s="95">
-        <v>1</v>
-      </c>
-      <c r="N98" s="95">
-        <v>20000000</v>
-      </c>
-      <c r="O98" s="95">
-        <v>31411111</v>
-      </c>
-      <c r="P98" s="95">
-        <v>1</v>
-      </c>
-      <c r="S98">
-        <v>3</v>
-      </c>
-      <c r="T98" s="95">
-        <v>3</v>
-      </c>
-      <c r="U98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="95">
-        <v>4</v>
-      </c>
-      <c r="B99" s="95">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="E99" s="95">
-        <v>1</v>
-      </c>
-      <c r="F99" s="95">
-        <v>1</v>
-      </c>
-      <c r="G99" s="95">
-        <v>4</v>
-      </c>
-      <c r="H99">
-        <v>4</v>
-      </c>
-      <c r="J99">
-        <v>4</v>
-      </c>
-      <c r="K99" s="95">
-        <v>12</v>
-      </c>
-      <c r="L99" s="95">
-        <v>0</v>
-      </c>
-      <c r="M99" s="95">
-        <v>1</v>
-      </c>
-      <c r="N99" s="95">
-        <v>0</v>
-      </c>
-      <c r="O99" s="95">
-        <v>0</v>
-      </c>
-      <c r="P99" s="95">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>4</v>
-      </c>
-      <c r="T99" s="95">
-        <v>4</v>
-      </c>
-      <c r="U99">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="95">
-        <v>5</v>
-      </c>
-      <c r="B100" s="95">
+        <v>1</v>
+      </c>
+      <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="E100" s="95">
-        <v>1</v>
-      </c>
-      <c r="F100" s="95">
-        <v>1</v>
-      </c>
-      <c r="G100" s="95">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K100" s="95">
         <v>2</v>
@@ -13925,19 +13766,19 @@
         <v>1</v>
       </c>
       <c r="N100" s="95">
-        <v>75000000</v>
+        <v>20000000</v>
       </c>
       <c r="O100" s="95">
-        <v>25000000</v>
+        <v>50000000</v>
       </c>
       <c r="P100" s="95">
         <v>1</v>
       </c>
       <c r="S100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T100" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U100">
         <v>1</v>
@@ -13945,13 +13786,13 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B101" s="95">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="95">
         <v>1</v>
@@ -13959,38 +13800,38 @@
       <c r="F101" s="95">
         <v>1</v>
       </c>
-      <c r="G101" s="95">
-        <v>6</v>
+      <c r="G101">
+        <v>2</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J101">
-        <v>6</v>
-      </c>
-      <c r="K101">
-        <v>2</v>
-      </c>
-      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="K101" s="95">
+        <v>2</v>
+      </c>
+      <c r="L101" s="95">
         <v>0</v>
       </c>
       <c r="M101" s="95">
         <v>1</v>
       </c>
-      <c r="N101">
-        <v>575000</v>
-      </c>
-      <c r="O101">
-        <v>175000</v>
-      </c>
-      <c r="P101">
+      <c r="N101" s="95">
+        <v>20000000</v>
+      </c>
+      <c r="O101" s="95">
+        <v>50000000</v>
+      </c>
+      <c r="P101" s="95">
         <v>1</v>
       </c>
       <c r="S101">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T101" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U101">
         <v>1</v>
@@ -13998,52 +13839,52 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B102" s="95">
         <v>1</v>
       </c>
       <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="E102" s="95">
+        <v>1</v>
+      </c>
+      <c r="F102" s="95">
+        <v>1</v>
+      </c>
+      <c r="G102" s="95">
         <v>3</v>
       </c>
-      <c r="E102" s="95">
-        <v>1</v>
-      </c>
-      <c r="F102" s="95">
-        <v>1</v>
-      </c>
-      <c r="G102" s="95">
-        <v>7</v>
-      </c>
       <c r="H102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J102">
-        <v>7</v>
-      </c>
-      <c r="K102">
-        <v>2</v>
-      </c>
-      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="K102" s="95">
+        <v>2</v>
+      </c>
+      <c r="L102" s="95">
         <v>0</v>
       </c>
       <c r="M102" s="95">
         <v>1</v>
       </c>
-      <c r="N102">
-        <v>15000000</v>
-      </c>
-      <c r="O102">
-        <v>5000000</v>
-      </c>
-      <c r="P102">
+      <c r="N102" s="95">
+        <v>20000000</v>
+      </c>
+      <c r="O102" s="95">
+        <v>31411111</v>
+      </c>
+      <c r="P102" s="95">
         <v>1</v>
       </c>
       <c r="S102">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T102" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U102">
         <v>1</v>
@@ -14051,13 +13892,13 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B103" s="95">
         <v>1</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103" s="95">
         <v>1</v>
@@ -14066,17 +13907,37 @@
         <v>1</v>
       </c>
       <c r="G103" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H103">
-        <v>7</v>
-      </c>
-      <c r="M103" s="95"/>
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103" s="95">
+        <v>12</v>
+      </c>
+      <c r="L103" s="95">
+        <v>0</v>
+      </c>
+      <c r="M103" s="95">
+        <v>1</v>
+      </c>
+      <c r="N103" s="95">
+        <v>0</v>
+      </c>
+      <c r="O103" s="95">
+        <v>0</v>
+      </c>
+      <c r="P103" s="95">
+        <v>0</v>
+      </c>
       <c r="S103">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T103" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U103">
         <v>1</v>
@@ -14084,13 +13945,13 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B104" s="95">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" s="95">
         <v>1</v>
@@ -14099,17 +13960,37 @@
         <v>1</v>
       </c>
       <c r="G104" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H104">
-        <v>4</v>
-      </c>
-      <c r="M104" s="95"/>
+        <v>5</v>
+      </c>
+      <c r="J104">
+        <v>5</v>
+      </c>
+      <c r="K104" s="95">
+        <v>2</v>
+      </c>
+      <c r="L104" s="95">
+        <v>0</v>
+      </c>
+      <c r="M104" s="95">
+        <v>1</v>
+      </c>
+      <c r="N104" s="95">
+        <v>75000000</v>
+      </c>
+      <c r="O104" s="95">
+        <v>25000000</v>
+      </c>
+      <c r="P104" s="95">
+        <v>1</v>
+      </c>
       <c r="S104">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T104" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U104">
         <v>1</v>
@@ -14117,13 +13998,13 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B105" s="95">
         <v>1</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105" s="95">
         <v>1</v>
@@ -14132,17 +14013,37 @@
         <v>1</v>
       </c>
       <c r="G105" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H105">
         <v>4</v>
       </c>
-      <c r="M105" s="95"/>
+      <c r="J105">
+        <v>6</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" s="95">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>575000</v>
+      </c>
+      <c r="O105">
+        <v>175000</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
       <c r="S105">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T105" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U105">
         <v>1</v>
@@ -14150,497 +14051,486 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="95">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B106" s="95">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>4</v>
-      </c>
-      <c r="M106" s="95"/>
+        <v>3</v>
+      </c>
+      <c r="E106" s="95">
+        <v>1</v>
+      </c>
+      <c r="F106" s="95">
+        <v>1</v>
+      </c>
+      <c r="G106" s="95">
+        <v>7</v>
+      </c>
+      <c r="H106">
+        <v>6</v>
+      </c>
+      <c r="J106">
+        <v>7</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" s="95">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>15000000</v>
+      </c>
+      <c r="O106">
+        <v>5000000</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>7</v>
+      </c>
+      <c r="T106" s="95">
+        <v>7</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="95">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B107" s="95">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E107" s="95">
+        <v>1</v>
+      </c>
+      <c r="F107" s="95">
+        <v>1</v>
+      </c>
+      <c r="G107" s="95">
+        <v>8</v>
+      </c>
+      <c r="H107">
+        <v>7</v>
+      </c>
+      <c r="M107" s="95"/>
+      <c r="S107">
+        <v>8</v>
+      </c>
+      <c r="T107" s="95">
+        <v>8</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="95">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B108" s="95">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E108" s="95">
+        <v>1</v>
+      </c>
+      <c r="F108" s="95">
+        <v>1</v>
+      </c>
+      <c r="G108" s="95">
+        <v>9</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="M108" s="95"/>
+      <c r="S108">
+        <v>9</v>
+      </c>
+      <c r="T108" s="95">
+        <v>9</v>
+      </c>
+      <c r="U108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="95">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B109" s="95">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E109" s="95">
+        <v>1</v>
+      </c>
+      <c r="F109" s="95">
+        <v>1</v>
+      </c>
+      <c r="G109" s="95">
+        <v>10</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="M109" s="95"/>
+      <c r="S109">
+        <v>10</v>
+      </c>
+      <c r="T109" s="95">
+        <v>10</v>
+      </c>
+      <c r="U109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="95">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B110" s="95">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M110" s="95"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="95">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B111" s="95">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="95">
+        <v>13</v>
+      </c>
+      <c r="B112" s="95">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="95">
+        <v>14</v>
+      </c>
+      <c r="B113" s="95">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="95">
+        <v>15</v>
+      </c>
+      <c r="B114" s="95">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="95">
+        <v>16</v>
+      </c>
+      <c r="B115" s="95">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="95">
         <v>17</v>
       </c>
-      <c r="B112" s="95">
-        <v>1</v>
-      </c>
-      <c r="C112">
+      <c r="B116" s="95">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="95">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="95">
         <v>18</v>
       </c>
-      <c r="B113" s="95">
-        <v>1</v>
-      </c>
-      <c r="C113">
+      <c r="B117" s="95">
+        <v>1</v>
+      </c>
+      <c r="C117">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="95">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="95">
         <v>19</v>
       </c>
-      <c r="B114" s="95">
-        <v>1</v>
-      </c>
-      <c r="C114">
+      <c r="B118" s="95">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="95">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="95">
         <v>20</v>
       </c>
-      <c r="B115" s="95">
-        <v>1</v>
-      </c>
-      <c r="C115">
+      <c r="B119" s="95">
+        <v>1</v>
+      </c>
+      <c r="C119">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="95">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="95">
         <v>21</v>
       </c>
-      <c r="B116" s="95">
-        <v>1</v>
-      </c>
-      <c r="C116">
+      <c r="B120" s="95">
+        <v>1</v>
+      </c>
+      <c r="C120">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="95">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="95">
         <v>22</v>
       </c>
-      <c r="B117" s="95">
-        <v>1</v>
-      </c>
-      <c r="C117">
+      <c r="B121" s="95">
+        <v>1</v>
+      </c>
+      <c r="C121">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="95">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="95">
         <v>23</v>
       </c>
-      <c r="B118" s="95">
-        <v>1</v>
-      </c>
-      <c r="C118">
+      <c r="B122" s="95">
+        <v>1</v>
+      </c>
+      <c r="C122">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="95">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="95">
         <v>24</v>
       </c>
-      <c r="B119" s="95">
-        <v>1</v>
-      </c>
-      <c r="C119">
+      <c r="B123" s="95">
+        <v>1</v>
+      </c>
+      <c r="C123">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="95">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="95">
         <v>25</v>
       </c>
-      <c r="B120" s="95">
-        <v>1</v>
-      </c>
-      <c r="C120">
+      <c r="B124" s="95">
+        <v>1</v>
+      </c>
+      <c r="C124">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="95">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="95">
         <v>26</v>
       </c>
-      <c r="B121" s="95">
-        <v>1</v>
-      </c>
-      <c r="C121">
+      <c r="B125" s="95">
+        <v>1</v>
+      </c>
+      <c r="C125">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="95">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="95">
         <v>27</v>
       </c>
-      <c r="B122" s="95">
-        <v>1</v>
-      </c>
-      <c r="C122">
+      <c r="B126" s="95">
+        <v>1</v>
+      </c>
+      <c r="C126">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+    <row r="128" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A126" s="95" t="s">
+    <row r="129" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A130" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="B126" s="95"/>
-      <c r="C126" s="95"/>
-      <c r="D126" s="95"/>
-      <c r="E126" s="95" t="s">
+      <c r="B130" s="95"/>
+      <c r="C130" s="95"/>
+      <c r="D130" s="95"/>
+      <c r="E130" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="F126" s="95"/>
-      <c r="G126" s="95"/>
-      <c r="H126" s="95"/>
-      <c r="I126" s="95"/>
-      <c r="J126" s="95" t="s">
+      <c r="F130" s="95"/>
+      <c r="G130" s="95"/>
+      <c r="H130" s="95"/>
+      <c r="I130" s="95"/>
+      <c r="J130" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="K126" s="95"/>
-      <c r="L126" s="95"/>
-      <c r="N126" s="95"/>
-      <c r="O126" s="95"/>
-      <c r="P126" s="95"/>
-      <c r="Q126" s="95"/>
-      <c r="S126" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="T126" s="95"/>
-      <c r="U126" s="95"/>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="B127" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="C127" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="D127" s="95"/>
-      <c r="E127" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="F127" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="G127" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="H127" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="I127" s="95"/>
-      <c r="J127" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="K127" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="L127" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="M127" t="s">
-        <v>138</v>
-      </c>
-      <c r="N127" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="O127" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="P127" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q127" s="95"/>
-      <c r="S127" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="T127" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="U127" s="95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="95">
-        <v>1</v>
-      </c>
-      <c r="B128" s="95">
-        <v>1</v>
-      </c>
-      <c r="C128" s="95">
-        <v>1</v>
-      </c>
-      <c r="D128" s="95"/>
-      <c r="E128" s="95">
-        <v>1</v>
-      </c>
-      <c r="F128" s="95">
-        <v>1</v>
-      </c>
-      <c r="G128" s="95">
-        <v>1</v>
-      </c>
-      <c r="H128" s="95">
-        <v>1</v>
-      </c>
-      <c r="I128" s="95"/>
-      <c r="J128" s="95">
-        <v>1</v>
-      </c>
-      <c r="K128" s="95">
-        <v>2</v>
-      </c>
-      <c r="L128" s="95">
-        <v>2</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-      <c r="N128" s="95">
-        <v>20000000</v>
-      </c>
-      <c r="O128" s="95">
-        <v>50000000</v>
-      </c>
-      <c r="P128" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q128" s="95"/>
-      <c r="S128" s="95">
-        <v>1</v>
-      </c>
-      <c r="T128" s="95">
-        <v>1</v>
-      </c>
-      <c r="U128" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="95">
-        <v>2</v>
-      </c>
-      <c r="B129" s="95">
-        <v>1</v>
-      </c>
-      <c r="C129" s="95">
-        <v>1</v>
-      </c>
-      <c r="D129" s="95"/>
-      <c r="E129" s="95">
-        <v>1</v>
-      </c>
-      <c r="F129" s="95">
-        <v>1</v>
-      </c>
-      <c r="G129" s="95">
-        <v>2</v>
-      </c>
-      <c r="H129" s="95">
-        <v>2</v>
-      </c>
-      <c r="I129" s="95"/>
-      <c r="J129" s="95">
-        <v>2</v>
-      </c>
-      <c r="K129" s="95">
-        <v>12</v>
-      </c>
-      <c r="L129" s="95">
-        <v>2</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-      <c r="N129" s="95">
-        <v>0</v>
-      </c>
-      <c r="O129" s="95">
-        <v>0</v>
-      </c>
-      <c r="P129" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q129" s="95"/>
-      <c r="S129" s="95">
-        <v>2</v>
-      </c>
-      <c r="T129" s="95">
-        <v>2</v>
-      </c>
-      <c r="U129" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="95">
-        <v>3</v>
-      </c>
-      <c r="B130" s="95">
-        <v>1</v>
-      </c>
-      <c r="C130" s="95">
-        <v>1</v>
-      </c>
-      <c r="D130" s="95"/>
-      <c r="E130" s="95">
-        <v>1</v>
-      </c>
-      <c r="F130" s="95">
-        <v>1</v>
-      </c>
-      <c r="G130" s="95">
-        <v>3</v>
-      </c>
-      <c r="H130" s="95">
-        <v>2</v>
-      </c>
-      <c r="I130" s="95"/>
-      <c r="J130" s="95"/>
       <c r="K130" s="95"/>
       <c r="L130" s="95"/>
       <c r="N130" s="95"/>
       <c r="O130" s="95"/>
       <c r="P130" s="95"/>
       <c r="Q130" s="95"/>
-      <c r="S130" s="95">
-        <v>3</v>
-      </c>
-      <c r="T130" s="95">
-        <v>3</v>
-      </c>
-      <c r="U130" s="95">
-        <v>1</v>
-      </c>
+      <c r="S130" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="T130" s="95"/>
+      <c r="U130" s="95"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="95">
-        <v>4</v>
-      </c>
-      <c r="B131" s="95">
-        <v>1</v>
-      </c>
-      <c r="C131" s="95">
-        <v>1</v>
+      <c r="A131" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B131" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C131" s="95" t="s">
+        <v>122</v>
       </c>
       <c r="D131" s="95"/>
-      <c r="E131" s="95"/>
-      <c r="F131" s="95"/>
-      <c r="G131" s="95"/>
-      <c r="H131" s="95"/>
+      <c r="E131" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F131" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="G131" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H131" s="95" t="s">
+        <v>126</v>
+      </c>
       <c r="I131" s="95"/>
-      <c r="J131" s="95"/>
-      <c r="K131" s="95"/>
-      <c r="L131" s="95"/>
-      <c r="N131" s="95"/>
-      <c r="O131" s="95"/>
-      <c r="P131" s="95"/>
+      <c r="J131" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="K131" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="L131" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="M131" t="s">
+        <v>138</v>
+      </c>
+      <c r="N131" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="O131" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="P131" s="95" t="s">
+        <v>131</v>
+      </c>
       <c r="Q131" s="95"/>
-      <c r="S131" s="95">
-        <v>4</v>
-      </c>
-      <c r="T131" s="95">
-        <v>4</v>
-      </c>
-      <c r="U131" s="95">
-        <v>1</v>
+      <c r="S131" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="T131" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="U131" s="95" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B132" s="95">
         <v>1</v>
       </c>
       <c r="C132" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="95"/>
-      <c r="E132" s="95"/>
-      <c r="F132" s="95"/>
-      <c r="G132" s="95"/>
-      <c r="H132" s="95"/>
+      <c r="E132" s="95">
+        <v>1</v>
+      </c>
+      <c r="F132" s="95">
+        <v>1</v>
+      </c>
+      <c r="G132" s="95">
+        <v>1</v>
+      </c>
+      <c r="H132" s="95">
+        <v>1</v>
+      </c>
       <c r="I132" s="95"/>
-      <c r="J132" s="95"/>
-      <c r="K132" s="95"/>
-      <c r="L132" s="95"/>
-      <c r="N132" s="95"/>
-      <c r="O132" s="95"/>
-      <c r="P132" s="95"/>
+      <c r="J132" s="95">
+        <v>1</v>
+      </c>
+      <c r="K132" s="95">
+        <v>2</v>
+      </c>
+      <c r="L132" s="95">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132" s="95">
+        <v>20000000</v>
+      </c>
+      <c r="O132" s="95">
+        <v>50000000</v>
+      </c>
+      <c r="P132" s="95">
+        <v>1</v>
+      </c>
       <c r="Q132" s="95"/>
       <c r="S132" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T132" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U132" s="95">
         <v>1</v>
@@ -14648,32 +14538,55 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B133" s="95">
         <v>1</v>
       </c>
       <c r="C133" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133" s="95"/>
-      <c r="E133" s="95"/>
-      <c r="F133" s="95"/>
-      <c r="G133" s="95"/>
-      <c r="H133" s="95"/>
+      <c r="E133" s="95">
+        <v>1</v>
+      </c>
+      <c r="F133" s="95">
+        <v>1</v>
+      </c>
+      <c r="G133" s="95">
+        <v>2</v>
+      </c>
+      <c r="H133" s="95">
+        <v>2</v>
+      </c>
       <c r="I133" s="95"/>
-      <c r="J133" s="95"/>
-      <c r="K133" s="95"/>
-      <c r="L133" s="95"/>
-      <c r="N133" s="95"/>
-      <c r="O133" s="95"/>
-      <c r="P133" s="95"/>
+      <c r="J133" s="95">
+        <v>2</v>
+      </c>
+      <c r="K133" s="95">
+        <v>12</v>
+      </c>
+      <c r="L133" s="95">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133" s="95">
+        <v>0</v>
+      </c>
+      <c r="O133" s="95">
+        <v>0</v>
+      </c>
+      <c r="P133" s="95">
+        <v>0</v>
+      </c>
       <c r="Q133" s="95"/>
       <c r="S133" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T133" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U133" s="95">
         <v>1</v>
@@ -14681,19 +14594,27 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B134" s="95">
         <v>1</v>
       </c>
       <c r="C134" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" s="95"/>
-      <c r="E134" s="95"/>
-      <c r="F134" s="95"/>
-      <c r="G134" s="95"/>
-      <c r="H134" s="95"/>
+      <c r="E134" s="95">
+        <v>1</v>
+      </c>
+      <c r="F134" s="95">
+        <v>1</v>
+      </c>
+      <c r="G134" s="95">
+        <v>3</v>
+      </c>
+      <c r="H134" s="95">
+        <v>2</v>
+      </c>
       <c r="I134" s="95"/>
       <c r="J134" s="95"/>
       <c r="K134" s="95"/>
@@ -14703,10 +14624,10 @@
       <c r="P134" s="95"/>
       <c r="Q134" s="95"/>
       <c r="S134" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T134" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U134" s="95">
         <v>1</v>
@@ -14714,13 +14635,13 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B135" s="95">
         <v>1</v>
       </c>
       <c r="C135" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" s="95"/>
       <c r="E135" s="95"/>
@@ -14736,10 +14657,10 @@
       <c r="P135" s="95"/>
       <c r="Q135" s="95"/>
       <c r="S135" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T135" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U135" s="95">
         <v>1</v>
@@ -14747,13 +14668,13 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B136" s="95">
         <v>1</v>
       </c>
       <c r="C136" s="95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136" s="95"/>
       <c r="E136" s="95"/>
@@ -14769,10 +14690,10 @@
       <c r="P136" s="95"/>
       <c r="Q136" s="95"/>
       <c r="S136" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T136" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U136" s="95">
         <v>1</v>
@@ -14780,13 +14701,13 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B137" s="95">
         <v>1</v>
       </c>
       <c r="C137" s="95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D137" s="95"/>
       <c r="E137" s="95"/>
@@ -14802,326 +14723,246 @@
       <c r="P137" s="95"/>
       <c r="Q137" s="95"/>
       <c r="S137" s="95">
+        <v>6</v>
+      </c>
+      <c r="T137" s="95">
+        <v>6</v>
+      </c>
+      <c r="U137" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A138" s="95">
+        <v>7</v>
+      </c>
+      <c r="B138" s="95">
+        <v>1</v>
+      </c>
+      <c r="C138" s="95">
+        <v>2</v>
+      </c>
+      <c r="D138" s="95"/>
+      <c r="E138" s="95"/>
+      <c r="F138" s="95"/>
+      <c r="G138" s="95"/>
+      <c r="H138" s="95"/>
+      <c r="I138" s="95"/>
+      <c r="J138" s="95"/>
+      <c r="K138" s="95"/>
+      <c r="L138" s="95"/>
+      <c r="N138" s="95"/>
+      <c r="O138" s="95"/>
+      <c r="P138" s="95"/>
+      <c r="Q138" s="95"/>
+      <c r="S138" s="95">
+        <v>7</v>
+      </c>
+      <c r="T138" s="95">
+        <v>7</v>
+      </c>
+      <c r="U138" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A139" s="95">
+        <v>8</v>
+      </c>
+      <c r="B139" s="95">
+        <v>1</v>
+      </c>
+      <c r="C139" s="95">
+        <v>2</v>
+      </c>
+      <c r="D139" s="95"/>
+      <c r="E139" s="95"/>
+      <c r="F139" s="95"/>
+      <c r="G139" s="95"/>
+      <c r="H139" s="95"/>
+      <c r="I139" s="95"/>
+      <c r="J139" s="95"/>
+      <c r="K139" s="95"/>
+      <c r="L139" s="95"/>
+      <c r="N139" s="95"/>
+      <c r="O139" s="95"/>
+      <c r="P139" s="95"/>
+      <c r="Q139" s="95"/>
+      <c r="S139" s="95">
+        <v>8</v>
+      </c>
+      <c r="T139" s="95">
+        <v>8</v>
+      </c>
+      <c r="U139" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A140" s="95">
+        <v>9</v>
+      </c>
+      <c r="B140" s="95">
+        <v>1</v>
+      </c>
+      <c r="C140" s="95">
+        <v>3</v>
+      </c>
+      <c r="D140" s="95"/>
+      <c r="E140" s="95"/>
+      <c r="F140" s="95"/>
+      <c r="G140" s="95"/>
+      <c r="H140" s="95"/>
+      <c r="I140" s="95"/>
+      <c r="J140" s="95"/>
+      <c r="K140" s="95"/>
+      <c r="L140" s="95"/>
+      <c r="N140" s="95"/>
+      <c r="O140" s="95"/>
+      <c r="P140" s="95"/>
+      <c r="Q140" s="95"/>
+      <c r="S140" s="95">
+        <v>9</v>
+      </c>
+      <c r="T140" s="95">
+        <v>9</v>
+      </c>
+      <c r="U140" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A141" s="95">
         <v>10</v>
       </c>
-      <c r="T137" s="95">
-        <v>10</v>
-      </c>
-      <c r="U137" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="B141" s="95"/>
-      <c r="C141" s="95"/>
+      <c r="B141" s="95">
+        <v>1</v>
+      </c>
+      <c r="C141" s="95">
+        <v>3</v>
+      </c>
       <c r="D141" s="95"/>
-      <c r="E141" s="95" t="s">
-        <v>123</v>
-      </c>
+      <c r="E141" s="95"/>
       <c r="F141" s="95"/>
       <c r="G141" s="95"/>
       <c r="H141" s="95"/>
       <c r="I141" s="95"/>
-      <c r="J141" s="95" t="s">
-        <v>132</v>
-      </c>
+      <c r="J141" s="95"/>
       <c r="K141" s="95"/>
       <c r="L141" s="95"/>
-      <c r="M141" s="95"/>
       <c r="N141" s="95"/>
       <c r="O141" s="95"/>
       <c r="P141" s="95"/>
       <c r="Q141" s="95"/>
-      <c r="S141" s="95" t="s">
+      <c r="S141" s="95">
+        <v>10</v>
+      </c>
+      <c r="T141" s="95">
+        <v>10</v>
+      </c>
+      <c r="U141" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A145" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145" s="95"/>
+      <c r="C145" s="95"/>
+      <c r="D145" s="95"/>
+      <c r="E145" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="F145" s="95"/>
+      <c r="G145" s="95"/>
+      <c r="H145" s="95"/>
+      <c r="I145" s="95"/>
+      <c r="J145" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="K145" s="95"/>
+      <c r="L145" s="95"/>
+      <c r="M145" s="95"/>
+      <c r="N145" s="95"/>
+      <c r="O145" s="95"/>
+      <c r="P145" s="95"/>
+      <c r="Q145" s="95"/>
+      <c r="S145" s="95" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="95" t="s">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A146" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="B142" s="95" t="s">
+      <c r="B146" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="95" t="s">
+      <c r="C146" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="D142" s="95"/>
-      <c r="E142" s="95" t="s">
+      <c r="D146" s="95"/>
+      <c r="E146" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="F142" s="95" t="s">
+      <c r="F146" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="G142" s="95" t="s">
+      <c r="G146" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="H142" s="95" t="s">
+      <c r="H146" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="I142" s="95"/>
-      <c r="J142" s="95" t="s">
+      <c r="I146" s="95"/>
+      <c r="J146" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="K142" s="95" t="s">
+      <c r="K146" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="L142" s="95" t="s">
+      <c r="L146" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="M142" s="95" t="s">
+      <c r="M146" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="N142" s="95" t="s">
+      <c r="N146" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="O142" s="95" t="s">
+      <c r="O146" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="P142" s="95" t="s">
+      <c r="P146" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="Q142" s="95"/>
-      <c r="S142" s="95" t="s">
+      <c r="Q146" s="95"/>
+      <c r="S146" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="T142" s="95" t="s">
+      <c r="T146" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="U142" s="95" t="s">
+      <c r="U146" s="95" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="95">
-        <v>1</v>
-      </c>
-      <c r="B143" s="95">
-        <v>1</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143" s="95">
-        <v>1</v>
-      </c>
-      <c r="G143" s="95">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-      <c r="J143">
-        <v>1</v>
-      </c>
-      <c r="K143">
-        <v>12</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>1</v>
-      </c>
-      <c r="N143">
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-      <c r="S143" s="95">
-        <v>1</v>
-      </c>
-      <c r="T143" s="95">
-        <v>1</v>
-      </c>
-      <c r="U143" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="95">
-        <v>2</v>
-      </c>
-      <c r="B144" s="95">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>2</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" s="95">
-        <v>1</v>
-      </c>
-      <c r="G144" s="95">
-        <v>2</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="J144">
-        <v>2</v>
-      </c>
-      <c r="K144">
-        <v>2</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>1</v>
-      </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-      <c r="O144">
-        <v>1000000000</v>
-      </c>
-      <c r="P144">
-        <v>0.2</v>
-      </c>
-      <c r="S144" s="95">
-        <v>2</v>
-      </c>
-      <c r="T144" s="95">
-        <v>2</v>
-      </c>
-      <c r="U144" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="95">
-        <v>3</v>
-      </c>
-      <c r="B145" s="95">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>3</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145" s="95">
-        <v>1</v>
-      </c>
-      <c r="G145" s="95">
-        <v>3</v>
-      </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-      <c r="J145">
-        <v>3</v>
-      </c>
-      <c r="K145">
-        <v>2</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>1</v>
-      </c>
-      <c r="N145">
-        <v>0</v>
-      </c>
-      <c r="O145" s="95">
-        <v>1000000000</v>
-      </c>
-      <c r="P145">
-        <v>0.4</v>
-      </c>
-      <c r="S145" s="95">
-        <v>3</v>
-      </c>
-      <c r="T145" s="95">
-        <v>3</v>
-      </c>
-      <c r="U145" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="95">
-        <v>4</v>
-      </c>
-      <c r="B146" s="95">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>4</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146" s="95">
-        <v>1</v>
-      </c>
-      <c r="G146" s="95">
-        <v>4</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="J146">
-        <v>4</v>
-      </c>
-      <c r="K146">
-        <v>2</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>1</v>
-      </c>
-      <c r="N146">
-        <v>0</v>
-      </c>
-      <c r="O146" s="95">
-        <v>1000000000</v>
-      </c>
-      <c r="P146">
-        <v>0.3</v>
-      </c>
-      <c r="S146" s="95">
-        <v>4</v>
-      </c>
-      <c r="T146" s="95">
-        <v>4</v>
-      </c>
-      <c r="U146" s="95">
-        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B147" s="95">
         <v>1</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -15130,16 +14971,16 @@
         <v>1</v>
       </c>
       <c r="G147" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L147">
         <v>0</v>
@@ -15150,17 +14991,17 @@
       <c r="N147">
         <v>0</v>
       </c>
-      <c r="O147" s="95">
-        <v>1000000000</v>
+      <c r="O147">
+        <v>0</v>
       </c>
       <c r="P147">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S147" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T147" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U147" s="95">
         <v>1</v>
@@ -15168,13 +15009,13 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B148" s="95">
         <v>1</v>
       </c>
       <c r="C148">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -15183,13 +15024,13 @@
         <v>1</v>
       </c>
       <c r="G148" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -15203,17 +15044,17 @@
       <c r="N148">
         <v>0</v>
       </c>
-      <c r="O148" s="95">
+      <c r="O148">
         <v>1000000000</v>
       </c>
       <c r="P148">
-        <v>0.375</v>
+        <v>0.2</v>
       </c>
       <c r="S148" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T148" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U148" s="95">
         <v>1</v>
@@ -15221,13 +15062,13 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B149" s="95">
         <v>1</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -15236,37 +15077,37 @@
         <v>1</v>
       </c>
       <c r="G149" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H149">
-        <v>2</v>
-      </c>
-      <c r="J149" s="95">
-        <v>7</v>
-      </c>
-      <c r="K149" s="95">
-        <v>2</v>
-      </c>
-      <c r="L149" s="95">
-        <v>0</v>
-      </c>
-      <c r="M149" s="95">
-        <v>1</v>
-      </c>
-      <c r="N149" s="95">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>3</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
         <v>0</v>
       </c>
       <c r="O149" s="95">
         <v>1000000000</v>
       </c>
       <c r="P149">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="S149" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T149" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U149" s="95">
         <v>1</v>
@@ -15274,13 +15115,13 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B150" s="95">
         <v>1</v>
       </c>
       <c r="C150">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -15289,37 +15130,37 @@
         <v>1</v>
       </c>
       <c r="G150" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="J150">
         <v>4</v>
       </c>
-      <c r="J150" s="95">
-        <v>8</v>
-      </c>
-      <c r="K150" s="95">
-        <v>2</v>
-      </c>
-      <c r="L150" s="95">
-        <v>0</v>
-      </c>
-      <c r="M150" s="95">
-        <v>1</v>
-      </c>
-      <c r="N150" s="95">
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
         <v>0</v>
       </c>
       <c r="O150" s="95">
         <v>1000000000</v>
       </c>
       <c r="P150">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S150" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T150" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U150" s="95">
         <v>1</v>
@@ -15327,13 +15168,13 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B151" s="95">
         <v>1</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -15342,19 +15183,19 @@
         <v>1</v>
       </c>
       <c r="G151" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="J151">
         <v>5</v>
       </c>
-      <c r="J151">
-        <v>9</v>
-      </c>
       <c r="K151">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -15362,17 +15203,17 @@
       <c r="N151">
         <v>0</v>
       </c>
-      <c r="O151">
-        <v>60000000</v>
+      <c r="O151" s="95">
+        <v>1000000000</v>
       </c>
       <c r="P151">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S151" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T151" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U151" s="95">
         <v>1</v>
@@ -15380,13 +15221,13 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B152" s="95">
         <v>1</v>
       </c>
       <c r="C152">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -15395,16 +15236,37 @@
         <v>1</v>
       </c>
       <c r="G152" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H152">
+        <v>3</v>
+      </c>
+      <c r="J152">
         <v>6</v>
       </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152" s="95">
+        <v>1000000000</v>
+      </c>
+      <c r="P152">
+        <v>0.375</v>
+      </c>
       <c r="S152" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T152" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U152" s="95">
         <v>1</v>
@@ -15412,122 +15274,221 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="95">
-        <v>1</v>
-      </c>
-      <c r="B153">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B153" s="95">
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E153">
-        <v>2</v>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F153" s="95">
+        <v>1</v>
+      </c>
+      <c r="G153" s="95">
+        <v>7</v>
       </c>
       <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="J153" s="95">
         <v>7</v>
+      </c>
+      <c r="K153" s="95">
+        <v>2</v>
+      </c>
+      <c r="L153" s="95">
+        <v>0</v>
+      </c>
+      <c r="M153" s="95">
+        <v>1</v>
+      </c>
+      <c r="N153" s="95">
+        <v>0</v>
+      </c>
+      <c r="O153" s="95">
+        <v>1000000000</v>
+      </c>
+      <c r="P153">
+        <v>0.6</v>
+      </c>
+      <c r="S153" s="95">
+        <v>7</v>
+      </c>
+      <c r="T153" s="95">
+        <v>7</v>
+      </c>
+      <c r="U153" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="95">
-        <v>2</v>
-      </c>
-      <c r="B154">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B154" s="95">
+        <v>1</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E154">
-        <v>2</v>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F154" s="95">
+        <v>1</v>
+      </c>
+      <c r="G154" s="95">
+        <v>8</v>
       </c>
       <c r="H154">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="J154" s="95">
+        <v>8</v>
+      </c>
+      <c r="K154" s="95">
+        <v>2</v>
+      </c>
+      <c r="L154" s="95">
+        <v>0</v>
+      </c>
+      <c r="M154" s="95">
+        <v>1</v>
+      </c>
+      <c r="N154" s="95">
+        <v>0</v>
+      </c>
+      <c r="O154" s="95">
+        <v>1000000000</v>
+      </c>
+      <c r="P154">
+        <v>0.5</v>
+      </c>
+      <c r="S154" s="95">
+        <v>8</v>
+      </c>
+      <c r="T154" s="95">
+        <v>8</v>
+      </c>
+      <c r="U154" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="95">
-        <v>3</v>
-      </c>
-      <c r="B155">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B155" s="95">
+        <v>1</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>2</v>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="F155" s="95">
+        <v>1</v>
+      </c>
+      <c r="G155" s="95">
+        <v>9</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="J155">
+        <v>9</v>
+      </c>
+      <c r="K155">
+        <v>14</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>60000000</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="S155" s="95">
+        <v>9</v>
+      </c>
+      <c r="T155" s="95">
+        <v>9</v>
+      </c>
+      <c r="U155" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="95">
-        <v>4</v>
-      </c>
-      <c r="B156">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B156" s="95">
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E156">
-        <v>2</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F156" s="95">
+        <v>1</v>
+      </c>
+      <c r="G156" s="95">
+        <v>10</v>
       </c>
       <c r="H156">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="S156" s="95">
+        <v>10</v>
+      </c>
+      <c r="T156" s="95">
+        <v>10</v>
+      </c>
+      <c r="U156" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="95">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
         <v>5</v>
       </c>
-      <c r="B157">
-        <v>2</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157">
-        <v>2</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
       <c r="H157">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B158">
         <v>2</v>
@@ -15539,372 +15500,252 @@
         <v>2</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H158">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="C159">
         <v>1</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>8</v>
+      </c>
+      <c r="H159">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="95">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>9</v>
+      </c>
+      <c r="H160">
         <v>8</v>
-      </c>
-      <c r="B160">
-        <v>2</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="95">
+        <v>5</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
         <v>9</v>
-      </c>
-      <c r="B161">
-        <v>2</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="95">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A163" s="95">
+        <v>7</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A164" s="95">
+        <v>8</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A165" s="95">
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A166" s="95">
         <v>10</v>
       </c>
-      <c r="B162">
-        <v>2</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="165" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A166" s="95" t="s">
+    <row r="169" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A170" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="B166" s="95"/>
-      <c r="C166" s="95"/>
-      <c r="D166" s="95"/>
-      <c r="E166" s="95" t="s">
+      <c r="B170" s="95"/>
+      <c r="C170" s="95"/>
+      <c r="D170" s="95"/>
+      <c r="E170" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="F166" s="95"/>
-      <c r="G166" s="95"/>
-      <c r="H166" s="95"/>
-      <c r="I166" s="95"/>
-      <c r="J166" s="95" t="s">
+      <c r="F170" s="95"/>
+      <c r="G170" s="95"/>
+      <c r="H170" s="95"/>
+      <c r="I170" s="95"/>
+      <c r="J170" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="K166" s="95"/>
-      <c r="L166" s="95"/>
-      <c r="M166" s="95"/>
-      <c r="N166" s="95"/>
-      <c r="O166" s="95"/>
-      <c r="P166" s="95"/>
-      <c r="Q166" s="95"/>
-      <c r="S166" s="95" t="s">
+      <c r="K170" s="95"/>
+      <c r="L170" s="95"/>
+      <c r="M170" s="95"/>
+      <c r="N170" s="95"/>
+      <c r="O170" s="95"/>
+      <c r="P170" s="95"/>
+      <c r="Q170" s="95"/>
+      <c r="S170" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="T166" s="95"/>
-      <c r="U166" s="95"/>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A167" s="95" t="s">
+      <c r="T170" s="95"/>
+      <c r="U170" s="95"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A171" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="B167" s="95" t="s">
+      <c r="B171" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="C167" s="95" t="s">
+      <c r="C171" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="D167" s="95"/>
-      <c r="E167" s="95" t="s">
+      <c r="D171" s="95"/>
+      <c r="E171" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="F167" s="95" t="s">
+      <c r="F171" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="G167" s="95" t="s">
+      <c r="G171" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="H167" s="95" t="s">
+      <c r="H171" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="I167" s="95"/>
-      <c r="J167" s="95" t="s">
+      <c r="I171" s="95"/>
+      <c r="J171" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="K167" s="95" t="s">
+      <c r="K171" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="L167" s="95" t="s">
+      <c r="L171" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="M167" s="95" t="s">
+      <c r="M171" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="N167" s="95" t="s">
+      <c r="N171" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="O167" s="95" t="s">
+      <c r="O171" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="P167" s="95" t="s">
+      <c r="P171" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="Q167" s="95"/>
-      <c r="S167" s="95" t="s">
+      <c r="Q171" s="95"/>
+      <c r="S171" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="T167" s="95" t="s">
+      <c r="T171" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="U167" s="95" t="s">
+      <c r="U171" s="95" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A168" s="95">
-        <v>1</v>
-      </c>
-      <c r="B168" s="95">
-        <v>1</v>
-      </c>
-      <c r="C168" s="95">
-        <v>1</v>
-      </c>
-      <c r="E168" s="95">
-        <v>1</v>
-      </c>
-      <c r="F168" s="95">
-        <v>1</v>
-      </c>
-      <c r="G168" s="95">
-        <v>1</v>
-      </c>
-      <c r="H168" s="95">
-        <v>1</v>
-      </c>
-      <c r="J168">
-        <v>1</v>
-      </c>
-      <c r="K168">
-        <v>2</v>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-      <c r="M168">
-        <v>1</v>
-      </c>
-      <c r="N168">
-        <v>1000000</v>
-      </c>
-      <c r="O168">
-        <v>1000000</v>
-      </c>
-      <c r="P168">
-        <v>0.5</v>
-      </c>
-      <c r="S168" s="95">
-        <v>1</v>
-      </c>
-      <c r="T168" s="95">
-        <v>1</v>
-      </c>
-      <c r="U168" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="95">
-        <v>2</v>
-      </c>
-      <c r="B169" s="95">
-        <v>1</v>
-      </c>
-      <c r="C169" s="95">
-        <v>2</v>
-      </c>
-      <c r="E169" s="95">
-        <v>1</v>
-      </c>
-      <c r="F169" s="95">
-        <v>1</v>
-      </c>
-      <c r="G169" s="95">
-        <v>2</v>
-      </c>
-      <c r="H169" s="95">
-        <v>1</v>
-      </c>
-      <c r="J169">
-        <v>2</v>
-      </c>
-      <c r="K169">
-        <v>2</v>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="M169">
-        <v>1</v>
-      </c>
-      <c r="N169">
-        <v>2000000</v>
-      </c>
-      <c r="O169">
-        <v>3000000</v>
-      </c>
-      <c r="P169">
-        <v>0.9</v>
-      </c>
-      <c r="S169" s="95">
-        <v>2</v>
-      </c>
-      <c r="T169" s="95">
-        <v>2</v>
-      </c>
-      <c r="U169" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A170" s="95">
-        <v>3</v>
-      </c>
-      <c r="B170" s="95">
-        <v>1</v>
-      </c>
-      <c r="C170" s="95">
-        <v>3</v>
-      </c>
-      <c r="E170" s="95">
-        <v>1</v>
-      </c>
-      <c r="F170" s="95">
-        <v>1</v>
-      </c>
-      <c r="G170" s="95">
-        <v>3</v>
-      </c>
-      <c r="H170" s="95">
-        <v>1</v>
-      </c>
-      <c r="J170">
-        <v>3</v>
-      </c>
-      <c r="K170">
-        <v>2</v>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-      <c r="M170">
-        <v>1</v>
-      </c>
-      <c r="N170">
-        <v>5000000</v>
-      </c>
-      <c r="O170">
-        <v>5000000</v>
-      </c>
-      <c r="P170">
-        <v>1</v>
-      </c>
-      <c r="S170" s="95">
-        <v>3</v>
-      </c>
-      <c r="T170" s="95">
-        <v>3</v>
-      </c>
-      <c r="U170" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A171" s="95">
-        <v>4</v>
-      </c>
-      <c r="B171" s="95">
-        <v>1</v>
-      </c>
-      <c r="C171" s="95">
-        <v>4</v>
-      </c>
-      <c r="E171" s="95">
-        <v>1</v>
-      </c>
-      <c r="F171" s="95">
-        <v>1</v>
-      </c>
-      <c r="G171" s="95">
-        <v>4</v>
-      </c>
-      <c r="H171" s="95">
-        <v>1</v>
-      </c>
-      <c r="J171">
-        <v>4</v>
-      </c>
-      <c r="K171">
-        <v>2</v>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-      <c r="M171">
-        <v>1</v>
-      </c>
-      <c r="N171">
-        <v>10000000</v>
-      </c>
-      <c r="O171">
-        <v>10000000</v>
-      </c>
-      <c r="P171">
-        <v>1</v>
-      </c>
-      <c r="S171" s="95">
-        <v>4</v>
-      </c>
-      <c r="T171" s="95">
-        <v>4</v>
-      </c>
-      <c r="U171" s="95">
-        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B172" s="95">
         <v>1</v>
       </c>
       <c r="C172" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E172" s="95">
         <v>1</v>
@@ -15913,13 +15754,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H172" s="95">
         <v>1</v>
       </c>
       <c r="J172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K172">
         <v>2</v>
@@ -15931,19 +15772,19 @@
         <v>1</v>
       </c>
       <c r="N172">
-        <v>20000000</v>
+        <v>1000000</v>
       </c>
       <c r="O172">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="P172">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S172" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T172" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U172" s="95">
         <v>1</v>
@@ -15951,13 +15792,13 @@
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B173" s="95">
         <v>1</v>
       </c>
       <c r="C173" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E173" s="95">
         <v>1</v>
@@ -15966,37 +15807,37 @@
         <v>1</v>
       </c>
       <c r="G173" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H173" s="95">
         <v>1</v>
       </c>
       <c r="J173">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K173">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>2</v>
-      </c>
-      <c r="M173" s="95">
+        <v>0</v>
+      </c>
+      <c r="M173">
         <v>1</v>
       </c>
       <c r="N173">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="O173">
         <v>3000000</v>
       </c>
       <c r="P173">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S173" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T173" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U173" s="95">
         <v>1</v>
@@ -16004,13 +15845,13 @@
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B174" s="95">
         <v>1</v>
       </c>
       <c r="C174" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E174" s="95">
         <v>1</v>
@@ -16019,37 +15860,37 @@
         <v>1</v>
       </c>
       <c r="G174" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H174" s="95">
         <v>1</v>
       </c>
       <c r="J174">
-        <v>7</v>
-      </c>
-      <c r="K174" s="95">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
       </c>
       <c r="L174">
-        <v>2</v>
-      </c>
-      <c r="M174" s="95">
+        <v>0</v>
+      </c>
+      <c r="M174">
         <v>1</v>
       </c>
       <c r="N174">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="O174">
-        <v>9000000</v>
+        <v>5000000</v>
       </c>
       <c r="P174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S174" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T174" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U174" s="95">
         <v>1</v>
@@ -16057,13 +15898,13 @@
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B175" s="95">
         <v>1</v>
       </c>
       <c r="C175" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E175" s="95">
         <v>1</v>
@@ -16072,37 +15913,37 @@
         <v>1</v>
       </c>
       <c r="G175" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H175" s="95">
         <v>1</v>
       </c>
       <c r="J175">
-        <v>8</v>
-      </c>
-      <c r="K175" s="95">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>2</v>
-      </c>
-      <c r="M175" s="95">
+        <v>0</v>
+      </c>
+      <c r="M175">
         <v>1</v>
       </c>
       <c r="N175">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="O175">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="P175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S175" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T175" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U175" s="95">
         <v>1</v>
@@ -16110,13 +15951,13 @@
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B176" s="95">
         <v>1</v>
       </c>
       <c r="C176" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E176" s="95">
         <v>1</v>
@@ -16125,37 +15966,37 @@
         <v>1</v>
       </c>
       <c r="G176" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H176" s="95">
         <v>1</v>
       </c>
       <c r="J176">
-        <v>9</v>
-      </c>
-      <c r="K176" s="95">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>2</v>
-      </c>
-      <c r="M176" s="95">
+        <v>0</v>
+      </c>
+      <c r="M176">
         <v>1</v>
       </c>
       <c r="N176">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="O176">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="P176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S176" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T176" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U176" s="95">
         <v>1</v>
@@ -16163,13 +16004,13 @@
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B177" s="95">
         <v>1</v>
       </c>
       <c r="C177" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E177" s="95">
         <v>1</v>
@@ -16178,15 +16019,15 @@
         <v>1</v>
       </c>
       <c r="G177" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H177" s="95">
         <v>1</v>
       </c>
       <c r="J177">
-        <v>10</v>
-      </c>
-      <c r="K177" s="95">
+        <v>6</v>
+      </c>
+      <c r="K177">
         <v>14</v>
       </c>
       <c r="L177">
@@ -16199,16 +16040,16 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="P177">
         <v>0</v>
       </c>
       <c r="S177" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T177" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U177" s="95">
         <v>1</v>
@@ -16216,99 +16057,219 @@
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="95">
-        <v>1</v>
-      </c>
-      <c r="B178">
-        <v>2</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B178" s="95">
+        <v>1</v>
+      </c>
+      <c r="C178" s="95">
+        <v>7</v>
       </c>
       <c r="E178" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F178" s="95">
         <v>1</v>
       </c>
       <c r="G178" s="95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H178" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>7</v>
+      </c>
+      <c r="K178" s="95">
+        <v>14</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178" s="95">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>9000000</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="S178" s="95">
+        <v>7</v>
+      </c>
+      <c r="T178" s="95">
+        <v>7</v>
+      </c>
+      <c r="U178" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="95">
-        <v>2</v>
-      </c>
-      <c r="B179">
-        <v>2</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B179" s="95">
+        <v>1</v>
+      </c>
+      <c r="C179" s="95">
+        <v>8</v>
       </c>
       <c r="E179" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F179" s="95">
         <v>1</v>
       </c>
       <c r="G179" s="95">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H179" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>8</v>
+      </c>
+      <c r="K179" s="95">
+        <v>14</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179" s="95">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>15000000</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="S179" s="95">
+        <v>8</v>
+      </c>
+      <c r="T179" s="95">
+        <v>8</v>
+      </c>
+      <c r="U179" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="95">
-        <v>3</v>
-      </c>
-      <c r="B180">
-        <v>2</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B180" s="95">
+        <v>1</v>
+      </c>
+      <c r="C180" s="95">
+        <v>9</v>
       </c>
       <c r="E180" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F180" s="95">
         <v>1</v>
       </c>
       <c r="G180" s="95">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H180" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>9</v>
+      </c>
+      <c r="K180" s="95">
+        <v>14</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180" s="95">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>20000000</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="S180" s="95">
+        <v>9</v>
+      </c>
+      <c r="T180" s="95">
+        <v>9</v>
+      </c>
+      <c r="U180" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="95">
-        <v>4</v>
-      </c>
-      <c r="B181">
-        <v>2</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B181" s="95">
+        <v>1</v>
+      </c>
+      <c r="C181" s="95">
+        <v>10</v>
       </c>
       <c r="E181" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F181" s="95">
         <v>1</v>
       </c>
       <c r="G181" s="95">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H181" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>10</v>
+      </c>
+      <c r="K181" s="95">
+        <v>14</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181" s="95">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>10000000</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="S181" s="95">
+        <v>10</v>
+      </c>
+      <c r="T181" s="95">
+        <v>10</v>
+      </c>
+      <c r="U181" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -16323,7 +16284,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H182" s="95">
         <v>2</v>
@@ -16331,7 +16292,7 @@
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -16346,7 +16307,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H183" s="95">
         <v>2</v>
@@ -16354,7 +16315,7 @@
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -16369,7 +16330,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H184" s="95">
         <v>2</v>
@@ -16377,7 +16338,7 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -16392,7 +16353,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H185" s="95">
         <v>2</v>
@@ -16400,7 +16361,7 @@
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -16415,7 +16376,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H186" s="95">
         <v>2</v>
@@ -16423,81 +16384,117 @@
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="95">
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="E187" s="95">
+        <v>2</v>
+      </c>
+      <c r="F187" s="95">
+        <v>1</v>
+      </c>
+      <c r="G187" s="95">
+        <v>6</v>
+      </c>
+      <c r="H187" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A188" s="95">
+        <v>7</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="E188" s="95">
+        <v>2</v>
+      </c>
+      <c r="F188" s="95">
+        <v>1</v>
+      </c>
+      <c r="G188" s="95">
+        <v>7</v>
+      </c>
+      <c r="H188" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A189" s="95">
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="E189" s="95">
+        <v>2</v>
+      </c>
+      <c r="F189" s="95">
+        <v>1</v>
+      </c>
+      <c r="G189" s="95">
+        <v>8</v>
+      </c>
+      <c r="H189" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A190" s="95">
+        <v>9</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="E190" s="95">
+        <v>2</v>
+      </c>
+      <c r="F190" s="95">
+        <v>1</v>
+      </c>
+      <c r="G190" s="95">
+        <v>9</v>
+      </c>
+      <c r="H190" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A191" s="95">
         <v>10</v>
       </c>
-      <c r="B187">
-        <v>2</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="E187" s="95">
-        <v>2</v>
-      </c>
-      <c r="F187" s="95">
-        <v>1</v>
-      </c>
-      <c r="G187" s="95">
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="E191" s="95">
+        <v>2</v>
+      </c>
+      <c r="F191" s="95">
+        <v>1</v>
+      </c>
+      <c r="G191" s="95">
         <v>10</v>
       </c>
-      <c r="H187" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E188" s="95">
-        <v>3</v>
-      </c>
-      <c r="F188" s="95">
-        <v>1</v>
-      </c>
-      <c r="G188" s="95">
-        <v>1</v>
-      </c>
-      <c r="H188" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E189" s="95">
-        <v>3</v>
-      </c>
-      <c r="F189" s="95">
-        <v>1</v>
-      </c>
-      <c r="G189" s="95">
-        <v>2</v>
-      </c>
-      <c r="H189" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E190" s="95">
-        <v>3</v>
-      </c>
-      <c r="F190" s="95">
-        <v>1</v>
-      </c>
-      <c r="G190" s="95">
-        <v>3</v>
-      </c>
-      <c r="H190" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E191" s="95">
-        <v>3</v>
-      </c>
-      <c r="F191" s="95">
-        <v>1</v>
-      </c>
-      <c r="G191" s="95">
-        <v>4</v>
-      </c>
       <c r="H191" s="95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.3">
@@ -16508,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H192" s="95">
         <v>3</v>
@@ -16522,7 +16519,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H193" s="95">
         <v>3</v>
@@ -16536,7 +16533,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H194" s="95">
         <v>3</v>
@@ -16550,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H195" s="95">
         <v>3</v>
@@ -16564,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="G196" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H196" s="95">
         <v>3</v>
@@ -16578,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H197" s="95">
         <v>3</v>
@@ -16586,58 +16583,58 @@
     </row>
     <row r="198" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E198" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F198" s="95">
         <v>1</v>
       </c>
       <c r="G198" s="95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H198" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E199" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F199" s="95">
         <v>1</v>
       </c>
       <c r="G199" s="95">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H199" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E200" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F200" s="95">
         <v>1</v>
       </c>
       <c r="G200" s="95">
+        <v>9</v>
+      </c>
+      <c r="H200" s="95">
         <v>3</v>
-      </c>
-      <c r="H200" s="95">
-        <v>4</v>
       </c>
     </row>
     <row r="201" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E201" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F201" s="95">
         <v>1</v>
       </c>
       <c r="G201" s="95">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H201" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="5:8" x14ac:dyDescent="0.3">
@@ -16648,7 +16645,7 @@
         <v>1</v>
       </c>
       <c r="G202" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H202" s="95">
         <v>4</v>
@@ -16662,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="G203" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H203" s="95">
         <v>4</v>
@@ -16676,7 +16673,7 @@
         <v>1</v>
       </c>
       <c r="G204" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H204" s="95">
         <v>4</v>
@@ -16690,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="G205" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H205" s="95">
         <v>4</v>
@@ -16704,7 +16701,7 @@
         <v>1</v>
       </c>
       <c r="G206" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H206" s="95">
         <v>4</v>
@@ -16718,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="G207" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H207" s="95">
         <v>4</v>
@@ -16726,58 +16723,58 @@
     </row>
     <row r="208" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E208" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F208" s="95">
         <v>1</v>
       </c>
       <c r="G208" s="95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H208" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E209" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F209" s="95">
         <v>1</v>
       </c>
       <c r="G209" s="95">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H209" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E210" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F210" s="95">
         <v>1</v>
       </c>
       <c r="G210" s="95">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H210" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E211" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F211" s="95">
         <v>1</v>
       </c>
       <c r="G211" s="95">
+        <v>10</v>
+      </c>
+      <c r="H211" s="95">
         <v>4</v>
-      </c>
-      <c r="H211" s="95">
-        <v>5</v>
       </c>
     </row>
     <row r="212" spans="5:8" x14ac:dyDescent="0.3">
@@ -16788,7 +16785,7 @@
         <v>1</v>
       </c>
       <c r="G212" s="95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H212" s="95">
         <v>5</v>
@@ -16802,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="G213" s="95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H213" s="95">
         <v>5</v>
@@ -16816,7 +16813,7 @@
         <v>1</v>
       </c>
       <c r="G214" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H214" s="95">
         <v>5</v>
@@ -16830,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="G215" s="95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H215" s="95">
         <v>5</v>
@@ -16844,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="G216" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H216" s="95">
         <v>5</v>
@@ -16858,79 +16855,135 @@
         <v>1</v>
       </c>
       <c r="G217" s="95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H217" s="95">
         <v>5</v>
       </c>
     </row>
     <row r="218" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218">
-        <v>2</v>
-      </c>
-      <c r="G218">
-        <v>1</v>
-      </c>
-      <c r="H218">
-        <v>6</v>
+      <c r="E218" s="95">
+        <v>5</v>
+      </c>
+      <c r="F218" s="95">
+        <v>1</v>
+      </c>
+      <c r="G218" s="95">
+        <v>7</v>
+      </c>
+      <c r="H218" s="95">
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E219">
-        <v>2</v>
-      </c>
-      <c r="F219">
-        <v>2</v>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-      <c r="H219">
-        <v>7</v>
+      <c r="E219" s="95">
+        <v>5</v>
+      </c>
+      <c r="F219" s="95">
+        <v>1</v>
+      </c>
+      <c r="G219" s="95">
+        <v>8</v>
+      </c>
+      <c r="H219" s="95">
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E220">
-        <v>3</v>
-      </c>
-      <c r="F220">
-        <v>2</v>
-      </c>
-      <c r="G220">
-        <v>1</v>
-      </c>
-      <c r="H220">
-        <v>8</v>
+      <c r="E220" s="95">
+        <v>5</v>
+      </c>
+      <c r="F220" s="95">
+        <v>1</v>
+      </c>
+      <c r="G220" s="95">
+        <v>9</v>
+      </c>
+      <c r="H220" s="95">
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E221">
-        <v>4</v>
-      </c>
-      <c r="F221">
-        <v>2</v>
-      </c>
-      <c r="G221">
-        <v>1</v>
-      </c>
-      <c r="H221">
-        <v>9</v>
+      <c r="E221" s="95">
+        <v>5</v>
+      </c>
+      <c r="F221" s="95">
+        <v>1</v>
+      </c>
+      <c r="G221" s="95">
+        <v>10</v>
+      </c>
+      <c r="H221" s="95">
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E224">
+        <v>3</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E225">
+        <v>4</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E226">
         <v>5</v>
       </c>
-      <c r="F222">
-        <v>2</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222">
+      <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
         <v>10</v>
       </c>
     </row>

--- a/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
+++ b/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="3"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="9" r:id="rId1"/>
@@ -1087,6 +1087,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1115,21 +1130,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:R14"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2925,11 +2925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25:N25"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3085,11 +3085,11 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
@@ -3154,9 +3154,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="117"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="33" t="s">
         <v>39</v>
       </c>
@@ -3221,9 +3221,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
@@ -3288,9 +3288,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3375,13 +3375,13 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
@@ -3424,9 +3424,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
@@ -3479,9 +3479,9 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
@@ -3534,11 +3534,11 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="33" t="s">
         <v>38</v>
       </c>
@@ -3603,9 +3603,9 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="117"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="122"/>
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
@@ -3670,9 +3670,9 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="117"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
@@ -3737,9 +3737,9 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
@@ -3844,13 +3844,13 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="113" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3905,9 +3905,9 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="121"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
@@ -3960,9 +3960,9 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="121"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
@@ -4015,9 +4015,9 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="121"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="36" t="s">
         <v>53</v>
       </c>
@@ -4070,9 +4070,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="121" t="s">
+      <c r="A26" s="116"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="113" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -4127,9 +4127,9 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="121"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
@@ -4191,11 +4191,11 @@
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111" t="s">
+      <c r="A28" s="116"/>
+      <c r="B28" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="113" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -4229,9 +4229,9 @@
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="121"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="36" t="s">
         <v>59</v>
       </c>
@@ -4293,9 +4293,9 @@
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="121" t="s">
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="113" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -4329,9 +4329,9 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="121"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
@@ -4438,13 +4438,13 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="113" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4487,9 +4487,9 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="125"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="121"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
@@ -4530,9 +4530,9 @@
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="125"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="121"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4573,9 +4573,9 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="125"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="121"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
@@ -4616,9 +4616,9 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="125"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="121"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="48" t="s">
         <v>61</v>
       </c>
@@ -4671,9 +4671,9 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="125"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="121"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
@@ -4714,9 +4714,9 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="125"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="121"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
       <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
@@ -4769,9 +4769,9 @@
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="125"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="121"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -4812,9 +4812,9 @@
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="125"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="121"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
       <c r="D42" s="48" t="s">
         <v>63</v>
       </c>
@@ -4867,9 +4867,9 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="125"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="121"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
@@ -4910,9 +4910,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="125"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="121"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4953,9 +4953,9 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="125"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="121"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="49" t="s">
         <v>64</v>
       </c>
@@ -5020,9 +5020,9 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="125"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="121"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="36" t="s">
         <v>65</v>
       </c>
@@ -5087,11 +5087,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="125"/>
-      <c r="B47" s="111" t="s">
+      <c r="A47" s="115"/>
+      <c r="B47" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="121" t="s">
+      <c r="C47" s="113" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="10"/>
@@ -5114,9 +5114,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="125"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="121"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
@@ -5142,9 +5142,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="121"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
@@ -5170,9 +5170,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="125"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="121"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
@@ -5198,9 +5198,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="125"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="121"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="9" t="s">
         <v>22</v>
       </c>
@@ -5226,9 +5226,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="125"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="121"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="48" t="s">
         <v>61</v>
       </c>
@@ -5260,9 +5260,9 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="125"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="121"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
@@ -5288,9 +5288,9 @@
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="125"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="121"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="48" t="s">
         <v>62</v>
       </c>
@@ -5322,9 +5322,9 @@
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="125"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="121"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
@@ -5350,9 +5350,9 @@
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="125"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="121"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
       <c r="D56" s="48" t="s">
         <v>63</v>
       </c>
@@ -5384,9 +5384,9 @@
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="125"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="121"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
       <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
@@ -5412,9 +5412,9 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="125"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="121"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
@@ -5440,9 +5440,9 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="125"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="121"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="113"/>
       <c r="D59" s="49" t="s">
         <v>64</v>
       </c>
@@ -5507,9 +5507,9 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="125"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="121"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="36" t="s">
         <v>66</v>
       </c>
@@ -5574,13 +5574,13 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="124" t="s">
+      <c r="A61" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="122" t="s">
+      <c r="C61" s="111" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="10"/>
@@ -5603,9 +5603,9 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="125"/>
-      <c r="B62" s="111"/>
-      <c r="C62" s="123"/>
+      <c r="A62" s="115"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="112"/>
       <c r="D62" s="9" t="s">
         <v>25</v>
       </c>
@@ -5646,9 +5646,9 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="125"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="123"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="9" t="s">
         <v>14</v>
       </c>
@@ -5689,9 +5689,9 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="125"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="123"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="112"/>
       <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5732,9 +5732,9 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="125"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="123"/>
+      <c r="A65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="112"/>
       <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
@@ -5775,9 +5775,9 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="125"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="123"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="112"/>
       <c r="D66" s="48" t="s">
         <v>61</v>
       </c>
@@ -5830,9 +5830,9 @@
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="125"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="123"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="112"/>
       <c r="D67" s="9" t="s">
         <v>21</v>
       </c>
@@ -5873,9 +5873,9 @@
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="125"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="123"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="112"/>
       <c r="D68" s="48" t="s">
         <v>62</v>
       </c>
@@ -5928,9 +5928,9 @@
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="125"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="123"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="112"/>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
@@ -5971,9 +5971,9 @@
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="125"/>
-      <c r="B70" s="111"/>
-      <c r="C70" s="123"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="48" t="s">
         <v>63</v>
       </c>
@@ -6038,9 +6038,9 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="125"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="123"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="112"/>
       <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
@@ -6081,9 +6081,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="125"/>
-      <c r="B72" s="111"/>
-      <c r="C72" s="123"/>
+      <c r="A72" s="115"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="112"/>
       <c r="D72" s="9" t="s">
         <v>24</v>
       </c>
@@ -6109,9 +6109,9 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="125"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="123"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="49" t="s">
         <v>64</v>
       </c>
@@ -6176,9 +6176,9 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="125"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="121" t="s">
+      <c r="A74" s="115"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="113" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="10"/>
@@ -6201,9 +6201,9 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="125"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="121"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="113"/>
       <c r="D75" s="9" t="s">
         <v>25</v>
       </c>
@@ -6238,9 +6238,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="125"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="121"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="113"/>
       <c r="D76" s="9" t="s">
         <v>14</v>
       </c>
@@ -6275,9 +6275,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="125"/>
-      <c r="B77" s="111"/>
-      <c r="C77" s="121"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="113"/>
       <c r="D77" s="9" t="s">
         <v>36</v>
       </c>
@@ -6312,9 +6312,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="125"/>
-      <c r="B78" s="111"/>
-      <c r="C78" s="121"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="113"/>
       <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
@@ -6349,9 +6349,9 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="125"/>
-      <c r="B79" s="111"/>
-      <c r="C79" s="121"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="113"/>
       <c r="D79" s="48" t="s">
         <v>61</v>
       </c>
@@ -6404,9 +6404,9 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="125"/>
-      <c r="B80" s="111"/>
-      <c r="C80" s="121"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="113"/>
       <c r="D80" s="9" t="s">
         <v>21</v>
       </c>
@@ -6441,9 +6441,9 @@
       <c r="U80" s="10"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="125"/>
-      <c r="B81" s="111"/>
-      <c r="C81" s="121"/>
+      <c r="A81" s="115"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="113"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -6496,9 +6496,9 @@
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="125"/>
-      <c r="B82" s="111"/>
-      <c r="C82" s="121"/>
+      <c r="A82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="113"/>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
@@ -6533,9 +6533,9 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="125"/>
-      <c r="B83" s="111"/>
-      <c r="C83" s="121"/>
+      <c r="A83" s="115"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="113"/>
       <c r="D83" s="48" t="s">
         <v>63</v>
       </c>
@@ -6600,9 +6600,9 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="125"/>
-      <c r="B84" s="111"/>
-      <c r="C84" s="121"/>
+      <c r="A84" s="115"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="113"/>
       <c r="D84" s="9" t="s">
         <v>20</v>
       </c>
@@ -6637,9 +6637,9 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="125"/>
-      <c r="B85" s="111"/>
-      <c r="C85" s="121"/>
+      <c r="A85" s="115"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="113"/>
       <c r="D85" s="9" t="s">
         <v>24</v>
       </c>
@@ -6665,9 +6665,9 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="125"/>
-      <c r="B86" s="111"/>
-      <c r="C86" s="121"/>
+      <c r="A86" s="115"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="113"/>
       <c r="D86" s="49" t="s">
         <v>64</v>
       </c>
@@ -6732,9 +6732,9 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="125"/>
-      <c r="B87" s="111"/>
-      <c r="C87" s="121"/>
+      <c r="A87" s="115"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="113"/>
       <c r="D87" s="36" t="s">
         <v>68</v>
       </c>
@@ -6799,11 +6799,11 @@
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="125"/>
-      <c r="B88" s="111" t="s">
+      <c r="A88" s="115"/>
+      <c r="B88" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="122" t="s">
+      <c r="C88" s="111" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="10"/>
@@ -6826,9 +6826,9 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="125"/>
-      <c r="B89" s="111"/>
-      <c r="C89" s="123"/>
+      <c r="A89" s="115"/>
+      <c r="B89" s="116"/>
+      <c r="C89" s="112"/>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
@@ -6881,9 +6881,9 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="125"/>
-      <c r="B90" s="111"/>
-      <c r="C90" s="123"/>
+      <c r="A90" s="115"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="112"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -6936,9 +6936,9 @@
       <c r="U90" s="10"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="125"/>
-      <c r="B91" s="111"/>
-      <c r="C91" s="123"/>
+      <c r="A91" s="115"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="112"/>
       <c r="D91" s="9" t="s">
         <v>36</v>
       </c>
@@ -6987,9 +6987,9 @@
       <c r="S91" s="61"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="125"/>
-      <c r="B92" s="111"/>
-      <c r="C92" s="123"/>
+      <c r="A92" s="115"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="112"/>
       <c r="D92" s="9" t="s">
         <v>22</v>
       </c>
@@ -7038,9 +7038,9 @@
       <c r="S92" s="61"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="125"/>
-      <c r="B93" s="111"/>
-      <c r="C93" s="123"/>
+      <c r="A93" s="115"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="112"/>
       <c r="D93" s="48" t="s">
         <v>61</v>
       </c>
@@ -7089,9 +7089,9 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="125"/>
-      <c r="B94" s="111"/>
-      <c r="C94" s="123"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7140,9 +7140,9 @@
       <c r="S94" s="61"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="125"/>
-      <c r="B95" s="111"/>
-      <c r="C95" s="123"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="112"/>
       <c r="D95" s="48" t="s">
         <v>62</v>
       </c>
@@ -7191,9 +7191,9 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="125"/>
-      <c r="B96" s="111"/>
-      <c r="C96" s="123"/>
+      <c r="A96" s="115"/>
+      <c r="B96" s="116"/>
+      <c r="C96" s="112"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
@@ -7242,9 +7242,9 @@
       <c r="S96" s="61"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="125"/>
-      <c r="B97" s="111"/>
-      <c r="C97" s="123"/>
+      <c r="A97" s="115"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="112"/>
       <c r="D97" s="48" t="s">
         <v>63</v>
       </c>
@@ -7306,9 +7306,9 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="125"/>
-      <c r="B98" s="111"/>
-      <c r="C98" s="123"/>
+      <c r="A98" s="115"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="112"/>
       <c r="D98" s="9" t="s">
         <v>20</v>
       </c>
@@ -7357,9 +7357,9 @@
       <c r="S98" s="61"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="125"/>
-      <c r="B99" s="111"/>
-      <c r="C99" s="123"/>
+      <c r="A99" s="115"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="112"/>
       <c r="D99" s="9" t="s">
         <v>24</v>
       </c>
@@ -7382,9 +7382,9 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="125"/>
-      <c r="B100" s="111"/>
-      <c r="C100" s="123"/>
+      <c r="A100" s="115"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="112"/>
       <c r="D100" s="49" t="s">
         <v>64</v>
       </c>
@@ -7449,9 +7449,9 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="125"/>
-      <c r="B101" s="111"/>
-      <c r="C101" s="122" t="s">
+      <c r="A101" s="115"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="111" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="10"/>
@@ -7463,9 +7463,9 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="125"/>
-      <c r="B102" s="111"/>
-      <c r="C102" s="123"/>
+      <c r="A102" s="115"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="112"/>
       <c r="D102" s="9" t="s">
         <v>25</v>
       </c>
@@ -7518,9 +7518,9 @@
       <c r="U102" s="10"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="125"/>
-      <c r="B103" s="111"/>
-      <c r="C103" s="123"/>
+      <c r="A103" s="115"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="112"/>
       <c r="D103" s="9" t="s">
         <v>14</v>
       </c>
@@ -7573,9 +7573,9 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="125"/>
-      <c r="B104" s="111"/>
-      <c r="C104" s="123"/>
+      <c r="A104" s="115"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="112"/>
       <c r="D104" s="9" t="s">
         <v>36</v>
       </c>
@@ -7624,9 +7624,9 @@
       <c r="S104" s="61"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="125"/>
-      <c r="B105" s="111"/>
-      <c r="C105" s="123"/>
+      <c r="A105" s="115"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="112"/>
       <c r="D105" s="9" t="s">
         <v>22</v>
       </c>
@@ -7675,9 +7675,9 @@
       <c r="S105" s="61"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="125"/>
-      <c r="B106" s="111"/>
-      <c r="C106" s="123"/>
+      <c r="A106" s="115"/>
+      <c r="B106" s="116"/>
+      <c r="C106" s="112"/>
       <c r="D106" s="48" t="s">
         <v>61</v>
       </c>
@@ -7726,9 +7726,9 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="125"/>
-      <c r="B107" s="111"/>
-      <c r="C107" s="123"/>
+      <c r="A107" s="115"/>
+      <c r="B107" s="116"/>
+      <c r="C107" s="112"/>
       <c r="D107" s="9" t="s">
         <v>21</v>
       </c>
@@ -7777,9 +7777,9 @@
       <c r="S107" s="61"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="125"/>
-      <c r="B108" s="111"/>
-      <c r="C108" s="123"/>
+      <c r="A108" s="115"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="112"/>
       <c r="D108" s="48" t="s">
         <v>62</v>
       </c>
@@ -7828,9 +7828,9 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="125"/>
-      <c r="B109" s="111"/>
-      <c r="C109" s="123"/>
+      <c r="A109" s="115"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="112"/>
       <c r="D109" s="9" t="s">
         <v>23</v>
       </c>
@@ -7879,9 +7879,9 @@
       <c r="S109" s="61"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="125"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="123"/>
+      <c r="A110" s="115"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="112"/>
       <c r="D110" s="48" t="s">
         <v>63</v>
       </c>
@@ -7943,9 +7943,9 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="125"/>
-      <c r="B111" s="111"/>
-      <c r="C111" s="123"/>
+      <c r="A111" s="115"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="112"/>
       <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
@@ -7994,9 +7994,9 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="125"/>
-      <c r="B112" s="111"/>
-      <c r="C112" s="123"/>
+      <c r="A112" s="115"/>
+      <c r="B112" s="116"/>
+      <c r="C112" s="112"/>
       <c r="D112" s="9" t="s">
         <v>24</v>
       </c>
@@ -8019,9 +8019,9 @@
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="125"/>
-      <c r="B113" s="111"/>
-      <c r="C113" s="123"/>
+      <c r="A113" s="115"/>
+      <c r="B113" s="116"/>
+      <c r="C113" s="112"/>
       <c r="D113" s="49" t="s">
         <v>64</v>
       </c>
@@ -8086,11 +8086,11 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="124" t="s">
+      <c r="A114" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="111"/>
-      <c r="C114" s="122" t="s">
+      <c r="B114" s="116"/>
+      <c r="C114" s="111" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="10"/>
@@ -8102,9 +8102,9 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="125"/>
-      <c r="B115" s="111"/>
-      <c r="C115" s="123"/>
+      <c r="A115" s="115"/>
+      <c r="B115" s="116"/>
+      <c r="C115" s="112"/>
       <c r="D115" s="9" t="s">
         <v>25</v>
       </c>
@@ -8157,9 +8157,9 @@
       <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="125"/>
-      <c r="B116" s="111"/>
-      <c r="C116" s="123"/>
+      <c r="A116" s="115"/>
+      <c r="B116" s="116"/>
+      <c r="C116" s="112"/>
       <c r="D116" s="9" t="s">
         <v>14</v>
       </c>
@@ -8212,9 +8212,9 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="125"/>
-      <c r="B117" s="111"/>
-      <c r="C117" s="123"/>
+      <c r="A117" s="115"/>
+      <c r="B117" s="116"/>
+      <c r="C117" s="112"/>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
@@ -8263,9 +8263,9 @@
       <c r="S117" s="61"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="125"/>
-      <c r="B118" s="111"/>
-      <c r="C118" s="123"/>
+      <c r="A118" s="115"/>
+      <c r="B118" s="116"/>
+      <c r="C118" s="112"/>
       <c r="D118" s="9" t="s">
         <v>22</v>
       </c>
@@ -8314,9 +8314,9 @@
       <c r="S118" s="61"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="125"/>
-      <c r="B119" s="111"/>
-      <c r="C119" s="123"/>
+      <c r="A119" s="115"/>
+      <c r="B119" s="116"/>
+      <c r="C119" s="112"/>
       <c r="D119" s="48" t="s">
         <v>61</v>
       </c>
@@ -8365,9 +8365,9 @@
       <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="125"/>
-      <c r="B120" s="111"/>
-      <c r="C120" s="123"/>
+      <c r="A120" s="115"/>
+      <c r="B120" s="116"/>
+      <c r="C120" s="112"/>
       <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
@@ -8416,9 +8416,9 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="125"/>
-      <c r="B121" s="111"/>
-      <c r="C121" s="123"/>
+      <c r="A121" s="115"/>
+      <c r="B121" s="116"/>
+      <c r="C121" s="112"/>
       <c r="D121" s="48" t="s">
         <v>62</v>
       </c>
@@ -8467,9 +8467,9 @@
       <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="125"/>
-      <c r="B122" s="111"/>
-      <c r="C122" s="123"/>
+      <c r="A122" s="115"/>
+      <c r="B122" s="116"/>
+      <c r="C122" s="112"/>
       <c r="D122" s="9" t="s">
         <v>23</v>
       </c>
@@ -8518,9 +8518,9 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="125"/>
-      <c r="B123" s="111"/>
-      <c r="C123" s="123"/>
+      <c r="A123" s="115"/>
+      <c r="B123" s="116"/>
+      <c r="C123" s="112"/>
       <c r="D123" s="48" t="s">
         <v>63</v>
       </c>
@@ -8582,9 +8582,9 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="125"/>
-      <c r="B124" s="111"/>
-      <c r="C124" s="123"/>
+      <c r="A124" s="115"/>
+      <c r="B124" s="116"/>
+      <c r="C124" s="112"/>
       <c r="D124" s="9" t="s">
         <v>20</v>
       </c>
@@ -8633,9 +8633,9 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="125"/>
-      <c r="B125" s="111"/>
-      <c r="C125" s="123"/>
+      <c r="A125" s="115"/>
+      <c r="B125" s="116"/>
+      <c r="C125" s="112"/>
       <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
@@ -8658,9 +8658,9 @@
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="125"/>
-      <c r="B126" s="111"/>
-      <c r="C126" s="123"/>
+      <c r="A126" s="115"/>
+      <c r="B126" s="116"/>
+      <c r="C126" s="112"/>
       <c r="D126" s="49" t="s">
         <v>64</v>
       </c>
@@ -8725,9 +8725,9 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="125"/>
-      <c r="B127" s="111"/>
-      <c r="C127" s="122" t="s">
+      <c r="A127" s="115"/>
+      <c r="B127" s="116"/>
+      <c r="C127" s="111" t="s">
         <v>79</v>
       </c>
       <c r="I127" s="10"/>
@@ -8739,9 +8739,9 @@
       <c r="U127" s="10"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="125"/>
-      <c r="B128" s="111"/>
-      <c r="C128" s="123"/>
+      <c r="A128" s="115"/>
+      <c r="B128" s="116"/>
+      <c r="C128" s="112"/>
       <c r="D128" s="9" t="s">
         <v>25</v>
       </c>
@@ -8794,9 +8794,9 @@
       <c r="U128" s="10"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="125"/>
-      <c r="B129" s="111"/>
-      <c r="C129" s="123"/>
+      <c r="A129" s="115"/>
+      <c r="B129" s="116"/>
+      <c r="C129" s="112"/>
       <c r="D129" s="9" t="s">
         <v>14</v>
       </c>
@@ -8849,9 +8849,9 @@
       <c r="U129" s="10"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="125"/>
-      <c r="B130" s="111"/>
-      <c r="C130" s="123"/>
+      <c r="A130" s="115"/>
+      <c r="B130" s="116"/>
+      <c r="C130" s="112"/>
       <c r="D130" s="9" t="s">
         <v>36</v>
       </c>
@@ -8900,9 +8900,9 @@
       <c r="S130" s="61"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="125"/>
-      <c r="B131" s="111"/>
-      <c r="C131" s="123"/>
+      <c r="A131" s="115"/>
+      <c r="B131" s="116"/>
+      <c r="C131" s="112"/>
       <c r="D131" s="9" t="s">
         <v>22</v>
       </c>
@@ -8951,9 +8951,9 @@
       <c r="S131" s="61"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="125"/>
-      <c r="B132" s="111"/>
-      <c r="C132" s="123"/>
+      <c r="A132" s="115"/>
+      <c r="B132" s="116"/>
+      <c r="C132" s="112"/>
       <c r="D132" s="48" t="s">
         <v>61</v>
       </c>
@@ -9002,9 +9002,9 @@
       <c r="S132" s="10"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="125"/>
-      <c r="B133" s="111"/>
-      <c r="C133" s="123"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="116"/>
+      <c r="C133" s="112"/>
       <c r="D133" s="9" t="s">
         <v>21</v>
       </c>
@@ -9053,9 +9053,9 @@
       <c r="S133" s="61"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="125"/>
-      <c r="B134" s="111"/>
-      <c r="C134" s="123"/>
+      <c r="A134" s="115"/>
+      <c r="B134" s="116"/>
+      <c r="C134" s="112"/>
       <c r="D134" s="48" t="s">
         <v>62</v>
       </c>
@@ -9104,9 +9104,9 @@
       <c r="S134" s="10"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="125"/>
-      <c r="B135" s="111"/>
-      <c r="C135" s="123"/>
+      <c r="A135" s="115"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="112"/>
       <c r="D135" s="9" t="s">
         <v>23</v>
       </c>
@@ -9155,9 +9155,9 @@
       <c r="S135" s="61"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="125"/>
-      <c r="B136" s="111"/>
-      <c r="C136" s="123"/>
+      <c r="A136" s="115"/>
+      <c r="B136" s="116"/>
+      <c r="C136" s="112"/>
       <c r="D136" s="48" t="s">
         <v>63</v>
       </c>
@@ -9219,9 +9219,9 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="125"/>
-      <c r="B137" s="111"/>
-      <c r="C137" s="123"/>
+      <c r="A137" s="115"/>
+      <c r="B137" s="116"/>
+      <c r="C137" s="112"/>
       <c r="D137" s="9" t="s">
         <v>20</v>
       </c>
@@ -9270,9 +9270,9 @@
       <c r="S137" s="61"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="125"/>
-      <c r="B138" s="111"/>
-      <c r="C138" s="123"/>
+      <c r="A138" s="115"/>
+      <c r="B138" s="116"/>
+      <c r="C138" s="112"/>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
@@ -9295,9 +9295,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="125"/>
-      <c r="B139" s="111"/>
-      <c r="C139" s="123"/>
+      <c r="A139" s="115"/>
+      <c r="B139" s="116"/>
+      <c r="C139" s="112"/>
       <c r="D139" s="49" t="s">
         <v>64</v>
       </c>
@@ -9362,9 +9362,9 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="125"/>
-      <c r="B140" s="111"/>
-      <c r="C140" s="121" t="s">
+      <c r="A140" s="115"/>
+      <c r="B140" s="116"/>
+      <c r="C140" s="113" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="10"/>
@@ -9376,9 +9376,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="125"/>
-      <c r="B141" s="111"/>
-      <c r="C141" s="121"/>
+      <c r="A141" s="115"/>
+      <c r="B141" s="116"/>
+      <c r="C141" s="113"/>
       <c r="D141" s="9" t="s">
         <v>25</v>
       </c>
@@ -9431,9 +9431,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="125"/>
-      <c r="B142" s="111"/>
-      <c r="C142" s="121"/>
+      <c r="A142" s="115"/>
+      <c r="B142" s="116"/>
+      <c r="C142" s="113"/>
       <c r="D142" s="9" t="s">
         <v>14</v>
       </c>
@@ -9486,9 +9486,9 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="125"/>
-      <c r="B143" s="111"/>
-      <c r="C143" s="121"/>
+      <c r="A143" s="115"/>
+      <c r="B143" s="116"/>
+      <c r="C143" s="113"/>
       <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
@@ -9537,9 +9537,9 @@
       <c r="S143" s="61"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="125"/>
-      <c r="B144" s="111"/>
-      <c r="C144" s="121"/>
+      <c r="A144" s="115"/>
+      <c r="B144" s="116"/>
+      <c r="C144" s="113"/>
       <c r="D144" s="9" t="s">
         <v>22</v>
       </c>
@@ -9588,9 +9588,9 @@
       <c r="S144" s="61"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="125"/>
-      <c r="B145" s="111"/>
-      <c r="C145" s="121"/>
+      <c r="A145" s="115"/>
+      <c r="B145" s="116"/>
+      <c r="C145" s="113"/>
       <c r="D145" s="48" t="s">
         <v>61</v>
       </c>
@@ -9639,9 +9639,9 @@
       <c r="S145" s="10"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="125"/>
-      <c r="B146" s="111"/>
-      <c r="C146" s="121"/>
+      <c r="A146" s="115"/>
+      <c r="B146" s="116"/>
+      <c r="C146" s="113"/>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
@@ -9690,9 +9690,9 @@
       <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="125"/>
-      <c r="B147" s="111"/>
-      <c r="C147" s="121"/>
+      <c r="A147" s="115"/>
+      <c r="B147" s="116"/>
+      <c r="C147" s="113"/>
       <c r="D147" s="48" t="s">
         <v>62</v>
       </c>
@@ -9741,9 +9741,9 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="125"/>
-      <c r="B148" s="111"/>
-      <c r="C148" s="121"/>
+      <c r="A148" s="115"/>
+      <c r="B148" s="116"/>
+      <c r="C148" s="113"/>
       <c r="D148" s="9" t="s">
         <v>23</v>
       </c>
@@ -9792,9 +9792,9 @@
       <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="125"/>
-      <c r="B149" s="111"/>
-      <c r="C149" s="121"/>
+      <c r="A149" s="115"/>
+      <c r="B149" s="116"/>
+      <c r="C149" s="113"/>
       <c r="D149" s="48" t="s">
         <v>63</v>
       </c>
@@ -9856,9 +9856,9 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="125"/>
-      <c r="B150" s="111"/>
-      <c r="C150" s="121"/>
+      <c r="A150" s="115"/>
+      <c r="B150" s="116"/>
+      <c r="C150" s="113"/>
       <c r="D150" s="9" t="s">
         <v>20</v>
       </c>
@@ -9907,9 +9907,9 @@
       <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="125"/>
-      <c r="B151" s="111"/>
-      <c r="C151" s="121"/>
+      <c r="A151" s="115"/>
+      <c r="B151" s="116"/>
+      <c r="C151" s="113"/>
       <c r="D151" s="9" t="s">
         <v>24</v>
       </c>
@@ -9932,9 +9932,9 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="125"/>
-      <c r="B152" s="111"/>
-      <c r="C152" s="121"/>
+      <c r="A152" s="115"/>
+      <c r="B152" s="116"/>
+      <c r="C152" s="113"/>
       <c r="D152" s="49" t="s">
         <v>64</v>
       </c>
@@ -9999,9 +9999,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="125"/>
-      <c r="B153" s="111"/>
-      <c r="C153" s="121"/>
+      <c r="A153" s="115"/>
+      <c r="B153" s="116"/>
+      <c r="C153" s="113"/>
       <c r="D153" s="52" t="s">
         <v>67</v>
       </c>
@@ -10103,6 +10103,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C127:C139"/>
     <mergeCell ref="C140:C153"/>
     <mergeCell ref="A34:A60"/>
@@ -10119,17 +10130,6 @@
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="C47:C60"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A8:C11"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="5" orientation="landscape" r:id="rId1"/>
@@ -10145,8 +10145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13916,7 +13916,7 @@
         <v>4</v>
       </c>
       <c r="K103" s="95">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L103" s="95">
         <v>0</v>
@@ -14564,7 +14564,7 @@
         <v>2</v>
       </c>
       <c r="K133" s="95">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L133" s="95">
         <v>2</v>

--- a/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
+++ b/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{517EFDF6-F67A-4F6C-A1B5-3A43AB482AD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="2"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="9" r:id="rId1"/>
@@ -463,7 +464,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
@@ -1087,21 +1088,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1130,6 +1116,21 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1477,7 +1478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1628,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -2922,14 +2923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3085,11 +3086,11 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
@@ -3154,9 +3155,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="33" t="s">
         <v>39</v>
       </c>
@@ -3221,9 +3222,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
@@ -3288,9 +3289,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3375,13 +3376,13 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="116"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
@@ -3424,9 +3425,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
@@ -3479,9 +3480,9 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
@@ -3534,11 +3535,11 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="33" t="s">
         <v>38</v>
       </c>
@@ -3603,9 +3604,9 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="122"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
@@ -3670,9 +3671,9 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="122"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
@@ -3737,9 +3738,9 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="125"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
@@ -3844,13 +3845,13 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="121" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3905,9 +3906,9 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
@@ -3960,9 +3961,9 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
@@ -4015,9 +4016,9 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="36" t="s">
         <v>53</v>
       </c>
@@ -4070,9 +4071,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="113" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="121" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -4127,9 +4128,9 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="113"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
@@ -4191,11 +4192,11 @@
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="121" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -4229,9 +4230,9 @@
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="36" t="s">
         <v>59</v>
       </c>
@@ -4293,9 +4294,9 @@
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="113" t="s">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="121" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -4329,9 +4330,9 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
@@ -4438,13 +4439,13 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="121" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4487,9 +4488,9 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
@@ -4530,9 +4531,9 @@
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="115"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4573,9 +4574,9 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="115"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
@@ -4616,9 +4617,9 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="115"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="48" t="s">
         <v>61</v>
       </c>
@@ -4671,9 +4672,9 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="115"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="121"/>
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
@@ -4714,9 +4715,9 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="115"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="121"/>
       <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
@@ -4769,9 +4770,9 @@
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="115"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -4812,9 +4813,9 @@
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="48" t="s">
         <v>63</v>
       </c>
@@ -4867,9 +4868,9 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="115"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
@@ -4910,9 +4911,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="115"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4953,9 +4954,9 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="115"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="49" t="s">
         <v>64</v>
       </c>
@@ -5020,9 +5021,9 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="115"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="36" t="s">
         <v>65</v>
       </c>
@@ -5087,11 +5088,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="115"/>
-      <c r="B47" s="116" t="s">
+      <c r="A47" s="125"/>
+      <c r="B47" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="113" t="s">
+      <c r="C47" s="121" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="10"/>
@@ -5114,9 +5115,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="115"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="121"/>
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
@@ -5142,9 +5143,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="115"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="121"/>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
@@ -5170,9 +5171,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="115"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="121"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
@@ -5198,9 +5199,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="115"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="121"/>
       <c r="D51" s="9" t="s">
         <v>22</v>
       </c>
@@ -5226,9 +5227,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="115"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="121"/>
       <c r="D52" s="48" t="s">
         <v>61</v>
       </c>
@@ -5260,9 +5261,9 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="115"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
@@ -5288,9 +5289,9 @@
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="115"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="48" t="s">
         <v>62</v>
       </c>
@@ -5322,9 +5323,9 @@
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="115"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
@@ -5350,9 +5351,9 @@
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="115"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="48" t="s">
         <v>63</v>
       </c>
@@ -5384,9 +5385,9 @@
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="115"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
@@ -5412,9 +5413,9 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="115"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="113"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="121"/>
       <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
@@ -5440,9 +5441,9 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="115"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="113"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="121"/>
       <c r="D59" s="49" t="s">
         <v>64</v>
       </c>
@@ -5507,9 +5508,9 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="115"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="113"/>
+      <c r="A60" s="125"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="121"/>
       <c r="D60" s="36" t="s">
         <v>66</v>
       </c>
@@ -5574,13 +5575,13 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="114" t="s">
+      <c r="A61" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="111" t="s">
+      <c r="C61" s="122" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="10"/>
@@ -5603,9 +5604,9 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="115"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="112"/>
+      <c r="A62" s="125"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="9" t="s">
         <v>25</v>
       </c>
@@ -5646,9 +5647,9 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="115"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="112"/>
+      <c r="A63" s="125"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="9" t="s">
         <v>14</v>
       </c>
@@ -5689,9 +5690,9 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="115"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="112"/>
+      <c r="A64" s="125"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5732,9 +5733,9 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="115"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="112"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
@@ -5775,9 +5776,9 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="112"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="48" t="s">
         <v>61</v>
       </c>
@@ -5830,9 +5831,9 @@
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="115"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="112"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="9" t="s">
         <v>21</v>
       </c>
@@ -5873,9 +5874,9 @@
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="115"/>
-      <c r="B68" s="116"/>
-      <c r="C68" s="112"/>
+      <c r="A68" s="125"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="48" t="s">
         <v>62</v>
       </c>
@@ -5928,9 +5929,9 @@
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="115"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="112"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
@@ -5971,9 +5972,9 @@
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="115"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="112"/>
+      <c r="A70" s="125"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="48" t="s">
         <v>63</v>
       </c>
@@ -6038,9 +6039,9 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="115"/>
-      <c r="B71" s="116"/>
-      <c r="C71" s="112"/>
+      <c r="A71" s="125"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
@@ -6081,9 +6082,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="115"/>
-      <c r="B72" s="116"/>
-      <c r="C72" s="112"/>
+      <c r="A72" s="125"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="123"/>
       <c r="D72" s="9" t="s">
         <v>24</v>
       </c>
@@ -6109,9 +6110,9 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="115"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="112"/>
+      <c r="A73" s="125"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="49" t="s">
         <v>64</v>
       </c>
@@ -6176,9 +6177,9 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="115"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="113" t="s">
+      <c r="A74" s="125"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="121" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="10"/>
@@ -6194,16 +6195,16 @@
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
+      <c r="Q74" s="39"/>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="115"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="113"/>
+      <c r="A75" s="125"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="121"/>
       <c r="D75" s="9" t="s">
         <v>25</v>
       </c>
@@ -6238,9 +6239,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="115"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="113"/>
+      <c r="A76" s="125"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="121"/>
       <c r="D76" s="9" t="s">
         <v>14</v>
       </c>
@@ -6275,9 +6276,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="115"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="113"/>
+      <c r="A77" s="125"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="121"/>
       <c r="D77" s="9" t="s">
         <v>36</v>
       </c>
@@ -6312,9 +6313,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="115"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="113"/>
+      <c r="A78" s="125"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="121"/>
       <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
@@ -6349,9 +6350,9 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="115"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="113"/>
+      <c r="A79" s="125"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="121"/>
       <c r="D79" s="48" t="s">
         <v>61</v>
       </c>
@@ -6404,9 +6405,9 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="115"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="113"/>
+      <c r="A80" s="125"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="121"/>
       <c r="D80" s="9" t="s">
         <v>21</v>
       </c>
@@ -6441,9 +6442,9 @@
       <c r="U80" s="10"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="115"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="113"/>
+      <c r="A81" s="125"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="121"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -6496,9 +6497,9 @@
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="115"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="113"/>
+      <c r="A82" s="125"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="121"/>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
@@ -6533,9 +6534,9 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="115"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="113"/>
+      <c r="A83" s="125"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="121"/>
       <c r="D83" s="48" t="s">
         <v>63</v>
       </c>
@@ -6600,9 +6601,9 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="115"/>
-      <c r="B84" s="116"/>
-      <c r="C84" s="113"/>
+      <c r="A84" s="125"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="121"/>
       <c r="D84" s="9" t="s">
         <v>20</v>
       </c>
@@ -6637,9 +6638,9 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="115"/>
-      <c r="B85" s="116"/>
-      <c r="C85" s="113"/>
+      <c r="A85" s="125"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="121"/>
       <c r="D85" s="9" t="s">
         <v>24</v>
       </c>
@@ -6665,9 +6666,9 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="115"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="113"/>
+      <c r="A86" s="125"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="121"/>
       <c r="D86" s="49" t="s">
         <v>64</v>
       </c>
@@ -6732,9 +6733,9 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="115"/>
-      <c r="B87" s="116"/>
-      <c r="C87" s="113"/>
+      <c r="A87" s="125"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="121"/>
       <c r="D87" s="36" t="s">
         <v>68</v>
       </c>
@@ -6799,11 +6800,11 @@
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="115"/>
-      <c r="B88" s="116" t="s">
+      <c r="A88" s="125"/>
+      <c r="B88" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="122" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="10"/>
@@ -6826,9 +6827,9 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="115"/>
-      <c r="B89" s="116"/>
-      <c r="C89" s="112"/>
+      <c r="A89" s="125"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="123"/>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
@@ -6881,9 +6882,9 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="115"/>
-      <c r="B90" s="116"/>
-      <c r="C90" s="112"/>
+      <c r="A90" s="125"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="123"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -6936,9 +6937,9 @@
       <c r="U90" s="10"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="115"/>
-      <c r="B91" s="116"/>
-      <c r="C91" s="112"/>
+      <c r="A91" s="125"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="123"/>
       <c r="D91" s="9" t="s">
         <v>36</v>
       </c>
@@ -6987,9 +6988,9 @@
       <c r="S91" s="61"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="115"/>
-      <c r="B92" s="116"/>
-      <c r="C92" s="112"/>
+      <c r="A92" s="125"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="123"/>
       <c r="D92" s="9" t="s">
         <v>22</v>
       </c>
@@ -7038,9 +7039,9 @@
       <c r="S92" s="61"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="115"/>
-      <c r="B93" s="116"/>
-      <c r="C93" s="112"/>
+      <c r="A93" s="125"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="48" t="s">
         <v>61</v>
       </c>
@@ -7089,9 +7090,9 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="115"/>
-      <c r="B94" s="116"/>
-      <c r="C94" s="112"/>
+      <c r="A94" s="125"/>
+      <c r="B94" s="111"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7140,9 +7141,9 @@
       <c r="S94" s="61"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="115"/>
-      <c r="B95" s="116"/>
-      <c r="C95" s="112"/>
+      <c r="A95" s="125"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="48" t="s">
         <v>62</v>
       </c>
@@ -7191,9 +7192,9 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="115"/>
-      <c r="B96" s="116"/>
-      <c r="C96" s="112"/>
+      <c r="A96" s="125"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
@@ -7242,9 +7243,9 @@
       <c r="S96" s="61"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="115"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="112"/>
+      <c r="A97" s="125"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="123"/>
       <c r="D97" s="48" t="s">
         <v>63</v>
       </c>
@@ -7306,9 +7307,9 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="115"/>
-      <c r="B98" s="116"/>
-      <c r="C98" s="112"/>
+      <c r="A98" s="125"/>
+      <c r="B98" s="111"/>
+      <c r="C98" s="123"/>
       <c r="D98" s="9" t="s">
         <v>20</v>
       </c>
@@ -7357,9 +7358,9 @@
       <c r="S98" s="61"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="115"/>
-      <c r="B99" s="116"/>
-      <c r="C99" s="112"/>
+      <c r="A99" s="125"/>
+      <c r="B99" s="111"/>
+      <c r="C99" s="123"/>
       <c r="D99" s="9" t="s">
         <v>24</v>
       </c>
@@ -7382,9 +7383,9 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="115"/>
-      <c r="B100" s="116"/>
-      <c r="C100" s="112"/>
+      <c r="A100" s="125"/>
+      <c r="B100" s="111"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="49" t="s">
         <v>64</v>
       </c>
@@ -7449,9 +7450,9 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="115"/>
-      <c r="B101" s="116"/>
-      <c r="C101" s="111" t="s">
+      <c r="A101" s="125"/>
+      <c r="B101" s="111"/>
+      <c r="C101" s="122" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="10"/>
@@ -7463,9 +7464,9 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="115"/>
-      <c r="B102" s="116"/>
-      <c r="C102" s="112"/>
+      <c r="A102" s="125"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="123"/>
       <c r="D102" s="9" t="s">
         <v>25</v>
       </c>
@@ -7518,9 +7519,9 @@
       <c r="U102" s="10"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="115"/>
-      <c r="B103" s="116"/>
-      <c r="C103" s="112"/>
+      <c r="A103" s="125"/>
+      <c r="B103" s="111"/>
+      <c r="C103" s="123"/>
       <c r="D103" s="9" t="s">
         <v>14</v>
       </c>
@@ -7573,9 +7574,9 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="115"/>
-      <c r="B104" s="116"/>
-      <c r="C104" s="112"/>
+      <c r="A104" s="125"/>
+      <c r="B104" s="111"/>
+      <c r="C104" s="123"/>
       <c r="D104" s="9" t="s">
         <v>36</v>
       </c>
@@ -7624,9 +7625,9 @@
       <c r="S104" s="61"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="115"/>
-      <c r="B105" s="116"/>
-      <c r="C105" s="112"/>
+      <c r="A105" s="125"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="123"/>
       <c r="D105" s="9" t="s">
         <v>22</v>
       </c>
@@ -7675,9 +7676,9 @@
       <c r="S105" s="61"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="115"/>
-      <c r="B106" s="116"/>
-      <c r="C106" s="112"/>
+      <c r="A106" s="125"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="123"/>
       <c r="D106" s="48" t="s">
         <v>61</v>
       </c>
@@ -7726,9 +7727,9 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="115"/>
-      <c r="B107" s="116"/>
-      <c r="C107" s="112"/>
+      <c r="A107" s="125"/>
+      <c r="B107" s="111"/>
+      <c r="C107" s="123"/>
       <c r="D107" s="9" t="s">
         <v>21</v>
       </c>
@@ -7777,9 +7778,9 @@
       <c r="S107" s="61"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="115"/>
-      <c r="B108" s="116"/>
-      <c r="C108" s="112"/>
+      <c r="A108" s="125"/>
+      <c r="B108" s="111"/>
+      <c r="C108" s="123"/>
       <c r="D108" s="48" t="s">
         <v>62</v>
       </c>
@@ -7828,9 +7829,9 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="115"/>
-      <c r="B109" s="116"/>
-      <c r="C109" s="112"/>
+      <c r="A109" s="125"/>
+      <c r="B109" s="111"/>
+      <c r="C109" s="123"/>
       <c r="D109" s="9" t="s">
         <v>23</v>
       </c>
@@ -7879,9 +7880,9 @@
       <c r="S109" s="61"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="115"/>
-      <c r="B110" s="116"/>
-      <c r="C110" s="112"/>
+      <c r="A110" s="125"/>
+      <c r="B110" s="111"/>
+      <c r="C110" s="123"/>
       <c r="D110" s="48" t="s">
         <v>63</v>
       </c>
@@ -7943,9 +7944,9 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="115"/>
-      <c r="B111" s="116"/>
-      <c r="C111" s="112"/>
+      <c r="A111" s="125"/>
+      <c r="B111" s="111"/>
+      <c r="C111" s="123"/>
       <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
@@ -7994,9 +7995,9 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="115"/>
-      <c r="B112" s="116"/>
-      <c r="C112" s="112"/>
+      <c r="A112" s="125"/>
+      <c r="B112" s="111"/>
+      <c r="C112" s="123"/>
       <c r="D112" s="9" t="s">
         <v>24</v>
       </c>
@@ -8019,9 +8020,9 @@
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="115"/>
-      <c r="B113" s="116"/>
-      <c r="C113" s="112"/>
+      <c r="A113" s="125"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="123"/>
       <c r="D113" s="49" t="s">
         <v>64</v>
       </c>
@@ -8086,11 +8087,11 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="114" t="s">
+      <c r="A114" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="116"/>
-      <c r="C114" s="111" t="s">
+      <c r="B114" s="111"/>
+      <c r="C114" s="122" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="10"/>
@@ -8102,9 +8103,9 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="115"/>
-      <c r="B115" s="116"/>
-      <c r="C115" s="112"/>
+      <c r="A115" s="125"/>
+      <c r="B115" s="111"/>
+      <c r="C115" s="123"/>
       <c r="D115" s="9" t="s">
         <v>25</v>
       </c>
@@ -8157,9 +8158,9 @@
       <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="115"/>
-      <c r="B116" s="116"/>
-      <c r="C116" s="112"/>
+      <c r="A116" s="125"/>
+      <c r="B116" s="111"/>
+      <c r="C116" s="123"/>
       <c r="D116" s="9" t="s">
         <v>14</v>
       </c>
@@ -8212,9 +8213,9 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="115"/>
-      <c r="B117" s="116"/>
-      <c r="C117" s="112"/>
+      <c r="A117" s="125"/>
+      <c r="B117" s="111"/>
+      <c r="C117" s="123"/>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
@@ -8263,9 +8264,9 @@
       <c r="S117" s="61"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="115"/>
-      <c r="B118" s="116"/>
-      <c r="C118" s="112"/>
+      <c r="A118" s="125"/>
+      <c r="B118" s="111"/>
+      <c r="C118" s="123"/>
       <c r="D118" s="9" t="s">
         <v>22</v>
       </c>
@@ -8314,9 +8315,9 @@
       <c r="S118" s="61"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="115"/>
-      <c r="B119" s="116"/>
-      <c r="C119" s="112"/>
+      <c r="A119" s="125"/>
+      <c r="B119" s="111"/>
+      <c r="C119" s="123"/>
       <c r="D119" s="48" t="s">
         <v>61</v>
       </c>
@@ -8365,9 +8366,9 @@
       <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="115"/>
-      <c r="B120" s="116"/>
-      <c r="C120" s="112"/>
+      <c r="A120" s="125"/>
+      <c r="B120" s="111"/>
+      <c r="C120" s="123"/>
       <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
@@ -8416,9 +8417,9 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="115"/>
-      <c r="B121" s="116"/>
-      <c r="C121" s="112"/>
+      <c r="A121" s="125"/>
+      <c r="B121" s="111"/>
+      <c r="C121" s="123"/>
       <c r="D121" s="48" t="s">
         <v>62</v>
       </c>
@@ -8467,9 +8468,9 @@
       <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="115"/>
-      <c r="B122" s="116"/>
-      <c r="C122" s="112"/>
+      <c r="A122" s="125"/>
+      <c r="B122" s="111"/>
+      <c r="C122" s="123"/>
       <c r="D122" s="9" t="s">
         <v>23</v>
       </c>
@@ -8518,9 +8519,9 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="115"/>
-      <c r="B123" s="116"/>
-      <c r="C123" s="112"/>
+      <c r="A123" s="125"/>
+      <c r="B123" s="111"/>
+      <c r="C123" s="123"/>
       <c r="D123" s="48" t="s">
         <v>63</v>
       </c>
@@ -8582,9 +8583,9 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="115"/>
-      <c r="B124" s="116"/>
-      <c r="C124" s="112"/>
+      <c r="A124" s="125"/>
+      <c r="B124" s="111"/>
+      <c r="C124" s="123"/>
       <c r="D124" s="9" t="s">
         <v>20</v>
       </c>
@@ -8633,9 +8634,9 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="115"/>
-      <c r="B125" s="116"/>
-      <c r="C125" s="112"/>
+      <c r="A125" s="125"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="123"/>
       <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
@@ -8658,9 +8659,9 @@
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="115"/>
-      <c r="B126" s="116"/>
-      <c r="C126" s="112"/>
+      <c r="A126" s="125"/>
+      <c r="B126" s="111"/>
+      <c r="C126" s="123"/>
       <c r="D126" s="49" t="s">
         <v>64</v>
       </c>
@@ -8725,9 +8726,9 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="115"/>
-      <c r="B127" s="116"/>
-      <c r="C127" s="111" t="s">
+      <c r="A127" s="125"/>
+      <c r="B127" s="111"/>
+      <c r="C127" s="122" t="s">
         <v>79</v>
       </c>
       <c r="I127" s="10"/>
@@ -8739,9 +8740,9 @@
       <c r="U127" s="10"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="115"/>
-      <c r="B128" s="116"/>
-      <c r="C128" s="112"/>
+      <c r="A128" s="125"/>
+      <c r="B128" s="111"/>
+      <c r="C128" s="123"/>
       <c r="D128" s="9" t="s">
         <v>25</v>
       </c>
@@ -8794,9 +8795,9 @@
       <c r="U128" s="10"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="115"/>
-      <c r="B129" s="116"/>
-      <c r="C129" s="112"/>
+      <c r="A129" s="125"/>
+      <c r="B129" s="111"/>
+      <c r="C129" s="123"/>
       <c r="D129" s="9" t="s">
         <v>14</v>
       </c>
@@ -8849,9 +8850,9 @@
       <c r="U129" s="10"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="115"/>
-      <c r="B130" s="116"/>
-      <c r="C130" s="112"/>
+      <c r="A130" s="125"/>
+      <c r="B130" s="111"/>
+      <c r="C130" s="123"/>
       <c r="D130" s="9" t="s">
         <v>36</v>
       </c>
@@ -8900,9 +8901,9 @@
       <c r="S130" s="61"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="115"/>
-      <c r="B131" s="116"/>
-      <c r="C131" s="112"/>
+      <c r="A131" s="125"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="123"/>
       <c r="D131" s="9" t="s">
         <v>22</v>
       </c>
@@ -8951,9 +8952,9 @@
       <c r="S131" s="61"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="115"/>
-      <c r="B132" s="116"/>
-      <c r="C132" s="112"/>
+      <c r="A132" s="125"/>
+      <c r="B132" s="111"/>
+      <c r="C132" s="123"/>
       <c r="D132" s="48" t="s">
         <v>61</v>
       </c>
@@ -9002,9 +9003,9 @@
       <c r="S132" s="10"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="115"/>
-      <c r="B133" s="116"/>
-      <c r="C133" s="112"/>
+      <c r="A133" s="125"/>
+      <c r="B133" s="111"/>
+      <c r="C133" s="123"/>
       <c r="D133" s="9" t="s">
         <v>21</v>
       </c>
@@ -9053,9 +9054,9 @@
       <c r="S133" s="61"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="115"/>
-      <c r="B134" s="116"/>
-      <c r="C134" s="112"/>
+      <c r="A134" s="125"/>
+      <c r="B134" s="111"/>
+      <c r="C134" s="123"/>
       <c r="D134" s="48" t="s">
         <v>62</v>
       </c>
@@ -9104,9 +9105,9 @@
       <c r="S134" s="10"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="115"/>
-      <c r="B135" s="116"/>
-      <c r="C135" s="112"/>
+      <c r="A135" s="125"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="123"/>
       <c r="D135" s="9" t="s">
         <v>23</v>
       </c>
@@ -9155,9 +9156,9 @@
       <c r="S135" s="61"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="115"/>
-      <c r="B136" s="116"/>
-      <c r="C136" s="112"/>
+      <c r="A136" s="125"/>
+      <c r="B136" s="111"/>
+      <c r="C136" s="123"/>
       <c r="D136" s="48" t="s">
         <v>63</v>
       </c>
@@ -9219,9 +9220,9 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="115"/>
-      <c r="B137" s="116"/>
-      <c r="C137" s="112"/>
+      <c r="A137" s="125"/>
+      <c r="B137" s="111"/>
+      <c r="C137" s="123"/>
       <c r="D137" s="9" t="s">
         <v>20</v>
       </c>
@@ -9270,9 +9271,9 @@
       <c r="S137" s="61"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="115"/>
-      <c r="B138" s="116"/>
-      <c r="C138" s="112"/>
+      <c r="A138" s="125"/>
+      <c r="B138" s="111"/>
+      <c r="C138" s="123"/>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
@@ -9295,9 +9296,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="115"/>
-      <c r="B139" s="116"/>
-      <c r="C139" s="112"/>
+      <c r="A139" s="125"/>
+      <c r="B139" s="111"/>
+      <c r="C139" s="123"/>
       <c r="D139" s="49" t="s">
         <v>64</v>
       </c>
@@ -9362,9 +9363,9 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="115"/>
-      <c r="B140" s="116"/>
-      <c r="C140" s="113" t="s">
+      <c r="A140" s="125"/>
+      <c r="B140" s="111"/>
+      <c r="C140" s="121" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="10"/>
@@ -9376,9 +9377,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="115"/>
-      <c r="B141" s="116"/>
-      <c r="C141" s="113"/>
+      <c r="A141" s="125"/>
+      <c r="B141" s="111"/>
+      <c r="C141" s="121"/>
       <c r="D141" s="9" t="s">
         <v>25</v>
       </c>
@@ -9431,9 +9432,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="115"/>
-      <c r="B142" s="116"/>
-      <c r="C142" s="113"/>
+      <c r="A142" s="125"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="121"/>
       <c r="D142" s="9" t="s">
         <v>14</v>
       </c>
@@ -9486,9 +9487,9 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="115"/>
-      <c r="B143" s="116"/>
-      <c r="C143" s="113"/>
+      <c r="A143" s="125"/>
+      <c r="B143" s="111"/>
+      <c r="C143" s="121"/>
       <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
@@ -9537,9 +9538,9 @@
       <c r="S143" s="61"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="115"/>
-      <c r="B144" s="116"/>
-      <c r="C144" s="113"/>
+      <c r="A144" s="125"/>
+      <c r="B144" s="111"/>
+      <c r="C144" s="121"/>
       <c r="D144" s="9" t="s">
         <v>22</v>
       </c>
@@ -9588,9 +9589,9 @@
       <c r="S144" s="61"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="115"/>
-      <c r="B145" s="116"/>
-      <c r="C145" s="113"/>
+      <c r="A145" s="125"/>
+      <c r="B145" s="111"/>
+      <c r="C145" s="121"/>
       <c r="D145" s="48" t="s">
         <v>61</v>
       </c>
@@ -9639,9 +9640,9 @@
       <c r="S145" s="10"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="115"/>
-      <c r="B146" s="116"/>
-      <c r="C146" s="113"/>
+      <c r="A146" s="125"/>
+      <c r="B146" s="111"/>
+      <c r="C146" s="121"/>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
@@ -9690,9 +9691,9 @@
       <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="115"/>
-      <c r="B147" s="116"/>
-      <c r="C147" s="113"/>
+      <c r="A147" s="125"/>
+      <c r="B147" s="111"/>
+      <c r="C147" s="121"/>
       <c r="D147" s="48" t="s">
         <v>62</v>
       </c>
@@ -9741,9 +9742,9 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="115"/>
-      <c r="B148" s="116"/>
-      <c r="C148" s="113"/>
+      <c r="A148" s="125"/>
+      <c r="B148" s="111"/>
+      <c r="C148" s="121"/>
       <c r="D148" s="9" t="s">
         <v>23</v>
       </c>
@@ -9792,9 +9793,9 @@
       <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="115"/>
-      <c r="B149" s="116"/>
-      <c r="C149" s="113"/>
+      <c r="A149" s="125"/>
+      <c r="B149" s="111"/>
+      <c r="C149" s="121"/>
       <c r="D149" s="48" t="s">
         <v>63</v>
       </c>
@@ -9856,9 +9857,9 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="115"/>
-      <c r="B150" s="116"/>
-      <c r="C150" s="113"/>
+      <c r="A150" s="125"/>
+      <c r="B150" s="111"/>
+      <c r="C150" s="121"/>
       <c r="D150" s="9" t="s">
         <v>20</v>
       </c>
@@ -9907,9 +9908,9 @@
       <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="115"/>
-      <c r="B151" s="116"/>
-      <c r="C151" s="113"/>
+      <c r="A151" s="125"/>
+      <c r="B151" s="111"/>
+      <c r="C151" s="121"/>
       <c r="D151" s="9" t="s">
         <v>24</v>
       </c>
@@ -9932,9 +9933,9 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="115"/>
-      <c r="B152" s="116"/>
-      <c r="C152" s="113"/>
+      <c r="A152" s="125"/>
+      <c r="B152" s="111"/>
+      <c r="C152" s="121"/>
       <c r="D152" s="49" t="s">
         <v>64</v>
       </c>
@@ -9999,9 +10000,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="115"/>
-      <c r="B153" s="116"/>
-      <c r="C153" s="113"/>
+      <c r="A153" s="125"/>
+      <c r="B153" s="111"/>
+      <c r="C153" s="121"/>
       <c r="D153" s="52" t="s">
         <v>67</v>
       </c>
@@ -10103,17 +10104,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A8:C11"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C127:C139"/>
     <mergeCell ref="C140:C153"/>
     <mergeCell ref="A34:A60"/>
@@ -10130,6 +10120,17 @@
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="C47:C60"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="5" orientation="landscape" r:id="rId1"/>
@@ -10142,11 +10143,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Y233"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14980,10 +14981,10 @@
         <v>1</v>
       </c>
       <c r="K147">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M147">
         <v>1</v>
@@ -15004,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="U147" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
@@ -15036,7 +15037,7 @@
         <v>2</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -15057,7 +15058,7 @@
         <v>2</v>
       </c>
       <c r="U148" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
@@ -15089,7 +15090,7 @@
         <v>2</v>
       </c>
       <c r="L149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -15110,7 +15111,7 @@
         <v>3</v>
       </c>
       <c r="U149" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
@@ -15142,7 +15143,7 @@
         <v>2</v>
       </c>
       <c r="L150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -15163,7 +15164,7 @@
         <v>4</v>
       </c>
       <c r="U150" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
@@ -15195,7 +15196,7 @@
         <v>2</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -15216,7 +15217,7 @@
         <v>5</v>
       </c>
       <c r="U151" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
@@ -15248,7 +15249,7 @@
         <v>2</v>
       </c>
       <c r="L152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -15269,7 +15270,7 @@
         <v>6</v>
       </c>
       <c r="U152" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
@@ -15301,7 +15302,7 @@
         <v>2</v>
       </c>
       <c r="L153" s="95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M153" s="95">
         <v>1</v>
@@ -15322,7 +15323,7 @@
         <v>7</v>
       </c>
       <c r="U153" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -15354,7 +15355,7 @@
         <v>2</v>
       </c>
       <c r="L154" s="95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M154" s="95">
         <v>1</v>
@@ -15375,7 +15376,7 @@
         <v>8</v>
       </c>
       <c r="U154" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
@@ -15428,7 +15429,7 @@
         <v>9</v>
       </c>
       <c r="U155" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
@@ -15460,7 +15461,7 @@
         <v>10</v>
       </c>
       <c r="U156" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.3">
@@ -15473,17 +15474,17 @@
       <c r="C157">
         <v>1</v>
       </c>
-      <c r="E157">
-        <v>2</v>
-      </c>
-      <c r="F157">
+      <c r="E157" s="95">
+        <v>2</v>
+      </c>
+      <c r="F157" s="95">
         <v>1</v>
       </c>
       <c r="G157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
@@ -15496,17 +15497,17 @@
       <c r="C158">
         <v>1</v>
       </c>
-      <c r="E158">
-        <v>2</v>
-      </c>
-      <c r="F158">
+      <c r="E158" s="95">
+        <v>2</v>
+      </c>
+      <c r="F158" s="95">
         <v>1</v>
       </c>
       <c r="G158">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
@@ -15519,17 +15520,17 @@
       <c r="C159">
         <v>1</v>
       </c>
-      <c r="E159">
-        <v>2</v>
-      </c>
-      <c r="F159">
+      <c r="E159" s="95">
+        <v>2</v>
+      </c>
+      <c r="F159" s="95">
         <v>1</v>
       </c>
       <c r="G159">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
@@ -15542,20 +15543,20 @@
       <c r="C160">
         <v>1</v>
       </c>
-      <c r="E160">
-        <v>2</v>
-      </c>
-      <c r="F160">
+      <c r="E160" s="95">
+        <v>2</v>
+      </c>
+      <c r="F160" s="95">
         <v>1</v>
       </c>
       <c r="G160">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H160">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="95">
         <v>5</v>
       </c>
@@ -15566,19 +15567,19 @@
         <v>1</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H161">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="95">
         <v>6</v>
       </c>
@@ -15592,16 +15593,16 @@
         <v>2</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H162">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="95">
         <v>7</v>
       </c>
@@ -15611,8 +15612,20 @@
       <c r="C163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>7</v>
+      </c>
+      <c r="H163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="95">
         <v>8</v>
       </c>
@@ -15622,8 +15635,20 @@
       <c r="C164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>8</v>
+      </c>
+      <c r="H164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="95">
         <v>9</v>
       </c>
@@ -15633,8 +15658,20 @@
       <c r="C165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>9</v>
+      </c>
+      <c r="H165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="95">
         <v>10</v>
       </c>
@@ -15644,479 +15681,154 @@
       <c r="C166">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>10</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A170" s="95" t="s">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A177" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="B170" s="95"/>
-      <c r="C170" s="95"/>
-      <c r="D170" s="95"/>
-      <c r="E170" s="95" t="s">
+      <c r="B177" s="95"/>
+      <c r="C177" s="95"/>
+      <c r="D177" s="95"/>
+      <c r="E177" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="F170" s="95"/>
-      <c r="G170" s="95"/>
-      <c r="H170" s="95"/>
-      <c r="I170" s="95"/>
-      <c r="J170" s="95" t="s">
+      <c r="F177" s="95"/>
+      <c r="G177" s="95"/>
+      <c r="H177" s="95"/>
+      <c r="I177" s="95"/>
+      <c r="J177" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="K170" s="95"/>
-      <c r="L170" s="95"/>
-      <c r="M170" s="95"/>
-      <c r="N170" s="95"/>
-      <c r="O170" s="95"/>
-      <c r="P170" s="95"/>
-      <c r="Q170" s="95"/>
-      <c r="S170" s="95" t="s">
+      <c r="K177" s="95"/>
+      <c r="L177" s="95"/>
+      <c r="M177" s="95"/>
+      <c r="N177" s="95"/>
+      <c r="O177" s="95"/>
+      <c r="P177" s="95"/>
+      <c r="Q177" s="95"/>
+      <c r="S177" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="T170" s="95"/>
-      <c r="U170" s="95"/>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A171" s="95" t="s">
+      <c r="T177" s="95"/>
+      <c r="U177" s="95"/>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A178" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="B171" s="95" t="s">
+      <c r="B178" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="C171" s="95" t="s">
+      <c r="C178" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="D171" s="95"/>
-      <c r="E171" s="95" t="s">
+      <c r="D178" s="95"/>
+      <c r="E178" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="F171" s="95" t="s">
+      <c r="F178" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="G171" s="95" t="s">
+      <c r="G178" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="H171" s="95" t="s">
+      <c r="H178" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="I171" s="95"/>
-      <c r="J171" s="95" t="s">
+      <c r="I178" s="95"/>
+      <c r="J178" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="K171" s="95" t="s">
+      <c r="K178" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="L171" s="95" t="s">
+      <c r="L178" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="M171" s="95" t="s">
+      <c r="M178" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="N171" s="95" t="s">
+      <c r="N178" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="O171" s="95" t="s">
+      <c r="O178" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="P171" s="95" t="s">
+      <c r="P178" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="Q171" s="95"/>
-      <c r="S171" s="95" t="s">
+      <c r="Q178" s="95"/>
+      <c r="S178" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="T171" s="95" t="s">
+      <c r="T178" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="U171" s="95" t="s">
+      <c r="U178" s="95" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A172" s="95">
-        <v>1</v>
-      </c>
-      <c r="B172" s="95">
-        <v>1</v>
-      </c>
-      <c r="C172" s="95">
-        <v>1</v>
-      </c>
-      <c r="E172" s="95">
-        <v>1</v>
-      </c>
-      <c r="F172" s="95">
-        <v>1</v>
-      </c>
-      <c r="G172" s="95">
-        <v>1</v>
-      </c>
-      <c r="H172" s="95">
-        <v>1</v>
-      </c>
-      <c r="J172">
-        <v>1</v>
-      </c>
-      <c r="K172">
-        <v>2</v>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="M172">
-        <v>1</v>
-      </c>
-      <c r="N172">
-        <v>1000000</v>
-      </c>
-      <c r="O172">
-        <v>1000000</v>
-      </c>
-      <c r="P172">
-        <v>0.5</v>
-      </c>
-      <c r="S172" s="95">
-        <v>1</v>
-      </c>
-      <c r="T172" s="95">
-        <v>1</v>
-      </c>
-      <c r="U172" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A173" s="95">
-        <v>2</v>
-      </c>
-      <c r="B173" s="95">
-        <v>1</v>
-      </c>
-      <c r="C173" s="95">
-        <v>2</v>
-      </c>
-      <c r="E173" s="95">
-        <v>1</v>
-      </c>
-      <c r="F173" s="95">
-        <v>1</v>
-      </c>
-      <c r="G173" s="95">
-        <v>2</v>
-      </c>
-      <c r="H173" s="95">
-        <v>1</v>
-      </c>
-      <c r="J173">
-        <v>2</v>
-      </c>
-      <c r="K173">
-        <v>2</v>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-      <c r="M173">
-        <v>1</v>
-      </c>
-      <c r="N173">
-        <v>2000000</v>
-      </c>
-      <c r="O173">
-        <v>3000000</v>
-      </c>
-      <c r="P173">
-        <v>0.9</v>
-      </c>
-      <c r="S173" s="95">
-        <v>2</v>
-      </c>
-      <c r="T173" s="95">
-        <v>2</v>
-      </c>
-      <c r="U173" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A174" s="95">
-        <v>3</v>
-      </c>
-      <c r="B174" s="95">
-        <v>1</v>
-      </c>
-      <c r="C174" s="95">
-        <v>3</v>
-      </c>
-      <c r="E174" s="95">
-        <v>1</v>
-      </c>
-      <c r="F174" s="95">
-        <v>1</v>
-      </c>
-      <c r="G174" s="95">
-        <v>3</v>
-      </c>
-      <c r="H174" s="95">
-        <v>1</v>
-      </c>
-      <c r="J174">
-        <v>3</v>
-      </c>
-      <c r="K174">
-        <v>2</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-      <c r="M174">
-        <v>1</v>
-      </c>
-      <c r="N174">
-        <v>5000000</v>
-      </c>
-      <c r="O174">
-        <v>5000000</v>
-      </c>
-      <c r="P174">
-        <v>1</v>
-      </c>
-      <c r="S174" s="95">
-        <v>3</v>
-      </c>
-      <c r="T174" s="95">
-        <v>3</v>
-      </c>
-      <c r="U174" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A175" s="95">
-        <v>4</v>
-      </c>
-      <c r="B175" s="95">
-        <v>1</v>
-      </c>
-      <c r="C175" s="95">
-        <v>4</v>
-      </c>
-      <c r="E175" s="95">
-        <v>1</v>
-      </c>
-      <c r="F175" s="95">
-        <v>1</v>
-      </c>
-      <c r="G175" s="95">
-        <v>4</v>
-      </c>
-      <c r="H175" s="95">
-        <v>1</v>
-      </c>
-      <c r="J175">
-        <v>4</v>
-      </c>
-      <c r="K175">
-        <v>2</v>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-      <c r="M175">
-        <v>1</v>
-      </c>
-      <c r="N175">
-        <v>10000000</v>
-      </c>
-      <c r="O175">
-        <v>10000000</v>
-      </c>
-      <c r="P175">
-        <v>1</v>
-      </c>
-      <c r="S175" s="95">
-        <v>4</v>
-      </c>
-      <c r="T175" s="95">
-        <v>4</v>
-      </c>
-      <c r="U175" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A176" s="95">
-        <v>5</v>
-      </c>
-      <c r="B176" s="95">
-        <v>1</v>
-      </c>
-      <c r="C176" s="95">
-        <v>5</v>
-      </c>
-      <c r="E176" s="95">
-        <v>1</v>
-      </c>
-      <c r="F176" s="95">
-        <v>1</v>
-      </c>
-      <c r="G176" s="95">
-        <v>5</v>
-      </c>
-      <c r="H176" s="95">
-        <v>1</v>
-      </c>
-      <c r="J176">
-        <v>5</v>
-      </c>
-      <c r="K176">
-        <v>2</v>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-      <c r="M176">
-        <v>1</v>
-      </c>
-      <c r="N176">
-        <v>20000000</v>
-      </c>
-      <c r="O176">
-        <v>10000000</v>
-      </c>
-      <c r="P176">
-        <v>1</v>
-      </c>
-      <c r="S176" s="95">
-        <v>5</v>
-      </c>
-      <c r="T176" s="95">
-        <v>5</v>
-      </c>
-      <c r="U176" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A177" s="95">
-        <v>6</v>
-      </c>
-      <c r="B177" s="95">
-        <v>1</v>
-      </c>
-      <c r="C177" s="95">
-        <v>6</v>
-      </c>
-      <c r="E177" s="95">
-        <v>1</v>
-      </c>
-      <c r="F177" s="95">
-        <v>1</v>
-      </c>
-      <c r="G177" s="95">
-        <v>6</v>
-      </c>
-      <c r="H177" s="95">
-        <v>1</v>
-      </c>
-      <c r="J177">
-        <v>6</v>
-      </c>
-      <c r="K177">
-        <v>14</v>
-      </c>
-      <c r="L177">
-        <v>2</v>
-      </c>
-      <c r="M177" s="95">
-        <v>1</v>
-      </c>
-      <c r="N177">
-        <v>0</v>
-      </c>
-      <c r="O177">
-        <v>3000000</v>
-      </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-      <c r="S177" s="95">
-        <v>6</v>
-      </c>
-      <c r="T177" s="95">
-        <v>6</v>
-      </c>
-      <c r="U177" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A178" s="95">
-        <v>7</v>
-      </c>
-      <c r="B178" s="95">
-        <v>1</v>
-      </c>
-      <c r="C178" s="95">
-        <v>7</v>
-      </c>
-      <c r="E178" s="95">
-        <v>1</v>
-      </c>
-      <c r="F178" s="95">
-        <v>1</v>
-      </c>
-      <c r="G178" s="95">
-        <v>7</v>
-      </c>
-      <c r="H178" s="95">
-        <v>1</v>
-      </c>
-      <c r="J178">
-        <v>7</v>
-      </c>
-      <c r="K178" s="95">
-        <v>14</v>
-      </c>
-      <c r="L178">
-        <v>2</v>
-      </c>
-      <c r="M178" s="95">
-        <v>1</v>
-      </c>
-      <c r="N178">
-        <v>0</v>
-      </c>
-      <c r="O178">
-        <v>9000000</v>
-      </c>
-      <c r="P178">
-        <v>0</v>
-      </c>
-      <c r="S178" s="95">
-        <v>7</v>
-      </c>
-      <c r="T178" s="95">
-        <v>7</v>
-      </c>
-      <c r="U178" s="95">
-        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B179" s="95">
         <v>1</v>
       </c>
       <c r="C179" s="95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E179" s="95">
         <v>1</v>
@@ -16125,37 +15837,37 @@
         <v>1</v>
       </c>
       <c r="G179" s="95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H179" s="95">
         <v>1</v>
       </c>
       <c r="J179">
-        <v>8</v>
-      </c>
-      <c r="K179" s="95">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
       </c>
       <c r="L179">
-        <v>2</v>
-      </c>
-      <c r="M179" s="95">
+        <v>0</v>
+      </c>
+      <c r="M179">
         <v>1</v>
       </c>
       <c r="N179">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="O179">
-        <v>15000000</v>
+        <v>1000000</v>
       </c>
       <c r="P179">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S179" s="95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T179" s="95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U179" s="95">
         <v>1</v>
@@ -16163,13 +15875,13 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B180" s="95">
         <v>1</v>
       </c>
       <c r="C180" s="95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E180" s="95">
         <v>1</v>
@@ -16178,37 +15890,37 @@
         <v>1</v>
       </c>
       <c r="G180" s="95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H180" s="95">
         <v>1</v>
       </c>
       <c r="J180">
-        <v>9</v>
-      </c>
-      <c r="K180" s="95">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>2</v>
-      </c>
-      <c r="M180" s="95">
+        <v>0</v>
+      </c>
+      <c r="M180">
         <v>1</v>
       </c>
       <c r="N180">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="O180">
-        <v>20000000</v>
+        <v>3000000</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S180" s="95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T180" s="95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U180" s="95">
         <v>1</v>
@@ -16216,13 +15928,13 @@
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B181" s="95">
         <v>1</v>
       </c>
       <c r="C181" s="95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E181" s="95">
         <v>1</v>
@@ -16231,37 +15943,37 @@
         <v>1</v>
       </c>
       <c r="G181" s="95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H181" s="95">
         <v>1</v>
       </c>
       <c r="J181">
-        <v>10</v>
-      </c>
-      <c r="K181" s="95">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>2</v>
-      </c>
-      <c r="M181" s="95">
+        <v>0</v>
+      </c>
+      <c r="M181">
         <v>1</v>
       </c>
       <c r="N181">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="O181">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="P181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S181" s="95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T181" s="95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U181" s="95">
         <v>1</v>
@@ -16269,168 +15981,378 @@
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="95">
-        <v>1</v>
-      </c>
-      <c r="B182">
-        <v>2</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B182" s="95">
+        <v>1</v>
+      </c>
+      <c r="C182" s="95">
+        <v>4</v>
       </c>
       <c r="E182" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F182" s="95">
         <v>1</v>
       </c>
       <c r="G182" s="95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H182" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>4</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>10000000</v>
+      </c>
+      <c r="O182">
+        <v>10000000</v>
+      </c>
+      <c r="P182">
+        <v>1</v>
+      </c>
+      <c r="S182" s="95">
+        <v>4</v>
+      </c>
+      <c r="T182" s="95">
+        <v>4</v>
+      </c>
+      <c r="U182" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="95">
-        <v>2</v>
-      </c>
-      <c r="B183">
-        <v>2</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B183" s="95">
+        <v>1</v>
+      </c>
+      <c r="C183" s="95">
+        <v>5</v>
       </c>
       <c r="E183" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" s="95">
         <v>1</v>
       </c>
       <c r="G183" s="95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H183" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>5</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>20000000</v>
+      </c>
+      <c r="O183">
+        <v>10000000</v>
+      </c>
+      <c r="P183">
+        <v>1</v>
+      </c>
+      <c r="S183" s="95">
+        <v>5</v>
+      </c>
+      <c r="T183" s="95">
+        <v>5</v>
+      </c>
+      <c r="U183" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="95">
-        <v>3</v>
-      </c>
-      <c r="B184">
-        <v>2</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B184" s="95">
+        <v>1</v>
+      </c>
+      <c r="C184" s="95">
+        <v>6</v>
       </c>
       <c r="E184" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" s="95">
         <v>1</v>
       </c>
       <c r="G184" s="95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H184" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>6</v>
+      </c>
+      <c r="K184">
+        <v>14</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184" s="95">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>3000000</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="S184" s="95">
+        <v>6</v>
+      </c>
+      <c r="T184" s="95">
+        <v>6</v>
+      </c>
+      <c r="U184" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="95">
-        <v>4</v>
-      </c>
-      <c r="B185">
-        <v>2</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B185" s="95">
+        <v>1</v>
+      </c>
+      <c r="C185" s="95">
+        <v>7</v>
       </c>
       <c r="E185" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F185" s="95">
         <v>1</v>
       </c>
       <c r="G185" s="95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H185" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>7</v>
+      </c>
+      <c r="K185" s="95">
+        <v>14</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185" s="95">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>9000000</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="S185" s="95">
+        <v>7</v>
+      </c>
+      <c r="T185" s="95">
+        <v>7</v>
+      </c>
+      <c r="U185" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="95">
-        <v>5</v>
-      </c>
-      <c r="B186">
-        <v>2</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B186" s="95">
+        <v>1</v>
+      </c>
+      <c r="C186" s="95">
+        <v>8</v>
       </c>
       <c r="E186" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F186" s="95">
         <v>1</v>
       </c>
       <c r="G186" s="95">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H186" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>8</v>
+      </c>
+      <c r="K186" s="95">
+        <v>14</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186" s="95">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>15000000</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="S186" s="95">
+        <v>8</v>
+      </c>
+      <c r="T186" s="95">
+        <v>8</v>
+      </c>
+      <c r="U186" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="95">
-        <v>6</v>
-      </c>
-      <c r="B187">
-        <v>2</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B187" s="95">
+        <v>1</v>
+      </c>
+      <c r="C187" s="95">
+        <v>9</v>
       </c>
       <c r="E187" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F187" s="95">
         <v>1</v>
       </c>
       <c r="G187" s="95">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H187" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>9</v>
+      </c>
+      <c r="K187" s="95">
+        <v>14</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187" s="95">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>20000000</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="S187" s="95">
+        <v>9</v>
+      </c>
+      <c r="T187" s="95">
+        <v>9</v>
+      </c>
+      <c r="U187" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="95">
-        <v>7</v>
-      </c>
-      <c r="B188">
-        <v>2</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B188" s="95">
+        <v>1</v>
+      </c>
+      <c r="C188" s="95">
+        <v>10</v>
       </c>
       <c r="E188" s="95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F188" s="95">
         <v>1</v>
       </c>
       <c r="G188" s="95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H188" s="95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>10</v>
+      </c>
+      <c r="K188" s="95">
+        <v>14</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188" s="95">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>10000000</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="S188" s="95">
+        <v>10</v>
+      </c>
+      <c r="T188" s="95">
+        <v>10</v>
+      </c>
+      <c r="U188" s="95">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -16445,7 +16367,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H189" s="95">
         <v>2</v>
@@ -16453,7 +16375,7 @@
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B190">
         <v>2</v>
@@ -16468,7 +16390,7 @@
         <v>1</v>
       </c>
       <c r="G190" s="95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H190" s="95">
         <v>2</v>
@@ -16476,126 +16398,189 @@
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="95">
+        <v>3</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="E191" s="95">
+        <v>2</v>
+      </c>
+      <c r="F191" s="95">
+        <v>1</v>
+      </c>
+      <c r="G191" s="95">
+        <v>3</v>
+      </c>
+      <c r="H191" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A192" s="95">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="E192" s="95">
+        <v>2</v>
+      </c>
+      <c r="F192" s="95">
+        <v>1</v>
+      </c>
+      <c r="G192" s="95">
+        <v>4</v>
+      </c>
+      <c r="H192" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="95">
+        <v>5</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="E193" s="95">
+        <v>2</v>
+      </c>
+      <c r="F193" s="95">
+        <v>1</v>
+      </c>
+      <c r="G193" s="95">
+        <v>5</v>
+      </c>
+      <c r="H193" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="95">
+        <v>6</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="E194" s="95">
+        <v>2</v>
+      </c>
+      <c r="F194" s="95">
+        <v>1</v>
+      </c>
+      <c r="G194" s="95">
+        <v>6</v>
+      </c>
+      <c r="H194" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="95">
+        <v>7</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="E195" s="95">
+        <v>2</v>
+      </c>
+      <c r="F195" s="95">
+        <v>1</v>
+      </c>
+      <c r="G195" s="95">
+        <v>7</v>
+      </c>
+      <c r="H195" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="95">
+        <v>8</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="E196" s="95">
+        <v>2</v>
+      </c>
+      <c r="F196" s="95">
+        <v>1</v>
+      </c>
+      <c r="G196" s="95">
+        <v>8</v>
+      </c>
+      <c r="H196" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="95">
+        <v>9</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="E197" s="95">
+        <v>2</v>
+      </c>
+      <c r="F197" s="95">
+        <v>1</v>
+      </c>
+      <c r="G197" s="95">
+        <v>9</v>
+      </c>
+      <c r="H197" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="95">
         <v>10</v>
       </c>
-      <c r="B191">
-        <v>2</v>
-      </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-      <c r="E191" s="95">
-        <v>2</v>
-      </c>
-      <c r="F191" s="95">
-        <v>1</v>
-      </c>
-      <c r="G191" s="95">
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="E198" s="95">
+        <v>2</v>
+      </c>
+      <c r="F198" s="95">
+        <v>1</v>
+      </c>
+      <c r="G198" s="95">
         <v>10</v>
       </c>
-      <c r="H191" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E192" s="95">
-        <v>3</v>
-      </c>
-      <c r="F192" s="95">
-        <v>1</v>
-      </c>
-      <c r="G192" s="95">
-        <v>1</v>
-      </c>
-      <c r="H192" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E193" s="95">
-        <v>3</v>
-      </c>
-      <c r="F193" s="95">
-        <v>1</v>
-      </c>
-      <c r="G193" s="95">
-        <v>2</v>
-      </c>
-      <c r="H193" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E194" s="95">
-        <v>3</v>
-      </c>
-      <c r="F194" s="95">
-        <v>1</v>
-      </c>
-      <c r="G194" s="95">
-        <v>3</v>
-      </c>
-      <c r="H194" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E195" s="95">
-        <v>3</v>
-      </c>
-      <c r="F195" s="95">
-        <v>1</v>
-      </c>
-      <c r="G195" s="95">
-        <v>4</v>
-      </c>
-      <c r="H195" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E196" s="95">
-        <v>3</v>
-      </c>
-      <c r="F196" s="95">
-        <v>1</v>
-      </c>
-      <c r="G196" s="95">
-        <v>5</v>
-      </c>
-      <c r="H196" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E197" s="95">
-        <v>3</v>
-      </c>
-      <c r="F197" s="95">
-        <v>1</v>
-      </c>
-      <c r="G197" s="95">
-        <v>6</v>
-      </c>
-      <c r="H197" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E198" s="95">
-        <v>3</v>
-      </c>
-      <c r="F198" s="95">
-        <v>1</v>
-      </c>
-      <c r="G198" s="95">
-        <v>7</v>
-      </c>
       <c r="H198" s="95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E199" s="95">
         <v>3</v>
       </c>
@@ -16603,13 +16588,13 @@
         <v>1</v>
       </c>
       <c r="G199" s="95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H199" s="95">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E200" s="95">
         <v>3</v>
       </c>
@@ -16617,13 +16602,13 @@
         <v>1</v>
       </c>
       <c r="G200" s="95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H200" s="95">
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E201" s="95">
         <v>3</v>
       </c>
@@ -16631,108 +16616,108 @@
         <v>1</v>
       </c>
       <c r="G201" s="95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H201" s="95">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E202" s="95">
+        <v>3</v>
+      </c>
+      <c r="F202" s="95">
+        <v>1</v>
+      </c>
+      <c r="G202" s="95">
         <v>4</v>
       </c>
-      <c r="F202" s="95">
-        <v>1</v>
-      </c>
-      <c r="G202" s="95">
-        <v>1</v>
-      </c>
       <c r="H202" s="95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E203" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F203" s="95">
         <v>1</v>
       </c>
       <c r="G203" s="95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H203" s="95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="5:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E204" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F204" s="95">
         <v>1</v>
       </c>
       <c r="G204" s="95">
+        <v>6</v>
+      </c>
+      <c r="H204" s="95">
         <v>3</v>
       </c>
-      <c r="H204" s="95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="5:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E205" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F205" s="95">
         <v>1</v>
       </c>
       <c r="G205" s="95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H205" s="95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="5:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E206" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F206" s="95">
         <v>1</v>
       </c>
       <c r="G206" s="95">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H206" s="95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="5:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E207" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F207" s="95">
         <v>1</v>
       </c>
       <c r="G207" s="95">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H207" s="95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="5:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E208" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F208" s="95">
         <v>1</v>
       </c>
       <c r="G208" s="95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H208" s="95">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="5:8" x14ac:dyDescent="0.3">
@@ -16743,7 +16728,7 @@
         <v>1</v>
       </c>
       <c r="G209" s="95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H209" s="95">
         <v>4</v>
@@ -16757,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="G210" s="95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H210" s="95">
         <v>4</v>
@@ -16771,7 +16756,7 @@
         <v>1</v>
       </c>
       <c r="G211" s="95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H211" s="95">
         <v>4</v>
@@ -16779,100 +16764,100 @@
     </row>
     <row r="212" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E212" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F212" s="95">
         <v>1</v>
       </c>
       <c r="G212" s="95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H212" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E213" s="95">
+        <v>4</v>
+      </c>
+      <c r="F213" s="95">
+        <v>1</v>
+      </c>
+      <c r="G213" s="95">
         <v>5</v>
       </c>
-      <c r="F213" s="95">
-        <v>1</v>
-      </c>
-      <c r="G213" s="95">
-        <v>2</v>
-      </c>
       <c r="H213" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E214" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F214" s="95">
         <v>1</v>
       </c>
       <c r="G214" s="95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H214" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E215" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F215" s="95">
         <v>1</v>
       </c>
       <c r="G215" s="95">
+        <v>7</v>
+      </c>
+      <c r="H215" s="95">
         <v>4</v>
-      </c>
-      <c r="H215" s="95">
-        <v>5</v>
       </c>
     </row>
     <row r="216" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E216" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F216" s="95">
         <v>1</v>
       </c>
       <c r="G216" s="95">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H216" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E217" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F217" s="95">
         <v>1</v>
       </c>
       <c r="G217" s="95">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H217" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E218" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F218" s="95">
         <v>1</v>
       </c>
       <c r="G218" s="95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H218" s="95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="5:8" x14ac:dyDescent="0.3">
@@ -16883,7 +16868,7 @@
         <v>1</v>
       </c>
       <c r="G219" s="95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H219" s="95">
         <v>5</v>
@@ -16897,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="G220" s="95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H220" s="95">
         <v>5</v>
@@ -16911,79 +16896,177 @@
         <v>1</v>
       </c>
       <c r="G221" s="95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H221" s="95">
         <v>5</v>
       </c>
     </row>
     <row r="222" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222">
-        <v>2</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222">
+      <c r="E222" s="95">
+        <v>5</v>
+      </c>
+      <c r="F222" s="95">
+        <v>1</v>
+      </c>
+      <c r="G222" s="95">
+        <v>4</v>
+      </c>
+      <c r="H222" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E223" s="95">
+        <v>5</v>
+      </c>
+      <c r="F223" s="95">
+        <v>1</v>
+      </c>
+      <c r="G223" s="95">
+        <v>5</v>
+      </c>
+      <c r="H223" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E224" s="95">
+        <v>5</v>
+      </c>
+      <c r="F224" s="95">
+        <v>1</v>
+      </c>
+      <c r="G224" s="95">
         <v>6</v>
       </c>
-    </row>
-    <row r="223" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E223">
-        <v>2</v>
-      </c>
-      <c r="F223">
-        <v>2</v>
-      </c>
-      <c r="G223">
-        <v>1</v>
-      </c>
-      <c r="H223">
+      <c r="H224" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E225" s="95">
+        <v>5</v>
+      </c>
+      <c r="F225" s="95">
+        <v>1</v>
+      </c>
+      <c r="G225" s="95">
         <v>7</v>
       </c>
-    </row>
-    <row r="224" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E224">
+      <c r="H225" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E226" s="95">
+        <v>5</v>
+      </c>
+      <c r="F226" s="95">
+        <v>1</v>
+      </c>
+      <c r="G226" s="95">
+        <v>8</v>
+      </c>
+      <c r="H226" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E227" s="95">
+        <v>5</v>
+      </c>
+      <c r="F227" s="95">
+        <v>1</v>
+      </c>
+      <c r="G227" s="95">
+        <v>9</v>
+      </c>
+      <c r="H227" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E228" s="95">
+        <v>5</v>
+      </c>
+      <c r="F228" s="95">
+        <v>1</v>
+      </c>
+      <c r="G228" s="95">
+        <v>10</v>
+      </c>
+      <c r="H228" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E231">
         <v>3</v>
       </c>
-      <c r="F224">
-        <v>2</v>
-      </c>
-      <c r="G224">
-        <v>1</v>
-      </c>
-      <c r="H224">
+      <c r="F231">
+        <v>2</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E225">
+    <row r="232" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E232">
         <v>4</v>
       </c>
-      <c r="F225">
-        <v>2</v>
-      </c>
-      <c r="G225">
-        <v>1</v>
-      </c>
-      <c r="H225">
+      <c r="F232">
+        <v>2</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E226">
+    <row r="233" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E233">
         <v>5</v>
       </c>
-      <c r="F226">
-        <v>2</v>
-      </c>
-      <c r="G226">
-        <v>1</v>
-      </c>
-      <c r="H226">
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
         <v>10</v>
       </c>
     </row>

--- a/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
+++ b/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{517EFDF6-F67A-4F6C-A1B5-3A43AB482AD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4163ED01-A627-4BC4-9485-9F3F4B5C4221}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="9" r:id="rId1"/>
@@ -1088,6 +1088,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1116,21 +1131,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1632,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -2926,11 +2926,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J89" sqref="J89"/>
+      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3086,11 +3086,11 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
@@ -3155,9 +3155,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="117"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="33" t="s">
         <v>39</v>
       </c>
@@ -3222,9 +3222,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
@@ -3289,9 +3289,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3376,13 +3376,13 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
@@ -3425,9 +3425,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
@@ -3480,9 +3480,9 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
@@ -3535,11 +3535,11 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="33" t="s">
         <v>38</v>
       </c>
@@ -3604,9 +3604,9 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="117"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="122"/>
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
@@ -3671,9 +3671,9 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="117"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
@@ -3738,9 +3738,9 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
@@ -3845,13 +3845,13 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="113" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3906,9 +3906,9 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="121"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
@@ -3961,9 +3961,9 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="121"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
@@ -4016,9 +4016,9 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="121"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="36" t="s">
         <v>53</v>
       </c>
@@ -4071,9 +4071,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="121" t="s">
+      <c r="A26" s="116"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="113" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -4128,9 +4128,9 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="121"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
@@ -4192,11 +4192,11 @@
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111" t="s">
+      <c r="A28" s="116"/>
+      <c r="B28" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="113" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -4230,9 +4230,9 @@
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="121"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="36" t="s">
         <v>59</v>
       </c>
@@ -4294,9 +4294,9 @@
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="121" t="s">
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="113" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -4330,9 +4330,9 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="121"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
@@ -4439,13 +4439,13 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="113" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4488,9 +4488,9 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="125"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="121"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
@@ -4531,9 +4531,9 @@
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="125"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="121"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4574,9 +4574,9 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="125"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="121"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
@@ -4617,9 +4617,9 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="125"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="121"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="48" t="s">
         <v>61</v>
       </c>
@@ -4672,9 +4672,9 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="125"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="121"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
@@ -4715,9 +4715,9 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="125"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="121"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
       <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
@@ -4770,9 +4770,9 @@
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="125"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="121"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -4813,9 +4813,9 @@
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="125"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="121"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
       <c r="D42" s="48" t="s">
         <v>63</v>
       </c>
@@ -4868,9 +4868,9 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="125"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="121"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
@@ -4911,9 +4911,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="125"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="121"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4954,9 +4954,9 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="125"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="121"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="49" t="s">
         <v>64</v>
       </c>
@@ -5021,9 +5021,9 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="125"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="121"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="36" t="s">
         <v>65</v>
       </c>
@@ -5088,11 +5088,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="125"/>
-      <c r="B47" s="111" t="s">
+      <c r="A47" s="115"/>
+      <c r="B47" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="121" t="s">
+      <c r="C47" s="113" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="10"/>
@@ -5115,9 +5115,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="125"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="121"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
@@ -5143,9 +5143,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="121"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
@@ -5171,9 +5171,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="125"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="121"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
@@ -5199,9 +5199,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="125"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="121"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="9" t="s">
         <v>22</v>
       </c>
@@ -5227,9 +5227,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="125"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="121"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="48" t="s">
         <v>61</v>
       </c>
@@ -5261,9 +5261,9 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="125"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="121"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
@@ -5289,9 +5289,9 @@
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="125"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="121"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="48" t="s">
         <v>62</v>
       </c>
@@ -5323,9 +5323,9 @@
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="125"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="121"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
@@ -5351,9 +5351,9 @@
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="125"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="121"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
       <c r="D56" s="48" t="s">
         <v>63</v>
       </c>
@@ -5385,9 +5385,9 @@
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="125"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="121"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
       <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
@@ -5413,9 +5413,9 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="125"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="121"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
@@ -5441,9 +5441,9 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="125"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="121"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="113"/>
       <c r="D59" s="49" t="s">
         <v>64</v>
       </c>
@@ -5508,9 +5508,9 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="125"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="121"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="36" t="s">
         <v>66</v>
       </c>
@@ -5575,13 +5575,13 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="124" t="s">
+      <c r="A61" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="122" t="s">
+      <c r="C61" s="111" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="10"/>
@@ -5604,9 +5604,9 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="125"/>
-      <c r="B62" s="111"/>
-      <c r="C62" s="123"/>
+      <c r="A62" s="115"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="112"/>
       <c r="D62" s="9" t="s">
         <v>25</v>
       </c>
@@ -5647,9 +5647,9 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="125"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="123"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="9" t="s">
         <v>14</v>
       </c>
@@ -5690,9 +5690,9 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="125"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="123"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="112"/>
       <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5733,9 +5733,9 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="125"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="123"/>
+      <c r="A65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="112"/>
       <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
@@ -5776,9 +5776,9 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="125"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="123"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="112"/>
       <c r="D66" s="48" t="s">
         <v>61</v>
       </c>
@@ -5831,9 +5831,9 @@
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="125"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="123"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="112"/>
       <c r="D67" s="9" t="s">
         <v>21</v>
       </c>
@@ -5874,9 +5874,9 @@
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="125"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="123"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="112"/>
       <c r="D68" s="48" t="s">
         <v>62</v>
       </c>
@@ -5929,9 +5929,9 @@
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="125"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="123"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="112"/>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
@@ -5972,9 +5972,9 @@
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="125"/>
-      <c r="B70" s="111"/>
-      <c r="C70" s="123"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="48" t="s">
         <v>63</v>
       </c>
@@ -6039,9 +6039,9 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="125"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="123"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="112"/>
       <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
@@ -6082,9 +6082,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="125"/>
-      <c r="B72" s="111"/>
-      <c r="C72" s="123"/>
+      <c r="A72" s="115"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="112"/>
       <c r="D72" s="9" t="s">
         <v>24</v>
       </c>
@@ -6110,9 +6110,9 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="125"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="123"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="49" t="s">
         <v>64</v>
       </c>
@@ -6177,9 +6177,9 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="125"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="121" t="s">
+      <c r="A74" s="115"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="113" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="10"/>
@@ -6202,9 +6202,9 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="125"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="121"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="113"/>
       <c r="D75" s="9" t="s">
         <v>25</v>
       </c>
@@ -6239,9 +6239,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="125"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="121"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="113"/>
       <c r="D76" s="9" t="s">
         <v>14</v>
       </c>
@@ -6276,9 +6276,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="125"/>
-      <c r="B77" s="111"/>
-      <c r="C77" s="121"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="113"/>
       <c r="D77" s="9" t="s">
         <v>36</v>
       </c>
@@ -6313,9 +6313,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="125"/>
-      <c r="B78" s="111"/>
-      <c r="C78" s="121"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="113"/>
       <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
@@ -6350,9 +6350,9 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="125"/>
-      <c r="B79" s="111"/>
-      <c r="C79" s="121"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="113"/>
       <c r="D79" s="48" t="s">
         <v>61</v>
       </c>
@@ -6405,9 +6405,9 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="125"/>
-      <c r="B80" s="111"/>
-      <c r="C80" s="121"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="113"/>
       <c r="D80" s="9" t="s">
         <v>21</v>
       </c>
@@ -6442,9 +6442,9 @@
       <c r="U80" s="10"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="125"/>
-      <c r="B81" s="111"/>
-      <c r="C81" s="121"/>
+      <c r="A81" s="115"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="113"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -6497,9 +6497,9 @@
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="125"/>
-      <c r="B82" s="111"/>
-      <c r="C82" s="121"/>
+      <c r="A82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="113"/>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
@@ -6534,9 +6534,9 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="125"/>
-      <c r="B83" s="111"/>
-      <c r="C83" s="121"/>
+      <c r="A83" s="115"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="113"/>
       <c r="D83" s="48" t="s">
         <v>63</v>
       </c>
@@ -6601,9 +6601,9 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="125"/>
-      <c r="B84" s="111"/>
-      <c r="C84" s="121"/>
+      <c r="A84" s="115"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="113"/>
       <c r="D84" s="9" t="s">
         <v>20</v>
       </c>
@@ -6638,9 +6638,9 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="125"/>
-      <c r="B85" s="111"/>
-      <c r="C85" s="121"/>
+      <c r="A85" s="115"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="113"/>
       <c r="D85" s="9" t="s">
         <v>24</v>
       </c>
@@ -6666,9 +6666,9 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="125"/>
-      <c r="B86" s="111"/>
-      <c r="C86" s="121"/>
+      <c r="A86" s="115"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="113"/>
       <c r="D86" s="49" t="s">
         <v>64</v>
       </c>
@@ -6733,9 +6733,9 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="125"/>
-      <c r="B87" s="111"/>
-      <c r="C87" s="121"/>
+      <c r="A87" s="115"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="113"/>
       <c r="D87" s="36" t="s">
         <v>68</v>
       </c>
@@ -6800,11 +6800,11 @@
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="125"/>
-      <c r="B88" s="111" t="s">
+      <c r="A88" s="115"/>
+      <c r="B88" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="122" t="s">
+      <c r="C88" s="111" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="10"/>
@@ -6827,9 +6827,9 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="125"/>
-      <c r="B89" s="111"/>
-      <c r="C89" s="123"/>
+      <c r="A89" s="115"/>
+      <c r="B89" s="116"/>
+      <c r="C89" s="112"/>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
@@ -6882,9 +6882,9 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="125"/>
-      <c r="B90" s="111"/>
-      <c r="C90" s="123"/>
+      <c r="A90" s="115"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="112"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -6937,9 +6937,9 @@
       <c r="U90" s="10"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="125"/>
-      <c r="B91" s="111"/>
-      <c r="C91" s="123"/>
+      <c r="A91" s="115"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="112"/>
       <c r="D91" s="9" t="s">
         <v>36</v>
       </c>
@@ -6988,9 +6988,9 @@
       <c r="S91" s="61"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="125"/>
-      <c r="B92" s="111"/>
-      <c r="C92" s="123"/>
+      <c r="A92" s="115"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="112"/>
       <c r="D92" s="9" t="s">
         <v>22</v>
       </c>
@@ -7039,9 +7039,9 @@
       <c r="S92" s="61"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="125"/>
-      <c r="B93" s="111"/>
-      <c r="C93" s="123"/>
+      <c r="A93" s="115"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="112"/>
       <c r="D93" s="48" t="s">
         <v>61</v>
       </c>
@@ -7090,9 +7090,9 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="125"/>
-      <c r="B94" s="111"/>
-      <c r="C94" s="123"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7141,9 +7141,9 @@
       <c r="S94" s="61"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="125"/>
-      <c r="B95" s="111"/>
-      <c r="C95" s="123"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="112"/>
       <c r="D95" s="48" t="s">
         <v>62</v>
       </c>
@@ -7192,9 +7192,9 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="125"/>
-      <c r="B96" s="111"/>
-      <c r="C96" s="123"/>
+      <c r="A96" s="115"/>
+      <c r="B96" s="116"/>
+      <c r="C96" s="112"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
@@ -7243,9 +7243,9 @@
       <c r="S96" s="61"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="125"/>
-      <c r="B97" s="111"/>
-      <c r="C97" s="123"/>
+      <c r="A97" s="115"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="112"/>
       <c r="D97" s="48" t="s">
         <v>63</v>
       </c>
@@ -7307,9 +7307,9 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="125"/>
-      <c r="B98" s="111"/>
-      <c r="C98" s="123"/>
+      <c r="A98" s="115"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="112"/>
       <c r="D98" s="9" t="s">
         <v>20</v>
       </c>
@@ -7358,9 +7358,9 @@
       <c r="S98" s="61"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="125"/>
-      <c r="B99" s="111"/>
-      <c r="C99" s="123"/>
+      <c r="A99" s="115"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="112"/>
       <c r="D99" s="9" t="s">
         <v>24</v>
       </c>
@@ -7383,9 +7383,9 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="125"/>
-      <c r="B100" s="111"/>
-      <c r="C100" s="123"/>
+      <c r="A100" s="115"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="112"/>
       <c r="D100" s="49" t="s">
         <v>64</v>
       </c>
@@ -7450,9 +7450,9 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="125"/>
-      <c r="B101" s="111"/>
-      <c r="C101" s="122" t="s">
+      <c r="A101" s="115"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="111" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="10"/>
@@ -7464,9 +7464,9 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="125"/>
-      <c r="B102" s="111"/>
-      <c r="C102" s="123"/>
+      <c r="A102" s="115"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="112"/>
       <c r="D102" s="9" t="s">
         <v>25</v>
       </c>
@@ -7519,9 +7519,9 @@
       <c r="U102" s="10"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="125"/>
-      <c r="B103" s="111"/>
-      <c r="C103" s="123"/>
+      <c r="A103" s="115"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="112"/>
       <c r="D103" s="9" t="s">
         <v>14</v>
       </c>
@@ -7574,9 +7574,9 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="125"/>
-      <c r="B104" s="111"/>
-      <c r="C104" s="123"/>
+      <c r="A104" s="115"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="112"/>
       <c r="D104" s="9" t="s">
         <v>36</v>
       </c>
@@ -7625,9 +7625,9 @@
       <c r="S104" s="61"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="125"/>
-      <c r="B105" s="111"/>
-      <c r="C105" s="123"/>
+      <c r="A105" s="115"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="112"/>
       <c r="D105" s="9" t="s">
         <v>22</v>
       </c>
@@ -7676,9 +7676,9 @@
       <c r="S105" s="61"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="125"/>
-      <c r="B106" s="111"/>
-      <c r="C106" s="123"/>
+      <c r="A106" s="115"/>
+      <c r="B106" s="116"/>
+      <c r="C106" s="112"/>
       <c r="D106" s="48" t="s">
         <v>61</v>
       </c>
@@ -7727,9 +7727,9 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="125"/>
-      <c r="B107" s="111"/>
-      <c r="C107" s="123"/>
+      <c r="A107" s="115"/>
+      <c r="B107" s="116"/>
+      <c r="C107" s="112"/>
       <c r="D107" s="9" t="s">
         <v>21</v>
       </c>
@@ -7778,9 +7778,9 @@
       <c r="S107" s="61"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="125"/>
-      <c r="B108" s="111"/>
-      <c r="C108" s="123"/>
+      <c r="A108" s="115"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="112"/>
       <c r="D108" s="48" t="s">
         <v>62</v>
       </c>
@@ -7829,9 +7829,9 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="125"/>
-      <c r="B109" s="111"/>
-      <c r="C109" s="123"/>
+      <c r="A109" s="115"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="112"/>
       <c r="D109" s="9" t="s">
         <v>23</v>
       </c>
@@ -7880,9 +7880,9 @@
       <c r="S109" s="61"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="125"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="123"/>
+      <c r="A110" s="115"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="112"/>
       <c r="D110" s="48" t="s">
         <v>63</v>
       </c>
@@ -7944,9 +7944,9 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="125"/>
-      <c r="B111" s="111"/>
-      <c r="C111" s="123"/>
+      <c r="A111" s="115"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="112"/>
       <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
@@ -7995,9 +7995,9 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="125"/>
-      <c r="B112" s="111"/>
-      <c r="C112" s="123"/>
+      <c r="A112" s="115"/>
+      <c r="B112" s="116"/>
+      <c r="C112" s="112"/>
       <c r="D112" s="9" t="s">
         <v>24</v>
       </c>
@@ -8020,9 +8020,9 @@
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="125"/>
-      <c r="B113" s="111"/>
-      <c r="C113" s="123"/>
+      <c r="A113" s="115"/>
+      <c r="B113" s="116"/>
+      <c r="C113" s="112"/>
       <c r="D113" s="49" t="s">
         <v>64</v>
       </c>
@@ -8087,11 +8087,11 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="124" t="s">
+      <c r="A114" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="111"/>
-      <c r="C114" s="122" t="s">
+      <c r="B114" s="116"/>
+      <c r="C114" s="111" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="10"/>
@@ -8103,9 +8103,9 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="125"/>
-      <c r="B115" s="111"/>
-      <c r="C115" s="123"/>
+      <c r="A115" s="115"/>
+      <c r="B115" s="116"/>
+      <c r="C115" s="112"/>
       <c r="D115" s="9" t="s">
         <v>25</v>
       </c>
@@ -8158,9 +8158,9 @@
       <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="125"/>
-      <c r="B116" s="111"/>
-      <c r="C116" s="123"/>
+      <c r="A116" s="115"/>
+      <c r="B116" s="116"/>
+      <c r="C116" s="112"/>
       <c r="D116" s="9" t="s">
         <v>14</v>
       </c>
@@ -8213,9 +8213,9 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="125"/>
-      <c r="B117" s="111"/>
-      <c r="C117" s="123"/>
+      <c r="A117" s="115"/>
+      <c r="B117" s="116"/>
+      <c r="C117" s="112"/>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
@@ -8264,9 +8264,9 @@
       <c r="S117" s="61"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="125"/>
-      <c r="B118" s="111"/>
-      <c r="C118" s="123"/>
+      <c r="A118" s="115"/>
+      <c r="B118" s="116"/>
+      <c r="C118" s="112"/>
       <c r="D118" s="9" t="s">
         <v>22</v>
       </c>
@@ -8315,9 +8315,9 @@
       <c r="S118" s="61"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="125"/>
-      <c r="B119" s="111"/>
-      <c r="C119" s="123"/>
+      <c r="A119" s="115"/>
+      <c r="B119" s="116"/>
+      <c r="C119" s="112"/>
       <c r="D119" s="48" t="s">
         <v>61</v>
       </c>
@@ -8366,9 +8366,9 @@
       <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="125"/>
-      <c r="B120" s="111"/>
-      <c r="C120" s="123"/>
+      <c r="A120" s="115"/>
+      <c r="B120" s="116"/>
+      <c r="C120" s="112"/>
       <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
@@ -8417,9 +8417,9 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="125"/>
-      <c r="B121" s="111"/>
-      <c r="C121" s="123"/>
+      <c r="A121" s="115"/>
+      <c r="B121" s="116"/>
+      <c r="C121" s="112"/>
       <c r="D121" s="48" t="s">
         <v>62</v>
       </c>
@@ -8468,9 +8468,9 @@
       <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="125"/>
-      <c r="B122" s="111"/>
-      <c r="C122" s="123"/>
+      <c r="A122" s="115"/>
+      <c r="B122" s="116"/>
+      <c r="C122" s="112"/>
       <c r="D122" s="9" t="s">
         <v>23</v>
       </c>
@@ -8519,9 +8519,9 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="125"/>
-      <c r="B123" s="111"/>
-      <c r="C123" s="123"/>
+      <c r="A123" s="115"/>
+      <c r="B123" s="116"/>
+      <c r="C123" s="112"/>
       <c r="D123" s="48" t="s">
         <v>63</v>
       </c>
@@ -8583,9 +8583,9 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="125"/>
-      <c r="B124" s="111"/>
-      <c r="C124" s="123"/>
+      <c r="A124" s="115"/>
+      <c r="B124" s="116"/>
+      <c r="C124" s="112"/>
       <c r="D124" s="9" t="s">
         <v>20</v>
       </c>
@@ -8634,9 +8634,9 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="125"/>
-      <c r="B125" s="111"/>
-      <c r="C125" s="123"/>
+      <c r="A125" s="115"/>
+      <c r="B125" s="116"/>
+      <c r="C125" s="112"/>
       <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
@@ -8659,9 +8659,9 @@
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="125"/>
-      <c r="B126" s="111"/>
-      <c r="C126" s="123"/>
+      <c r="A126" s="115"/>
+      <c r="B126" s="116"/>
+      <c r="C126" s="112"/>
       <c r="D126" s="49" t="s">
         <v>64</v>
       </c>
@@ -8726,9 +8726,9 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="125"/>
-      <c r="B127" s="111"/>
-      <c r="C127" s="122" t="s">
+      <c r="A127" s="115"/>
+      <c r="B127" s="116"/>
+      <c r="C127" s="111" t="s">
         <v>79</v>
       </c>
       <c r="I127" s="10"/>
@@ -8740,9 +8740,9 @@
       <c r="U127" s="10"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="125"/>
-      <c r="B128" s="111"/>
-      <c r="C128" s="123"/>
+      <c r="A128" s="115"/>
+      <c r="B128" s="116"/>
+      <c r="C128" s="112"/>
       <c r="D128" s="9" t="s">
         <v>25</v>
       </c>
@@ -8795,9 +8795,9 @@
       <c r="U128" s="10"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="125"/>
-      <c r="B129" s="111"/>
-      <c r="C129" s="123"/>
+      <c r="A129" s="115"/>
+      <c r="B129" s="116"/>
+      <c r="C129" s="112"/>
       <c r="D129" s="9" t="s">
         <v>14</v>
       </c>
@@ -8850,9 +8850,9 @@
       <c r="U129" s="10"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="125"/>
-      <c r="B130" s="111"/>
-      <c r="C130" s="123"/>
+      <c r="A130" s="115"/>
+      <c r="B130" s="116"/>
+      <c r="C130" s="112"/>
       <c r="D130" s="9" t="s">
         <v>36</v>
       </c>
@@ -8901,9 +8901,9 @@
       <c r="S130" s="61"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="125"/>
-      <c r="B131" s="111"/>
-      <c r="C131" s="123"/>
+      <c r="A131" s="115"/>
+      <c r="B131" s="116"/>
+      <c r="C131" s="112"/>
       <c r="D131" s="9" t="s">
         <v>22</v>
       </c>
@@ -8952,9 +8952,9 @@
       <c r="S131" s="61"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="125"/>
-      <c r="B132" s="111"/>
-      <c r="C132" s="123"/>
+      <c r="A132" s="115"/>
+      <c r="B132" s="116"/>
+      <c r="C132" s="112"/>
       <c r="D132" s="48" t="s">
         <v>61</v>
       </c>
@@ -9003,9 +9003,9 @@
       <c r="S132" s="10"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="125"/>
-      <c r="B133" s="111"/>
-      <c r="C133" s="123"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="116"/>
+      <c r="C133" s="112"/>
       <c r="D133" s="9" t="s">
         <v>21</v>
       </c>
@@ -9054,9 +9054,9 @@
       <c r="S133" s="61"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="125"/>
-      <c r="B134" s="111"/>
-      <c r="C134" s="123"/>
+      <c r="A134" s="115"/>
+      <c r="B134" s="116"/>
+      <c r="C134" s="112"/>
       <c r="D134" s="48" t="s">
         <v>62</v>
       </c>
@@ -9105,9 +9105,9 @@
       <c r="S134" s="10"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="125"/>
-      <c r="B135" s="111"/>
-      <c r="C135" s="123"/>
+      <c r="A135" s="115"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="112"/>
       <c r="D135" s="9" t="s">
         <v>23</v>
       </c>
@@ -9156,9 +9156,9 @@
       <c r="S135" s="61"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="125"/>
-      <c r="B136" s="111"/>
-      <c r="C136" s="123"/>
+      <c r="A136" s="115"/>
+      <c r="B136" s="116"/>
+      <c r="C136" s="112"/>
       <c r="D136" s="48" t="s">
         <v>63</v>
       </c>
@@ -9220,9 +9220,9 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="125"/>
-      <c r="B137" s="111"/>
-      <c r="C137" s="123"/>
+      <c r="A137" s="115"/>
+      <c r="B137" s="116"/>
+      <c r="C137" s="112"/>
       <c r="D137" s="9" t="s">
         <v>20</v>
       </c>
@@ -9271,9 +9271,9 @@
       <c r="S137" s="61"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="125"/>
-      <c r="B138" s="111"/>
-      <c r="C138" s="123"/>
+      <c r="A138" s="115"/>
+      <c r="B138" s="116"/>
+      <c r="C138" s="112"/>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
@@ -9296,9 +9296,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="125"/>
-      <c r="B139" s="111"/>
-      <c r="C139" s="123"/>
+      <c r="A139" s="115"/>
+      <c r="B139" s="116"/>
+      <c r="C139" s="112"/>
       <c r="D139" s="49" t="s">
         <v>64</v>
       </c>
@@ -9363,9 +9363,9 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="125"/>
-      <c r="B140" s="111"/>
-      <c r="C140" s="121" t="s">
+      <c r="A140" s="115"/>
+      <c r="B140" s="116"/>
+      <c r="C140" s="113" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="10"/>
@@ -9377,9 +9377,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="125"/>
-      <c r="B141" s="111"/>
-      <c r="C141" s="121"/>
+      <c r="A141" s="115"/>
+      <c r="B141" s="116"/>
+      <c r="C141" s="113"/>
       <c r="D141" s="9" t="s">
         <v>25</v>
       </c>
@@ -9432,9 +9432,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="125"/>
-      <c r="B142" s="111"/>
-      <c r="C142" s="121"/>
+      <c r="A142" s="115"/>
+      <c r="B142" s="116"/>
+      <c r="C142" s="113"/>
       <c r="D142" s="9" t="s">
         <v>14</v>
       </c>
@@ -9487,9 +9487,9 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="125"/>
-      <c r="B143" s="111"/>
-      <c r="C143" s="121"/>
+      <c r="A143" s="115"/>
+      <c r="B143" s="116"/>
+      <c r="C143" s="113"/>
       <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
@@ -9538,9 +9538,9 @@
       <c r="S143" s="61"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="125"/>
-      <c r="B144" s="111"/>
-      <c r="C144" s="121"/>
+      <c r="A144" s="115"/>
+      <c r="B144" s="116"/>
+      <c r="C144" s="113"/>
       <c r="D144" s="9" t="s">
         <v>22</v>
       </c>
@@ -9589,9 +9589,9 @@
       <c r="S144" s="61"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="125"/>
-      <c r="B145" s="111"/>
-      <c r="C145" s="121"/>
+      <c r="A145" s="115"/>
+      <c r="B145" s="116"/>
+      <c r="C145" s="113"/>
       <c r="D145" s="48" t="s">
         <v>61</v>
       </c>
@@ -9640,9 +9640,9 @@
       <c r="S145" s="10"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="125"/>
-      <c r="B146" s="111"/>
-      <c r="C146" s="121"/>
+      <c r="A146" s="115"/>
+      <c r="B146" s="116"/>
+      <c r="C146" s="113"/>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
@@ -9691,9 +9691,9 @@
       <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="125"/>
-      <c r="B147" s="111"/>
-      <c r="C147" s="121"/>
+      <c r="A147" s="115"/>
+      <c r="B147" s="116"/>
+      <c r="C147" s="113"/>
       <c r="D147" s="48" t="s">
         <v>62</v>
       </c>
@@ -9742,9 +9742,9 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="125"/>
-      <c r="B148" s="111"/>
-      <c r="C148" s="121"/>
+      <c r="A148" s="115"/>
+      <c r="B148" s="116"/>
+      <c r="C148" s="113"/>
       <c r="D148" s="9" t="s">
         <v>23</v>
       </c>
@@ -9793,9 +9793,9 @@
       <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="125"/>
-      <c r="B149" s="111"/>
-      <c r="C149" s="121"/>
+      <c r="A149" s="115"/>
+      <c r="B149" s="116"/>
+      <c r="C149" s="113"/>
       <c r="D149" s="48" t="s">
         <v>63</v>
       </c>
@@ -9857,9 +9857,9 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="125"/>
-      <c r="B150" s="111"/>
-      <c r="C150" s="121"/>
+      <c r="A150" s="115"/>
+      <c r="B150" s="116"/>
+      <c r="C150" s="113"/>
       <c r="D150" s="9" t="s">
         <v>20</v>
       </c>
@@ -9908,9 +9908,9 @@
       <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="125"/>
-      <c r="B151" s="111"/>
-      <c r="C151" s="121"/>
+      <c r="A151" s="115"/>
+      <c r="B151" s="116"/>
+      <c r="C151" s="113"/>
       <c r="D151" s="9" t="s">
         <v>24</v>
       </c>
@@ -9933,9 +9933,9 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="125"/>
-      <c r="B152" s="111"/>
-      <c r="C152" s="121"/>
+      <c r="A152" s="115"/>
+      <c r="B152" s="116"/>
+      <c r="C152" s="113"/>
       <c r="D152" s="49" t="s">
         <v>64</v>
       </c>
@@ -10000,9 +10000,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="125"/>
-      <c r="B153" s="111"/>
-      <c r="C153" s="121"/>
+      <c r="A153" s="115"/>
+      <c r="B153" s="116"/>
+      <c r="C153" s="113"/>
       <c r="D153" s="52" t="s">
         <v>67</v>
       </c>
@@ -10104,6 +10104,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C127:C139"/>
     <mergeCell ref="C140:C153"/>
     <mergeCell ref="A34:A60"/>
@@ -10120,17 +10131,6 @@
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="C47:C60"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A8:C11"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="5" orientation="landscape" r:id="rId1"/>
@@ -10146,8 +10146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView topLeftCell="A167" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q190" sqref="Q190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15870,7 +15870,7 @@
         <v>1</v>
       </c>
       <c r="U179" s="95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
@@ -15923,7 +15923,7 @@
         <v>2</v>
       </c>
       <c r="U180" s="95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.3">
@@ -15976,7 +15976,7 @@
         <v>3</v>
       </c>
       <c r="U181" s="95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.3">
@@ -16029,7 +16029,7 @@
         <v>4</v>
       </c>
       <c r="U182" s="95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.3">
@@ -16082,7 +16082,7 @@
         <v>5</v>
       </c>
       <c r="U183" s="95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.3">
@@ -16135,7 +16135,7 @@
         <v>6</v>
       </c>
       <c r="U184" s="95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.3">
@@ -16188,7 +16188,7 @@
         <v>7</v>
       </c>
       <c r="U185" s="95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.3">
@@ -16241,7 +16241,7 @@
         <v>8</v>
       </c>
       <c r="U186" s="95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
@@ -16294,7 +16294,7 @@
         <v>9</v>
       </c>
       <c r="U187" s="95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
@@ -16347,7 +16347,7 @@
         <v>10</v>
       </c>
       <c r="U188" s="95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.3">

--- a/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
+++ b/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4163ED01-A627-4BC4-9485-9F3F4B5C4221}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9A0EF08B-7DC8-4AC7-A508-43985020D89A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="9" r:id="rId1"/>
@@ -1088,21 +1088,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1131,6 +1116,21 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2926,11 +2926,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
+      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3086,11 +3086,11 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
@@ -3155,9 +3155,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="33" t="s">
         <v>39</v>
       </c>
@@ -3222,9 +3222,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
@@ -3289,9 +3289,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3376,13 +3376,13 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="116"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
@@ -3425,9 +3425,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
@@ -3480,9 +3480,9 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
@@ -3535,11 +3535,11 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="33" t="s">
         <v>38</v>
       </c>
@@ -3604,9 +3604,9 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="122"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
@@ -3671,9 +3671,9 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="122"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
@@ -3738,9 +3738,9 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="125"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
@@ -3845,13 +3845,13 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="121" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3906,9 +3906,9 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
@@ -3961,9 +3961,9 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
@@ -4016,9 +4016,9 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="36" t="s">
         <v>53</v>
       </c>
@@ -4071,9 +4071,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="113" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="121" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -4128,9 +4128,9 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="113"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
@@ -4192,11 +4192,11 @@
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="121" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -4230,9 +4230,9 @@
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="36" t="s">
         <v>59</v>
       </c>
@@ -4294,9 +4294,9 @@
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="113" t="s">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="121" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -4330,9 +4330,9 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
@@ -4439,13 +4439,13 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="121" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4488,9 +4488,9 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
@@ -4531,9 +4531,9 @@
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="115"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4574,9 +4574,9 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="115"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
@@ -4617,9 +4617,9 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="115"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="48" t="s">
         <v>61</v>
       </c>
@@ -4672,9 +4672,9 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="115"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="121"/>
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
@@ -4715,9 +4715,9 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="115"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="121"/>
       <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
@@ -4770,9 +4770,9 @@
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="115"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -4813,9 +4813,9 @@
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="48" t="s">
         <v>63</v>
       </c>
@@ -4868,9 +4868,9 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="115"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
@@ -4911,9 +4911,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="115"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4954,9 +4954,9 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="115"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="49" t="s">
         <v>64</v>
       </c>
@@ -5021,9 +5021,9 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="115"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="36" t="s">
         <v>65</v>
       </c>
@@ -5088,11 +5088,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="115"/>
-      <c r="B47" s="116" t="s">
+      <c r="A47" s="125"/>
+      <c r="B47" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="113" t="s">
+      <c r="C47" s="121" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="10"/>
@@ -5115,9 +5115,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="115"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="121"/>
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
@@ -5143,9 +5143,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="115"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="121"/>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
@@ -5171,9 +5171,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="115"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="121"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
@@ -5199,9 +5199,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="115"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="121"/>
       <c r="D51" s="9" t="s">
         <v>22</v>
       </c>
@@ -5227,9 +5227,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="115"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="121"/>
       <c r="D52" s="48" t="s">
         <v>61</v>
       </c>
@@ -5261,9 +5261,9 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="115"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
@@ -5289,9 +5289,9 @@
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="115"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="48" t="s">
         <v>62</v>
       </c>
@@ -5323,9 +5323,9 @@
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="115"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
@@ -5351,9 +5351,9 @@
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="115"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="48" t="s">
         <v>63</v>
       </c>
@@ -5385,9 +5385,9 @@
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="115"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
@@ -5413,9 +5413,9 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="115"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="113"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="121"/>
       <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
@@ -5441,9 +5441,9 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="115"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="113"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="121"/>
       <c r="D59" s="49" t="s">
         <v>64</v>
       </c>
@@ -5508,9 +5508,9 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="115"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="113"/>
+      <c r="A60" s="125"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="121"/>
       <c r="D60" s="36" t="s">
         <v>66</v>
       </c>
@@ -5575,13 +5575,13 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="114" t="s">
+      <c r="A61" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="111" t="s">
+      <c r="C61" s="122" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="10"/>
@@ -5604,9 +5604,9 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="115"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="112"/>
+      <c r="A62" s="125"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="9" t="s">
         <v>25</v>
       </c>
@@ -5647,9 +5647,9 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="115"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="112"/>
+      <c r="A63" s="125"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="9" t="s">
         <v>14</v>
       </c>
@@ -5690,9 +5690,9 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="115"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="112"/>
+      <c r="A64" s="125"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5733,9 +5733,9 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="115"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="112"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
@@ -5776,9 +5776,9 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="112"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="48" t="s">
         <v>61</v>
       </c>
@@ -5831,9 +5831,9 @@
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="115"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="112"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="9" t="s">
         <v>21</v>
       </c>
@@ -5874,9 +5874,9 @@
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="115"/>
-      <c r="B68" s="116"/>
-      <c r="C68" s="112"/>
+      <c r="A68" s="125"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="48" t="s">
         <v>62</v>
       </c>
@@ -5929,9 +5929,9 @@
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="115"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="112"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
@@ -5972,9 +5972,9 @@
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="115"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="112"/>
+      <c r="A70" s="125"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="48" t="s">
         <v>63</v>
       </c>
@@ -6039,9 +6039,9 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="115"/>
-      <c r="B71" s="116"/>
-      <c r="C71" s="112"/>
+      <c r="A71" s="125"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
@@ -6082,9 +6082,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="115"/>
-      <c r="B72" s="116"/>
-      <c r="C72" s="112"/>
+      <c r="A72" s="125"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="123"/>
       <c r="D72" s="9" t="s">
         <v>24</v>
       </c>
@@ -6110,9 +6110,9 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="115"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="112"/>
+      <c r="A73" s="125"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="49" t="s">
         <v>64</v>
       </c>
@@ -6177,9 +6177,9 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="115"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="113" t="s">
+      <c r="A74" s="125"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="121" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="10"/>
@@ -6202,9 +6202,9 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="115"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="113"/>
+      <c r="A75" s="125"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="121"/>
       <c r="D75" s="9" t="s">
         <v>25</v>
       </c>
@@ -6239,9 +6239,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="115"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="113"/>
+      <c r="A76" s="125"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="121"/>
       <c r="D76" s="9" t="s">
         <v>14</v>
       </c>
@@ -6276,9 +6276,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="115"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="113"/>
+      <c r="A77" s="125"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="121"/>
       <c r="D77" s="9" t="s">
         <v>36</v>
       </c>
@@ -6313,9 +6313,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="115"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="113"/>
+      <c r="A78" s="125"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="121"/>
       <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
@@ -6350,9 +6350,9 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="115"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="113"/>
+      <c r="A79" s="125"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="121"/>
       <c r="D79" s="48" t="s">
         <v>61</v>
       </c>
@@ -6405,9 +6405,9 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="115"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="113"/>
+      <c r="A80" s="125"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="121"/>
       <c r="D80" s="9" t="s">
         <v>21</v>
       </c>
@@ -6442,9 +6442,9 @@
       <c r="U80" s="10"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="115"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="113"/>
+      <c r="A81" s="125"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="121"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -6497,9 +6497,9 @@
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="115"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="113"/>
+      <c r="A82" s="125"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="121"/>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
@@ -6534,9 +6534,9 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="115"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="113"/>
+      <c r="A83" s="125"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="121"/>
       <c r="D83" s="48" t="s">
         <v>63</v>
       </c>
@@ -6601,9 +6601,9 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="115"/>
-      <c r="B84" s="116"/>
-      <c r="C84" s="113"/>
+      <c r="A84" s="125"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="121"/>
       <c r="D84" s="9" t="s">
         <v>20</v>
       </c>
@@ -6638,9 +6638,9 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="115"/>
-      <c r="B85" s="116"/>
-      <c r="C85" s="113"/>
+      <c r="A85" s="125"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="121"/>
       <c r="D85" s="9" t="s">
         <v>24</v>
       </c>
@@ -6666,9 +6666,9 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="115"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="113"/>
+      <c r="A86" s="125"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="121"/>
       <c r="D86" s="49" t="s">
         <v>64</v>
       </c>
@@ -6733,9 +6733,9 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="115"/>
-      <c r="B87" s="116"/>
-      <c r="C87" s="113"/>
+      <c r="A87" s="125"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="121"/>
       <c r="D87" s="36" t="s">
         <v>68</v>
       </c>
@@ -6800,11 +6800,11 @@
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="115"/>
-      <c r="B88" s="116" t="s">
+      <c r="A88" s="125"/>
+      <c r="B88" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="122" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="10"/>
@@ -6827,9 +6827,9 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="115"/>
-      <c r="B89" s="116"/>
-      <c r="C89" s="112"/>
+      <c r="A89" s="125"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="123"/>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
@@ -6882,9 +6882,9 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="115"/>
-      <c r="B90" s="116"/>
-      <c r="C90" s="112"/>
+      <c r="A90" s="125"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="123"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -6937,9 +6937,9 @@
       <c r="U90" s="10"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="115"/>
-      <c r="B91" s="116"/>
-      <c r="C91" s="112"/>
+      <c r="A91" s="125"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="123"/>
       <c r="D91" s="9" t="s">
         <v>36</v>
       </c>
@@ -6988,9 +6988,9 @@
       <c r="S91" s="61"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="115"/>
-      <c r="B92" s="116"/>
-      <c r="C92" s="112"/>
+      <c r="A92" s="125"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="123"/>
       <c r="D92" s="9" t="s">
         <v>22</v>
       </c>
@@ -7039,9 +7039,9 @@
       <c r="S92" s="61"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="115"/>
-      <c r="B93" s="116"/>
-      <c r="C93" s="112"/>
+      <c r="A93" s="125"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="48" t="s">
         <v>61</v>
       </c>
@@ -7090,9 +7090,9 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="115"/>
-      <c r="B94" s="116"/>
-      <c r="C94" s="112"/>
+      <c r="A94" s="125"/>
+      <c r="B94" s="111"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7141,9 +7141,9 @@
       <c r="S94" s="61"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="115"/>
-      <c r="B95" s="116"/>
-      <c r="C95" s="112"/>
+      <c r="A95" s="125"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="48" t="s">
         <v>62</v>
       </c>
@@ -7192,9 +7192,9 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="115"/>
-      <c r="B96" s="116"/>
-      <c r="C96" s="112"/>
+      <c r="A96" s="125"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
@@ -7243,9 +7243,9 @@
       <c r="S96" s="61"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="115"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="112"/>
+      <c r="A97" s="125"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="123"/>
       <c r="D97" s="48" t="s">
         <v>63</v>
       </c>
@@ -7307,9 +7307,9 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="115"/>
-      <c r="B98" s="116"/>
-      <c r="C98" s="112"/>
+      <c r="A98" s="125"/>
+      <c r="B98" s="111"/>
+      <c r="C98" s="123"/>
       <c r="D98" s="9" t="s">
         <v>20</v>
       </c>
@@ -7358,9 +7358,9 @@
       <c r="S98" s="61"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="115"/>
-      <c r="B99" s="116"/>
-      <c r="C99" s="112"/>
+      <c r="A99" s="125"/>
+      <c r="B99" s="111"/>
+      <c r="C99" s="123"/>
       <c r="D99" s="9" t="s">
         <v>24</v>
       </c>
@@ -7383,9 +7383,9 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="115"/>
-      <c r="B100" s="116"/>
-      <c r="C100" s="112"/>
+      <c r="A100" s="125"/>
+      <c r="B100" s="111"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="49" t="s">
         <v>64</v>
       </c>
@@ -7450,9 +7450,9 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="115"/>
-      <c r="B101" s="116"/>
-      <c r="C101" s="111" t="s">
+      <c r="A101" s="125"/>
+      <c r="B101" s="111"/>
+      <c r="C101" s="122" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="10"/>
@@ -7464,9 +7464,9 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="115"/>
-      <c r="B102" s="116"/>
-      <c r="C102" s="112"/>
+      <c r="A102" s="125"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="123"/>
       <c r="D102" s="9" t="s">
         <v>25</v>
       </c>
@@ -7519,9 +7519,9 @@
       <c r="U102" s="10"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="115"/>
-      <c r="B103" s="116"/>
-      <c r="C103" s="112"/>
+      <c r="A103" s="125"/>
+      <c r="B103" s="111"/>
+      <c r="C103" s="123"/>
       <c r="D103" s="9" t="s">
         <v>14</v>
       </c>
@@ -7574,9 +7574,9 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="115"/>
-      <c r="B104" s="116"/>
-      <c r="C104" s="112"/>
+      <c r="A104" s="125"/>
+      <c r="B104" s="111"/>
+      <c r="C104" s="123"/>
       <c r="D104" s="9" t="s">
         <v>36</v>
       </c>
@@ -7625,9 +7625,9 @@
       <c r="S104" s="61"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="115"/>
-      <c r="B105" s="116"/>
-      <c r="C105" s="112"/>
+      <c r="A105" s="125"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="123"/>
       <c r="D105" s="9" t="s">
         <v>22</v>
       </c>
@@ -7676,9 +7676,9 @@
       <c r="S105" s="61"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="115"/>
-      <c r="B106" s="116"/>
-      <c r="C106" s="112"/>
+      <c r="A106" s="125"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="123"/>
       <c r="D106" s="48" t="s">
         <v>61</v>
       </c>
@@ -7727,9 +7727,9 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="115"/>
-      <c r="B107" s="116"/>
-      <c r="C107" s="112"/>
+      <c r="A107" s="125"/>
+      <c r="B107" s="111"/>
+      <c r="C107" s="123"/>
       <c r="D107" s="9" t="s">
         <v>21</v>
       </c>
@@ -7778,9 +7778,9 @@
       <c r="S107" s="61"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="115"/>
-      <c r="B108" s="116"/>
-      <c r="C108" s="112"/>
+      <c r="A108" s="125"/>
+      <c r="B108" s="111"/>
+      <c r="C108" s="123"/>
       <c r="D108" s="48" t="s">
         <v>62</v>
       </c>
@@ -7829,9 +7829,9 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="115"/>
-      <c r="B109" s="116"/>
-      <c r="C109" s="112"/>
+      <c r="A109" s="125"/>
+      <c r="B109" s="111"/>
+      <c r="C109" s="123"/>
       <c r="D109" s="9" t="s">
         <v>23</v>
       </c>
@@ -7880,9 +7880,9 @@
       <c r="S109" s="61"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="115"/>
-      <c r="B110" s="116"/>
-      <c r="C110" s="112"/>
+      <c r="A110" s="125"/>
+      <c r="B110" s="111"/>
+      <c r="C110" s="123"/>
       <c r="D110" s="48" t="s">
         <v>63</v>
       </c>
@@ -7944,9 +7944,9 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="115"/>
-      <c r="B111" s="116"/>
-      <c r="C111" s="112"/>
+      <c r="A111" s="125"/>
+      <c r="B111" s="111"/>
+      <c r="C111" s="123"/>
       <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
@@ -7995,9 +7995,9 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="115"/>
-      <c r="B112" s="116"/>
-      <c r="C112" s="112"/>
+      <c r="A112" s="125"/>
+      <c r="B112" s="111"/>
+      <c r="C112" s="123"/>
       <c r="D112" s="9" t="s">
         <v>24</v>
       </c>
@@ -8020,9 +8020,9 @@
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="115"/>
-      <c r="B113" s="116"/>
-      <c r="C113" s="112"/>
+      <c r="A113" s="125"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="123"/>
       <c r="D113" s="49" t="s">
         <v>64</v>
       </c>
@@ -8087,11 +8087,11 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="114" t="s">
+      <c r="A114" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="116"/>
-      <c r="C114" s="111" t="s">
+      <c r="B114" s="111"/>
+      <c r="C114" s="122" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="10"/>
@@ -8103,9 +8103,9 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="115"/>
-      <c r="B115" s="116"/>
-      <c r="C115" s="112"/>
+      <c r="A115" s="125"/>
+      <c r="B115" s="111"/>
+      <c r="C115" s="123"/>
       <c r="D115" s="9" t="s">
         <v>25</v>
       </c>
@@ -8158,9 +8158,9 @@
       <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="115"/>
-      <c r="B116" s="116"/>
-      <c r="C116" s="112"/>
+      <c r="A116" s="125"/>
+      <c r="B116" s="111"/>
+      <c r="C116" s="123"/>
       <c r="D116" s="9" t="s">
         <v>14</v>
       </c>
@@ -8213,9 +8213,9 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="115"/>
-      <c r="B117" s="116"/>
-      <c r="C117" s="112"/>
+      <c r="A117" s="125"/>
+      <c r="B117" s="111"/>
+      <c r="C117" s="123"/>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
@@ -8264,9 +8264,9 @@
       <c r="S117" s="61"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="115"/>
-      <c r="B118" s="116"/>
-      <c r="C118" s="112"/>
+      <c r="A118" s="125"/>
+      <c r="B118" s="111"/>
+      <c r="C118" s="123"/>
       <c r="D118" s="9" t="s">
         <v>22</v>
       </c>
@@ -8315,9 +8315,9 @@
       <c r="S118" s="61"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="115"/>
-      <c r="B119" s="116"/>
-      <c r="C119" s="112"/>
+      <c r="A119" s="125"/>
+      <c r="B119" s="111"/>
+      <c r="C119" s="123"/>
       <c r="D119" s="48" t="s">
         <v>61</v>
       </c>
@@ -8366,9 +8366,9 @@
       <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="115"/>
-      <c r="B120" s="116"/>
-      <c r="C120" s="112"/>
+      <c r="A120" s="125"/>
+      <c r="B120" s="111"/>
+      <c r="C120" s="123"/>
       <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
@@ -8417,9 +8417,9 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="115"/>
-      <c r="B121" s="116"/>
-      <c r="C121" s="112"/>
+      <c r="A121" s="125"/>
+      <c r="B121" s="111"/>
+      <c r="C121" s="123"/>
       <c r="D121" s="48" t="s">
         <v>62</v>
       </c>
@@ -8468,9 +8468,9 @@
       <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="115"/>
-      <c r="B122" s="116"/>
-      <c r="C122" s="112"/>
+      <c r="A122" s="125"/>
+      <c r="B122" s="111"/>
+      <c r="C122" s="123"/>
       <c r="D122" s="9" t="s">
         <v>23</v>
       </c>
@@ -8519,9 +8519,9 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="115"/>
-      <c r="B123" s="116"/>
-      <c r="C123" s="112"/>
+      <c r="A123" s="125"/>
+      <c r="B123" s="111"/>
+      <c r="C123" s="123"/>
       <c r="D123" s="48" t="s">
         <v>63</v>
       </c>
@@ -8583,9 +8583,9 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="115"/>
-      <c r="B124" s="116"/>
-      <c r="C124" s="112"/>
+      <c r="A124" s="125"/>
+      <c r="B124" s="111"/>
+      <c r="C124" s="123"/>
       <c r="D124" s="9" t="s">
         <v>20</v>
       </c>
@@ -8634,9 +8634,9 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="115"/>
-      <c r="B125" s="116"/>
-      <c r="C125" s="112"/>
+      <c r="A125" s="125"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="123"/>
       <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
@@ -8659,9 +8659,9 @@
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="115"/>
-      <c r="B126" s="116"/>
-      <c r="C126" s="112"/>
+      <c r="A126" s="125"/>
+      <c r="B126" s="111"/>
+      <c r="C126" s="123"/>
       <c r="D126" s="49" t="s">
         <v>64</v>
       </c>
@@ -8726,9 +8726,9 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="115"/>
-      <c r="B127" s="116"/>
-      <c r="C127" s="111" t="s">
+      <c r="A127" s="125"/>
+      <c r="B127" s="111"/>
+      <c r="C127" s="122" t="s">
         <v>79</v>
       </c>
       <c r="I127" s="10"/>
@@ -8740,9 +8740,9 @@
       <c r="U127" s="10"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="115"/>
-      <c r="B128" s="116"/>
-      <c r="C128" s="112"/>
+      <c r="A128" s="125"/>
+      <c r="B128" s="111"/>
+      <c r="C128" s="123"/>
       <c r="D128" s="9" t="s">
         <v>25</v>
       </c>
@@ -8795,9 +8795,9 @@
       <c r="U128" s="10"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="115"/>
-      <c r="B129" s="116"/>
-      <c r="C129" s="112"/>
+      <c r="A129" s="125"/>
+      <c r="B129" s="111"/>
+      <c r="C129" s="123"/>
       <c r="D129" s="9" t="s">
         <v>14</v>
       </c>
@@ -8850,9 +8850,9 @@
       <c r="U129" s="10"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="115"/>
-      <c r="B130" s="116"/>
-      <c r="C130" s="112"/>
+      <c r="A130" s="125"/>
+      <c r="B130" s="111"/>
+      <c r="C130" s="123"/>
       <c r="D130" s="9" t="s">
         <v>36</v>
       </c>
@@ -8901,9 +8901,9 @@
       <c r="S130" s="61"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="115"/>
-      <c r="B131" s="116"/>
-      <c r="C131" s="112"/>
+      <c r="A131" s="125"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="123"/>
       <c r="D131" s="9" t="s">
         <v>22</v>
       </c>
@@ -8952,9 +8952,9 @@
       <c r="S131" s="61"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="115"/>
-      <c r="B132" s="116"/>
-      <c r="C132" s="112"/>
+      <c r="A132" s="125"/>
+      <c r="B132" s="111"/>
+      <c r="C132" s="123"/>
       <c r="D132" s="48" t="s">
         <v>61</v>
       </c>
@@ -9003,9 +9003,9 @@
       <c r="S132" s="10"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="115"/>
-      <c r="B133" s="116"/>
-      <c r="C133" s="112"/>
+      <c r="A133" s="125"/>
+      <c r="B133" s="111"/>
+      <c r="C133" s="123"/>
       <c r="D133" s="9" t="s">
         <v>21</v>
       </c>
@@ -9054,9 +9054,9 @@
       <c r="S133" s="61"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="115"/>
-      <c r="B134" s="116"/>
-      <c r="C134" s="112"/>
+      <c r="A134" s="125"/>
+      <c r="B134" s="111"/>
+      <c r="C134" s="123"/>
       <c r="D134" s="48" t="s">
         <v>62</v>
       </c>
@@ -9105,9 +9105,9 @@
       <c r="S134" s="10"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="115"/>
-      <c r="B135" s="116"/>
-      <c r="C135" s="112"/>
+      <c r="A135" s="125"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="123"/>
       <c r="D135" s="9" t="s">
         <v>23</v>
       </c>
@@ -9156,9 +9156,9 @@
       <c r="S135" s="61"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="115"/>
-      <c r="B136" s="116"/>
-      <c r="C136" s="112"/>
+      <c r="A136" s="125"/>
+      <c r="B136" s="111"/>
+      <c r="C136" s="123"/>
       <c r="D136" s="48" t="s">
         <v>63</v>
       </c>
@@ -9220,9 +9220,9 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="115"/>
-      <c r="B137" s="116"/>
-      <c r="C137" s="112"/>
+      <c r="A137" s="125"/>
+      <c r="B137" s="111"/>
+      <c r="C137" s="123"/>
       <c r="D137" s="9" t="s">
         <v>20</v>
       </c>
@@ -9271,9 +9271,9 @@
       <c r="S137" s="61"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="115"/>
-      <c r="B138" s="116"/>
-      <c r="C138" s="112"/>
+      <c r="A138" s="125"/>
+      <c r="B138" s="111"/>
+      <c r="C138" s="123"/>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
@@ -9296,9 +9296,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="115"/>
-      <c r="B139" s="116"/>
-      <c r="C139" s="112"/>
+      <c r="A139" s="125"/>
+      <c r="B139" s="111"/>
+      <c r="C139" s="123"/>
       <c r="D139" s="49" t="s">
         <v>64</v>
       </c>
@@ -9363,9 +9363,9 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="115"/>
-      <c r="B140" s="116"/>
-      <c r="C140" s="113" t="s">
+      <c r="A140" s="125"/>
+      <c r="B140" s="111"/>
+      <c r="C140" s="121" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="10"/>
@@ -9377,9 +9377,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="115"/>
-      <c r="B141" s="116"/>
-      <c r="C141" s="113"/>
+      <c r="A141" s="125"/>
+      <c r="B141" s="111"/>
+      <c r="C141" s="121"/>
       <c r="D141" s="9" t="s">
         <v>25</v>
       </c>
@@ -9432,9 +9432,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="115"/>
-      <c r="B142" s="116"/>
-      <c r="C142" s="113"/>
+      <c r="A142" s="125"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="121"/>
       <c r="D142" s="9" t="s">
         <v>14</v>
       </c>
@@ -9487,9 +9487,9 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="115"/>
-      <c r="B143" s="116"/>
-      <c r="C143" s="113"/>
+      <c r="A143" s="125"/>
+      <c r="B143" s="111"/>
+      <c r="C143" s="121"/>
       <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
@@ -9538,9 +9538,9 @@
       <c r="S143" s="61"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="115"/>
-      <c r="B144" s="116"/>
-      <c r="C144" s="113"/>
+      <c r="A144" s="125"/>
+      <c r="B144" s="111"/>
+      <c r="C144" s="121"/>
       <c r="D144" s="9" t="s">
         <v>22</v>
       </c>
@@ -9589,9 +9589,9 @@
       <c r="S144" s="61"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="115"/>
-      <c r="B145" s="116"/>
-      <c r="C145" s="113"/>
+      <c r="A145" s="125"/>
+      <c r="B145" s="111"/>
+      <c r="C145" s="121"/>
       <c r="D145" s="48" t="s">
         <v>61</v>
       </c>
@@ -9640,9 +9640,9 @@
       <c r="S145" s="10"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="115"/>
-      <c r="B146" s="116"/>
-      <c r="C146" s="113"/>
+      <c r="A146" s="125"/>
+      <c r="B146" s="111"/>
+      <c r="C146" s="121"/>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
@@ -9691,9 +9691,9 @@
       <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="115"/>
-      <c r="B147" s="116"/>
-      <c r="C147" s="113"/>
+      <c r="A147" s="125"/>
+      <c r="B147" s="111"/>
+      <c r="C147" s="121"/>
       <c r="D147" s="48" t="s">
         <v>62</v>
       </c>
@@ -9742,9 +9742,9 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="115"/>
-      <c r="B148" s="116"/>
-      <c r="C148" s="113"/>
+      <c r="A148" s="125"/>
+      <c r="B148" s="111"/>
+      <c r="C148" s="121"/>
       <c r="D148" s="9" t="s">
         <v>23</v>
       </c>
@@ -9793,9 +9793,9 @@
       <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="115"/>
-      <c r="B149" s="116"/>
-      <c r="C149" s="113"/>
+      <c r="A149" s="125"/>
+      <c r="B149" s="111"/>
+      <c r="C149" s="121"/>
       <c r="D149" s="48" t="s">
         <v>63</v>
       </c>
@@ -9857,9 +9857,9 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="115"/>
-      <c r="B150" s="116"/>
-      <c r="C150" s="113"/>
+      <c r="A150" s="125"/>
+      <c r="B150" s="111"/>
+      <c r="C150" s="121"/>
       <c r="D150" s="9" t="s">
         <v>20</v>
       </c>
@@ -9908,9 +9908,9 @@
       <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="115"/>
-      <c r="B151" s="116"/>
-      <c r="C151" s="113"/>
+      <c r="A151" s="125"/>
+      <c r="B151" s="111"/>
+      <c r="C151" s="121"/>
       <c r="D151" s="9" t="s">
         <v>24</v>
       </c>
@@ -9933,9 +9933,9 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="115"/>
-      <c r="B152" s="116"/>
-      <c r="C152" s="113"/>
+      <c r="A152" s="125"/>
+      <c r="B152" s="111"/>
+      <c r="C152" s="121"/>
       <c r="D152" s="49" t="s">
         <v>64</v>
       </c>
@@ -10000,9 +10000,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="115"/>
-      <c r="B153" s="116"/>
-      <c r="C153" s="113"/>
+      <c r="A153" s="125"/>
+      <c r="B153" s="111"/>
+      <c r="C153" s="121"/>
       <c r="D153" s="52" t="s">
         <v>67</v>
       </c>
@@ -10104,17 +10104,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A8:C11"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C127:C139"/>
     <mergeCell ref="C140:C153"/>
     <mergeCell ref="A34:A60"/>
@@ -10131,6 +10120,17 @@
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="C47:C60"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="5" orientation="landscape" r:id="rId1"/>
@@ -10146,8 +10146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y233"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q190" sqref="Q190"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L147" sqref="L147:L154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14984,7 +14984,7 @@
         <v>14</v>
       </c>
       <c r="L147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M147">
         <v>1</v>
@@ -15036,8 +15036,8 @@
       <c r="K148">
         <v>2</v>
       </c>
-      <c r="L148">
-        <v>2</v>
+      <c r="L148" s="95">
+        <v>0</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -15089,8 +15089,8 @@
       <c r="K149">
         <v>2</v>
       </c>
-      <c r="L149">
-        <v>2</v>
+      <c r="L149" s="95">
+        <v>0</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -15142,8 +15142,8 @@
       <c r="K150">
         <v>2</v>
       </c>
-      <c r="L150">
-        <v>2</v>
+      <c r="L150" s="95">
+        <v>0</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -15195,8 +15195,8 @@
       <c r="K151">
         <v>2</v>
       </c>
-      <c r="L151">
-        <v>2</v>
+      <c r="L151" s="95">
+        <v>0</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -15248,8 +15248,8 @@
       <c r="K152">
         <v>2</v>
       </c>
-      <c r="L152">
-        <v>2</v>
+      <c r="L152" s="95">
+        <v>0</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -15302,7 +15302,7 @@
         <v>2</v>
       </c>
       <c r="L153" s="95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M153" s="95">
         <v>1</v>
@@ -15355,7 +15355,7 @@
         <v>2</v>
       </c>
       <c r="L154" s="95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M154" s="95">
         <v>1</v>

--- a/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
+++ b/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9A0EF08B-7DC8-4AC7-A508-43985020D89A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A4AC8137-2EE0-4ECF-8CF0-DDB11952AF71}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,6 +1088,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1116,21 +1131,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3086,11 +3086,11 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
@@ -3155,9 +3155,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="117"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="33" t="s">
         <v>39</v>
       </c>
@@ -3222,9 +3222,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
@@ -3289,9 +3289,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3376,13 +3376,13 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
@@ -3425,9 +3425,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
@@ -3480,9 +3480,9 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
@@ -3535,11 +3535,11 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="33" t="s">
         <v>38</v>
       </c>
@@ -3604,9 +3604,9 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="117"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="122"/>
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
@@ -3671,9 +3671,9 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="117"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
@@ -3738,9 +3738,9 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
@@ -3845,13 +3845,13 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="113" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3906,9 +3906,9 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="121"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
@@ -3961,9 +3961,9 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="121"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
@@ -4016,9 +4016,9 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="121"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="36" t="s">
         <v>53</v>
       </c>
@@ -4071,9 +4071,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="121" t="s">
+      <c r="A26" s="116"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="113" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -4128,9 +4128,9 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="121"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
@@ -4192,11 +4192,11 @@
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111" t="s">
+      <c r="A28" s="116"/>
+      <c r="B28" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="113" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -4230,9 +4230,9 @@
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="121"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="36" t="s">
         <v>59</v>
       </c>
@@ -4294,9 +4294,9 @@
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="121" t="s">
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="113" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -4330,9 +4330,9 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="121"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
@@ -4439,13 +4439,13 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="113" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4488,9 +4488,9 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="125"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="121"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
@@ -4531,9 +4531,9 @@
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="125"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="121"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4574,9 +4574,9 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="125"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="121"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
@@ -4617,9 +4617,9 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="125"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="121"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="48" t="s">
         <v>61</v>
       </c>
@@ -4672,9 +4672,9 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="125"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="121"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
@@ -4715,9 +4715,9 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="125"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="121"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
       <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
@@ -4770,9 +4770,9 @@
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="125"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="121"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -4813,9 +4813,9 @@
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="125"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="121"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
       <c r="D42" s="48" t="s">
         <v>63</v>
       </c>
@@ -4868,9 +4868,9 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="125"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="121"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
@@ -4911,9 +4911,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="125"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="121"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4954,9 +4954,9 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="125"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="121"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="49" t="s">
         <v>64</v>
       </c>
@@ -5021,9 +5021,9 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="125"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="121"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="36" t="s">
         <v>65</v>
       </c>
@@ -5088,11 +5088,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="125"/>
-      <c r="B47" s="111" t="s">
+      <c r="A47" s="115"/>
+      <c r="B47" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="121" t="s">
+      <c r="C47" s="113" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="10"/>
@@ -5115,9 +5115,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="125"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="121"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
@@ -5143,9 +5143,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="121"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
@@ -5171,9 +5171,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="125"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="121"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
@@ -5199,9 +5199,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="125"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="121"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="9" t="s">
         <v>22</v>
       </c>
@@ -5227,9 +5227,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="125"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="121"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="48" t="s">
         <v>61</v>
       </c>
@@ -5261,9 +5261,9 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="125"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="121"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
@@ -5289,9 +5289,9 @@
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="125"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="121"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="48" t="s">
         <v>62</v>
       </c>
@@ -5323,9 +5323,9 @@
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="125"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="121"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
@@ -5351,9 +5351,9 @@
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="125"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="121"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
       <c r="D56" s="48" t="s">
         <v>63</v>
       </c>
@@ -5385,9 +5385,9 @@
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="125"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="121"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
       <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
@@ -5413,9 +5413,9 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="125"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="121"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
@@ -5441,9 +5441,9 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="125"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="121"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="113"/>
       <c r="D59" s="49" t="s">
         <v>64</v>
       </c>
@@ -5508,9 +5508,9 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="125"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="121"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="36" t="s">
         <v>66</v>
       </c>
@@ -5575,13 +5575,13 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="124" t="s">
+      <c r="A61" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="122" t="s">
+      <c r="C61" s="111" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="10"/>
@@ -5604,9 +5604,9 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="125"/>
-      <c r="B62" s="111"/>
-      <c r="C62" s="123"/>
+      <c r="A62" s="115"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="112"/>
       <c r="D62" s="9" t="s">
         <v>25</v>
       </c>
@@ -5647,9 +5647,9 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="125"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="123"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="9" t="s">
         <v>14</v>
       </c>
@@ -5690,9 +5690,9 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="125"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="123"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="112"/>
       <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5733,9 +5733,9 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="125"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="123"/>
+      <c r="A65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="112"/>
       <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
@@ -5776,9 +5776,9 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="125"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="123"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="112"/>
       <c r="D66" s="48" t="s">
         <v>61</v>
       </c>
@@ -5831,9 +5831,9 @@
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="125"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="123"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="112"/>
       <c r="D67" s="9" t="s">
         <v>21</v>
       </c>
@@ -5874,9 +5874,9 @@
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="125"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="123"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="112"/>
       <c r="D68" s="48" t="s">
         <v>62</v>
       </c>
@@ -5929,9 +5929,9 @@
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="125"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="123"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="112"/>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
@@ -5972,9 +5972,9 @@
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="125"/>
-      <c r="B70" s="111"/>
-      <c r="C70" s="123"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="48" t="s">
         <v>63</v>
       </c>
@@ -6039,9 +6039,9 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="125"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="123"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="112"/>
       <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
@@ -6082,9 +6082,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="125"/>
-      <c r="B72" s="111"/>
-      <c r="C72" s="123"/>
+      <c r="A72" s="115"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="112"/>
       <c r="D72" s="9" t="s">
         <v>24</v>
       </c>
@@ -6110,9 +6110,9 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="125"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="123"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="49" t="s">
         <v>64</v>
       </c>
@@ -6177,9 +6177,9 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="125"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="121" t="s">
+      <c r="A74" s="115"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="113" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="10"/>
@@ -6202,9 +6202,9 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="125"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="121"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="113"/>
       <c r="D75" s="9" t="s">
         <v>25</v>
       </c>
@@ -6239,9 +6239,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="125"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="121"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="113"/>
       <c r="D76" s="9" t="s">
         <v>14</v>
       </c>
@@ -6276,9 +6276,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="125"/>
-      <c r="B77" s="111"/>
-      <c r="C77" s="121"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="113"/>
       <c r="D77" s="9" t="s">
         <v>36</v>
       </c>
@@ -6313,9 +6313,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="125"/>
-      <c r="B78" s="111"/>
-      <c r="C78" s="121"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="113"/>
       <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
@@ -6350,9 +6350,9 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="125"/>
-      <c r="B79" s="111"/>
-      <c r="C79" s="121"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="113"/>
       <c r="D79" s="48" t="s">
         <v>61</v>
       </c>
@@ -6405,9 +6405,9 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="125"/>
-      <c r="B80" s="111"/>
-      <c r="C80" s="121"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="113"/>
       <c r="D80" s="9" t="s">
         <v>21</v>
       </c>
@@ -6442,9 +6442,9 @@
       <c r="U80" s="10"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="125"/>
-      <c r="B81" s="111"/>
-      <c r="C81" s="121"/>
+      <c r="A81" s="115"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="113"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -6497,9 +6497,9 @@
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="125"/>
-      <c r="B82" s="111"/>
-      <c r="C82" s="121"/>
+      <c r="A82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="113"/>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
@@ -6534,9 +6534,9 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="125"/>
-      <c r="B83" s="111"/>
-      <c r="C83" s="121"/>
+      <c r="A83" s="115"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="113"/>
       <c r="D83" s="48" t="s">
         <v>63</v>
       </c>
@@ -6601,9 +6601,9 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="125"/>
-      <c r="B84" s="111"/>
-      <c r="C84" s="121"/>
+      <c r="A84" s="115"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="113"/>
       <c r="D84" s="9" t="s">
         <v>20</v>
       </c>
@@ -6638,9 +6638,9 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="125"/>
-      <c r="B85" s="111"/>
-      <c r="C85" s="121"/>
+      <c r="A85" s="115"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="113"/>
       <c r="D85" s="9" t="s">
         <v>24</v>
       </c>
@@ -6666,9 +6666,9 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="125"/>
-      <c r="B86" s="111"/>
-      <c r="C86" s="121"/>
+      <c r="A86" s="115"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="113"/>
       <c r="D86" s="49" t="s">
         <v>64</v>
       </c>
@@ -6733,9 +6733,9 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="125"/>
-      <c r="B87" s="111"/>
-      <c r="C87" s="121"/>
+      <c r="A87" s="115"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="113"/>
       <c r="D87" s="36" t="s">
         <v>68</v>
       </c>
@@ -6800,11 +6800,11 @@
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="125"/>
-      <c r="B88" s="111" t="s">
+      <c r="A88" s="115"/>
+      <c r="B88" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="122" t="s">
+      <c r="C88" s="111" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="10"/>
@@ -6827,9 +6827,9 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="125"/>
-      <c r="B89" s="111"/>
-      <c r="C89" s="123"/>
+      <c r="A89" s="115"/>
+      <c r="B89" s="116"/>
+      <c r="C89" s="112"/>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
@@ -6882,9 +6882,9 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="125"/>
-      <c r="B90" s="111"/>
-      <c r="C90" s="123"/>
+      <c r="A90" s="115"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="112"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -6937,9 +6937,9 @@
       <c r="U90" s="10"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="125"/>
-      <c r="B91" s="111"/>
-      <c r="C91" s="123"/>
+      <c r="A91" s="115"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="112"/>
       <c r="D91" s="9" t="s">
         <v>36</v>
       </c>
@@ -6988,9 +6988,9 @@
       <c r="S91" s="61"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="125"/>
-      <c r="B92" s="111"/>
-      <c r="C92" s="123"/>
+      <c r="A92" s="115"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="112"/>
       <c r="D92" s="9" t="s">
         <v>22</v>
       </c>
@@ -7039,9 +7039,9 @@
       <c r="S92" s="61"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="125"/>
-      <c r="B93" s="111"/>
-      <c r="C93" s="123"/>
+      <c r="A93" s="115"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="112"/>
       <c r="D93" s="48" t="s">
         <v>61</v>
       </c>
@@ -7090,9 +7090,9 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="125"/>
-      <c r="B94" s="111"/>
-      <c r="C94" s="123"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7141,9 +7141,9 @@
       <c r="S94" s="61"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="125"/>
-      <c r="B95" s="111"/>
-      <c r="C95" s="123"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="112"/>
       <c r="D95" s="48" t="s">
         <v>62</v>
       </c>
@@ -7192,9 +7192,9 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="125"/>
-      <c r="B96" s="111"/>
-      <c r="C96" s="123"/>
+      <c r="A96" s="115"/>
+      <c r="B96" s="116"/>
+      <c r="C96" s="112"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
@@ -7243,9 +7243,9 @@
       <c r="S96" s="61"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="125"/>
-      <c r="B97" s="111"/>
-      <c r="C97" s="123"/>
+      <c r="A97" s="115"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="112"/>
       <c r="D97" s="48" t="s">
         <v>63</v>
       </c>
@@ -7307,9 +7307,9 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="125"/>
-      <c r="B98" s="111"/>
-      <c r="C98" s="123"/>
+      <c r="A98" s="115"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="112"/>
       <c r="D98" s="9" t="s">
         <v>20</v>
       </c>
@@ -7358,9 +7358,9 @@
       <c r="S98" s="61"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="125"/>
-      <c r="B99" s="111"/>
-      <c r="C99" s="123"/>
+      <c r="A99" s="115"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="112"/>
       <c r="D99" s="9" t="s">
         <v>24</v>
       </c>
@@ -7383,9 +7383,9 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="125"/>
-      <c r="B100" s="111"/>
-      <c r="C100" s="123"/>
+      <c r="A100" s="115"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="112"/>
       <c r="D100" s="49" t="s">
         <v>64</v>
       </c>
@@ -7450,9 +7450,9 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="125"/>
-      <c r="B101" s="111"/>
-      <c r="C101" s="122" t="s">
+      <c r="A101" s="115"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="111" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="10"/>
@@ -7464,9 +7464,9 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="125"/>
-      <c r="B102" s="111"/>
-      <c r="C102" s="123"/>
+      <c r="A102" s="115"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="112"/>
       <c r="D102" s="9" t="s">
         <v>25</v>
       </c>
@@ -7519,9 +7519,9 @@
       <c r="U102" s="10"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="125"/>
-      <c r="B103" s="111"/>
-      <c r="C103" s="123"/>
+      <c r="A103" s="115"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="112"/>
       <c r="D103" s="9" t="s">
         <v>14</v>
       </c>
@@ -7574,9 +7574,9 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="125"/>
-      <c r="B104" s="111"/>
-      <c r="C104" s="123"/>
+      <c r="A104" s="115"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="112"/>
       <c r="D104" s="9" t="s">
         <v>36</v>
       </c>
@@ -7625,9 +7625,9 @@
       <c r="S104" s="61"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="125"/>
-      <c r="B105" s="111"/>
-      <c r="C105" s="123"/>
+      <c r="A105" s="115"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="112"/>
       <c r="D105" s="9" t="s">
         <v>22</v>
       </c>
@@ -7676,9 +7676,9 @@
       <c r="S105" s="61"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="125"/>
-      <c r="B106" s="111"/>
-      <c r="C106" s="123"/>
+      <c r="A106" s="115"/>
+      <c r="B106" s="116"/>
+      <c r="C106" s="112"/>
       <c r="D106" s="48" t="s">
         <v>61</v>
       </c>
@@ -7727,9 +7727,9 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="125"/>
-      <c r="B107" s="111"/>
-      <c r="C107" s="123"/>
+      <c r="A107" s="115"/>
+      <c r="B107" s="116"/>
+      <c r="C107" s="112"/>
       <c r="D107" s="9" t="s">
         <v>21</v>
       </c>
@@ -7778,9 +7778,9 @@
       <c r="S107" s="61"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="125"/>
-      <c r="B108" s="111"/>
-      <c r="C108" s="123"/>
+      <c r="A108" s="115"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="112"/>
       <c r="D108" s="48" t="s">
         <v>62</v>
       </c>
@@ -7829,9 +7829,9 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="125"/>
-      <c r="B109" s="111"/>
-      <c r="C109" s="123"/>
+      <c r="A109" s="115"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="112"/>
       <c r="D109" s="9" t="s">
         <v>23</v>
       </c>
@@ -7880,9 +7880,9 @@
       <c r="S109" s="61"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="125"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="123"/>
+      <c r="A110" s="115"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="112"/>
       <c r="D110" s="48" t="s">
         <v>63</v>
       </c>
@@ -7944,9 +7944,9 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="125"/>
-      <c r="B111" s="111"/>
-      <c r="C111" s="123"/>
+      <c r="A111" s="115"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="112"/>
       <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
@@ -7995,9 +7995,9 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="125"/>
-      <c r="B112" s="111"/>
-      <c r="C112" s="123"/>
+      <c r="A112" s="115"/>
+      <c r="B112" s="116"/>
+      <c r="C112" s="112"/>
       <c r="D112" s="9" t="s">
         <v>24</v>
       </c>
@@ -8020,9 +8020,9 @@
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="125"/>
-      <c r="B113" s="111"/>
-      <c r="C113" s="123"/>
+      <c r="A113" s="115"/>
+      <c r="B113" s="116"/>
+      <c r="C113" s="112"/>
       <c r="D113" s="49" t="s">
         <v>64</v>
       </c>
@@ -8087,11 +8087,11 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="124" t="s">
+      <c r="A114" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="111"/>
-      <c r="C114" s="122" t="s">
+      <c r="B114" s="116"/>
+      <c r="C114" s="111" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="10"/>
@@ -8103,9 +8103,9 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="125"/>
-      <c r="B115" s="111"/>
-      <c r="C115" s="123"/>
+      <c r="A115" s="115"/>
+      <c r="B115" s="116"/>
+      <c r="C115" s="112"/>
       <c r="D115" s="9" t="s">
         <v>25</v>
       </c>
@@ -8158,9 +8158,9 @@
       <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="125"/>
-      <c r="B116" s="111"/>
-      <c r="C116" s="123"/>
+      <c r="A116" s="115"/>
+      <c r="B116" s="116"/>
+      <c r="C116" s="112"/>
       <c r="D116" s="9" t="s">
         <v>14</v>
       </c>
@@ -8213,9 +8213,9 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="125"/>
-      <c r="B117" s="111"/>
-      <c r="C117" s="123"/>
+      <c r="A117" s="115"/>
+      <c r="B117" s="116"/>
+      <c r="C117" s="112"/>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
@@ -8264,9 +8264,9 @@
       <c r="S117" s="61"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="125"/>
-      <c r="B118" s="111"/>
-      <c r="C118" s="123"/>
+      <c r="A118" s="115"/>
+      <c r="B118" s="116"/>
+      <c r="C118" s="112"/>
       <c r="D118" s="9" t="s">
         <v>22</v>
       </c>
@@ -8315,9 +8315,9 @@
       <c r="S118" s="61"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="125"/>
-      <c r="B119" s="111"/>
-      <c r="C119" s="123"/>
+      <c r="A119" s="115"/>
+      <c r="B119" s="116"/>
+      <c r="C119" s="112"/>
       <c r="D119" s="48" t="s">
         <v>61</v>
       </c>
@@ -8366,9 +8366,9 @@
       <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="125"/>
-      <c r="B120" s="111"/>
-      <c r="C120" s="123"/>
+      <c r="A120" s="115"/>
+      <c r="B120" s="116"/>
+      <c r="C120" s="112"/>
       <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
@@ -8417,9 +8417,9 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="125"/>
-      <c r="B121" s="111"/>
-      <c r="C121" s="123"/>
+      <c r="A121" s="115"/>
+      <c r="B121" s="116"/>
+      <c r="C121" s="112"/>
       <c r="D121" s="48" t="s">
         <v>62</v>
       </c>
@@ -8468,9 +8468,9 @@
       <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="125"/>
-      <c r="B122" s="111"/>
-      <c r="C122" s="123"/>
+      <c r="A122" s="115"/>
+      <c r="B122" s="116"/>
+      <c r="C122" s="112"/>
       <c r="D122" s="9" t="s">
         <v>23</v>
       </c>
@@ -8519,9 +8519,9 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="125"/>
-      <c r="B123" s="111"/>
-      <c r="C123" s="123"/>
+      <c r="A123" s="115"/>
+      <c r="B123" s="116"/>
+      <c r="C123" s="112"/>
       <c r="D123" s="48" t="s">
         <v>63</v>
       </c>
@@ -8583,9 +8583,9 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="125"/>
-      <c r="B124" s="111"/>
-      <c r="C124" s="123"/>
+      <c r="A124" s="115"/>
+      <c r="B124" s="116"/>
+      <c r="C124" s="112"/>
       <c r="D124" s="9" t="s">
         <v>20</v>
       </c>
@@ -8634,9 +8634,9 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="125"/>
-      <c r="B125" s="111"/>
-      <c r="C125" s="123"/>
+      <c r="A125" s="115"/>
+      <c r="B125" s="116"/>
+      <c r="C125" s="112"/>
       <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
@@ -8659,9 +8659,9 @@
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="125"/>
-      <c r="B126" s="111"/>
-      <c r="C126" s="123"/>
+      <c r="A126" s="115"/>
+      <c r="B126" s="116"/>
+      <c r="C126" s="112"/>
       <c r="D126" s="49" t="s">
         <v>64</v>
       </c>
@@ -8726,9 +8726,9 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="125"/>
-      <c r="B127" s="111"/>
-      <c r="C127" s="122" t="s">
+      <c r="A127" s="115"/>
+      <c r="B127" s="116"/>
+      <c r="C127" s="111" t="s">
         <v>79</v>
       </c>
       <c r="I127" s="10"/>
@@ -8740,9 +8740,9 @@
       <c r="U127" s="10"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="125"/>
-      <c r="B128" s="111"/>
-      <c r="C128" s="123"/>
+      <c r="A128" s="115"/>
+      <c r="B128" s="116"/>
+      <c r="C128" s="112"/>
       <c r="D128" s="9" t="s">
         <v>25</v>
       </c>
@@ -8795,9 +8795,9 @@
       <c r="U128" s="10"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="125"/>
-      <c r="B129" s="111"/>
-      <c r="C129" s="123"/>
+      <c r="A129" s="115"/>
+      <c r="B129" s="116"/>
+      <c r="C129" s="112"/>
       <c r="D129" s="9" t="s">
         <v>14</v>
       </c>
@@ -8850,9 +8850,9 @@
       <c r="U129" s="10"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="125"/>
-      <c r="B130" s="111"/>
-      <c r="C130" s="123"/>
+      <c r="A130" s="115"/>
+      <c r="B130" s="116"/>
+      <c r="C130" s="112"/>
       <c r="D130" s="9" t="s">
         <v>36</v>
       </c>
@@ -8901,9 +8901,9 @@
       <c r="S130" s="61"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="125"/>
-      <c r="B131" s="111"/>
-      <c r="C131" s="123"/>
+      <c r="A131" s="115"/>
+      <c r="B131" s="116"/>
+      <c r="C131" s="112"/>
       <c r="D131" s="9" t="s">
         <v>22</v>
       </c>
@@ -8952,9 +8952,9 @@
       <c r="S131" s="61"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="125"/>
-      <c r="B132" s="111"/>
-      <c r="C132" s="123"/>
+      <c r="A132" s="115"/>
+      <c r="B132" s="116"/>
+      <c r="C132" s="112"/>
       <c r="D132" s="48" t="s">
         <v>61</v>
       </c>
@@ -9003,9 +9003,9 @@
       <c r="S132" s="10"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="125"/>
-      <c r="B133" s="111"/>
-      <c r="C133" s="123"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="116"/>
+      <c r="C133" s="112"/>
       <c r="D133" s="9" t="s">
         <v>21</v>
       </c>
@@ -9054,9 +9054,9 @@
       <c r="S133" s="61"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="125"/>
-      <c r="B134" s="111"/>
-      <c r="C134" s="123"/>
+      <c r="A134" s="115"/>
+      <c r="B134" s="116"/>
+      <c r="C134" s="112"/>
       <c r="D134" s="48" t="s">
         <v>62</v>
       </c>
@@ -9105,9 +9105,9 @@
       <c r="S134" s="10"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="125"/>
-      <c r="B135" s="111"/>
-      <c r="C135" s="123"/>
+      <c r="A135" s="115"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="112"/>
       <c r="D135" s="9" t="s">
         <v>23</v>
       </c>
@@ -9156,9 +9156,9 @@
       <c r="S135" s="61"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="125"/>
-      <c r="B136" s="111"/>
-      <c r="C136" s="123"/>
+      <c r="A136" s="115"/>
+      <c r="B136" s="116"/>
+      <c r="C136" s="112"/>
       <c r="D136" s="48" t="s">
         <v>63</v>
       </c>
@@ -9220,9 +9220,9 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="125"/>
-      <c r="B137" s="111"/>
-      <c r="C137" s="123"/>
+      <c r="A137" s="115"/>
+      <c r="B137" s="116"/>
+      <c r="C137" s="112"/>
       <c r="D137" s="9" t="s">
         <v>20</v>
       </c>
@@ -9271,9 +9271,9 @@
       <c r="S137" s="61"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="125"/>
-      <c r="B138" s="111"/>
-      <c r="C138" s="123"/>
+      <c r="A138" s="115"/>
+      <c r="B138" s="116"/>
+      <c r="C138" s="112"/>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
@@ -9296,9 +9296,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="125"/>
-      <c r="B139" s="111"/>
-      <c r="C139" s="123"/>
+      <c r="A139" s="115"/>
+      <c r="B139" s="116"/>
+      <c r="C139" s="112"/>
       <c r="D139" s="49" t="s">
         <v>64</v>
       </c>
@@ -9363,9 +9363,9 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="125"/>
-      <c r="B140" s="111"/>
-      <c r="C140" s="121" t="s">
+      <c r="A140" s="115"/>
+      <c r="B140" s="116"/>
+      <c r="C140" s="113" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="10"/>
@@ -9377,9 +9377,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="125"/>
-      <c r="B141" s="111"/>
-      <c r="C141" s="121"/>
+      <c r="A141" s="115"/>
+      <c r="B141" s="116"/>
+      <c r="C141" s="113"/>
       <c r="D141" s="9" t="s">
         <v>25</v>
       </c>
@@ -9432,9 +9432,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="125"/>
-      <c r="B142" s="111"/>
-      <c r="C142" s="121"/>
+      <c r="A142" s="115"/>
+      <c r="B142" s="116"/>
+      <c r="C142" s="113"/>
       <c r="D142" s="9" t="s">
         <v>14</v>
       </c>
@@ -9487,9 +9487,9 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="125"/>
-      <c r="B143" s="111"/>
-      <c r="C143" s="121"/>
+      <c r="A143" s="115"/>
+      <c r="B143" s="116"/>
+      <c r="C143" s="113"/>
       <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
@@ -9538,9 +9538,9 @@
       <c r="S143" s="61"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="125"/>
-      <c r="B144" s="111"/>
-      <c r="C144" s="121"/>
+      <c r="A144" s="115"/>
+      <c r="B144" s="116"/>
+      <c r="C144" s="113"/>
       <c r="D144" s="9" t="s">
         <v>22</v>
       </c>
@@ -9589,9 +9589,9 @@
       <c r="S144" s="61"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="125"/>
-      <c r="B145" s="111"/>
-      <c r="C145" s="121"/>
+      <c r="A145" s="115"/>
+      <c r="B145" s="116"/>
+      <c r="C145" s="113"/>
       <c r="D145" s="48" t="s">
         <v>61</v>
       </c>
@@ -9640,9 +9640,9 @@
       <c r="S145" s="10"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="125"/>
-      <c r="B146" s="111"/>
-      <c r="C146" s="121"/>
+      <c r="A146" s="115"/>
+      <c r="B146" s="116"/>
+      <c r="C146" s="113"/>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
@@ -9691,9 +9691,9 @@
       <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="125"/>
-      <c r="B147" s="111"/>
-      <c r="C147" s="121"/>
+      <c r="A147" s="115"/>
+      <c r="B147" s="116"/>
+      <c r="C147" s="113"/>
       <c r="D147" s="48" t="s">
         <v>62</v>
       </c>
@@ -9742,9 +9742,9 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="125"/>
-      <c r="B148" s="111"/>
-      <c r="C148" s="121"/>
+      <c r="A148" s="115"/>
+      <c r="B148" s="116"/>
+      <c r="C148" s="113"/>
       <c r="D148" s="9" t="s">
         <v>23</v>
       </c>
@@ -9793,9 +9793,9 @@
       <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="125"/>
-      <c r="B149" s="111"/>
-      <c r="C149" s="121"/>
+      <c r="A149" s="115"/>
+      <c r="B149" s="116"/>
+      <c r="C149" s="113"/>
       <c r="D149" s="48" t="s">
         <v>63</v>
       </c>
@@ -9857,9 +9857,9 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="125"/>
-      <c r="B150" s="111"/>
-      <c r="C150" s="121"/>
+      <c r="A150" s="115"/>
+      <c r="B150" s="116"/>
+      <c r="C150" s="113"/>
       <c r="D150" s="9" t="s">
         <v>20</v>
       </c>
@@ -9908,9 +9908,9 @@
       <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="125"/>
-      <c r="B151" s="111"/>
-      <c r="C151" s="121"/>
+      <c r="A151" s="115"/>
+      <c r="B151" s="116"/>
+      <c r="C151" s="113"/>
       <c r="D151" s="9" t="s">
         <v>24</v>
       </c>
@@ -9933,9 +9933,9 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="125"/>
-      <c r="B152" s="111"/>
-      <c r="C152" s="121"/>
+      <c r="A152" s="115"/>
+      <c r="B152" s="116"/>
+      <c r="C152" s="113"/>
       <c r="D152" s="49" t="s">
         <v>64</v>
       </c>
@@ -10000,9 +10000,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="125"/>
-      <c r="B153" s="111"/>
-      <c r="C153" s="121"/>
+      <c r="A153" s="115"/>
+      <c r="B153" s="116"/>
+      <c r="C153" s="113"/>
       <c r="D153" s="52" t="s">
         <v>67</v>
       </c>
@@ -10104,6 +10104,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C127:C139"/>
     <mergeCell ref="C140:C153"/>
     <mergeCell ref="A34:A60"/>
@@ -10120,17 +10131,6 @@
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="C47:C60"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A8:C11"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="5" orientation="landscape" r:id="rId1"/>
@@ -10146,8 +10146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L147" sqref="L147:L154"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
+++ b/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A4AC8137-2EE0-4ECF-8CF0-DDB11952AF71}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B319A6A-D289-4F62-8049-AD5FABEBA940}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_3_0_REIN_FF_with_Policy_FAC">#REF!</definedName>
     <definedName name="_6_1_FF_Account">#REF!</definedName>
     <definedName name="_6_2_FF_Loc">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oasis files'!$V$4:$Y$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oasis files'!$X$4:$AA$85</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Loss Example'!$A:$D,'Loss Example'!$1:$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="146">
   <si>
     <t>Policy Limit</t>
   </si>
@@ -416,18 +416,6 @@
     <t>calcrule_id</t>
   </si>
   <si>
-    <t>allocrule_id</t>
-  </si>
-  <si>
-    <t>deductible</t>
-  </si>
-  <si>
-    <t>limits</t>
-  </si>
-  <si>
-    <t>share_prop_of_lim</t>
-  </si>
-  <si>
     <t>fm_profile</t>
   </si>
   <si>
@@ -446,12 +434,6 @@
     <t>Reinsurance Inuring level 3 - Surplus</t>
   </si>
   <si>
-    <t>currency_id</t>
-  </si>
-  <si>
-    <t>deductible_prop_of_loss</t>
-  </si>
-  <si>
     <t>Reinsurance Inuring level 4 - Per Risk XS</t>
   </si>
   <si>
@@ -459,6 +441,33 @@
   </si>
   <si>
     <t>Work in progress</t>
+  </si>
+  <si>
+    <t>profile_id</t>
+  </si>
+  <si>
+    <t>deductible_1</t>
+  </si>
+  <si>
+    <t>deductible_2</t>
+  </si>
+  <si>
+    <t>deductible_3</t>
+  </si>
+  <si>
+    <t>attachment_1</t>
+  </si>
+  <si>
+    <t>limit_1</t>
+  </si>
+  <si>
+    <t>share_1</t>
+  </si>
+  <si>
+    <t>share_2</t>
+  </si>
+  <si>
+    <t>share_3</t>
   </si>
 </sst>
 </file>
@@ -1088,21 +1097,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1131,6 +1125,21 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1522,7 +1531,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="93" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B7" s="93"/>
       <c r="C7" s="93"/>
@@ -1589,7 +1598,7 @@
       </c>
       <c r="B21" s="93"/>
       <c r="C21" s="93" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1632,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2927,10 +2936,10 @@
   <dimension ref="A1:U166"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomRight" activeCell="A114" sqref="A114:A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3086,11 +3095,11 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
@@ -3155,9 +3164,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="33" t="s">
         <v>39</v>
       </c>
@@ -3222,9 +3231,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
@@ -3289,9 +3298,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3376,13 +3385,13 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="116"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
@@ -3425,9 +3434,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
@@ -3480,9 +3489,9 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
@@ -3535,11 +3544,11 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="33" t="s">
         <v>38</v>
       </c>
@@ -3604,9 +3613,9 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="122"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
@@ -3671,9 +3680,9 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="122"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
@@ -3738,9 +3747,9 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="125"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
@@ -3845,13 +3854,13 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="121" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3906,9 +3915,9 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
@@ -3961,9 +3970,9 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
@@ -4016,9 +4025,9 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="36" t="s">
         <v>53</v>
       </c>
@@ -4071,9 +4080,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="113" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="121" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -4128,9 +4137,9 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="113"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
@@ -4192,11 +4201,11 @@
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="121" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -4230,9 +4239,9 @@
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="36" t="s">
         <v>59</v>
       </c>
@@ -4294,9 +4303,9 @@
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="113" t="s">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="121" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -4330,9 +4339,9 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
@@ -4439,13 +4448,13 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="121" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4488,9 +4497,9 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
@@ -4531,9 +4540,9 @@
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="115"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4574,9 +4583,9 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="115"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
@@ -4617,9 +4626,9 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="115"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="48" t="s">
         <v>61</v>
       </c>
@@ -4672,9 +4681,9 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="115"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="121"/>
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
@@ -4715,9 +4724,9 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="115"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="121"/>
       <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
@@ -4770,9 +4779,9 @@
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="115"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -4813,9 +4822,9 @@
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="48" t="s">
         <v>63</v>
       </c>
@@ -4868,9 +4877,9 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="115"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
@@ -4911,9 +4920,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="115"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4954,9 +4963,9 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="115"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="49" t="s">
         <v>64</v>
       </c>
@@ -5021,9 +5030,9 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="115"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="36" t="s">
         <v>65</v>
       </c>
@@ -5088,11 +5097,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="115"/>
-      <c r="B47" s="116" t="s">
+      <c r="A47" s="125"/>
+      <c r="B47" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="113" t="s">
+      <c r="C47" s="121" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="10"/>
@@ -5115,9 +5124,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="115"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="121"/>
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
@@ -5143,9 +5152,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="115"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="121"/>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
@@ -5171,9 +5180,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="115"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="121"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
@@ -5199,9 +5208,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="115"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="121"/>
       <c r="D51" s="9" t="s">
         <v>22</v>
       </c>
@@ -5227,9 +5236,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="115"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="121"/>
       <c r="D52" s="48" t="s">
         <v>61</v>
       </c>
@@ -5261,9 +5270,9 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="115"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
@@ -5289,9 +5298,9 @@
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="115"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="48" t="s">
         <v>62</v>
       </c>
@@ -5323,9 +5332,9 @@
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="115"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
@@ -5351,9 +5360,9 @@
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="115"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="48" t="s">
         <v>63</v>
       </c>
@@ -5385,9 +5394,9 @@
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="115"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
@@ -5413,9 +5422,9 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="115"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="113"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="121"/>
       <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
@@ -5441,9 +5450,9 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="115"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="113"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="121"/>
       <c r="D59" s="49" t="s">
         <v>64</v>
       </c>
@@ -5508,9 +5517,9 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="115"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="113"/>
+      <c r="A60" s="125"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="121"/>
       <c r="D60" s="36" t="s">
         <v>66</v>
       </c>
@@ -5575,13 +5584,13 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="114" t="s">
+      <c r="A61" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="111" t="s">
+      <c r="C61" s="122" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="10"/>
@@ -5604,9 +5613,9 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="115"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="112"/>
+      <c r="A62" s="125"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="9" t="s">
         <v>25</v>
       </c>
@@ -5647,9 +5656,9 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="115"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="112"/>
+      <c r="A63" s="125"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="9" t="s">
         <v>14</v>
       </c>
@@ -5690,9 +5699,9 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="115"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="112"/>
+      <c r="A64" s="125"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5733,9 +5742,9 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="115"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="112"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
@@ -5776,9 +5785,9 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="112"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="48" t="s">
         <v>61</v>
       </c>
@@ -5831,9 +5840,9 @@
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="115"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="112"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="9" t="s">
         <v>21</v>
       </c>
@@ -5874,9 +5883,9 @@
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="115"/>
-      <c r="B68" s="116"/>
-      <c r="C68" s="112"/>
+      <c r="A68" s="125"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="48" t="s">
         <v>62</v>
       </c>
@@ -5929,9 +5938,9 @@
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="115"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="112"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
@@ -5972,9 +5981,9 @@
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="115"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="112"/>
+      <c r="A70" s="125"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="48" t="s">
         <v>63</v>
       </c>
@@ -6039,9 +6048,9 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="115"/>
-      <c r="B71" s="116"/>
-      <c r="C71" s="112"/>
+      <c r="A71" s="125"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
@@ -6082,9 +6091,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="115"/>
-      <c r="B72" s="116"/>
-      <c r="C72" s="112"/>
+      <c r="A72" s="125"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="123"/>
       <c r="D72" s="9" t="s">
         <v>24</v>
       </c>
@@ -6110,9 +6119,9 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="115"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="112"/>
+      <c r="A73" s="125"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="49" t="s">
         <v>64</v>
       </c>
@@ -6177,9 +6186,9 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="115"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="113" t="s">
+      <c r="A74" s="125"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="121" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="10"/>
@@ -6202,9 +6211,9 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="115"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="113"/>
+      <c r="A75" s="125"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="121"/>
       <c r="D75" s="9" t="s">
         <v>25</v>
       </c>
@@ -6239,9 +6248,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="115"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="113"/>
+      <c r="A76" s="125"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="121"/>
       <c r="D76" s="9" t="s">
         <v>14</v>
       </c>
@@ -6276,9 +6285,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="115"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="113"/>
+      <c r="A77" s="125"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="121"/>
       <c r="D77" s="9" t="s">
         <v>36</v>
       </c>
@@ -6313,9 +6322,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="115"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="113"/>
+      <c r="A78" s="125"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="121"/>
       <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
@@ -6350,9 +6359,9 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="115"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="113"/>
+      <c r="A79" s="125"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="121"/>
       <c r="D79" s="48" t="s">
         <v>61</v>
       </c>
@@ -6405,9 +6414,9 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="115"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="113"/>
+      <c r="A80" s="125"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="121"/>
       <c r="D80" s="9" t="s">
         <v>21</v>
       </c>
@@ -6442,9 +6451,9 @@
       <c r="U80" s="10"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="115"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="113"/>
+      <c r="A81" s="125"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="121"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -6497,9 +6506,9 @@
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="115"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="113"/>
+      <c r="A82" s="125"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="121"/>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
@@ -6534,9 +6543,9 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="115"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="113"/>
+      <c r="A83" s="125"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="121"/>
       <c r="D83" s="48" t="s">
         <v>63</v>
       </c>
@@ -6601,9 +6610,9 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="115"/>
-      <c r="B84" s="116"/>
-      <c r="C84" s="113"/>
+      <c r="A84" s="125"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="121"/>
       <c r="D84" s="9" t="s">
         <v>20</v>
       </c>
@@ -6638,9 +6647,9 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="115"/>
-      <c r="B85" s="116"/>
-      <c r="C85" s="113"/>
+      <c r="A85" s="125"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="121"/>
       <c r="D85" s="9" t="s">
         <v>24</v>
       </c>
@@ -6666,9 +6675,9 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="115"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="113"/>
+      <c r="A86" s="125"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="121"/>
       <c r="D86" s="49" t="s">
         <v>64</v>
       </c>
@@ -6733,9 +6742,9 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="115"/>
-      <c r="B87" s="116"/>
-      <c r="C87" s="113"/>
+      <c r="A87" s="125"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="121"/>
       <c r="D87" s="36" t="s">
         <v>68</v>
       </c>
@@ -6800,11 +6809,11 @@
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="115"/>
-      <c r="B88" s="116" t="s">
+      <c r="A88" s="125"/>
+      <c r="B88" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="122" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="10"/>
@@ -6827,9 +6836,9 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="115"/>
-      <c r="B89" s="116"/>
-      <c r="C89" s="112"/>
+      <c r="A89" s="125"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="123"/>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
@@ -6882,9 +6891,9 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="115"/>
-      <c r="B90" s="116"/>
-      <c r="C90" s="112"/>
+      <c r="A90" s="125"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="123"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -6937,9 +6946,9 @@
       <c r="U90" s="10"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="115"/>
-      <c r="B91" s="116"/>
-      <c r="C91" s="112"/>
+      <c r="A91" s="125"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="123"/>
       <c r="D91" s="9" t="s">
         <v>36</v>
       </c>
@@ -6988,9 +6997,9 @@
       <c r="S91" s="61"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="115"/>
-      <c r="B92" s="116"/>
-      <c r="C92" s="112"/>
+      <c r="A92" s="125"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="123"/>
       <c r="D92" s="9" t="s">
         <v>22</v>
       </c>
@@ -7039,9 +7048,9 @@
       <c r="S92" s="61"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="115"/>
-      <c r="B93" s="116"/>
-      <c r="C93" s="112"/>
+      <c r="A93" s="125"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="48" t="s">
         <v>61</v>
       </c>
@@ -7090,9 +7099,9 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="115"/>
-      <c r="B94" s="116"/>
-      <c r="C94" s="112"/>
+      <c r="A94" s="125"/>
+      <c r="B94" s="111"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7141,9 +7150,9 @@
       <c r="S94" s="61"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="115"/>
-      <c r="B95" s="116"/>
-      <c r="C95" s="112"/>
+      <c r="A95" s="125"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="48" t="s">
         <v>62</v>
       </c>
@@ -7192,9 +7201,9 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="115"/>
-      <c r="B96" s="116"/>
-      <c r="C96" s="112"/>
+      <c r="A96" s="125"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
@@ -7243,9 +7252,9 @@
       <c r="S96" s="61"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="115"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="112"/>
+      <c r="A97" s="125"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="123"/>
       <c r="D97" s="48" t="s">
         <v>63</v>
       </c>
@@ -7307,9 +7316,9 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="115"/>
-      <c r="B98" s="116"/>
-      <c r="C98" s="112"/>
+      <c r="A98" s="125"/>
+      <c r="B98" s="111"/>
+      <c r="C98" s="123"/>
       <c r="D98" s="9" t="s">
         <v>20</v>
       </c>
@@ -7358,9 +7367,9 @@
       <c r="S98" s="61"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="115"/>
-      <c r="B99" s="116"/>
-      <c r="C99" s="112"/>
+      <c r="A99" s="125"/>
+      <c r="B99" s="111"/>
+      <c r="C99" s="123"/>
       <c r="D99" s="9" t="s">
         <v>24</v>
       </c>
@@ -7383,9 +7392,9 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="115"/>
-      <c r="B100" s="116"/>
-      <c r="C100" s="112"/>
+      <c r="A100" s="125"/>
+      <c r="B100" s="111"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="49" t="s">
         <v>64</v>
       </c>
@@ -7450,9 +7459,9 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="115"/>
-      <c r="B101" s="116"/>
-      <c r="C101" s="111" t="s">
+      <c r="A101" s="125"/>
+      <c r="B101" s="111"/>
+      <c r="C101" s="122" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="10"/>
@@ -7464,9 +7473,9 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="115"/>
-      <c r="B102" s="116"/>
-      <c r="C102" s="112"/>
+      <c r="A102" s="125"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="123"/>
       <c r="D102" s="9" t="s">
         <v>25</v>
       </c>
@@ -7519,9 +7528,9 @@
       <c r="U102" s="10"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="115"/>
-      <c r="B103" s="116"/>
-      <c r="C103" s="112"/>
+      <c r="A103" s="125"/>
+      <c r="B103" s="111"/>
+      <c r="C103" s="123"/>
       <c r="D103" s="9" t="s">
         <v>14</v>
       </c>
@@ -7574,9 +7583,9 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="115"/>
-      <c r="B104" s="116"/>
-      <c r="C104" s="112"/>
+      <c r="A104" s="125"/>
+      <c r="B104" s="111"/>
+      <c r="C104" s="123"/>
       <c r="D104" s="9" t="s">
         <v>36</v>
       </c>
@@ -7625,9 +7634,9 @@
       <c r="S104" s="61"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="115"/>
-      <c r="B105" s="116"/>
-      <c r="C105" s="112"/>
+      <c r="A105" s="125"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="123"/>
       <c r="D105" s="9" t="s">
         <v>22</v>
       </c>
@@ -7676,9 +7685,9 @@
       <c r="S105" s="61"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="115"/>
-      <c r="B106" s="116"/>
-      <c r="C106" s="112"/>
+      <c r="A106" s="125"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="123"/>
       <c r="D106" s="48" t="s">
         <v>61</v>
       </c>
@@ -7727,9 +7736,9 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="115"/>
-      <c r="B107" s="116"/>
-      <c r="C107" s="112"/>
+      <c r="A107" s="125"/>
+      <c r="B107" s="111"/>
+      <c r="C107" s="123"/>
       <c r="D107" s="9" t="s">
         <v>21</v>
       </c>
@@ -7778,9 +7787,9 @@
       <c r="S107" s="61"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="115"/>
-      <c r="B108" s="116"/>
-      <c r="C108" s="112"/>
+      <c r="A108" s="125"/>
+      <c r="B108" s="111"/>
+      <c r="C108" s="123"/>
       <c r="D108" s="48" t="s">
         <v>62</v>
       </c>
@@ -7829,9 +7838,9 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="115"/>
-      <c r="B109" s="116"/>
-      <c r="C109" s="112"/>
+      <c r="A109" s="125"/>
+      <c r="B109" s="111"/>
+      <c r="C109" s="123"/>
       <c r="D109" s="9" t="s">
         <v>23</v>
       </c>
@@ -7880,9 +7889,9 @@
       <c r="S109" s="61"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="115"/>
-      <c r="B110" s="116"/>
-      <c r="C110" s="112"/>
+      <c r="A110" s="125"/>
+      <c r="B110" s="111"/>
+      <c r="C110" s="123"/>
       <c r="D110" s="48" t="s">
         <v>63</v>
       </c>
@@ -7944,9 +7953,9 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="115"/>
-      <c r="B111" s="116"/>
-      <c r="C111" s="112"/>
+      <c r="A111" s="125"/>
+      <c r="B111" s="111"/>
+      <c r="C111" s="123"/>
       <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
@@ -7995,9 +8004,9 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="115"/>
-      <c r="B112" s="116"/>
-      <c r="C112" s="112"/>
+      <c r="A112" s="125"/>
+      <c r="B112" s="111"/>
+      <c r="C112" s="123"/>
       <c r="D112" s="9" t="s">
         <v>24</v>
       </c>
@@ -8020,9 +8029,9 @@
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="115"/>
-      <c r="B113" s="116"/>
-      <c r="C113" s="112"/>
+      <c r="A113" s="125"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="123"/>
       <c r="D113" s="49" t="s">
         <v>64</v>
       </c>
@@ -8087,11 +8096,11 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="114" t="s">
+      <c r="A114" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="116"/>
-      <c r="C114" s="111" t="s">
+      <c r="B114" s="111"/>
+      <c r="C114" s="122" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="10"/>
@@ -8103,9 +8112,9 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="115"/>
-      <c r="B115" s="116"/>
-      <c r="C115" s="112"/>
+      <c r="A115" s="125"/>
+      <c r="B115" s="111"/>
+      <c r="C115" s="123"/>
       <c r="D115" s="9" t="s">
         <v>25</v>
       </c>
@@ -8158,9 +8167,9 @@
       <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="115"/>
-      <c r="B116" s="116"/>
-      <c r="C116" s="112"/>
+      <c r="A116" s="125"/>
+      <c r="B116" s="111"/>
+      <c r="C116" s="123"/>
       <c r="D116" s="9" t="s">
         <v>14</v>
       </c>
@@ -8213,9 +8222,9 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="115"/>
-      <c r="B117" s="116"/>
-      <c r="C117" s="112"/>
+      <c r="A117" s="125"/>
+      <c r="B117" s="111"/>
+      <c r="C117" s="123"/>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
@@ -8264,9 +8273,9 @@
       <c r="S117" s="61"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="115"/>
-      <c r="B118" s="116"/>
-      <c r="C118" s="112"/>
+      <c r="A118" s="125"/>
+      <c r="B118" s="111"/>
+      <c r="C118" s="123"/>
       <c r="D118" s="9" t="s">
         <v>22</v>
       </c>
@@ -8315,9 +8324,9 @@
       <c r="S118" s="61"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="115"/>
-      <c r="B119" s="116"/>
-      <c r="C119" s="112"/>
+      <c r="A119" s="125"/>
+      <c r="B119" s="111"/>
+      <c r="C119" s="123"/>
       <c r="D119" s="48" t="s">
         <v>61</v>
       </c>
@@ -8366,9 +8375,9 @@
       <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="115"/>
-      <c r="B120" s="116"/>
-      <c r="C120" s="112"/>
+      <c r="A120" s="125"/>
+      <c r="B120" s="111"/>
+      <c r="C120" s="123"/>
       <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
@@ -8417,9 +8426,9 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="115"/>
-      <c r="B121" s="116"/>
-      <c r="C121" s="112"/>
+      <c r="A121" s="125"/>
+      <c r="B121" s="111"/>
+      <c r="C121" s="123"/>
       <c r="D121" s="48" t="s">
         <v>62</v>
       </c>
@@ -8468,9 +8477,9 @@
       <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="115"/>
-      <c r="B122" s="116"/>
-      <c r="C122" s="112"/>
+      <c r="A122" s="125"/>
+      <c r="B122" s="111"/>
+      <c r="C122" s="123"/>
       <c r="D122" s="9" t="s">
         <v>23</v>
       </c>
@@ -8519,9 +8528,9 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="115"/>
-      <c r="B123" s="116"/>
-      <c r="C123" s="112"/>
+      <c r="A123" s="125"/>
+      <c r="B123" s="111"/>
+      <c r="C123" s="123"/>
       <c r="D123" s="48" t="s">
         <v>63</v>
       </c>
@@ -8583,9 +8592,9 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="115"/>
-      <c r="B124" s="116"/>
-      <c r="C124" s="112"/>
+      <c r="A124" s="125"/>
+      <c r="B124" s="111"/>
+      <c r="C124" s="123"/>
       <c r="D124" s="9" t="s">
         <v>20</v>
       </c>
@@ -8634,9 +8643,9 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="115"/>
-      <c r="B125" s="116"/>
-      <c r="C125" s="112"/>
+      <c r="A125" s="125"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="123"/>
       <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
@@ -8659,9 +8668,9 @@
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="115"/>
-      <c r="B126" s="116"/>
-      <c r="C126" s="112"/>
+      <c r="A126" s="125"/>
+      <c r="B126" s="111"/>
+      <c r="C126" s="123"/>
       <c r="D126" s="49" t="s">
         <v>64</v>
       </c>
@@ -8726,9 +8735,9 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="115"/>
-      <c r="B127" s="116"/>
-      <c r="C127" s="111" t="s">
+      <c r="A127" s="125"/>
+      <c r="B127" s="111"/>
+      <c r="C127" s="122" t="s">
         <v>79</v>
       </c>
       <c r="I127" s="10"/>
@@ -8740,9 +8749,9 @@
       <c r="U127" s="10"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="115"/>
-      <c r="B128" s="116"/>
-      <c r="C128" s="112"/>
+      <c r="A128" s="125"/>
+      <c r="B128" s="111"/>
+      <c r="C128" s="123"/>
       <c r="D128" s="9" t="s">
         <v>25</v>
       </c>
@@ -8795,9 +8804,9 @@
       <c r="U128" s="10"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="115"/>
-      <c r="B129" s="116"/>
-      <c r="C129" s="112"/>
+      <c r="A129" s="125"/>
+      <c r="B129" s="111"/>
+      <c r="C129" s="123"/>
       <c r="D129" s="9" t="s">
         <v>14</v>
       </c>
@@ -8850,9 +8859,9 @@
       <c r="U129" s="10"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="115"/>
-      <c r="B130" s="116"/>
-      <c r="C130" s="112"/>
+      <c r="A130" s="125"/>
+      <c r="B130" s="111"/>
+      <c r="C130" s="123"/>
       <c r="D130" s="9" t="s">
         <v>36</v>
       </c>
@@ -8901,9 +8910,9 @@
       <c r="S130" s="61"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="115"/>
-      <c r="B131" s="116"/>
-      <c r="C131" s="112"/>
+      <c r="A131" s="125"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="123"/>
       <c r="D131" s="9" t="s">
         <v>22</v>
       </c>
@@ -8952,9 +8961,9 @@
       <c r="S131" s="61"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="115"/>
-      <c r="B132" s="116"/>
-      <c r="C132" s="112"/>
+      <c r="A132" s="125"/>
+      <c r="B132" s="111"/>
+      <c r="C132" s="123"/>
       <c r="D132" s="48" t="s">
         <v>61</v>
       </c>
@@ -9003,9 +9012,9 @@
       <c r="S132" s="10"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="115"/>
-      <c r="B133" s="116"/>
-      <c r="C133" s="112"/>
+      <c r="A133" s="125"/>
+      <c r="B133" s="111"/>
+      <c r="C133" s="123"/>
       <c r="D133" s="9" t="s">
         <v>21</v>
       </c>
@@ -9054,9 +9063,9 @@
       <c r="S133" s="61"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="115"/>
-      <c r="B134" s="116"/>
-      <c r="C134" s="112"/>
+      <c r="A134" s="125"/>
+      <c r="B134" s="111"/>
+      <c r="C134" s="123"/>
       <c r="D134" s="48" t="s">
         <v>62</v>
       </c>
@@ -9105,9 +9114,9 @@
       <c r="S134" s="10"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="115"/>
-      <c r="B135" s="116"/>
-      <c r="C135" s="112"/>
+      <c r="A135" s="125"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="123"/>
       <c r="D135" s="9" t="s">
         <v>23</v>
       </c>
@@ -9156,9 +9165,9 @@
       <c r="S135" s="61"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="115"/>
-      <c r="B136" s="116"/>
-      <c r="C136" s="112"/>
+      <c r="A136" s="125"/>
+      <c r="B136" s="111"/>
+      <c r="C136" s="123"/>
       <c r="D136" s="48" t="s">
         <v>63</v>
       </c>
@@ -9220,9 +9229,9 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="115"/>
-      <c r="B137" s="116"/>
-      <c r="C137" s="112"/>
+      <c r="A137" s="125"/>
+      <c r="B137" s="111"/>
+      <c r="C137" s="123"/>
       <c r="D137" s="9" t="s">
         <v>20</v>
       </c>
@@ -9271,9 +9280,9 @@
       <c r="S137" s="61"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="115"/>
-      <c r="B138" s="116"/>
-      <c r="C138" s="112"/>
+      <c r="A138" s="125"/>
+      <c r="B138" s="111"/>
+      <c r="C138" s="123"/>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
@@ -9296,9 +9305,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="115"/>
-      <c r="B139" s="116"/>
-      <c r="C139" s="112"/>
+      <c r="A139" s="125"/>
+      <c r="B139" s="111"/>
+      <c r="C139" s="123"/>
       <c r="D139" s="49" t="s">
         <v>64</v>
       </c>
@@ -9363,9 +9372,9 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="115"/>
-      <c r="B140" s="116"/>
-      <c r="C140" s="113" t="s">
+      <c r="A140" s="125"/>
+      <c r="B140" s="111"/>
+      <c r="C140" s="121" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="10"/>
@@ -9377,9 +9386,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="115"/>
-      <c r="B141" s="116"/>
-      <c r="C141" s="113"/>
+      <c r="A141" s="125"/>
+      <c r="B141" s="111"/>
+      <c r="C141" s="121"/>
       <c r="D141" s="9" t="s">
         <v>25</v>
       </c>
@@ -9432,9 +9441,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="115"/>
-      <c r="B142" s="116"/>
-      <c r="C142" s="113"/>
+      <c r="A142" s="125"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="121"/>
       <c r="D142" s="9" t="s">
         <v>14</v>
       </c>
@@ -9487,9 +9496,9 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="115"/>
-      <c r="B143" s="116"/>
-      <c r="C143" s="113"/>
+      <c r="A143" s="125"/>
+      <c r="B143" s="111"/>
+      <c r="C143" s="121"/>
       <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
@@ -9538,9 +9547,9 @@
       <c r="S143" s="61"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="115"/>
-      <c r="B144" s="116"/>
-      <c r="C144" s="113"/>
+      <c r="A144" s="125"/>
+      <c r="B144" s="111"/>
+      <c r="C144" s="121"/>
       <c r="D144" s="9" t="s">
         <v>22</v>
       </c>
@@ -9589,9 +9598,9 @@
       <c r="S144" s="61"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="115"/>
-      <c r="B145" s="116"/>
-      <c r="C145" s="113"/>
+      <c r="A145" s="125"/>
+      <c r="B145" s="111"/>
+      <c r="C145" s="121"/>
       <c r="D145" s="48" t="s">
         <v>61</v>
       </c>
@@ -9640,9 +9649,9 @@
       <c r="S145" s="10"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="115"/>
-      <c r="B146" s="116"/>
-      <c r="C146" s="113"/>
+      <c r="A146" s="125"/>
+      <c r="B146" s="111"/>
+      <c r="C146" s="121"/>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
@@ -9691,9 +9700,9 @@
       <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="115"/>
-      <c r="B147" s="116"/>
-      <c r="C147" s="113"/>
+      <c r="A147" s="125"/>
+      <c r="B147" s="111"/>
+      <c r="C147" s="121"/>
       <c r="D147" s="48" t="s">
         <v>62</v>
       </c>
@@ -9742,9 +9751,9 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="115"/>
-      <c r="B148" s="116"/>
-      <c r="C148" s="113"/>
+      <c r="A148" s="125"/>
+      <c r="B148" s="111"/>
+      <c r="C148" s="121"/>
       <c r="D148" s="9" t="s">
         <v>23</v>
       </c>
@@ -9793,9 +9802,9 @@
       <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="115"/>
-      <c r="B149" s="116"/>
-      <c r="C149" s="113"/>
+      <c r="A149" s="125"/>
+      <c r="B149" s="111"/>
+      <c r="C149" s="121"/>
       <c r="D149" s="48" t="s">
         <v>63</v>
       </c>
@@ -9857,9 +9866,9 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="115"/>
-      <c r="B150" s="116"/>
-      <c r="C150" s="113"/>
+      <c r="A150" s="125"/>
+      <c r="B150" s="111"/>
+      <c r="C150" s="121"/>
       <c r="D150" s="9" t="s">
         <v>20</v>
       </c>
@@ -9908,9 +9917,9 @@
       <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="115"/>
-      <c r="B151" s="116"/>
-      <c r="C151" s="113"/>
+      <c r="A151" s="125"/>
+      <c r="B151" s="111"/>
+      <c r="C151" s="121"/>
       <c r="D151" s="9" t="s">
         <v>24</v>
       </c>
@@ -9933,9 +9942,9 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="115"/>
-      <c r="B152" s="116"/>
-      <c r="C152" s="113"/>
+      <c r="A152" s="125"/>
+      <c r="B152" s="111"/>
+      <c r="C152" s="121"/>
       <c r="D152" s="49" t="s">
         <v>64</v>
       </c>
@@ -10000,9 +10009,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="115"/>
-      <c r="B153" s="116"/>
-      <c r="C153" s="113"/>
+      <c r="A153" s="125"/>
+      <c r="B153" s="111"/>
+      <c r="C153" s="121"/>
       <c r="D153" s="52" t="s">
         <v>67</v>
       </c>
@@ -10104,17 +10113,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A8:C11"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C127:C139"/>
     <mergeCell ref="C140:C153"/>
     <mergeCell ref="A34:A60"/>
@@ -10131,6 +10129,17 @@
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="C47:C60"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="5" orientation="landscape" r:id="rId1"/>
@@ -10144,10 +10153,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y233"/>
+  <dimension ref="A1:AA233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E229" sqref="E229"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10161,17 +10170,17 @@
     <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="95"/>
-    <col min="19" max="19" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.88671875" style="95"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -10181,11 +10190,11 @@
       <c r="K3" t="s">
         <v>113</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -10216,20 +10225,20 @@
       <c r="M4" t="s">
         <v>111</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>115</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="Y4" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>116</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10260,20 +10269,20 @@
       <c r="M5" t="s">
         <v>112</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
       <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
         <v>-2</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10304,20 +10313,20 @@
       <c r="M6" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="95">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
+      <c r="X6" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
         <v>-1</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10348,20 +10357,20 @@
       <c r="M7" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="95">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
+      <c r="X7" s="95">
         <v>1</v>
       </c>
       <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <v>387500000</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -10392,20 +10401,20 @@
       <c r="M8" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="V8" s="95">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
       <c r="X8" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="95">
         <v>-2</v>
       </c>
-      <c r="Y8" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA8" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="95">
         <v>5</v>
       </c>
@@ -10436,20 +10445,20 @@
       <c r="M9" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="95">
-        <v>1</v>
-      </c>
-      <c r="W9" s="95">
-        <v>2</v>
-      </c>
       <c r="X9" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="95">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="95">
         <v>-1</v>
       </c>
-      <c r="Y9" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA9" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="95">
         <v>6</v>
       </c>
@@ -10480,20 +10489,20 @@
       <c r="M10" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="95">
-        <v>1</v>
-      </c>
-      <c r="W10" s="95">
-        <v>2</v>
-      </c>
       <c r="X10" s="95">
         <v>1</v>
       </c>
       <c r="Y10" s="95">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="95">
         <v>62500000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="95">
         <v>7</v>
       </c>
@@ -10524,20 +10533,20 @@
       <c r="M11" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="V11" s="95">
-        <v>1</v>
-      </c>
-      <c r="W11" s="95">
+      <c r="X11" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="95">
         <v>3</v>
       </c>
-      <c r="X11" s="95">
+      <c r="Z11" s="95">
         <v>-2</v>
       </c>
-      <c r="Y11" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA11" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="95">
         <v>8</v>
       </c>
@@ -10568,20 +10577,20 @@
       <c r="M12" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="V12" s="95">
-        <v>1</v>
-      </c>
-      <c r="W12" s="95">
+      <c r="X12" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="95">
         <v>3</v>
       </c>
-      <c r="X12" s="95">
+      <c r="Z12" s="95">
         <v>-1</v>
       </c>
-      <c r="Y12" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA12" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="95">
         <v>9</v>
       </c>
@@ -10612,20 +10621,20 @@
       <c r="M13" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="95">
-        <v>1</v>
-      </c>
-      <c r="W13" s="95">
+      <c r="X13" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="95">
         <v>3</v>
       </c>
-      <c r="X13" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y13">
+      <c r="Z13" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA13">
         <v>1250000</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="95">
         <v>10</v>
       </c>
@@ -10656,20 +10665,20 @@
       <c r="M14" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="V14" s="95">
-        <v>1</v>
-      </c>
-      <c r="W14" s="95">
+      <c r="X14" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="95">
         <v>4</v>
       </c>
-      <c r="X14" s="95">
+      <c r="Z14" s="95">
         <v>-2</v>
       </c>
-      <c r="Y14" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA14" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="95">
         <v>11</v>
       </c>
@@ -10700,20 +10709,20 @@
       <c r="M15" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="95">
-        <v>1</v>
-      </c>
-      <c r="W15" s="95">
+      <c r="X15" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="95">
         <v>4</v>
       </c>
-      <c r="X15" s="95">
+      <c r="Z15" s="95">
         <v>-1</v>
       </c>
-      <c r="Y15" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA15" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="95">
         <v>12</v>
       </c>
@@ -10744,20 +10753,20 @@
       <c r="M16" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="V16" s="95">
-        <v>1</v>
-      </c>
-      <c r="W16" s="95">
+      <c r="X16" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="95">
         <v>4</v>
       </c>
-      <c r="X16" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="39">
+      <c r="Z16" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="39">
         <v>235000000</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="95">
         <v>13</v>
       </c>
@@ -10788,20 +10797,20 @@
       <c r="M17" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="V17" s="95">
-        <v>1</v>
-      </c>
-      <c r="W17" s="95">
+      <c r="X17" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="95">
         <v>5</v>
       </c>
-      <c r="X17" s="95">
+      <c r="Z17" s="95">
         <v>-2</v>
       </c>
-      <c r="Y17" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA17" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="95">
         <v>14</v>
       </c>
@@ -10832,20 +10841,20 @@
       <c r="M18" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="95">
-        <v>1</v>
-      </c>
-      <c r="W18" s="95">
+      <c r="X18" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="95">
         <v>5</v>
       </c>
-      <c r="X18" s="95">
+      <c r="Z18" s="95">
         <v>-1</v>
       </c>
-      <c r="Y18" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA18" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="95">
         <v>15</v>
       </c>
@@ -10876,20 +10885,20 @@
       <c r="M19" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="95">
-        <v>1</v>
-      </c>
-      <c r="W19" s="95">
+      <c r="X19" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="95">
         <v>5</v>
       </c>
-      <c r="X19" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="39">
+      <c r="Z19" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="39">
         <v>65000000</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="95">
         <v>16</v>
       </c>
@@ -10920,20 +10929,20 @@
       <c r="M20" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="V20" s="95">
-        <v>1</v>
-      </c>
-      <c r="W20" s="95">
+      <c r="X20" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="95">
         <v>6</v>
       </c>
-      <c r="X20" s="95">
+      <c r="Z20" s="95">
         <v>-2</v>
       </c>
-      <c r="Y20" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA20" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="95">
         <v>17</v>
       </c>
@@ -10964,20 +10973,20 @@
       <c r="M21" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="95">
-        <v>1</v>
-      </c>
-      <c r="W21" s="95">
+      <c r="X21" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="95">
         <v>6</v>
       </c>
-      <c r="X21" s="95">
+      <c r="Z21" s="95">
         <v>-1</v>
       </c>
-      <c r="Y21" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA21" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="95">
         <v>18</v>
       </c>
@@ -11008,20 +11017,20 @@
       <c r="M22" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="V22" s="95">
-        <v>1</v>
-      </c>
-      <c r="W22" s="95">
+      <c r="X22" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="95">
         <v>6</v>
       </c>
-      <c r="X22" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="39">
+      <c r="Z22" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="39">
         <v>500000</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="95">
         <v>19</v>
       </c>
@@ -11052,20 +11061,20 @@
       <c r="M23" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="95">
-        <v>1</v>
-      </c>
-      <c r="W23" s="95">
+      <c r="X23" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="95">
         <v>7</v>
       </c>
-      <c r="X23" s="95">
+      <c r="Z23" s="95">
         <v>-2</v>
       </c>
-      <c r="Y23" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA23" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="95">
         <v>20</v>
       </c>
@@ -11096,20 +11105,20 @@
       <c r="M24" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="V24" s="95">
-        <v>1</v>
-      </c>
-      <c r="W24" s="95">
+      <c r="X24" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="95">
         <v>7</v>
       </c>
-      <c r="X24" s="95">
+      <c r="Z24" s="95">
         <v>-1</v>
       </c>
-      <c r="Y24" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA24" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="95">
         <v>21</v>
       </c>
@@ -11140,20 +11149,20 @@
       <c r="M25" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="V25" s="95">
-        <v>1</v>
-      </c>
-      <c r="W25" s="95">
+      <c r="X25" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="95">
         <v>7</v>
       </c>
-      <c r="X25" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y25">
+      <c r="Z25" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA25">
         <v>135000000</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="95">
         <v>22</v>
       </c>
@@ -11184,20 +11193,20 @@
       <c r="M26" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="V26" s="95">
-        <v>1</v>
-      </c>
-      <c r="W26" s="95">
+      <c r="X26" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="95">
         <v>8</v>
       </c>
-      <c r="X26" s="95">
+      <c r="Z26" s="95">
         <v>-2</v>
       </c>
-      <c r="Y26" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA26" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="95">
         <v>23</v>
       </c>
@@ -11228,20 +11237,20 @@
       <c r="M27" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="V27" s="95">
-        <v>1</v>
-      </c>
-      <c r="W27" s="95">
+      <c r="X27" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="95">
         <v>8</v>
       </c>
-      <c r="X27" s="95">
+      <c r="Z27" s="95">
         <v>-1</v>
       </c>
-      <c r="Y27" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA27" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="95">
         <v>24</v>
       </c>
@@ -11272,20 +11281,20 @@
       <c r="M28" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="V28" s="95">
-        <v>1</v>
-      </c>
-      <c r="W28" s="95">
+      <c r="X28" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="95">
         <v>8</v>
       </c>
-      <c r="X28" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y28">
+      <c r="Z28" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA28">
         <v>30000000</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="95">
         <v>25</v>
       </c>
@@ -11316,20 +11325,20 @@
       <c r="M29" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="V29" s="95">
-        <v>1</v>
-      </c>
-      <c r="W29" s="95">
+      <c r="X29" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="95">
         <v>9</v>
       </c>
-      <c r="X29" s="95">
+      <c r="Z29" s="95">
         <v>-2</v>
       </c>
-      <c r="Y29" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA29" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="95">
         <v>26</v>
       </c>
@@ -11360,20 +11369,20 @@
       <c r="M30" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="V30" s="95">
-        <v>1</v>
-      </c>
-      <c r="W30" s="95">
+      <c r="X30" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="95">
         <v>9</v>
       </c>
-      <c r="X30" s="95">
+      <c r="Z30" s="95">
         <v>-1</v>
       </c>
-      <c r="Y30" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA30" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="95">
         <v>27</v>
       </c>
@@ -11404,65 +11413,65 @@
       <c r="M31" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="V31" s="95">
-        <v>1</v>
-      </c>
-      <c r="W31" s="95">
+      <c r="X31" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="95">
         <v>9</v>
       </c>
-      <c r="X31" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y31">
+      <c r="Z31" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA31">
         <v>250000</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="V32" s="95">
-        <v>1</v>
-      </c>
-      <c r="W32" s="95">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X32" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="95">
         <v>10</v>
       </c>
-      <c r="X32" s="95">
+      <c r="Z32" s="95">
         <v>-2</v>
       </c>
-      <c r="Y32" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA32" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="V33" s="95">
-        <v>1</v>
-      </c>
-      <c r="W33" s="95">
+      <c r="X33" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="95">
         <v>10</v>
       </c>
-      <c r="X33" s="95">
+      <c r="Z33" s="95">
         <v>-1</v>
       </c>
-      <c r="Y33" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="V34" s="95">
-        <v>1</v>
-      </c>
-      <c r="W34" s="95">
+      <c r="AA33" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X34" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="95">
         <v>10</v>
       </c>
-      <c r="X34" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y34">
+      <c r="Z34" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA34">
         <v>42500000</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -11470,25 +11479,25 @@
         <v>123</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
-      </c>
-      <c r="S35" t="s">
-        <v>133</v>
-      </c>
-      <c r="V35" s="95">
-        <v>1</v>
-      </c>
-      <c r="W35" s="95">
+        <v>128</v>
+      </c>
+      <c r="U35" t="s">
+        <v>129</v>
+      </c>
+      <c r="X35" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="95">
         <v>11</v>
       </c>
-      <c r="X35" s="95">
+      <c r="Z35" s="95">
         <v>-2</v>
       </c>
-      <c r="Y35" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA35" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -11511,52 +11520,58 @@
         <v>126</v>
       </c>
       <c r="J36" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K36" t="s">
         <v>127</v>
       </c>
       <c r="L36" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N36" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O36" t="s">
+        <v>141</v>
+      </c>
+      <c r="P36" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="R36" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="S36" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="U36" t="s">
         <v>130</v>
       </c>
-      <c r="P36" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q36" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="S36" t="s">
-        <v>134</v>
-      </c>
-      <c r="T36" t="s">
+      <c r="V36" t="s">
         <v>125</v>
       </c>
-      <c r="U36" t="s">
+      <c r="W36" t="s">
         <v>124</v>
       </c>
-      <c r="V36" s="95">
-        <v>1</v>
-      </c>
-      <c r="W36" s="95">
+      <c r="X36" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="95">
         <v>11</v>
       </c>
-      <c r="X36" s="95">
+      <c r="Z36" s="95">
         <v>-1</v>
       </c>
-      <c r="Y36" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA36" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
         <v>1</v>
       </c>
@@ -11588,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -11602,29 +11617,35 @@
       <c r="Q37" s="95">
         <v>0</v>
       </c>
+      <c r="R37" s="95">
+        <v>0</v>
+      </c>
       <c r="S37" s="95">
-        <v>1</v>
-      </c>
-      <c r="T37" s="95">
-        <v>1</v>
-      </c>
-      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="U37" s="95">
         <v>1</v>
       </c>
       <c r="V37" s="95">
         <v>1</v>
       </c>
-      <c r="W37" s="95">
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="95">
         <v>11</v>
       </c>
-      <c r="X37" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y37">
+      <c r="Z37" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA37">
         <v>5000000</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="95">
         <v>2</v>
       </c>
@@ -11653,13 +11674,13 @@
         <v>12</v>
       </c>
       <c r="L38" s="95">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M38" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O38" s="95">
         <v>0</v>
@@ -11670,29 +11691,35 @@
       <c r="Q38" s="95">
         <v>0</v>
       </c>
+      <c r="R38" s="95">
+        <v>0</v>
+      </c>
       <c r="S38" s="95">
-        <v>2</v>
-      </c>
-      <c r="T38" s="95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U38" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38" s="95">
+        <v>1</v>
+      </c>
+      <c r="X38" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="95">
         <v>12</v>
       </c>
-      <c r="X38" s="95">
+      <c r="Z38" s="95">
         <v>-2</v>
       </c>
-      <c r="Y38" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA38" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="95">
         <v>3</v>
       </c>
@@ -11721,46 +11748,52 @@
         <v>1</v>
       </c>
       <c r="L39" s="95">
-        <v>0</v>
+        <v>1060000</v>
       </c>
       <c r="M39" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="95">
-        <v>1060000</v>
+        <v>0</v>
       </c>
       <c r="O39" s="97">
+        <v>0</v>
+      </c>
+      <c r="P39" s="97">
         <v>100000000</v>
       </c>
-      <c r="P39" s="97">
-        <v>0</v>
-      </c>
       <c r="Q39" s="95">
         <v>0</v>
       </c>
+      <c r="R39" s="95">
+        <v>0</v>
+      </c>
       <c r="S39" s="95">
+        <v>0</v>
+      </c>
+      <c r="U39" s="95">
         <v>3</v>
       </c>
-      <c r="T39" s="95">
+      <c r="V39" s="95">
         <v>3</v>
       </c>
-      <c r="U39" s="95">
-        <v>1</v>
-      </c>
-      <c r="V39" s="95">
-        <v>1</v>
-      </c>
       <c r="W39" s="95">
+        <v>1</v>
+      </c>
+      <c r="X39" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="95">
         <v>12</v>
       </c>
-      <c r="X39" s="95">
+      <c r="Z39" s="95">
         <v>-1</v>
       </c>
-      <c r="Y39" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA39" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="95">
         <v>4</v>
       </c>
@@ -11789,46 +11822,52 @@
         <v>1</v>
       </c>
       <c r="L40" s="95">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="M40" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="95">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="O40" s="97">
+        <v>0</v>
+      </c>
+      <c r="P40" s="97">
         <v>28500000</v>
       </c>
-      <c r="P40" s="97">
-        <v>0</v>
-      </c>
       <c r="Q40" s="95">
         <v>0</v>
       </c>
+      <c r="R40" s="95">
+        <v>0</v>
+      </c>
       <c r="S40" s="95">
+        <v>0</v>
+      </c>
+      <c r="U40" s="95">
         <v>4</v>
       </c>
-      <c r="T40" s="95">
+      <c r="V40" s="95">
         <v>4</v>
       </c>
-      <c r="U40" s="95">
-        <v>1</v>
-      </c>
-      <c r="V40" s="95">
-        <v>1</v>
-      </c>
       <c r="W40" s="95">
+        <v>1</v>
+      </c>
+      <c r="X40" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="95">
         <v>12</v>
       </c>
-      <c r="X40" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y40">
+      <c r="Z40" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA40">
         <v>500000</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="95">
         <v>5</v>
       </c>
@@ -11857,46 +11896,52 @@
         <v>1</v>
       </c>
       <c r="L41" s="95">
-        <v>0</v>
+        <v>7575.7597660000001</v>
       </c>
       <c r="M41" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="95">
-        <v>7575.76</v>
+        <v>0</v>
       </c>
       <c r="O41" s="98">
-        <v>750000.24</v>
+        <v>0</v>
       </c>
       <c r="P41" s="97">
-        <v>0</v>
+        <v>750000.25</v>
       </c>
       <c r="Q41" s="95">
         <v>0</v>
       </c>
+      <c r="R41" s="95">
+        <v>0</v>
+      </c>
       <c r="S41" s="95">
+        <v>0</v>
+      </c>
+      <c r="U41" s="95">
         <v>5</v>
       </c>
-      <c r="T41" s="95">
+      <c r="V41" s="95">
         <v>5</v>
       </c>
-      <c r="U41" s="95">
-        <v>1</v>
-      </c>
-      <c r="V41" s="95">
-        <v>1</v>
-      </c>
       <c r="W41" s="95">
+        <v>1</v>
+      </c>
+      <c r="X41" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="95">
         <v>13</v>
       </c>
-      <c r="X41" s="95">
+      <c r="Z41" s="95">
         <v>-2</v>
       </c>
-      <c r="Y41" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA41" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="95">
         <v>6</v>
       </c>
@@ -11925,46 +11970,52 @@
         <v>1</v>
       </c>
       <c r="L42" s="95">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="M42" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="95">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="O42" s="97">
+        <v>0</v>
+      </c>
+      <c r="P42" s="97">
         <v>20000000</v>
       </c>
-      <c r="P42" s="97">
-        <v>0</v>
-      </c>
       <c r="Q42" s="95">
         <v>0</v>
       </c>
+      <c r="R42" s="95">
+        <v>0</v>
+      </c>
       <c r="S42" s="95">
+        <v>0</v>
+      </c>
+      <c r="U42" s="95">
         <v>6</v>
       </c>
-      <c r="T42" s="95">
+      <c r="V42" s="95">
         <v>6</v>
       </c>
-      <c r="U42" s="95">
-        <v>1</v>
-      </c>
-      <c r="V42" s="95">
-        <v>1</v>
-      </c>
       <c r="W42" s="95">
+        <v>1</v>
+      </c>
+      <c r="X42" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="95">
         <v>13</v>
       </c>
-      <c r="X42" s="95">
+      <c r="Z42" s="95">
         <v>-1</v>
       </c>
-      <c r="Y42" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA42" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="95">
         <v>7</v>
       </c>
@@ -11993,10 +12044,10 @@
         <v>16</v>
       </c>
       <c r="L43" s="95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M43" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -12008,31 +12059,37 @@
         <v>0</v>
       </c>
       <c r="Q43" s="95">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="R43" s="95">
+        <v>0</v>
       </c>
       <c r="S43" s="95">
+        <v>0</v>
+      </c>
+      <c r="U43" s="95">
         <v>7</v>
       </c>
-      <c r="T43" s="95">
+      <c r="V43" s="95">
         <v>7</v>
       </c>
-      <c r="U43" s="95">
-        <v>1</v>
-      </c>
-      <c r="V43" s="95">
-        <v>1</v>
-      </c>
       <c r="W43" s="95">
+        <v>1</v>
+      </c>
+      <c r="X43" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="95">
         <v>13</v>
       </c>
-      <c r="X43" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y43">
+      <c r="Z43" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA43">
         <v>35000000</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="95">
         <v>8</v>
       </c>
@@ -12064,43 +12121,49 @@
         <v>0</v>
       </c>
       <c r="M44" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" s="97">
         <v>80000000</v>
       </c>
-      <c r="P44" s="97">
-        <v>0</v>
-      </c>
       <c r="Q44" s="95">
         <v>0</v>
       </c>
+      <c r="R44" s="95">
+        <v>0</v>
+      </c>
       <c r="S44" s="95">
+        <v>0</v>
+      </c>
+      <c r="U44" s="95">
         <v>8</v>
       </c>
-      <c r="T44" s="95">
+      <c r="V44" s="95">
         <v>8</v>
       </c>
-      <c r="U44" s="95">
-        <v>1</v>
-      </c>
-      <c r="V44" s="95">
-        <v>1</v>
-      </c>
       <c r="W44" s="95">
+        <v>1</v>
+      </c>
+      <c r="X44" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="95">
         <v>14</v>
       </c>
-      <c r="X44" s="95">
+      <c r="Z44" s="95">
         <v>-2</v>
       </c>
-      <c r="Y44" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA44" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="95">
         <v>9</v>
       </c>
@@ -12132,43 +12195,49 @@
         <v>0</v>
       </c>
       <c r="M45" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" s="97">
         <v>32000000</v>
       </c>
-      <c r="P45" s="97">
-        <v>0</v>
-      </c>
       <c r="Q45" s="95">
         <v>0</v>
       </c>
+      <c r="R45" s="95">
+        <v>0</v>
+      </c>
       <c r="S45" s="95">
+        <v>0</v>
+      </c>
+      <c r="U45" s="95">
         <v>9</v>
       </c>
-      <c r="T45" s="95">
+      <c r="V45" s="95">
         <v>9</v>
       </c>
-      <c r="U45" s="95">
-        <v>1</v>
-      </c>
-      <c r="V45" s="95">
-        <v>1</v>
-      </c>
       <c r="W45" s="95">
+        <v>1</v>
+      </c>
+      <c r="X45" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="95">
         <v>14</v>
       </c>
-      <c r="X45" s="95">
+      <c r="Z45" s="95">
         <v>-1</v>
       </c>
-      <c r="Y45" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA45" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="95">
         <v>10</v>
       </c>
@@ -12197,46 +12266,52 @@
         <v>2</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
         <v>450000000</v>
       </c>
-      <c r="P46">
-        <v>0.15555555555555556</v>
-      </c>
       <c r="Q46" s="95">
+        <v>0.155556</v>
+      </c>
+      <c r="R46" s="95">
         <v>0</v>
       </c>
       <c r="S46" s="95">
+        <v>0</v>
+      </c>
+      <c r="U46" s="95">
         <v>10</v>
       </c>
-      <c r="T46" s="95">
+      <c r="V46" s="95">
         <v>10</v>
       </c>
-      <c r="U46" s="95">
-        <v>1</v>
-      </c>
-      <c r="V46" s="95">
-        <v>1</v>
-      </c>
       <c r="W46" s="95">
+        <v>1</v>
+      </c>
+      <c r="X46" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="95">
         <v>14</v>
       </c>
-      <c r="X46" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y46">
+      <c r="Z46" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA46">
         <v>15000000</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="95">
         <v>11</v>
       </c>
@@ -12265,10 +12340,10 @@
         <v>12</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -12282,29 +12357,35 @@
       <c r="Q47" s="95">
         <v>0</v>
       </c>
+      <c r="R47" s="95">
+        <v>0</v>
+      </c>
       <c r="S47" s="95">
+        <v>0</v>
+      </c>
+      <c r="U47" s="95">
         <v>11</v>
       </c>
-      <c r="T47" s="95">
+      <c r="V47" s="95">
         <v>11</v>
       </c>
-      <c r="U47" s="95">
-        <v>1</v>
-      </c>
-      <c r="V47" s="95">
-        <v>1</v>
-      </c>
       <c r="W47" s="95">
+        <v>1</v>
+      </c>
+      <c r="X47" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="95">
         <v>15</v>
       </c>
-      <c r="X47" s="95">
+      <c r="Z47" s="95">
         <v>-2</v>
       </c>
-      <c r="Y47" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA47" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="95">
         <v>12</v>
       </c>
@@ -12327,29 +12408,29 @@
         <v>6</v>
       </c>
       <c r="J48" s="95"/>
-      <c r="S48" s="95">
+      <c r="U48" s="95">
         <v>12</v>
       </c>
-      <c r="T48" s="95">
+      <c r="V48" s="95">
         <v>12</v>
       </c>
-      <c r="U48" s="95">
-        <v>1</v>
-      </c>
-      <c r="V48" s="95">
-        <v>1</v>
-      </c>
       <c r="W48" s="95">
+        <v>1</v>
+      </c>
+      <c r="X48" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="95">
         <v>15</v>
       </c>
-      <c r="X48" s="95">
+      <c r="Z48" s="95">
         <v>-1</v>
       </c>
-      <c r="Y48" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA48" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="95">
         <v>13</v>
       </c>
@@ -12372,29 +12453,29 @@
         <v>7</v>
       </c>
       <c r="J49" s="95"/>
-      <c r="S49" s="95">
+      <c r="U49" s="95">
         <v>13</v>
       </c>
-      <c r="T49" s="95">
+      <c r="V49" s="95">
         <v>13</v>
       </c>
-      <c r="U49" s="95">
-        <v>1</v>
-      </c>
-      <c r="V49" s="95">
-        <v>1</v>
-      </c>
       <c r="W49" s="95">
+        <v>1</v>
+      </c>
+      <c r="X49" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="95">
         <v>15</v>
       </c>
-      <c r="X49" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y49">
+      <c r="Z49" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA49">
         <v>3000000</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="95">
         <v>14</v>
       </c>
@@ -12417,29 +12498,29 @@
         <v>7</v>
       </c>
       <c r="J50" s="95"/>
-      <c r="S50" s="95">
+      <c r="U50" s="95">
         <v>14</v>
       </c>
-      <c r="T50" s="95">
+      <c r="V50" s="95">
         <v>14</v>
       </c>
-      <c r="U50" s="95">
-        <v>1</v>
-      </c>
-      <c r="V50" s="95">
-        <v>1</v>
-      </c>
       <c r="W50" s="95">
+        <v>1</v>
+      </c>
+      <c r="X50" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="95">
         <v>16</v>
       </c>
-      <c r="X50" s="95">
+      <c r="Z50" s="95">
         <v>-2</v>
       </c>
-      <c r="Y50" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA50" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="95">
         <v>15</v>
       </c>
@@ -12462,29 +12543,29 @@
         <v>1</v>
       </c>
       <c r="J51" s="95"/>
-      <c r="S51" s="95">
+      <c r="U51" s="95">
         <v>15</v>
       </c>
-      <c r="T51" s="95">
+      <c r="V51" s="95">
         <v>15</v>
       </c>
-      <c r="U51" s="95">
-        <v>1</v>
-      </c>
-      <c r="V51" s="95">
-        <v>1</v>
-      </c>
       <c r="W51" s="95">
+        <v>1</v>
+      </c>
+      <c r="X51" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="95">
         <v>16</v>
       </c>
-      <c r="X51" s="95">
+      <c r="Z51" s="95">
         <v>-1</v>
       </c>
-      <c r="Y51" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA51" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="95">
         <v>16</v>
       </c>
@@ -12507,29 +12588,29 @@
         <v>1</v>
       </c>
       <c r="J52" s="95"/>
-      <c r="S52" s="95">
+      <c r="U52" s="95">
         <v>16</v>
       </c>
-      <c r="T52" s="95">
+      <c r="V52" s="95">
         <v>16</v>
       </c>
-      <c r="U52" s="95">
-        <v>1</v>
-      </c>
-      <c r="V52" s="95">
-        <v>1</v>
-      </c>
       <c r="W52" s="95">
+        <v>1</v>
+      </c>
+      <c r="X52" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="95">
         <v>16</v>
       </c>
-      <c r="X52" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y52">
+      <c r="Z52" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA52">
         <v>10500000</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="95">
         <v>17</v>
       </c>
@@ -12551,29 +12632,29 @@
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="S53" s="95">
+      <c r="U53" s="95">
         <v>17</v>
       </c>
-      <c r="T53" s="95">
+      <c r="V53" s="95">
         <v>17</v>
       </c>
-      <c r="U53" s="95">
-        <v>1</v>
-      </c>
-      <c r="V53" s="95">
-        <v>1</v>
-      </c>
       <c r="W53" s="95">
+        <v>1</v>
+      </c>
+      <c r="X53" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="95">
         <v>17</v>
       </c>
-      <c r="X53" s="95">
+      <c r="Z53" s="95">
         <v>-2</v>
       </c>
-      <c r="Y53" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA53" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="95">
         <v>18</v>
       </c>
@@ -12595,29 +12676,29 @@
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="S54" s="95">
+      <c r="U54" s="95">
         <v>18</v>
       </c>
-      <c r="T54" s="95">
+      <c r="V54" s="95">
         <v>18</v>
       </c>
-      <c r="U54" s="95">
-        <v>1</v>
-      </c>
-      <c r="V54" s="95">
-        <v>1</v>
-      </c>
       <c r="W54" s="95">
+        <v>1</v>
+      </c>
+      <c r="X54" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="95">
         <v>17</v>
       </c>
-      <c r="X54" s="95">
+      <c r="Z54" s="95">
         <v>-1</v>
       </c>
-      <c r="Y54" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA54" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="95">
         <v>19</v>
       </c>
@@ -12639,29 +12720,29 @@
       <c r="H55">
         <v>1</v>
       </c>
-      <c r="S55" s="95">
+      <c r="U55" s="95">
         <v>19</v>
       </c>
-      <c r="T55" s="95">
+      <c r="V55" s="95">
         <v>19</v>
       </c>
-      <c r="U55" s="95">
-        <v>1</v>
-      </c>
-      <c r="V55" s="95">
-        <v>1</v>
-      </c>
       <c r="W55" s="95">
+        <v>1</v>
+      </c>
+      <c r="X55" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="95">
         <v>17</v>
       </c>
-      <c r="X55" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y55">
+      <c r="Z55" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA55">
         <v>4500000</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="95">
         <v>20</v>
       </c>
@@ -12683,29 +12764,29 @@
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="S56" s="95">
+      <c r="U56" s="95">
         <v>20</v>
       </c>
-      <c r="T56" s="95">
+      <c r="V56" s="95">
         <v>20</v>
       </c>
-      <c r="U56" s="95">
-        <v>1</v>
-      </c>
-      <c r="V56" s="95">
-        <v>1</v>
-      </c>
       <c r="W56" s="95">
+        <v>1</v>
+      </c>
+      <c r="X56" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="95">
         <v>18</v>
       </c>
-      <c r="X56" s="95">
+      <c r="Z56" s="95">
         <v>-2</v>
       </c>
-      <c r="Y56" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA56" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="95">
         <v>21</v>
       </c>
@@ -12727,29 +12808,29 @@
       <c r="H57">
         <v>1</v>
       </c>
-      <c r="S57" s="95">
+      <c r="U57" s="95">
         <v>21</v>
       </c>
-      <c r="T57" s="95">
+      <c r="V57" s="95">
         <v>21</v>
       </c>
-      <c r="U57" s="95">
-        <v>1</v>
-      </c>
-      <c r="V57" s="95">
-        <v>1</v>
-      </c>
       <c r="W57" s="95">
+        <v>1</v>
+      </c>
+      <c r="X57" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="95">
         <v>18</v>
       </c>
-      <c r="X57" s="95">
+      <c r="Z57" s="95">
         <v>-1</v>
       </c>
-      <c r="Y57" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA57" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="95">
         <v>22</v>
       </c>
@@ -12771,29 +12852,29 @@
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="S58" s="95">
+      <c r="U58" s="95">
         <v>22</v>
       </c>
-      <c r="T58" s="95">
+      <c r="V58" s="95">
         <v>22</v>
       </c>
-      <c r="U58" s="95">
-        <v>1</v>
-      </c>
-      <c r="V58" s="95">
-        <v>1</v>
-      </c>
       <c r="W58" s="95">
+        <v>1</v>
+      </c>
+      <c r="X58" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="95">
         <v>18</v>
       </c>
-      <c r="X58" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y58">
+      <c r="Z58" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA58">
         <v>278788</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="95">
         <v>23</v>
       </c>
@@ -12815,29 +12896,29 @@
       <c r="H59" s="95">
         <v>1</v>
       </c>
-      <c r="S59" s="95">
+      <c r="U59" s="95">
         <v>23</v>
       </c>
-      <c r="T59" s="95">
+      <c r="V59" s="95">
         <v>23</v>
       </c>
-      <c r="U59" s="95">
-        <v>1</v>
-      </c>
-      <c r="V59" s="95">
-        <v>1</v>
-      </c>
       <c r="W59" s="95">
+        <v>1</v>
+      </c>
+      <c r="X59" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="95">
         <v>19</v>
       </c>
-      <c r="X59" s="95">
+      <c r="Z59" s="95">
         <v>-2</v>
       </c>
-      <c r="Y59" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA59" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="95">
         <v>24</v>
       </c>
@@ -12859,29 +12940,29 @@
       <c r="H60" s="95">
         <v>1</v>
       </c>
-      <c r="S60" s="95">
+      <c r="U60" s="95">
         <v>24</v>
       </c>
-      <c r="T60" s="95">
+      <c r="V60" s="95">
         <v>24</v>
       </c>
-      <c r="U60" s="95">
-        <v>1</v>
-      </c>
-      <c r="V60" s="95">
-        <v>1</v>
-      </c>
       <c r="W60" s="95">
+        <v>1</v>
+      </c>
+      <c r="X60" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="95">
         <v>19</v>
       </c>
-      <c r="X60" s="95">
+      <c r="Z60" s="95">
         <v>-1</v>
       </c>
-      <c r="Y60" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA60" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="95">
         <v>25</v>
       </c>
@@ -12903,29 +12984,29 @@
       <c r="H61" s="95">
         <v>1</v>
       </c>
-      <c r="S61" s="95">
+      <c r="U61" s="95">
         <v>25</v>
       </c>
-      <c r="T61" s="95">
+      <c r="V61" s="95">
         <v>25</v>
       </c>
-      <c r="U61" s="95">
-        <v>1</v>
-      </c>
-      <c r="V61" s="95">
-        <v>1</v>
-      </c>
       <c r="W61" s="95">
+        <v>1</v>
+      </c>
+      <c r="X61" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="95">
         <v>19</v>
       </c>
-      <c r="X61" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y61">
+      <c r="Z61" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA61">
         <v>100000</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="95">
         <v>26</v>
       </c>
@@ -12947,29 +13028,29 @@
       <c r="H62" s="95">
         <v>1</v>
       </c>
-      <c r="S62" s="95">
+      <c r="U62" s="95">
         <v>26</v>
       </c>
-      <c r="T62" s="95">
+      <c r="V62" s="95">
         <v>26</v>
       </c>
-      <c r="U62" s="95">
-        <v>1</v>
-      </c>
-      <c r="V62" s="95">
-        <v>1</v>
-      </c>
       <c r="W62" s="95">
+        <v>1</v>
+      </c>
+      <c r="X62" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="95">
         <v>20</v>
       </c>
-      <c r="X62" s="95">
+      <c r="Z62" s="95">
         <v>-2</v>
       </c>
-      <c r="Y62" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA62" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="95">
         <v>27</v>
       </c>
@@ -12991,29 +13072,29 @@
       <c r="H63">
         <v>8</v>
       </c>
-      <c r="S63" s="95">
+      <c r="U63" s="95">
         <v>27</v>
       </c>
-      <c r="T63" s="95">
+      <c r="V63" s="95">
         <v>27</v>
       </c>
-      <c r="U63" s="95">
-        <v>1</v>
-      </c>
-      <c r="V63" s="95">
-        <v>1</v>
-      </c>
       <c r="W63" s="95">
+        <v>1</v>
+      </c>
+      <c r="X63" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="95">
         <v>20</v>
       </c>
-      <c r="X63" s="95">
+      <c r="Z63" s="95">
         <v>-1</v>
       </c>
-      <c r="Y63" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA63" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="95">
         <v>1</v>
       </c>
@@ -13035,20 +13116,20 @@
       <c r="H64">
         <v>9</v>
       </c>
-      <c r="V64" s="95">
-        <v>1</v>
-      </c>
-      <c r="W64" s="95">
+      <c r="X64" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="95">
         <v>20</v>
       </c>
-      <c r="X64" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="95">
+      <c r="Z64" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="95">
         <v>7500000</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="95">
         <v>2</v>
       </c>
@@ -13070,20 +13151,20 @@
       <c r="H65" s="95">
         <v>10</v>
       </c>
-      <c r="V65" s="95">
-        <v>1</v>
-      </c>
-      <c r="W65" s="95">
+      <c r="X65" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="95">
         <v>21</v>
       </c>
-      <c r="X65" s="95">
+      <c r="Z65" s="95">
         <v>-2</v>
       </c>
-      <c r="Y65" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA65" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="95">
         <v>3</v>
       </c>
@@ -13105,20 +13186,20 @@
       <c r="H66" s="95">
         <v>11</v>
       </c>
-      <c r="V66" s="95">
-        <v>1</v>
-      </c>
-      <c r="W66" s="95">
+      <c r="X66" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="95">
         <v>21</v>
       </c>
-      <c r="X66" s="95">
+      <c r="Z66" s="95">
         <v>-1</v>
       </c>
-      <c r="Y66" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA66" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="95">
         <v>4</v>
       </c>
@@ -13140,20 +13221,20 @@
       <c r="H67">
         <v>11</v>
       </c>
-      <c r="V67" s="95">
-        <v>1</v>
-      </c>
-      <c r="W67" s="95">
+      <c r="X67" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="95">
         <v>21</v>
       </c>
-      <c r="X67" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y67">
+      <c r="Z67" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA67">
         <v>3000000</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="95">
         <v>5</v>
       </c>
@@ -13167,20 +13248,20 @@
       <c r="F68" s="95"/>
       <c r="G68" s="95"/>
       <c r="H68" s="95"/>
-      <c r="V68" s="95">
-        <v>1</v>
-      </c>
-      <c r="W68" s="95">
+      <c r="X68" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="95">
         <v>22</v>
       </c>
-      <c r="X68" s="95">
+      <c r="Z68" s="95">
         <v>-2</v>
       </c>
-      <c r="Y68" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA68" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="95">
         <v>6</v>
       </c>
@@ -13190,20 +13271,20 @@
       <c r="C69" s="95">
         <v>6</v>
       </c>
-      <c r="V69" s="95">
-        <v>1</v>
-      </c>
-      <c r="W69" s="95">
+      <c r="X69" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="95">
         <v>22</v>
       </c>
-      <c r="X69" s="95">
+      <c r="Z69" s="95">
         <v>-1</v>
       </c>
-      <c r="Y69" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA69" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="95">
         <v>7</v>
       </c>
@@ -13213,20 +13294,20 @@
       <c r="C70" s="95">
         <v>7</v>
       </c>
-      <c r="V70" s="95">
-        <v>1</v>
-      </c>
-      <c r="W70" s="95">
+      <c r="X70" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="95">
         <v>22</v>
       </c>
-      <c r="X70" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y70">
+      <c r="Z70" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA70">
         <v>30000000</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="95">
         <v>8</v>
       </c>
@@ -13236,20 +13317,20 @@
       <c r="C71" s="95">
         <v>8</v>
       </c>
-      <c r="V71" s="95">
-        <v>1</v>
-      </c>
-      <c r="W71" s="95">
+      <c r="X71" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="95">
         <v>23</v>
       </c>
-      <c r="X71" s="95">
+      <c r="Z71" s="95">
         <v>-2</v>
       </c>
-      <c r="Y71" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA71" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="95">
         <v>9</v>
       </c>
@@ -13259,20 +13340,20 @@
       <c r="C72" s="95">
         <v>9</v>
       </c>
-      <c r="V72" s="95">
-        <v>1</v>
-      </c>
-      <c r="W72" s="95">
+      <c r="X72" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="95">
         <v>23</v>
       </c>
-      <c r="X72" s="95">
+      <c r="Z72" s="95">
         <v>-1</v>
       </c>
-      <c r="Y72" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA72" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="95">
         <v>10</v>
       </c>
@@ -13282,20 +13363,20 @@
       <c r="C73" s="95">
         <v>10</v>
       </c>
-      <c r="V73" s="95">
-        <v>1</v>
-      </c>
-      <c r="W73" s="95">
+      <c r="X73" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="95">
         <v>23</v>
       </c>
-      <c r="X73" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y73">
+      <c r="Z73" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA73">
         <v>7500000</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="95">
         <v>11</v>
       </c>
@@ -13305,20 +13386,20 @@
       <c r="C74" s="95">
         <v>11</v>
       </c>
-      <c r="V74" s="95">
-        <v>1</v>
-      </c>
-      <c r="W74" s="95">
+      <c r="X74" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="95">
         <v>24</v>
       </c>
-      <c r="X74" s="95">
+      <c r="Z74" s="95">
         <v>-2</v>
       </c>
-      <c r="Y74" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA74" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="95">
         <v>12</v>
       </c>
@@ -13328,20 +13409,20 @@
       <c r="C75" s="95">
         <v>12</v>
       </c>
-      <c r="V75" s="95">
-        <v>1</v>
-      </c>
-      <c r="W75" s="95">
+      <c r="X75" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="95">
         <v>24</v>
       </c>
-      <c r="X75" s="95">
+      <c r="Z75" s="95">
         <v>-1</v>
       </c>
-      <c r="Y75" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA75" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="95">
         <v>13</v>
       </c>
@@ -13351,20 +13432,20 @@
       <c r="C76" s="95">
         <v>13</v>
       </c>
-      <c r="V76" s="95">
-        <v>1</v>
-      </c>
-      <c r="W76" s="95">
+      <c r="X76" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="95">
         <v>24</v>
       </c>
-      <c r="X76" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y76">
+      <c r="Z76" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA76">
         <v>2500000</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="95">
         <v>14</v>
       </c>
@@ -13374,20 +13455,20 @@
       <c r="C77" s="95">
         <v>14</v>
       </c>
-      <c r="V77" s="95">
-        <v>1</v>
-      </c>
-      <c r="W77" s="95">
+      <c r="X77" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="95">
         <v>25</v>
       </c>
-      <c r="X77" s="95">
+      <c r="Z77" s="95">
         <v>-2</v>
       </c>
-      <c r="Y77" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA77" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="95">
         <v>1</v>
       </c>
@@ -13397,20 +13478,20 @@
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="V78" s="95">
-        <v>1</v>
-      </c>
-      <c r="W78" s="95">
+      <c r="X78" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="95">
         <v>25</v>
       </c>
-      <c r="X78" s="95">
+      <c r="Z78" s="95">
         <v>-1</v>
       </c>
-      <c r="Y78" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA78" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="95">
         <v>2</v>
       </c>
@@ -13420,20 +13501,20 @@
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="V79" s="95">
-        <v>1</v>
-      </c>
-      <c r="W79" s="95">
+      <c r="X79" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="95">
         <v>25</v>
       </c>
-      <c r="X79" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y79">
+      <c r="Z79" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA79">
         <v>10000000</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="95">
         <v>3</v>
       </c>
@@ -13443,20 +13524,20 @@
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="V80" s="95">
-        <v>1</v>
-      </c>
-      <c r="W80" s="95">
+      <c r="X80" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="95">
         <v>26</v>
       </c>
-      <c r="X80" s="95">
+      <c r="Z80" s="95">
         <v>-2</v>
       </c>
-      <c r="Y80" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA80" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="95">
         <v>4</v>
       </c>
@@ -13466,20 +13547,20 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="V81" s="95">
-        <v>1</v>
-      </c>
-      <c r="W81" s="95">
+      <c r="X81" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="95">
         <v>26</v>
       </c>
-      <c r="X81" s="95">
+      <c r="Z81" s="95">
         <v>-1</v>
       </c>
-      <c r="Y81" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA81" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="95">
         <v>5</v>
       </c>
@@ -13489,20 +13570,20 @@
       <c r="C82" s="95">
         <v>1</v>
       </c>
-      <c r="V82" s="95">
-        <v>1</v>
-      </c>
-      <c r="W82" s="95">
+      <c r="X82" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="95">
         <v>26</v>
       </c>
-      <c r="X82" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y82">
+      <c r="Z82" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA82">
         <v>5000000</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="95">
         <v>6</v>
       </c>
@@ -13512,20 +13593,20 @@
       <c r="C83" s="95">
         <v>1</v>
       </c>
-      <c r="V83" s="95">
-        <v>1</v>
-      </c>
-      <c r="W83" s="95">
+      <c r="X83" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="95">
         <v>27</v>
       </c>
-      <c r="X83" s="95">
+      <c r="Z83" s="95">
         <v>-2</v>
       </c>
-      <c r="Y83" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA83" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="95">
         <v>7</v>
       </c>
@@ -13535,20 +13616,20 @@
       <c r="C84" s="95">
         <v>1</v>
       </c>
-      <c r="V84" s="95">
-        <v>1</v>
-      </c>
-      <c r="W84" s="95">
+      <c r="X84" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="95">
         <v>27</v>
       </c>
-      <c r="X84" s="95">
+      <c r="Z84" s="95">
         <v>-1</v>
       </c>
-      <c r="Y84" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA84" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="95">
         <v>8</v>
       </c>
@@ -13558,20 +13639,20 @@
       <c r="C85" s="95">
         <v>1</v>
       </c>
-      <c r="V85" s="95">
-        <v>1</v>
-      </c>
-      <c r="W85" s="95">
+      <c r="X85" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="95">
         <v>27</v>
       </c>
-      <c r="X85" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y85">
+      <c r="Z85" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA85">
         <v>1000000</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="95">
         <v>9</v>
       </c>
@@ -13582,7 +13663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="95">
         <v>10</v>
       </c>
@@ -13593,7 +13674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="95">
         <v>11</v>
       </c>
@@ -13604,7 +13685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="95">
         <v>12</v>
       </c>
@@ -13615,7 +13696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="95">
         <v>13</v>
       </c>
@@ -13626,7 +13707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="95">
         <v>14</v>
       </c>
@@ -13637,17 +13718,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:27" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="95" t="s">
         <v>119</v>
       </c>
@@ -13662,7 +13743,7 @@
       <c r="H98" s="95"/>
       <c r="I98" s="95"/>
       <c r="J98" s="95" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K98" s="95"/>
       <c r="L98" s="95"/>
@@ -13670,13 +13751,13 @@
       <c r="O98" s="95"/>
       <c r="P98" s="95"/>
       <c r="Q98" s="95"/>
-      <c r="S98" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="T98" s="95"/>
-      <c r="U98" s="95"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U98" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="V98" s="95"/>
+      <c r="W98" s="95"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="95" t="s">
         <v>120</v>
       </c>
@@ -13701,38 +13782,46 @@
       </c>
       <c r="I99" s="95"/>
       <c r="J99" s="95" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K99" s="95" t="s">
         <v>127</v>
       </c>
       <c r="L99" s="95" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M99" s="95" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N99" s="95" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O99" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="P99" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q99" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="R99" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="S99" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="U99" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="P99" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q99" s="95"/>
-      <c r="S99" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="T99" s="95" t="s">
+      <c r="V99" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="U99" s="95" t="s">
+      <c r="W99" s="95" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="95">
         <v>1</v>
       </c>
@@ -13764,28 +13853,37 @@
         <v>0</v>
       </c>
       <c r="M100" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100" s="95">
+        <v>0</v>
+      </c>
+      <c r="O100" s="95">
         <v>20000000</v>
       </c>
-      <c r="O100" s="95">
+      <c r="P100" s="95">
         <v>50000000</v>
       </c>
-      <c r="P100" s="95">
-        <v>1</v>
-      </c>
-      <c r="S100">
-        <v>1</v>
-      </c>
-      <c r="T100" s="95">
-        <v>1</v>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100" s="95">
+        <v>0</v>
+      </c>
+      <c r="S100" s="95">
+        <v>0</v>
       </c>
       <c r="U100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V100" s="95">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="95">
         <v>2</v>
       </c>
@@ -13817,28 +13915,37 @@
         <v>0</v>
       </c>
       <c r="M101" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101" s="95">
+        <v>0</v>
+      </c>
+      <c r="O101" s="95">
         <v>20000000</v>
       </c>
-      <c r="O101" s="95">
+      <c r="P101" s="95">
         <v>50000000</v>
       </c>
-      <c r="P101" s="95">
-        <v>1</v>
-      </c>
-      <c r="S101">
-        <v>2</v>
-      </c>
-      <c r="T101" s="95">
-        <v>2</v>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101" s="95">
+        <v>0</v>
+      </c>
+      <c r="S101" s="95">
+        <v>0</v>
       </c>
       <c r="U101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="V101" s="95">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="95">
         <v>3</v>
       </c>
@@ -13870,28 +13977,37 @@
         <v>0</v>
       </c>
       <c r="M102" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102" s="95">
+        <v>0</v>
+      </c>
+      <c r="O102" s="95">
         <v>20000000</v>
       </c>
-      <c r="O102" s="95">
-        <v>31411111</v>
-      </c>
       <c r="P102" s="95">
-        <v>1</v>
-      </c>
-      <c r="S102">
+        <v>31411112</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102" s="95">
+        <v>0</v>
+      </c>
+      <c r="S102" s="95">
+        <v>0</v>
+      </c>
+      <c r="U102">
         <v>3</v>
       </c>
-      <c r="T102" s="95">
+      <c r="V102" s="95">
         <v>3</v>
       </c>
-      <c r="U102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="95">
         <v>4</v>
       </c>
@@ -13923,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103" s="95">
         <v>0</v>
@@ -13934,17 +14050,26 @@
       <c r="P103" s="95">
         <v>0</v>
       </c>
-      <c r="S103">
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103" s="95">
+        <v>0</v>
+      </c>
+      <c r="S103" s="95">
+        <v>0</v>
+      </c>
+      <c r="U103">
         <v>4</v>
       </c>
-      <c r="T103" s="95">
+      <c r="V103" s="95">
         <v>4</v>
       </c>
-      <c r="U103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="95">
         <v>5</v>
       </c>
@@ -13976,28 +14101,37 @@
         <v>0</v>
       </c>
       <c r="M104" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104" s="95">
+        <v>0</v>
+      </c>
+      <c r="O104" s="95">
         <v>75000000</v>
       </c>
-      <c r="O104" s="95">
+      <c r="P104" s="95">
         <v>25000000</v>
       </c>
-      <c r="P104" s="95">
-        <v>1</v>
-      </c>
-      <c r="S104">
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104" s="95">
+        <v>0</v>
+      </c>
+      <c r="S104" s="95">
+        <v>0</v>
+      </c>
+      <c r="U104">
         <v>5</v>
       </c>
-      <c r="T104" s="95">
+      <c r="V104" s="95">
         <v>5</v>
       </c>
-      <c r="U104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="95">
         <v>6</v>
       </c>
@@ -14029,28 +14163,37 @@
         <v>0</v>
       </c>
       <c r="M105" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
         <v>575000</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>175000</v>
       </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-      <c r="S105">
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105" s="95">
+        <v>0</v>
+      </c>
+      <c r="S105" s="95">
+        <v>0</v>
+      </c>
+      <c r="U105">
         <v>6</v>
       </c>
-      <c r="T105" s="95">
+      <c r="V105" s="95">
         <v>6</v>
       </c>
-      <c r="U105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="95">
         <v>7</v>
       </c>
@@ -14082,28 +14225,37 @@
         <v>0</v>
       </c>
       <c r="M106" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
         <v>15000000</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>5000000</v>
       </c>
-      <c r="P106">
-        <v>1</v>
-      </c>
-      <c r="S106">
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106" s="95">
+        <v>0</v>
+      </c>
+      <c r="S106" s="95">
+        <v>0</v>
+      </c>
+      <c r="U106">
         <v>7</v>
       </c>
-      <c r="T106" s="95">
+      <c r="V106" s="95">
         <v>7</v>
       </c>
-      <c r="U106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="95">
         <v>8</v>
       </c>
@@ -14126,17 +14278,17 @@
         <v>7</v>
       </c>
       <c r="M107" s="95"/>
-      <c r="S107">
+      <c r="U107">
         <v>8</v>
       </c>
-      <c r="T107" s="95">
+      <c r="V107" s="95">
         <v>8</v>
       </c>
-      <c r="U107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="95">
         <v>9</v>
       </c>
@@ -14159,17 +14311,17 @@
         <v>4</v>
       </c>
       <c r="M108" s="95"/>
-      <c r="S108">
+      <c r="U108">
         <v>9</v>
       </c>
-      <c r="T108" s="95">
+      <c r="V108" s="95">
         <v>9</v>
       </c>
-      <c r="U108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="95">
         <v>10</v>
       </c>
@@ -14192,17 +14344,17 @@
         <v>4</v>
       </c>
       <c r="M109" s="95"/>
-      <c r="S109">
+      <c r="U109">
         <v>10</v>
       </c>
-      <c r="T109" s="95">
+      <c r="V109" s="95">
         <v>10</v>
       </c>
-      <c r="U109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="95">
         <v>11</v>
       </c>
@@ -14214,7 +14366,7 @@
       </c>
       <c r="M110" s="95"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="95">
         <v>12</v>
       </c>
@@ -14225,7 +14377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="95">
         <v>13</v>
       </c>
@@ -14392,11 +14544,11 @@
     </row>
     <row r="128" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="95" t="s">
         <v>119</v>
       </c>
@@ -14411,7 +14563,7 @@
       <c r="H130" s="95"/>
       <c r="I130" s="95"/>
       <c r="J130" s="95" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K130" s="95"/>
       <c r="L130" s="95"/>
@@ -14419,13 +14571,13 @@
       <c r="O130" s="95"/>
       <c r="P130" s="95"/>
       <c r="Q130" s="95"/>
-      <c r="S130" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="T130" s="95"/>
-      <c r="U130" s="95"/>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U130" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="V130" s="95"/>
+      <c r="W130" s="95"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="95" t="s">
         <v>120</v>
       </c>
@@ -14450,38 +14602,46 @@
       </c>
       <c r="I131" s="95"/>
       <c r="J131" s="95" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K131" s="95" t="s">
         <v>127</v>
       </c>
       <c r="L131" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="M131" t="s">
         <v>138</v>
       </c>
+      <c r="M131" s="95" t="s">
+        <v>139</v>
+      </c>
       <c r="N131" s="95" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O131" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="P131" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q131" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="R131" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="S131" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="U131" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="P131" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q131" s="95"/>
-      <c r="S131" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="T131" s="95" t="s">
+      <c r="V131" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="U131" s="95" t="s">
+      <c r="W131" s="95" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="95">
         <v>1</v>
       </c>
@@ -14512,32 +14672,40 @@
         <v>2</v>
       </c>
       <c r="L132" s="95">
-        <v>2</v>
-      </c>
-      <c r="M132">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M132" s="95">
+        <v>0</v>
       </c>
       <c r="N132" s="95">
+        <v>0</v>
+      </c>
+      <c r="O132" s="95">
         <v>20000000</v>
       </c>
-      <c r="O132" s="95">
+      <c r="P132" s="95">
         <v>50000000</v>
       </c>
-      <c r="P132" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q132" s="95"/>
+      <c r="Q132" s="95">
+        <v>1</v>
+      </c>
+      <c r="R132" s="95">
+        <v>0</v>
+      </c>
       <c r="S132" s="95">
-        <v>1</v>
-      </c>
-      <c r="T132" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U132" s="95">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V132" s="95">
+        <v>1</v>
+      </c>
+      <c r="W132" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="95">
         <v>2</v>
       </c>
@@ -14568,10 +14736,10 @@
         <v>14</v>
       </c>
       <c r="L133" s="95">
-        <v>2</v>
-      </c>
-      <c r="M133">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M133" s="95">
+        <v>0</v>
       </c>
       <c r="N133" s="95">
         <v>0</v>
@@ -14582,18 +14750,26 @@
       <c r="P133" s="95">
         <v>0</v>
       </c>
-      <c r="Q133" s="95"/>
+      <c r="Q133" s="95">
+        <v>0</v>
+      </c>
+      <c r="R133" s="95">
+        <v>0</v>
+      </c>
       <c r="S133" s="95">
-        <v>2</v>
-      </c>
-      <c r="T133" s="95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U133" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="V133" s="95">
+        <v>2</v>
+      </c>
+      <c r="W133" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="95">
         <v>3</v>
       </c>
@@ -14624,17 +14800,17 @@
       <c r="O134" s="95"/>
       <c r="P134" s="95"/>
       <c r="Q134" s="95"/>
-      <c r="S134" s="95">
+      <c r="U134" s="95">
         <v>3</v>
       </c>
-      <c r="T134" s="95">
+      <c r="V134" s="95">
         <v>3</v>
       </c>
-      <c r="U134" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W134" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="95">
         <v>4</v>
       </c>
@@ -14657,17 +14833,17 @@
       <c r="O135" s="95"/>
       <c r="P135" s="95"/>
       <c r="Q135" s="95"/>
-      <c r="S135" s="95">
+      <c r="U135" s="95">
         <v>4</v>
       </c>
-      <c r="T135" s="95">
+      <c r="V135" s="95">
         <v>4</v>
       </c>
-      <c r="U135" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W135" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="95">
         <v>5</v>
       </c>
@@ -14690,17 +14866,17 @@
       <c r="O136" s="95"/>
       <c r="P136" s="95"/>
       <c r="Q136" s="95"/>
-      <c r="S136" s="95">
+      <c r="U136" s="95">
         <v>5</v>
       </c>
-      <c r="T136" s="95">
+      <c r="V136" s="95">
         <v>5</v>
       </c>
-      <c r="U136" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W136" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="95">
         <v>6</v>
       </c>
@@ -14723,17 +14899,17 @@
       <c r="O137" s="95"/>
       <c r="P137" s="95"/>
       <c r="Q137" s="95"/>
-      <c r="S137" s="95">
+      <c r="U137" s="95">
         <v>6</v>
       </c>
-      <c r="T137" s="95">
+      <c r="V137" s="95">
         <v>6</v>
       </c>
-      <c r="U137" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W137" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="95">
         <v>7</v>
       </c>
@@ -14756,17 +14932,17 @@
       <c r="O138" s="95"/>
       <c r="P138" s="95"/>
       <c r="Q138" s="95"/>
-      <c r="S138" s="95">
+      <c r="U138" s="95">
         <v>7</v>
       </c>
-      <c r="T138" s="95">
+      <c r="V138" s="95">
         <v>7</v>
       </c>
-      <c r="U138" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W138" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" s="95">
         <v>8</v>
       </c>
@@ -14789,17 +14965,17 @@
       <c r="O139" s="95"/>
       <c r="P139" s="95"/>
       <c r="Q139" s="95"/>
-      <c r="S139" s="95">
+      <c r="U139" s="95">
         <v>8</v>
       </c>
-      <c r="T139" s="95">
+      <c r="V139" s="95">
         <v>8</v>
       </c>
-      <c r="U139" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W139" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" s="95">
         <v>9</v>
       </c>
@@ -14822,17 +14998,17 @@
       <c r="O140" s="95"/>
       <c r="P140" s="95"/>
       <c r="Q140" s="95"/>
-      <c r="S140" s="95">
+      <c r="U140" s="95">
         <v>9</v>
       </c>
-      <c r="T140" s="95">
+      <c r="V140" s="95">
         <v>9</v>
       </c>
-      <c r="U140" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W140" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" s="95">
         <v>10</v>
       </c>
@@ -14855,23 +15031,23 @@
       <c r="O141" s="95"/>
       <c r="P141" s="95"/>
       <c r="Q141" s="95"/>
-      <c r="S141" s="95">
+      <c r="U141" s="95">
         <v>10</v>
       </c>
-      <c r="T141" s="95">
+      <c r="V141" s="95">
         <v>10</v>
       </c>
-      <c r="U141" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W141" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" s="95" t="s">
         <v>119</v>
       </c>
@@ -14886,7 +15062,7 @@
       <c r="H145" s="95"/>
       <c r="I145" s="95"/>
       <c r="J145" s="95" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K145" s="95"/>
       <c r="L145" s="95"/>
@@ -14895,11 +15071,11 @@
       <c r="O145" s="95"/>
       <c r="P145" s="95"/>
       <c r="Q145" s="95"/>
-      <c r="S145" s="95" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U145" s="95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" s="95" t="s">
         <v>120</v>
       </c>
@@ -14924,38 +15100,46 @@
       </c>
       <c r="I146" s="95"/>
       <c r="J146" s="95" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K146" s="95" t="s">
         <v>127</v>
       </c>
       <c r="L146" s="95" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M146" s="95" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N146" s="95" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O146" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="P146" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q146" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="R146" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="S146" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="U146" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="P146" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q146" s="95"/>
-      <c r="S146" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="T146" s="95" t="s">
+      <c r="V146" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="U146" s="95" t="s">
+      <c r="W146" s="95" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" s="95">
         <v>1</v>
       </c>
@@ -14987,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -14998,17 +15182,26 @@
       <c r="P147">
         <v>0</v>
       </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147" s="95">
+        <v>0</v>
+      </c>
       <c r="S147" s="95">
-        <v>1</v>
-      </c>
-      <c r="T147" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U147" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V147" s="95">
+        <v>1</v>
+      </c>
+      <c r="W147" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" s="95">
         <v>2</v>
       </c>
@@ -15034,34 +15227,43 @@
         <v>2</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L148" s="95">
         <v>0</v>
       </c>
       <c r="M148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148">
         <v>0</v>
       </c>
       <c r="O148">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
         <v>0.2</v>
       </c>
+      <c r="R148" s="95">
+        <v>0</v>
+      </c>
       <c r="S148" s="95">
-        <v>2</v>
-      </c>
-      <c r="T148" s="95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U148" s="95">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V148" s="95">
+        <v>2</v>
+      </c>
+      <c r="W148" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" s="95">
         <v>3</v>
       </c>
@@ -15087,34 +15289,43 @@
         <v>3</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L149" s="95">
         <v>0</v>
       </c>
       <c r="M149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149">
         <v>0</v>
       </c>
       <c r="O149" s="95">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
         <v>0.4</v>
       </c>
+      <c r="R149" s="95">
+        <v>0</v>
+      </c>
       <c r="S149" s="95">
+        <v>0</v>
+      </c>
+      <c r="U149" s="95">
         <v>3</v>
       </c>
-      <c r="T149" s="95">
+      <c r="V149" s="95">
         <v>3</v>
       </c>
-      <c r="U149" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W149" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" s="95">
         <v>4</v>
       </c>
@@ -15140,34 +15351,43 @@
         <v>4</v>
       </c>
       <c r="K150">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L150" s="95">
         <v>0</v>
       </c>
       <c r="M150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150">
         <v>0</v>
       </c>
       <c r="O150" s="95">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
         <v>0.3</v>
       </c>
+      <c r="R150" s="95">
+        <v>0</v>
+      </c>
       <c r="S150" s="95">
+        <v>0</v>
+      </c>
+      <c r="U150" s="95">
         <v>4</v>
       </c>
-      <c r="T150" s="95">
+      <c r="V150" s="95">
         <v>4</v>
       </c>
-      <c r="U150" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W150" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" s="95">
         <v>5</v>
       </c>
@@ -15193,34 +15413,43 @@
         <v>5</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L151" s="95">
         <v>0</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N151">
         <v>0</v>
       </c>
       <c r="O151" s="95">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
         <v>0.25</v>
       </c>
+      <c r="R151" s="95">
+        <v>0</v>
+      </c>
       <c r="S151" s="95">
+        <v>0</v>
+      </c>
+      <c r="U151" s="95">
         <v>5</v>
       </c>
-      <c r="T151" s="95">
+      <c r="V151" s="95">
         <v>5</v>
       </c>
-      <c r="U151" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W151" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" s="95">
         <v>6</v>
       </c>
@@ -15246,34 +15475,43 @@
         <v>6</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L152" s="95">
         <v>0</v>
       </c>
       <c r="M152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152">
         <v>0</v>
       </c>
       <c r="O152" s="95">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
         <v>0.375</v>
       </c>
+      <c r="R152" s="95">
+        <v>0</v>
+      </c>
       <c r="S152" s="95">
+        <v>0</v>
+      </c>
+      <c r="U152" s="95">
         <v>6</v>
       </c>
-      <c r="T152" s="95">
+      <c r="V152" s="95">
         <v>6</v>
       </c>
-      <c r="U152" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W152" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" s="95">
         <v>7</v>
       </c>
@@ -15299,34 +15537,43 @@
         <v>7</v>
       </c>
       <c r="K153" s="95">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L153" s="95">
         <v>0</v>
       </c>
       <c r="M153" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153" s="95">
         <v>0</v>
       </c>
       <c r="O153" s="95">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
         <v>0.6</v>
       </c>
+      <c r="R153" s="95">
+        <v>0</v>
+      </c>
       <c r="S153" s="95">
+        <v>0</v>
+      </c>
+      <c r="U153" s="95">
         <v>7</v>
       </c>
-      <c r="T153" s="95">
+      <c r="V153" s="95">
         <v>7</v>
       </c>
-      <c r="U153" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W153" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" s="95">
         <v>8</v>
       </c>
@@ -15352,34 +15599,43 @@
         <v>8</v>
       </c>
       <c r="K154" s="95">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L154" s="95">
         <v>0</v>
       </c>
       <c r="M154" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154" s="95">
         <v>0</v>
       </c>
       <c r="O154" s="95">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
         <v>0.5</v>
       </c>
+      <c r="R154" s="95">
+        <v>0</v>
+      </c>
       <c r="S154" s="95">
+        <v>0</v>
+      </c>
+      <c r="U154" s="95">
         <v>8</v>
       </c>
-      <c r="T154" s="95">
+      <c r="V154" s="95">
         <v>8</v>
       </c>
-      <c r="U154" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W154" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" s="95">
         <v>9</v>
       </c>
@@ -15405,34 +15661,43 @@
         <v>9</v>
       </c>
       <c r="K155">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155">
         <v>0</v>
       </c>
       <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
         <v>60000000</v>
       </c>
-      <c r="P155">
-        <v>0</v>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155" s="95">
+        <v>1</v>
       </c>
       <c r="S155" s="95">
+        <v>1</v>
+      </c>
+      <c r="U155" s="95">
         <v>9</v>
       </c>
-      <c r="T155" s="95">
+      <c r="V155" s="95">
         <v>9</v>
       </c>
-      <c r="U155" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W155" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" s="95">
         <v>10</v>
       </c>
@@ -15454,17 +15719,17 @@
       <c r="H156">
         <v>6</v>
       </c>
-      <c r="S156" s="95">
+      <c r="U156" s="95">
         <v>10</v>
       </c>
-      <c r="T156" s="95">
+      <c r="V156" s="95">
         <v>10</v>
       </c>
-      <c r="U156" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W156" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" s="95">
         <v>1</v>
       </c>
@@ -15487,7 +15752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" s="95">
         <v>2</v>
       </c>
@@ -15510,7 +15775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" s="95">
         <v>3</v>
       </c>
@@ -15533,7 +15798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" s="95">
         <v>4</v>
       </c>
@@ -15730,11 +15995,11 @@
     <row r="174" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" s="95" t="s">
         <v>119</v>
       </c>
@@ -15749,7 +16014,7 @@
       <c r="H177" s="95"/>
       <c r="I177" s="95"/>
       <c r="J177" s="95" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K177" s="95"/>
       <c r="L177" s="95"/>
@@ -15758,13 +16023,13 @@
       <c r="O177" s="95"/>
       <c r="P177" s="95"/>
       <c r="Q177" s="95"/>
-      <c r="S177" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="T177" s="95"/>
-      <c r="U177" s="95"/>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U177" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="V177" s="95"/>
+      <c r="W177" s="95"/>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" s="95" t="s">
         <v>120</v>
       </c>
@@ -15789,38 +16054,46 @@
       </c>
       <c r="I178" s="95"/>
       <c r="J178" s="95" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K178" s="95" t="s">
         <v>127</v>
       </c>
       <c r="L178" s="95" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M178" s="95" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N178" s="95" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O178" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="P178" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q178" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="R178" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="S178" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="U178" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="P178" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q178" s="95"/>
-      <c r="S178" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="T178" s="95" t="s">
+      <c r="V178" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="U178" s="95" t="s">
+      <c r="W178" s="95" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" s="95">
         <v>1</v>
       </c>
@@ -15842,38 +16115,47 @@
       <c r="H179" s="95">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>1</v>
-      </c>
-      <c r="K179">
-        <v>2</v>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-      <c r="M179">
-        <v>1</v>
-      </c>
-      <c r="N179">
+      <c r="J179" s="95">
+        <v>1</v>
+      </c>
+      <c r="K179" s="95">
+        <v>2</v>
+      </c>
+      <c r="L179" s="95">
+        <v>0</v>
+      </c>
+      <c r="M179" s="95">
+        <v>0</v>
+      </c>
+      <c r="N179" s="95">
+        <v>0</v>
+      </c>
+      <c r="O179" s="95">
         <v>1000000</v>
       </c>
-      <c r="O179">
+      <c r="P179" s="95">
         <v>1000000</v>
       </c>
-      <c r="P179">
+      <c r="Q179" s="95">
         <v>0.5</v>
       </c>
+      <c r="R179" s="95">
+        <v>0</v>
+      </c>
       <c r="S179" s="95">
-        <v>1</v>
-      </c>
-      <c r="T179" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U179" s="95">
+        <v>1</v>
+      </c>
+      <c r="V179" s="95">
+        <v>1</v>
+      </c>
+      <c r="W179" s="95">
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" s="95">
         <v>2</v>
       </c>
@@ -15895,38 +16177,47 @@
       <c r="H180" s="95">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>2</v>
-      </c>
-      <c r="K180">
-        <v>2</v>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-      <c r="M180">
-        <v>1</v>
-      </c>
-      <c r="N180">
+      <c r="J180" s="95">
+        <v>2</v>
+      </c>
+      <c r="K180" s="95">
+        <v>2</v>
+      </c>
+      <c r="L180" s="95">
+        <v>0</v>
+      </c>
+      <c r="M180" s="95">
+        <v>0</v>
+      </c>
+      <c r="N180" s="95">
+        <v>0</v>
+      </c>
+      <c r="O180" s="95">
         <v>2000000</v>
       </c>
-      <c r="O180">
+      <c r="P180" s="95">
         <v>3000000</v>
       </c>
-      <c r="P180">
+      <c r="Q180" s="95">
         <v>0.9</v>
       </c>
+      <c r="R180" s="95">
+        <v>0</v>
+      </c>
       <c r="S180" s="95">
-        <v>2</v>
-      </c>
-      <c r="T180" s="95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U180" s="95">
+        <v>2</v>
+      </c>
+      <c r="V180" s="95">
+        <v>2</v>
+      </c>
+      <c r="W180" s="95">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" s="95">
         <v>3</v>
       </c>
@@ -15948,38 +16239,47 @@
       <c r="H181" s="95">
         <v>1</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="95">
         <v>3</v>
       </c>
-      <c r="K181">
-        <v>2</v>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-      <c r="M181">
-        <v>1</v>
-      </c>
-      <c r="N181">
+      <c r="K181" s="95">
+        <v>2</v>
+      </c>
+      <c r="L181" s="95">
+        <v>0</v>
+      </c>
+      <c r="M181" s="95">
+        <v>0</v>
+      </c>
+      <c r="N181" s="95">
+        <v>0</v>
+      </c>
+      <c r="O181" s="95">
         <v>5000000</v>
       </c>
-      <c r="O181">
+      <c r="P181" s="95">
         <v>5000000</v>
       </c>
-      <c r="P181">
-        <v>1</v>
+      <c r="Q181" s="95">
+        <v>1</v>
+      </c>
+      <c r="R181" s="95">
+        <v>0</v>
       </c>
       <c r="S181" s="95">
+        <v>0</v>
+      </c>
+      <c r="U181" s="95">
         <v>3</v>
       </c>
-      <c r="T181" s="95">
+      <c r="V181" s="95">
         <v>3</v>
       </c>
-      <c r="U181" s="95">
+      <c r="W181" s="95">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" s="95">
         <v>4</v>
       </c>
@@ -16001,38 +16301,47 @@
       <c r="H182" s="95">
         <v>1</v>
       </c>
-      <c r="J182">
+      <c r="J182" s="95">
         <v>4</v>
       </c>
-      <c r="K182">
-        <v>2</v>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-      <c r="M182">
-        <v>1</v>
-      </c>
-      <c r="N182">
+      <c r="K182" s="95">
+        <v>2</v>
+      </c>
+      <c r="L182" s="95">
+        <v>0</v>
+      </c>
+      <c r="M182" s="95">
+        <v>0</v>
+      </c>
+      <c r="N182" s="95">
+        <v>0</v>
+      </c>
+      <c r="O182" s="95">
         <v>10000000</v>
       </c>
-      <c r="O182">
+      <c r="P182" s="95">
         <v>10000000</v>
       </c>
-      <c r="P182">
-        <v>1</v>
+      <c r="Q182" s="95">
+        <v>1</v>
+      </c>
+      <c r="R182" s="95">
+        <v>0</v>
       </c>
       <c r="S182" s="95">
+        <v>0</v>
+      </c>
+      <c r="U182" s="95">
         <v>4</v>
       </c>
-      <c r="T182" s="95">
+      <c r="V182" s="95">
         <v>4</v>
       </c>
-      <c r="U182" s="95">
+      <c r="W182" s="95">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" s="95">
         <v>5</v>
       </c>
@@ -16054,38 +16363,47 @@
       <c r="H183" s="95">
         <v>1</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="95">
         <v>5</v>
       </c>
-      <c r="K183">
-        <v>2</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-      <c r="M183">
-        <v>1</v>
-      </c>
-      <c r="N183">
+      <c r="K183" s="95">
+        <v>2</v>
+      </c>
+      <c r="L183" s="95">
+        <v>0</v>
+      </c>
+      <c r="M183" s="95">
+        <v>0</v>
+      </c>
+      <c r="N183" s="95">
+        <v>0</v>
+      </c>
+      <c r="O183" s="95">
         <v>20000000</v>
       </c>
-      <c r="O183">
+      <c r="P183" s="95">
         <v>10000000</v>
       </c>
-      <c r="P183">
-        <v>1</v>
+      <c r="Q183" s="95">
+        <v>1</v>
+      </c>
+      <c r="R183" s="95">
+        <v>0</v>
       </c>
       <c r="S183" s="95">
-        <v>5</v>
-      </c>
-      <c r="T183" s="95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U183" s="95">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V183" s="95">
+        <v>5</v>
+      </c>
+      <c r="W183" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" s="95">
         <v>6</v>
       </c>
@@ -16107,38 +16425,47 @@
       <c r="H184" s="95">
         <v>1</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="95">
         <v>6</v>
       </c>
-      <c r="K184">
-        <v>14</v>
-      </c>
-      <c r="L184">
-        <v>2</v>
+      <c r="K184" s="95">
+        <v>23</v>
+      </c>
+      <c r="L184" s="95">
+        <v>0</v>
       </c>
       <c r="M184" s="95">
-        <v>1</v>
-      </c>
-      <c r="N184">
-        <v>0</v>
-      </c>
-      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="N184" s="95">
+        <v>0</v>
+      </c>
+      <c r="O184" s="95">
+        <v>0</v>
+      </c>
+      <c r="P184" s="95">
         <v>3000000</v>
       </c>
-      <c r="P184">
-        <v>0</v>
+      <c r="Q184" s="95">
+        <v>0</v>
+      </c>
+      <c r="R184" s="95">
+        <v>1</v>
       </c>
       <c r="S184" s="95">
+        <v>1</v>
+      </c>
+      <c r="U184" s="95">
         <v>6</v>
       </c>
-      <c r="T184" s="95">
+      <c r="V184" s="95">
         <v>6</v>
       </c>
-      <c r="U184" s="95">
+      <c r="W184" s="95">
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" s="95">
         <v>7</v>
       </c>
@@ -16160,38 +16487,47 @@
       <c r="H185" s="95">
         <v>1</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="95">
         <v>7</v>
       </c>
       <c r="K185" s="95">
-        <v>14</v>
-      </c>
-      <c r="L185">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="L185" s="95">
+        <v>0</v>
       </c>
       <c r="M185" s="95">
-        <v>1</v>
-      </c>
-      <c r="N185">
-        <v>0</v>
-      </c>
-      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="N185" s="95">
+        <v>0</v>
+      </c>
+      <c r="O185" s="95">
+        <v>0</v>
+      </c>
+      <c r="P185" s="95">
         <v>9000000</v>
       </c>
-      <c r="P185">
-        <v>0</v>
+      <c r="Q185" s="95">
+        <v>0</v>
+      </c>
+      <c r="R185" s="95">
+        <v>1</v>
       </c>
       <c r="S185" s="95">
+        <v>1</v>
+      </c>
+      <c r="U185" s="95">
         <v>7</v>
       </c>
-      <c r="T185" s="95">
+      <c r="V185" s="95">
         <v>7</v>
       </c>
-      <c r="U185" s="95">
+      <c r="W185" s="95">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" s="95">
         <v>8</v>
       </c>
@@ -16213,38 +16549,47 @@
       <c r="H186" s="95">
         <v>1</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="95">
         <v>8</v>
       </c>
       <c r="K186" s="95">
-        <v>14</v>
-      </c>
-      <c r="L186">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="L186" s="95">
+        <v>0</v>
       </c>
       <c r="M186" s="95">
-        <v>1</v>
-      </c>
-      <c r="N186">
-        <v>0</v>
-      </c>
-      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="N186" s="95">
+        <v>0</v>
+      </c>
+      <c r="O186" s="95">
+        <v>0</v>
+      </c>
+      <c r="P186" s="95">
         <v>15000000</v>
       </c>
-      <c r="P186">
-        <v>0</v>
+      <c r="Q186" s="95">
+        <v>0</v>
+      </c>
+      <c r="R186" s="95">
+        <v>1</v>
       </c>
       <c r="S186" s="95">
+        <v>1</v>
+      </c>
+      <c r="U186" s="95">
         <v>8</v>
       </c>
-      <c r="T186" s="95">
+      <c r="V186" s="95">
         <v>8</v>
       </c>
-      <c r="U186" s="95">
+      <c r="W186" s="95">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" s="95">
         <v>9</v>
       </c>
@@ -16266,38 +16611,47 @@
       <c r="H187" s="95">
         <v>1</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="95">
         <v>9</v>
       </c>
       <c r="K187" s="95">
-        <v>14</v>
-      </c>
-      <c r="L187">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="L187" s="95">
+        <v>0</v>
       </c>
       <c r="M187" s="95">
-        <v>1</v>
-      </c>
-      <c r="N187">
-        <v>0</v>
-      </c>
-      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="N187" s="95">
+        <v>0</v>
+      </c>
+      <c r="O187" s="95">
+        <v>0</v>
+      </c>
+      <c r="P187" s="95">
         <v>20000000</v>
       </c>
-      <c r="P187">
-        <v>0</v>
+      <c r="Q187" s="95">
+        <v>0</v>
+      </c>
+      <c r="R187" s="95">
+        <v>1</v>
       </c>
       <c r="S187" s="95">
+        <v>1</v>
+      </c>
+      <c r="U187" s="95">
         <v>9</v>
       </c>
-      <c r="T187" s="95">
+      <c r="V187" s="95">
         <v>9</v>
       </c>
-      <c r="U187" s="95">
+      <c r="W187" s="95">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" s="95">
         <v>10</v>
       </c>
@@ -16319,38 +16673,47 @@
       <c r="H188" s="95">
         <v>1</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="95">
         <v>10</v>
       </c>
       <c r="K188" s="95">
-        <v>14</v>
-      </c>
-      <c r="L188">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="L188" s="95">
+        <v>0</v>
       </c>
       <c r="M188" s="95">
-        <v>1</v>
-      </c>
-      <c r="N188">
-        <v>0</v>
-      </c>
-      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="N188" s="95">
+        <v>0</v>
+      </c>
+      <c r="O188" s="95">
+        <v>0</v>
+      </c>
+      <c r="P188" s="95">
         <v>10000000</v>
       </c>
-      <c r="P188">
-        <v>0</v>
+      <c r="Q188" s="95">
+        <v>0</v>
+      </c>
+      <c r="R188" s="95">
+        <v>1</v>
       </c>
       <c r="S188" s="95">
+        <v>1</v>
+      </c>
+      <c r="U188" s="95">
         <v>10</v>
       </c>
-      <c r="T188" s="95">
+      <c r="V188" s="95">
         <v>10</v>
       </c>
-      <c r="U188" s="95">
+      <c r="W188" s="95">
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" s="95">
         <v>1</v>
       </c>
@@ -16373,7 +16736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" s="95">
         <v>2</v>
       </c>
@@ -16396,7 +16759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" s="95">
         <v>3</v>
       </c>
@@ -16419,7 +16782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" s="95">
         <v>4</v>
       </c>

--- a/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
+++ b/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest2\ftest\data\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B319A6A-D289-4F62-8049-AD5FABEBA940}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4BA14A3-7D9F-4B55-AFC0-97D1F8A2248E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="9" r:id="rId1"/>
@@ -1097,6 +1097,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1125,21 +1140,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1491,7 +1491,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1641,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T7" sqref="T7:T11"/>
     </sheetView>
   </sheetViews>
@@ -2935,11 +2935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E114" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A114" sqref="A114:A153"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3095,11 +3095,11 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
@@ -3164,9 +3164,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="117"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="33" t="s">
         <v>39</v>
       </c>
@@ -3231,9 +3231,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
@@ -3298,9 +3298,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3385,331 +3385,331 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="55">
         <f>$E$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="55">
         <f t="shared" ref="F13:H15" si="6">$E$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="55">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K13" s="91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L13" s="55">
         <f>$K$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M13" s="55">
         <f t="shared" ref="M13:N13" si="7">$K$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N13" s="55">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R13" s="55">
         <f>$Q$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="55">
         <f>$E$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="55">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="55">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="55">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="10"/>
       <c r="K14" s="55">
         <f t="shared" ref="K14:N14" si="8">$K$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L14" s="55">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14" s="55">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N14" s="55">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="55">
         <f>$Q$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R14" s="55">
         <f>$Q$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S14" s="40"/>
       <c r="T14" s="10"/>
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="55">
         <f>$E$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F15" s="55">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="55">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="55">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="10"/>
       <c r="K15" s="55">
         <f>$K$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L15" s="55">
         <f t="shared" ref="L15:N15" si="9">$K$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15" s="55">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N15" s="55">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="55">
         <f>$Q$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R15" s="55">
         <f>$Q$13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S15" s="40"/>
       <c r="T15" s="10"/>
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="33" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="39">
         <f t="shared" ref="E16:H18" si="10">E8*E13</f>
-        <v>387500000</v>
+        <v>775000000</v>
       </c>
       <c r="F16" s="39">
         <f t="shared" si="10"/>
-        <v>235000000</v>
+        <v>470000000</v>
       </c>
       <c r="G16" s="39">
         <f t="shared" si="10"/>
-        <v>135000000</v>
+        <v>270000000</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="10"/>
-        <v>42500000</v>
+        <v>85000000</v>
       </c>
       <c r="I16" s="40">
         <f>SUM(E16:H16)</f>
-        <v>800000000</v>
+        <v>1600000000</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="39">
         <f t="shared" ref="K16:N18" si="11">K8*K13</f>
-        <v>35000000</v>
+        <v>70000000</v>
       </c>
       <c r="L16" s="39">
         <f t="shared" si="11"/>
-        <v>10500000</v>
+        <v>21000000</v>
       </c>
       <c r="M16" s="39">
         <f t="shared" si="11"/>
-        <v>278788</v>
+        <v>557576</v>
       </c>
       <c r="N16" s="39">
         <f t="shared" si="11"/>
-        <v>7500000</v>
+        <v>15000000</v>
       </c>
       <c r="O16" s="40">
         <f>SUM(K16:N16)</f>
-        <v>53278788</v>
+        <v>106557576</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="39">
         <f t="shared" ref="Q16:R18" si="12">Q8*Q13</f>
-        <v>30000000</v>
+        <v>60000000</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="12"/>
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="S16" s="40">
         <f>SUM(Q16:R16)</f>
-        <v>40000000</v>
+        <v>80000000</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="40">
         <f t="shared" ref="U16:U19" si="13">I16+O16+S16</f>
-        <v>893278788</v>
+        <v>1786557576</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="117"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="122"/>
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="39">
         <f t="shared" si="10"/>
-        <v>62500000</v>
+        <v>125000000</v>
       </c>
       <c r="F17" s="39">
         <f t="shared" si="10"/>
-        <v>65000000</v>
+        <v>130000000</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="10"/>
-        <v>30000000</v>
+        <v>60000000</v>
       </c>
       <c r="H17" s="39">
         <f t="shared" si="10"/>
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="I17" s="40">
         <f t="shared" si="0"/>
-        <v>162500000</v>
+        <v>325000000</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="39">
         <f t="shared" si="11"/>
-        <v>15000000</v>
+        <v>30000000</v>
       </c>
       <c r="L17" s="39">
         <f t="shared" si="11"/>
-        <v>4500000</v>
+        <v>9000000</v>
       </c>
       <c r="M17" s="39">
         <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="N17" s="39">
         <f t="shared" si="11"/>
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="O17" s="40">
         <f t="shared" ref="O17:O19" si="14">SUM(K17:N17)</f>
-        <v>22600000</v>
+        <v>45200000</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="39">
         <f t="shared" si="12"/>
-        <v>7500000</v>
+        <v>15000000</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" si="12"/>
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="S17" s="40">
         <f>SUM(Q17:R17)</f>
-        <v>12500000</v>
+        <v>25000000</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="40">
         <f t="shared" si="13"/>
-        <v>197600000</v>
+        <v>395200000</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="117"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="39">
         <f t="shared" si="10"/>
-        <v>1250000</v>
+        <v>2500000</v>
       </c>
       <c r="F18" s="39">
         <f t="shared" si="10"/>
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="G18" s="39">
         <f t="shared" si="10"/>
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="H18" s="39">
         <f t="shared" si="10"/>
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="I18" s="40">
         <f t="shared" si="0"/>
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="39">
         <f t="shared" si="11"/>
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="L18" s="39">
         <f t="shared" si="11"/>
@@ -3725,92 +3725,92 @@
       </c>
       <c r="O18" s="40">
         <f t="shared" si="14"/>
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="39">
         <f t="shared" si="12"/>
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="R18" s="39">
         <f t="shared" si="12"/>
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="S18" s="40">
         <f>SUM(Q18:R18)</f>
-        <v>3500000</v>
+        <v>7000000</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="40">
         <f t="shared" si="13"/>
-        <v>9000000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="40">
         <f>SUM(E16:E18)</f>
-        <v>451250000</v>
+        <v>902500000</v>
       </c>
       <c r="F19" s="40">
         <f>SUM(F16:F18)</f>
-        <v>300500000</v>
+        <v>601000000</v>
       </c>
       <c r="G19" s="40">
         <f>SUM(G16:G18)</f>
-        <v>165250000</v>
+        <v>330500000</v>
       </c>
       <c r="H19" s="40">
         <f>SUM(H16:H18)</f>
-        <v>48000000</v>
+        <v>96000000</v>
       </c>
       <c r="I19" s="40">
         <f t="shared" si="0"/>
-        <v>965000000</v>
+        <v>1930000000</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="40">
         <f>SUM(K16:K18)</f>
-        <v>53000000</v>
+        <v>106000000</v>
       </c>
       <c r="L19" s="40">
         <f>SUM(L16:L18)</f>
-        <v>15000000</v>
+        <v>30000000</v>
       </c>
       <c r="M19" s="40">
         <f>SUM(M16:M18)</f>
-        <v>378788</v>
+        <v>757576</v>
       </c>
       <c r="N19" s="40">
         <f>SUM(N16:N18)</f>
-        <v>10500000</v>
+        <v>21000000</v>
       </c>
       <c r="O19" s="40">
         <f t="shared" si="14"/>
-        <v>78878788</v>
+        <v>157757576</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="40">
         <f>SUM(Q16:Q18)</f>
-        <v>40000000</v>
+        <v>80000000</v>
       </c>
       <c r="R19" s="40">
         <f>SUM(R16:R18)</f>
-        <v>16000000</v>
+        <v>32000000</v>
       </c>
       <c r="S19" s="40">
         <f>SUM(Q19:R19)</f>
-        <v>56000000</v>
+        <v>112000000</v>
       </c>
       <c r="T19" s="10"/>
       <c r="U19" s="40">
         <f t="shared" si="13"/>
-        <v>1099878788</v>
+        <v>2199757576</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -3854,13 +3854,13 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="113" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3915,9 +3915,9 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="121"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
@@ -3970,9 +3970,9 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="121"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
@@ -4025,64 +4025,64 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="121"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="41">
         <f>IF(E$23="Site",MAX(0,E$19-E$24*IF(E$22="$",1,IF(E$22="%TIV",E$11,E$19))),MAX(0,SUM(E$16:E$17)-E$24*IF(E$22="$",1,IF(E$22="%TIV",SUM(E$8:E$9),SUM(E$16:E$17))))+E$18)</f>
-        <v>451240000</v>
+        <v>902490000</v>
       </c>
       <c r="F25" s="41">
         <f t="shared" ref="F25:H25" si="15">IF(F$23="Site",MAX(0,F$19-F$24*IF(F$22="$",1,IF(F$22="%TIV",F$11,F$19))),MAX(0,SUM(F$16:F$17)-F$24*IF(F$22="$",1,IF(F$22="%TIV",SUM(F$8:F$9),SUM(F$16:F$17))))+F$18)</f>
-        <v>300490000</v>
+        <v>600990000</v>
       </c>
       <c r="G25" s="41">
         <f t="shared" si="15"/>
-        <v>165240000</v>
+        <v>330490000</v>
       </c>
       <c r="H25" s="41">
         <f t="shared" si="15"/>
-        <v>47990000</v>
+        <v>95990000</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="41">
         <f>IF(K$23="Site",MAX(0,K$19-K$24*IF(K$22="$",1,IF(K$22="%TIV",K$11,K$19))),MAX(0,SUM(K$16:K$17)-K$24*IF(K$22="$",1,IF(K$22="%TIV",SUM(K$8:K$9),SUM(K$16:K$17))))+K$18)</f>
-        <v>51940000</v>
+        <v>104940000</v>
       </c>
       <c r="L25" s="41">
         <f t="shared" ref="L25:N25" si="16">IF(L$23="Site",MAX(0,L$19-L$24*IF(L$22="$",1,IF(L$22="%TIV",L$11,L$19))),MAX(0,SUM(L$16:L$17)-L$24*IF(L$22="$",1,IF(L$22="%TIV",SUM(L$8:L$9),SUM(L$16:L$17))))+L$18)</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M25" s="41">
         <f t="shared" si="16"/>
-        <v>371212.24</v>
+        <v>750000.24</v>
       </c>
       <c r="N25" s="41">
         <f t="shared" si="16"/>
-        <v>9500000</v>
+        <v>20000000</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="41">
         <f t="shared" ref="Q25:R25" si="17">IF(Q$23="Site",MAX(0,Q$19-Q$24*IF(Q$22="$",1,IF(Q$22="%TIV",Q$11,Q$19))),MAX(0,SUM(Q$16:Q$17)-Q$24*IF(Q$22="$",1,IF(Q$22="%TIV",SUM(Q$8:Q$9),SUM(Q$16:Q$17))))+Q$18)</f>
-        <v>39600000</v>
+        <v>79200000</v>
       </c>
       <c r="R25" s="41">
         <f t="shared" si="17"/>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="121" t="s">
+      <c r="A26" s="116"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="113" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -4137,75 +4137,75 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="121"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="41">
         <f>MIN(IF(E$26="None",10^18,E$26),E$25)</f>
-        <v>451240000</v>
+        <v>902490000</v>
       </c>
       <c r="F27" s="41">
         <f t="shared" ref="F27:H27" si="18">MIN(IF(F$26="None",10^18,F$26),F$25)</f>
-        <v>300490000</v>
+        <v>600990000</v>
       </c>
       <c r="G27" s="41">
         <f t="shared" si="18"/>
-        <v>165240000</v>
+        <v>330490000</v>
       </c>
       <c r="H27" s="41">
         <f t="shared" si="18"/>
-        <v>47990000</v>
+        <v>95990000</v>
       </c>
       <c r="I27" s="42">
         <f t="shared" ref="I27" si="19">SUM(E27:H27)</f>
-        <v>964960000</v>
+        <v>1929960000</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="41">
         <f>MIN(IF(K$26="None",10^18,K$26),K$25)</f>
-        <v>51940000</v>
+        <v>100000000</v>
       </c>
       <c r="L27" s="41">
         <f t="shared" ref="L27:N27" si="20">MIN(IF(L$26="None",10^18,L$26),L$25)</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M27" s="41">
         <f t="shared" si="20"/>
-        <v>371212.24</v>
+        <v>750000.24</v>
       </c>
       <c r="N27" s="41">
         <f t="shared" si="20"/>
-        <v>9500000</v>
+        <v>20000000</v>
       </c>
       <c r="O27" s="42">
         <f t="shared" ref="O27" si="21">SUM(K27:N27)</f>
-        <v>75311212.24000001</v>
+        <v>149250000.24000001</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="41">
         <f t="shared" ref="Q27:R27" si="22">MIN(IF(Q$26="None",10^18,Q$26),Q$25)</f>
-        <v>39600000</v>
+        <v>79200000</v>
       </c>
       <c r="R27" s="41">
         <f t="shared" si="22"/>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S27" s="42">
         <f>SUM(Q27:R27)</f>
-        <v>55440000</v>
+        <v>110880000</v>
       </c>
       <c r="T27" s="10"/>
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111" t="s">
+      <c r="A28" s="116"/>
+      <c r="B28" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="113" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -4239,27 +4239,27 @@
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="121"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="36" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="50">
         <f>IF($I29=0,0,E27/$I27*$I29)</f>
-        <v>210431520.47753274</v>
+        <v>210429490.76664802</v>
       </c>
       <c r="F29" s="50">
         <f t="shared" ref="F29:H29" si="23">IF($I29=0,0,F27/$I27*$I29)</f>
-        <v>140130678.99187529</v>
+        <v>140130106.32344714</v>
       </c>
       <c r="G29" s="50">
         <f t="shared" si="23"/>
-        <v>77058116.398607194</v>
+        <v>77058850.960641667</v>
       </c>
       <c r="H29" s="50">
         <f t="shared" si="23"/>
-        <v>22379684.131984744</v>
+        <v>22381551.949263196</v>
       </c>
       <c r="I29" s="42">
         <f>MIN(I$27,IF(I$28="None",10^18,I$28))</f>
@@ -4268,44 +4268,44 @@
       <c r="J29" s="10"/>
       <c r="K29" s="50">
         <f>IF($O29=0,0,K27/$O27*$O29)</f>
-        <v>51940000</v>
+        <v>100000000</v>
       </c>
       <c r="L29" s="50">
         <f t="shared" ref="L29:N29" si="24">IF($O29=0,0,L27/$O27*$O29)</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M29" s="50">
         <f t="shared" si="24"/>
-        <v>371212.24</v>
+        <v>750000.24</v>
       </c>
       <c r="N29" s="50">
         <f t="shared" si="24"/>
-        <v>9500000</v>
+        <v>20000000</v>
       </c>
       <c r="O29" s="42">
         <f>MIN(O$27,IF(O$28="None",10^18,O$28))</f>
-        <v>75311212.24000001</v>
+        <v>149250000.24000001</v>
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="50">
         <f t="shared" ref="Q29:R29" si="25">IF($O29=0,0,Q27/$O27*$O29)</f>
-        <v>39599999.999999993</v>
+        <v>79200000</v>
       </c>
       <c r="R29" s="50">
         <f t="shared" si="25"/>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S29" s="42">
         <f>MIN(S$27,IF(S$28="None",10^18,S$28))</f>
-        <v>55440000</v>
+        <v>110880000</v>
       </c>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="121" t="s">
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="113" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -4339,27 +4339,27 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="121"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E31" s="40">
         <f>E$29*$I$30</f>
-        <v>32733792.074282873</v>
+        <v>32733476.341478582</v>
       </c>
       <c r="F31" s="40">
         <f t="shared" ref="F31:H31" si="26">F$29*$I$30</f>
-        <v>21798105.62095838</v>
+        <v>21798016.539202888</v>
       </c>
       <c r="G31" s="40">
         <f t="shared" si="26"/>
-        <v>11986818.106450008</v>
+        <v>11986932.371655371</v>
       </c>
       <c r="H31" s="40">
         <f t="shared" si="26"/>
-        <v>3481284.1983087379</v>
+        <v>3481574.747663164</v>
       </c>
       <c r="I31" s="40">
         <f>MIN(I$27,IF(I$28="None",10^18,I$28))*I$30</f>
@@ -4368,41 +4368,41 @@
       <c r="J31" s="10"/>
       <c r="K31" s="40">
         <f>K$29*$O$30</f>
-        <v>51940000</v>
+        <v>100000000</v>
       </c>
       <c r="L31" s="40">
         <f t="shared" ref="L31:N31" si="27">L$29*$O$30</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M31" s="40">
         <f t="shared" si="27"/>
-        <v>371212.24</v>
+        <v>750000.24</v>
       </c>
       <c r="N31" s="40">
         <f t="shared" si="27"/>
-        <v>9500000</v>
+        <v>20000000</v>
       </c>
       <c r="O31" s="40">
         <f>MIN(O$27,IF(O$28="None",10^18,O$28))*O$30</f>
-        <v>75311212.24000001</v>
+        <v>149250000.24000001</v>
       </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="40">
         <f t="shared" ref="Q31:R31" si="28">Q$29*$O$30</f>
-        <v>39599999.999999993</v>
+        <v>79200000</v>
       </c>
       <c r="R31" s="40">
         <f t="shared" si="28"/>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S31" s="40">
         <f>MIN(S$27,IF(S$28="None",10^18,S$28))*S$30</f>
-        <v>55440000</v>
+        <v>110880000</v>
       </c>
       <c r="T31" s="10"/>
       <c r="U31" s="40">
         <f t="shared" ref="U31" si="29">I31+O31+S31</f>
-        <v>200751212.24000001</v>
+        <v>330130000.24000001</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -4448,13 +4448,13 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="113" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4497,9 +4497,9 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="125"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="121"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
@@ -4540,9 +4540,9 @@
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="125"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="121"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4583,9 +4583,9 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="125"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="121"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
@@ -4626,19 +4626,19 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="125"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="121"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E38" s="43">
         <f>MAX(0,E$31-E37)</f>
-        <v>12733792.074282873</v>
+        <v>12733476.341478582</v>
       </c>
       <c r="F38" s="43">
         <f t="shared" ref="F38:H38" si="30">MAX(0,F$31-F37)</f>
-        <v>1798105.6209583804</v>
+        <v>1798016.5392028876</v>
       </c>
       <c r="G38" s="43">
         <f t="shared" si="30"/>
@@ -4646,44 +4646,44 @@
       </c>
       <c r="H38" s="43">
         <f t="shared" si="30"/>
-        <v>3481284.1983087379</v>
+        <v>3481574.747663164</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="43">
         <f>MAX(0,K$31-K37)</f>
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="L38" s="43">
         <f t="shared" ref="L38" si="31">MAX(0,L$31-L37)</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M38" s="43">
         <f t="shared" ref="M38" si="32">MAX(0,M$31-M37)</f>
-        <v>0</v>
+        <v>175000.24</v>
       </c>
       <c r="N38" s="43">
         <f t="shared" ref="N38" si="33">MAX(0,N$31-N37)</f>
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="43">
         <f t="shared" ref="Q38" si="34">MAX(0,Q$31-Q37)</f>
-        <v>39599999.999999993</v>
+        <v>79200000</v>
       </c>
       <c r="R38" s="43">
         <f t="shared" ref="R38" si="35">MAX(0,R$31-R37)</f>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="125"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="121"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
@@ -4724,19 +4724,19 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="125"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="121"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
       <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
       <c r="E40" s="43">
         <f>IF(E39="Unlimited",E38,MIN(E39,E38))</f>
-        <v>12733792.074282873</v>
+        <v>12733476.341478582</v>
       </c>
       <c r="F40" s="43">
         <f t="shared" ref="F40:H40" si="36">IF(F39="Unlimited",F38,MIN(F39,F38))</f>
-        <v>1798105.6209583804</v>
+        <v>1798016.5392028876</v>
       </c>
       <c r="G40" s="43">
         <f t="shared" si="36"/>
@@ -4744,44 +4744,44 @@
       </c>
       <c r="H40" s="43">
         <f t="shared" si="36"/>
-        <v>3481284.1983087379</v>
+        <v>3481574.747663164</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="43">
         <f>IF(K39="Unlimited",K38,MIN(K39,K38))</f>
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="L40" s="43">
         <f t="shared" ref="L40" si="37">IF(L39="Unlimited",L38,MIN(L39,L38))</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M40" s="43">
         <f t="shared" ref="M40" si="38">IF(M39="Unlimited",M38,MIN(M39,M38))</f>
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="N40" s="43">
         <f t="shared" ref="N40" si="39">IF(N39="Unlimited",N38,MIN(N39,N38))</f>
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="43">
         <f t="shared" ref="Q40" si="40">IF(Q39="Unlimited",Q38,MIN(Q39,Q38))</f>
-        <v>39599999.999999993</v>
+        <v>79200000</v>
       </c>
       <c r="R40" s="43">
         <f t="shared" ref="R40" si="41">IF(R39="Unlimited",R38,MIN(R39,R38))</f>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="125"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="121"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -4822,19 +4822,19 @@
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="125"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="121"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
       <c r="D42" s="48" t="s">
         <v>63</v>
       </c>
       <c r="E42" s="43">
         <f>E40*E41</f>
-        <v>12733792.074282873</v>
+        <v>12733476.341478582</v>
       </c>
       <c r="F42" s="43">
         <f t="shared" ref="F42:H42" si="42">F40*F41</f>
-        <v>1798105.6209583804</v>
+        <v>1798016.5392028876</v>
       </c>
       <c r="G42" s="43">
         <f t="shared" si="42"/>
@@ -4848,7 +4848,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="43">
         <f>K40*K41</f>
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="L42" s="43">
         <f t="shared" ref="L42" si="43">L40*L41</f>
@@ -4856,11 +4856,11 @@
       </c>
       <c r="M42" s="43">
         <f t="shared" ref="M42" si="44">M40*M41</f>
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="N42" s="43">
         <f t="shared" ref="N42" si="45">N40*N41</f>
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
@@ -4877,9 +4877,9 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="125"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="121"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
@@ -4920,9 +4920,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="125"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="121"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4963,19 +4963,19 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="125"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="121"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="49" t="s">
         <v>64</v>
       </c>
       <c r="E45" s="41">
         <f>MIN(E42,IF(OR(E44="Unlimited",E44=""),10^18,E44))</f>
-        <v>12733792.074282873</v>
+        <v>12733476.341478582</v>
       </c>
       <c r="F45" s="41">
         <f t="shared" ref="F45:H45" si="48">MIN(F42,IF(OR(F44="Unlimited",F44=""),10^18,F44))</f>
-        <v>1798105.6209583804</v>
+        <v>1798016.5392028876</v>
       </c>
       <c r="G45" s="41">
         <f t="shared" si="48"/>
@@ -4987,12 +4987,12 @@
       </c>
       <c r="I45" s="42">
         <f t="shared" ref="I45:I46" si="49">SUM(E45:H45)</f>
-        <v>14531897.695241254</v>
+        <v>14531492.88068147</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="41">
         <f>MIN(K42,IF(OR(K44="Unlimited",K44=""),10^18,K44))</f>
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="L45" s="41">
         <f t="shared" ref="L45" si="50">MIN(L42,IF(OR(L44="Unlimited",L44=""),10^18,L44))</f>
@@ -5000,15 +5000,15 @@
       </c>
       <c r="M45" s="41">
         <f t="shared" ref="M45" si="51">MIN(M42,IF(OR(M44="Unlimited",M44=""),10^18,M44))</f>
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="N45" s="41">
         <f t="shared" ref="N45" si="52">MIN(N42,IF(OR(N44="Unlimited",N44=""),10^18,N44))</f>
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="O45" s="42">
         <f t="shared" ref="O45:O46" si="53">SUM(K45:N45)</f>
-        <v>0</v>
+        <v>30175000</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="41">
@@ -5026,13 +5026,13 @@
       <c r="T45" s="10"/>
       <c r="U45" s="42">
         <f t="shared" ref="U45:U46" si="56">I45+O45+S45</f>
-        <v>14531897.695241254</v>
+        <v>44706492.88068147</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="125"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="121"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="36" t="s">
         <v>65</v>
       </c>
@@ -5046,62 +5046,62 @@
       </c>
       <c r="G46" s="41">
         <f>G31-G45</f>
-        <v>11986818.106450008</v>
+        <v>11986932.371655371</v>
       </c>
       <c r="H46" s="41">
         <f>H31-H45</f>
-        <v>3481284.1983087379</v>
+        <v>3481574.747663164</v>
       </c>
       <c r="I46" s="42">
         <f t="shared" si="49"/>
-        <v>55468102.304758742</v>
+        <v>55468507.119318537</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="41">
         <f>K31-K45</f>
-        <v>51940000</v>
+        <v>75000000</v>
       </c>
       <c r="L46" s="41">
         <f>L31-L45</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M46" s="41">
         <f>M31-M45</f>
-        <v>371212.24</v>
+        <v>575000.24</v>
       </c>
       <c r="N46" s="41">
         <f>N31-N45</f>
-        <v>9500000</v>
+        <v>15000000</v>
       </c>
       <c r="O46" s="42">
         <f t="shared" si="53"/>
-        <v>75311212.24000001</v>
+        <v>119075000.23999999</v>
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="41">
         <f>Q31-Q45</f>
-        <v>39599999.999999993</v>
+        <v>79200000</v>
       </c>
       <c r="R46" s="41">
         <f>R31-R45</f>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S46" s="42">
         <f>SUM(Q46:R46)</f>
-        <v>55439999.999999993</v>
+        <v>110880000</v>
       </c>
       <c r="T46" s="10"/>
       <c r="U46" s="42">
         <f t="shared" si="56"/>
-        <v>186219314.54475874</v>
+        <v>285423507.35931849</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="125"/>
-      <c r="B47" s="111" t="s">
+      <c r="A47" s="115"/>
+      <c r="B47" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="121" t="s">
+      <c r="C47" s="113" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="10"/>
@@ -5124,9 +5124,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="125"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="121"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
@@ -5152,9 +5152,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="121"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
@@ -5180,9 +5180,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="125"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="121"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
@@ -5208,9 +5208,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="125"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="121"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="9" t="s">
         <v>22</v>
       </c>
@@ -5236,9 +5236,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="125"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="121"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="48" t="s">
         <v>61</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="43">
         <f>MAX(0,I$46-I51)</f>
-        <v>35468102.304758742</v>
+        <v>35468507.119318537</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -5257,22 +5257,22 @@
       <c r="N52" s="10"/>
       <c r="O52" s="43">
         <f>MAX(0,O$46-O51)</f>
-        <v>75311212.24000001</v>
+        <v>119075000.23999999</v>
       </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
       <c r="S52" s="43">
         <f>MAX(0,S$46-S51)</f>
-        <v>55439999.999999993</v>
+        <v>110880000</v>
       </c>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="125"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="121"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
@@ -5298,9 +5298,9 @@
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="125"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="121"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="48" t="s">
         <v>62</v>
       </c>
@@ -5310,7 +5310,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="43">
         <f t="shared" ref="I54" si="57">IF(I53="Unlimited",I52,MIN(I53,I52))</f>
-        <v>35468102.304758742</v>
+        <v>35468507.119318537</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -5319,22 +5319,22 @@
       <c r="N54" s="10"/>
       <c r="O54" s="43">
         <f t="shared" ref="O54" si="58">IF(O53="Unlimited",O52,MIN(O53,O52))</f>
-        <v>75311212.24000001</v>
+        <v>119075000.23999999</v>
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
       <c r="S54" s="43">
         <f t="shared" ref="S54" si="59">IF(S53="Unlimited",S52,MIN(S53,S52))</f>
-        <v>55439999.999999993</v>
+        <v>110880000</v>
       </c>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="125"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="121"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
@@ -5360,9 +5360,9 @@
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="125"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="121"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
       <c r="D56" s="48" t="s">
         <v>63</v>
       </c>
@@ -5372,7 +5372,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="43">
         <f t="shared" ref="I56" si="60">I54*I55</f>
-        <v>35468102.304758742</v>
+        <v>35468507.119318537</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -5394,9 +5394,9 @@
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="125"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="121"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
       <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
@@ -5422,9 +5422,9 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="125"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="121"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
@@ -5450,31 +5450,31 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="125"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="121"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="113"/>
       <c r="D59" s="49" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="51">
         <f>IF($I59=0,0,E46/$I46*$I59)</f>
-        <v>12788648.189147025</v>
+        <v>12788700.818293914</v>
       </c>
       <c r="F59" s="51">
         <f t="shared" ref="F59:H59" si="63">IF($I59=0,0,F46/$I46*$I59)</f>
-        <v>12788648.189147025</v>
+        <v>12788700.818293914</v>
       </c>
       <c r="G59" s="51">
         <f t="shared" si="63"/>
-        <v>7664759.9835343342</v>
+        <v>7664864.5915111424</v>
       </c>
       <c r="H59" s="51">
         <f t="shared" si="63"/>
-        <v>2226045.9429303599</v>
+        <v>2226240.8912195666</v>
       </c>
       <c r="I59" s="42">
         <f>MIN(I56,IF(OR(I58="Unlimited",I58=""),10^18,I58))</f>
-        <v>35468102.304758742</v>
+        <v>35468507.119318537</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="51">
@@ -5513,31 +5513,31 @@
       <c r="T59" s="10"/>
       <c r="U59" s="42">
         <f t="shared" ref="U59:U60" si="64">I59+O59+S59</f>
-        <v>35468102.304758742</v>
+        <v>35468507.119318537</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="125"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="121"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="36" t="s">
         <v>66</v>
       </c>
       <c r="E60" s="43">
         <f>E46-E59</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="F60" s="43">
         <f t="shared" ref="F60:H60" si="65">F46-F59</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="G60" s="43">
         <f t="shared" si="65"/>
-        <v>4322058.122915674</v>
+        <v>4322067.7801442286</v>
       </c>
       <c r="H60" s="43">
         <f t="shared" si="65"/>
-        <v>1255238.2553783781</v>
+        <v>1255333.8564435975</v>
       </c>
       <c r="I60" s="42">
         <f>I46-I59</f>
@@ -5546,51 +5546,51 @@
       <c r="J60" s="10"/>
       <c r="K60" s="43">
         <f>K46-K59</f>
-        <v>51940000</v>
+        <v>75000000</v>
       </c>
       <c r="L60" s="43">
         <f t="shared" ref="L60:N60" si="66">L46-L59</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M60" s="43">
         <f t="shared" si="66"/>
-        <v>371212.24</v>
+        <v>575000.24</v>
       </c>
       <c r="N60" s="43">
         <f t="shared" si="66"/>
-        <v>9500000</v>
+        <v>15000000</v>
       </c>
       <c r="O60" s="42">
         <f>O46-O59</f>
-        <v>75311212.24000001</v>
+        <v>119075000.23999999</v>
       </c>
       <c r="P60" s="10"/>
       <c r="Q60" s="43">
         <f t="shared" ref="Q60:R60" si="67">Q46-Q59</f>
-        <v>39599999.999999993</v>
+        <v>79200000</v>
       </c>
       <c r="R60" s="43">
         <f t="shared" si="67"/>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S60" s="42">
         <f>S46-S59</f>
-        <v>55439999.999999993</v>
+        <v>110880000</v>
       </c>
       <c r="T60" s="10"/>
       <c r="U60" s="42">
         <f t="shared" si="64"/>
-        <v>150751212.24000001</v>
+        <v>249955000.24000001</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="124" t="s">
+      <c r="A61" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="122" t="s">
+      <c r="C61" s="111" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="10"/>
@@ -5613,9 +5613,9 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="125"/>
-      <c r="B62" s="111"/>
-      <c r="C62" s="123"/>
+      <c r="A62" s="115"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="112"/>
       <c r="D62" s="9" t="s">
         <v>25</v>
       </c>
@@ -5656,9 +5656,9 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="125"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="123"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="9" t="s">
         <v>14</v>
       </c>
@@ -5699,9 +5699,9 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="125"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="123"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="112"/>
       <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5742,9 +5742,9 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="125"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="123"/>
+      <c r="A65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="112"/>
       <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
@@ -5785,64 +5785,64 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="125"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="123"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="112"/>
       <c r="D66" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="43">
         <f>MAX(0,E$60-E65)</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="F66" s="43">
         <f t="shared" ref="F66" si="68">MAX(0,F$60-F65)</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="G66" s="43">
         <f t="shared" ref="G66" si="69">MAX(0,G$60-G65)</f>
-        <v>4322058.122915674</v>
+        <v>4322067.7801442286</v>
       </c>
       <c r="H66" s="43">
         <f t="shared" ref="H66" si="70">MAX(0,H$60-H65)</f>
-        <v>1255238.2553783781</v>
+        <v>1255333.8564435975</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="43">
         <f>MAX(0,K$60-K65)</f>
-        <v>51940000</v>
+        <v>75000000</v>
       </c>
       <c r="L66" s="43">
         <f t="shared" ref="L66:N66" si="71">MAX(0,L$60-L65)</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M66" s="43">
         <f t="shared" si="71"/>
-        <v>371212.24</v>
+        <v>575000.24</v>
       </c>
       <c r="N66" s="43">
         <f t="shared" si="71"/>
-        <v>9500000</v>
+        <v>15000000</v>
       </c>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="43">
         <f t="shared" ref="Q66" si="72">MAX(0,Q$60-Q65)</f>
-        <v>39599999.999999993</v>
+        <v>79200000</v>
       </c>
       <c r="R66" s="43">
         <f t="shared" ref="R66" si="73">MAX(0,R$60-R65)</f>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="125"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="123"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="112"/>
       <c r="D67" s="9" t="s">
         <v>21</v>
       </c>
@@ -5883,64 +5883,64 @@
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="125"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="123"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="112"/>
       <c r="D68" s="48" t="s">
         <v>62</v>
       </c>
       <c r="E68" s="43">
         <f t="shared" ref="E68" si="74">IF(E67="Unlimited",E66,MIN(E67,E66))</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="F68" s="43">
         <f t="shared" ref="F68" si="75">IF(F67="Unlimited",F66,MIN(F67,F66))</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="G68" s="43">
         <f t="shared" ref="G68" si="76">IF(G67="Unlimited",G66,MIN(G67,G66))</f>
-        <v>4322058.122915674</v>
+        <v>4322067.7801442286</v>
       </c>
       <c r="H68" s="43">
         <f t="shared" ref="H68" si="77">IF(H67="Unlimited",H66,MIN(H67,H66))</f>
-        <v>1255238.2553783781</v>
+        <v>1255333.8564435975</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="43">
         <f t="shared" ref="K68" si="78">IF(K67="Unlimited",K66,MIN(K67,K66))</f>
-        <v>51940000</v>
+        <v>75000000</v>
       </c>
       <c r="L68" s="43">
         <f t="shared" ref="L68" si="79">IF(L67="Unlimited",L66,MIN(L67,L66))</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M68" s="43">
         <f t="shared" ref="M68" si="80">IF(M67="Unlimited",M66,MIN(M67,M66))</f>
-        <v>371212.24</v>
+        <v>575000.24</v>
       </c>
       <c r="N68" s="43">
         <f t="shared" ref="N68" si="81">IF(N67="Unlimited",N66,MIN(N67,N66))</f>
-        <v>9500000</v>
+        <v>15000000</v>
       </c>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="43">
         <f t="shared" ref="Q68" si="82">IF(Q67="Unlimited",Q66,MIN(Q67,Q66))</f>
-        <v>39599999.999999993</v>
+        <v>79200000</v>
       </c>
       <c r="R68" s="43">
         <f t="shared" ref="R68" si="83">IF(R67="Unlimited",R66,MIN(R67,R66))</f>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="125"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="123"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="112"/>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
@@ -5981,9 +5981,9 @@
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="125"/>
-      <c r="B70" s="111"/>
-      <c r="C70" s="123"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="48" t="s">
         <v>63</v>
       </c>
@@ -6010,47 +6010,47 @@
       <c r="J70" s="10"/>
       <c r="K70" s="43">
         <f>K68*K69</f>
-        <v>10388000</v>
+        <v>15000000</v>
       </c>
       <c r="L70" s="43">
         <f>L68*L69</f>
-        <v>5400000</v>
+        <v>11400000</v>
       </c>
       <c r="M70" s="43">
         <f t="shared" ref="M70" si="86">M68*M69</f>
-        <v>74242.448000000004</v>
+        <v>115000.04800000001</v>
       </c>
       <c r="N70" s="43">
         <f t="shared" ref="N70" si="87">N68*N69</f>
-        <v>2850000</v>
+        <v>4500000</v>
       </c>
       <c r="O70" s="43">
         <f>SUM(K70:N70)</f>
-        <v>18712242.447999999</v>
+        <v>31015000.048</v>
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="43">
         <f t="shared" ref="Q70" si="88">Q68*Q69</f>
-        <v>9899999.9999999981</v>
+        <v>19800000</v>
       </c>
       <c r="R70" s="43">
         <f t="shared" ref="R70" si="89">R68*R69</f>
-        <v>5940000</v>
+        <v>11880000</v>
       </c>
       <c r="S70" s="43">
         <f>SUM(Q70:R70)</f>
-        <v>15839999.999999998</v>
+        <v>31680000</v>
       </c>
       <c r="T70" s="10"/>
       <c r="U70" s="44">
         <f t="shared" ref="U70" si="90">I70+O70+S70</f>
-        <v>34552242.447999999</v>
+        <v>62695000.048</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="125"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="123"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="112"/>
       <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
@@ -6091,9 +6091,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="125"/>
-      <c r="B72" s="111"/>
-      <c r="C72" s="123"/>
+      <c r="A72" s="115"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="112"/>
       <c r="D72" s="9" t="s">
         <v>24</v>
       </c>
@@ -6119,9 +6119,9 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="125"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="123"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="49" t="s">
         <v>64</v>
       </c>
@@ -6148,47 +6148,47 @@
       <c r="J73" s="10"/>
       <c r="K73" s="51">
         <f t="shared" ref="K73:M73" si="92">IF($U73=0,0,K70/$U70*$U73)</f>
-        <v>10388000</v>
+        <v>14355211.728382643</v>
       </c>
       <c r="L73" s="51">
         <f t="shared" si="92"/>
-        <v>5400000</v>
+        <v>10909960.91357081</v>
       </c>
       <c r="M73" s="51">
         <f t="shared" si="92"/>
-        <v>74242.448000000004</v>
+        <v>110056.66918761113</v>
       </c>
       <c r="N73" s="51">
         <f>IF($U73=0,0,N70/$U70*$U73)</f>
-        <v>2850000</v>
+        <v>4306563.5185147934</v>
       </c>
       <c r="O73" s="42">
         <f>SUM(K73:N73)</f>
-        <v>18712242.447999999</v>
+        <v>29681792.82965586</v>
       </c>
       <c r="P73" s="10"/>
       <c r="Q73" s="51">
         <f t="shared" ref="Q73" si="93">IF($U73=0,0,Q70/$U70*$U73)</f>
-        <v>9899999.9999999981</v>
+        <v>18948879.48146509</v>
       </c>
       <c r="R73" s="51">
         <f>IF($U73=0,0,R70/$U70*$U73)</f>
-        <v>5940000</v>
+        <v>11369327.688879054</v>
       </c>
       <c r="S73" s="42">
         <f>SUM(Q73:R73)</f>
-        <v>15839999.999999998</v>
+        <v>30318207.170344144</v>
       </c>
       <c r="T73" s="10"/>
       <c r="U73" s="42">
         <f>MIN(U70,IF(OR(U72="Unlimited",U72=""),10^18,U72))</f>
-        <v>34552242.447999999</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="125"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="121" t="s">
+      <c r="A74" s="115"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="113" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="10"/>
@@ -6211,9 +6211,9 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="125"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="121"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="113"/>
       <c r="D75" s="9" t="s">
         <v>25</v>
       </c>
@@ -6248,9 +6248,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="125"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="121"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="113"/>
       <c r="D76" s="9" t="s">
         <v>14</v>
       </c>
@@ -6285,9 +6285,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="125"/>
-      <c r="B77" s="111"/>
-      <c r="C77" s="121"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="113"/>
       <c r="D77" s="9" t="s">
         <v>36</v>
       </c>
@@ -6322,9 +6322,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="125"/>
-      <c r="B78" s="111"/>
-      <c r="C78" s="121"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="113"/>
       <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
@@ -6359,64 +6359,64 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="125"/>
-      <c r="B79" s="111"/>
-      <c r="C79" s="121"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="113"/>
       <c r="D79" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E79" s="43">
         <f>MAX(0,E$60-E78)</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="F79" s="43">
         <f t="shared" ref="F79" si="94">MAX(0,F$60-F78)</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="G79" s="43">
         <f t="shared" ref="G79" si="95">MAX(0,G$60-G78)</f>
-        <v>4322058.122915674</v>
+        <v>4322067.7801442286</v>
       </c>
       <c r="H79" s="43">
         <f t="shared" ref="H79" si="96">MAX(0,H$60-H78)</f>
-        <v>1255238.2553783781</v>
+        <v>1255333.8564435975</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="43">
         <f>MAX(0,K$60-K78)</f>
-        <v>51940000</v>
+        <v>75000000</v>
       </c>
       <c r="L79" s="43">
         <f t="shared" ref="L79" si="97">MAX(0,L$60-L78)</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M79" s="43">
         <f t="shared" ref="M79" si="98">MAX(0,M$60-M78)</f>
-        <v>371212.24</v>
+        <v>575000.24</v>
       </c>
       <c r="N79" s="43">
         <f t="shared" ref="N79" si="99">MAX(0,N$60-N78)</f>
-        <v>9500000</v>
+        <v>15000000</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
       <c r="Q79" s="43">
         <f t="shared" ref="Q79" si="100">MAX(0,Q$60-Q78)</f>
-        <v>39599999.999999993</v>
+        <v>79200000</v>
       </c>
       <c r="R79" s="43">
         <f t="shared" ref="R79" si="101">MAX(0,R$60-R78)</f>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="125"/>
-      <c r="B80" s="111"/>
-      <c r="C80" s="121"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="113"/>
       <c r="D80" s="9" t="s">
         <v>21</v>
       </c>
@@ -6451,64 +6451,64 @@
       <c r="U80" s="10"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="125"/>
-      <c r="B81" s="111"/>
-      <c r="C81" s="121"/>
+      <c r="A81" s="115"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="113"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
       <c r="E81" s="43">
         <f t="shared" ref="E81" si="102">IF(E80="Unlimited",E79,MIN(E80,E79))</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="F81" s="43">
         <f t="shared" ref="F81" si="103">IF(F80="Unlimited",F79,MIN(F80,F79))</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="G81" s="43">
         <f t="shared" ref="G81" si="104">IF(G80="Unlimited",G79,MIN(G80,G79))</f>
-        <v>4322058.122915674</v>
+        <v>4322067.7801442286</v>
       </c>
       <c r="H81" s="43">
         <f t="shared" ref="H81" si="105">IF(H80="Unlimited",H79,MIN(H80,H79))</f>
-        <v>1255238.2553783781</v>
+        <v>1255333.8564435975</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="43">
         <f t="shared" ref="K81" si="106">IF(K80="Unlimited",K79,MIN(K80,K79))</f>
-        <v>51940000</v>
+        <v>75000000</v>
       </c>
       <c r="L81" s="43">
         <f t="shared" ref="L81" si="107">IF(L80="Unlimited",L79,MIN(L80,L79))</f>
-        <v>13500000</v>
+        <v>28500000</v>
       </c>
       <c r="M81" s="43">
         <f t="shared" ref="M81" si="108">IF(M80="Unlimited",M79,MIN(M80,M79))</f>
-        <v>371212.24</v>
+        <v>575000.24</v>
       </c>
       <c r="N81" s="43">
         <f t="shared" ref="N81" si="109">IF(N80="Unlimited",N79,MIN(N80,N79))</f>
-        <v>9500000</v>
+        <v>15000000</v>
       </c>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
       <c r="Q81" s="43">
         <f t="shared" ref="Q81" si="110">IF(Q80="Unlimited",Q79,MIN(Q80,Q79))</f>
-        <v>39599999.999999993</v>
+        <v>79200000</v>
       </c>
       <c r="R81" s="43">
         <f t="shared" ref="R81" si="111">IF(R80="Unlimited",R79,MIN(R80,R79))</f>
-        <v>15840000</v>
+        <v>31680000</v>
       </c>
       <c r="S81" s="10"/>
       <c r="T81" s="10"/>
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="125"/>
-      <c r="B82" s="111"/>
-      <c r="C82" s="121"/>
+      <c r="A82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="113"/>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
@@ -6543,9 +6543,9 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="125"/>
-      <c r="B83" s="111"/>
-      <c r="C83" s="121"/>
+      <c r="A83" s="115"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="113"/>
       <c r="D83" s="48" t="s">
         <v>63</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="J83" s="10"/>
       <c r="K83" s="43">
         <f>K81*K82</f>
-        <v>31164000</v>
+        <v>45000000</v>
       </c>
       <c r="L83" s="43">
         <f>L81*L82</f>
@@ -6580,20 +6580,20 @@
       </c>
       <c r="M83" s="43">
         <f t="shared" ref="M83" si="114">M81*M82</f>
-        <v>222727.34399999998</v>
+        <v>345000.14399999997</v>
       </c>
       <c r="N83" s="43">
         <f t="shared" ref="N83" si="115">N81*N82</f>
-        <v>2850000</v>
+        <v>4500000</v>
       </c>
       <c r="O83" s="43">
         <f>SUM(K83:N83)</f>
-        <v>34236727.343999997</v>
+        <v>49845000.144000001</v>
       </c>
       <c r="P83" s="10"/>
       <c r="Q83" s="43">
         <f t="shared" ref="Q83" si="116">Q81*Q82</f>
-        <v>19799999.999999996</v>
+        <v>39600000</v>
       </c>
       <c r="R83" s="43">
         <f t="shared" ref="R83" si="117">R81*R82</f>
@@ -6601,18 +6601,18 @@
       </c>
       <c r="S83" s="43">
         <f>SUM(Q83:R83)</f>
-        <v>19799999.999999996</v>
+        <v>39600000</v>
       </c>
       <c r="T83" s="10"/>
       <c r="U83" s="44">
         <f t="shared" ref="U83" si="118">I83+O83+S83</f>
-        <v>54036727.343999997</v>
+        <v>89445000.143999994</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="125"/>
-      <c r="B84" s="111"/>
-      <c r="C84" s="121"/>
+      <c r="A84" s="115"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="113"/>
       <c r="D84" s="9" t="s">
         <v>20</v>
       </c>
@@ -6647,9 +6647,9 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="125"/>
-      <c r="B85" s="111"/>
-      <c r="C85" s="121"/>
+      <c r="A85" s="115"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="113"/>
       <c r="D85" s="9" t="s">
         <v>24</v>
       </c>
@@ -6675,9 +6675,9 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="125"/>
-      <c r="B86" s="111"/>
-      <c r="C86" s="121"/>
+      <c r="A86" s="115"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="113"/>
       <c r="D86" s="49" t="s">
         <v>64</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="J86" s="10"/>
       <c r="K86" s="51">
         <f t="shared" ref="K86:M86" si="120">IF($U86=0,0,K83/$U83*$U86)</f>
-        <v>31164000.000000004</v>
+        <v>30186147.86352725</v>
       </c>
       <c r="L86" s="51">
         <f t="shared" si="120"/>
@@ -6712,20 +6712,20 @@
       </c>
       <c r="M86" s="51">
         <f t="shared" si="120"/>
-        <v>222727.34399999998</v>
+        <v>231427.23021604872</v>
       </c>
       <c r="N86" s="51">
         <f>IF($U86=0,0,N83/$U83*$U86)</f>
-        <v>2850000</v>
+        <v>3018614.7863527252</v>
       </c>
       <c r="O86" s="42">
         <f>SUM(K86:N86)</f>
-        <v>34236727.344000004</v>
+        <v>33436189.880096022</v>
       </c>
       <c r="P86" s="10"/>
       <c r="Q86" s="51">
         <f t="shared" ref="Q86" si="121">IF($U86=0,0,Q83/$U83*$U86)</f>
-        <v>19799999.999999996</v>
+        <v>26563810.119903978</v>
       </c>
       <c r="R86" s="51">
         <f>IF($U86=0,0,R83/$U83*$U86)</f>
@@ -6733,36 +6733,36 @@
       </c>
       <c r="S86" s="42">
         <f>SUM(Q86:R86)</f>
-        <v>19799999.999999996</v>
+        <v>26563810.119903978</v>
       </c>
       <c r="T86" s="10"/>
       <c r="U86" s="42">
         <f>MIN(U83,IF(OR(U85="Unlimited",U85=""),10^18,U85))</f>
-        <v>54036727.343999997</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="125"/>
-      <c r="B87" s="111"/>
-      <c r="C87" s="121"/>
+      <c r="A87" s="115"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="113"/>
       <c r="D87" s="36" t="s">
         <v>68</v>
       </c>
       <c r="E87" s="43">
         <f>E60-E73-E86</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="F87" s="43">
         <f t="shared" ref="F87:I87" si="122">F60-F73-F86</f>
-        <v>7211351.8108529747</v>
+        <v>7211299.1817060858</v>
       </c>
       <c r="G87" s="43">
         <f t="shared" si="122"/>
-        <v>4322058.122915674</v>
+        <v>4322067.7801442286</v>
       </c>
       <c r="H87" s="43">
         <f t="shared" si="122"/>
-        <v>1255238.2553783781</v>
+        <v>1255333.8564435975</v>
       </c>
       <c r="I87" s="42">
         <f t="shared" si="122"/>
@@ -6771,49 +6771,49 @@
       <c r="J87" s="10"/>
       <c r="K87" s="43">
         <f>K60-K73-K86</f>
-        <v>10387999.999999996</v>
+        <v>30458640.408090103</v>
       </c>
       <c r="L87" s="43">
         <f t="shared" ref="L87" si="123">L60-L73-L86</f>
-        <v>8100000</v>
+        <v>17590039.08642919</v>
       </c>
       <c r="M87" s="43">
         <f t="shared" ref="M87" si="124">M60-M73-M86</f>
-        <v>74242.448000000033</v>
+        <v>233516.34059634013</v>
       </c>
       <c r="N87" s="43">
         <f t="shared" ref="N87" si="125">N60-N73-N86</f>
-        <v>3800000</v>
+        <v>7674821.6951324809</v>
       </c>
       <c r="O87" s="42">
         <f t="shared" ref="O87" si="126">O60-O73-O86</f>
-        <v>22362242.448000006</v>
+        <v>55957017.53024812</v>
       </c>
       <c r="P87" s="10"/>
       <c r="Q87" s="43">
         <f t="shared" ref="Q87" si="127">Q60-Q73-Q86</f>
-        <v>9899999.9999999963</v>
+        <v>33687310.398630932</v>
       </c>
       <c r="R87" s="43">
         <f t="shared" ref="R87" si="128">R60-R73-R86</f>
-        <v>9900000</v>
+        <v>20310672.311120946</v>
       </c>
       <c r="S87" s="42">
         <f t="shared" ref="S87" si="129">S60-S73-S86</f>
-        <v>19799999.999999996</v>
+        <v>53997982.709751874</v>
       </c>
       <c r="T87" s="10"/>
       <c r="U87" s="42">
         <f t="shared" ref="U87" si="130">I87+O87+S87</f>
-        <v>62162242.447999999</v>
+        <v>129955000.23999999</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="125"/>
-      <c r="B88" s="111" t="s">
+      <c r="A88" s="115"/>
+      <c r="B88" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="122" t="s">
+      <c r="C88" s="111" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="10"/>
@@ -6836,9 +6836,9 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="125"/>
-      <c r="B89" s="111"/>
-      <c r="C89" s="123"/>
+      <c r="A89" s="115"/>
+      <c r="B89" s="116"/>
+      <c r="C89" s="112"/>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
@@ -6891,9 +6891,9 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="125"/>
-      <c r="B90" s="111"/>
-      <c r="C90" s="123"/>
+      <c r="A90" s="115"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="112"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -6946,9 +6946,9 @@
       <c r="U90" s="10"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="125"/>
-      <c r="B91" s="111"/>
-      <c r="C91" s="123"/>
+      <c r="A91" s="115"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="112"/>
       <c r="D91" s="9" t="s">
         <v>36</v>
       </c>
@@ -6997,9 +6997,9 @@
       <c r="S91" s="61"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="125"/>
-      <c r="B92" s="111"/>
-      <c r="C92" s="123"/>
+      <c r="A92" s="115"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="112"/>
       <c r="D92" s="9" t="s">
         <v>22</v>
       </c>
@@ -7048,36 +7048,36 @@
       <c r="S92" s="61"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="125"/>
-      <c r="B93" s="111"/>
-      <c r="C93" s="123"/>
+      <c r="A93" s="115"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="112"/>
       <c r="D93" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E93" s="43">
         <f>MAX(0,E$87-E92)</f>
-        <v>6211351.8108529747</v>
+        <v>6211299.1817060858</v>
       </c>
       <c r="F93" s="43">
         <f>MAX(0,F$87-F92)</f>
-        <v>6211351.8108529747</v>
+        <v>6211299.1817060858</v>
       </c>
       <c r="G93" s="43">
         <f>MAX(0,G$87-G92)</f>
-        <v>3322058.122915674</v>
+        <v>3322067.7801442286</v>
       </c>
       <c r="H93" s="43">
         <f>MAX(0,H$87-H92)</f>
-        <v>255238.25537837809</v>
+        <v>255333.85644359747</v>
       </c>
       <c r="I93" s="10"/>
       <c r="K93" s="43">
         <f>MAX(0,K$87-K92)</f>
-        <v>9387999.9999999963</v>
+        <v>29458640.408090103</v>
       </c>
       <c r="L93" s="43">
         <f>MAX(0,L$87-L92)</f>
-        <v>7100000</v>
+        <v>16590039.08642919</v>
       </c>
       <c r="M93" s="43">
         <f>MAX(0,M$87-M92)</f>
@@ -7085,23 +7085,23 @@
       </c>
       <c r="N93" s="43">
         <f>MAX(0,N$87-N92)</f>
-        <v>2800000</v>
+        <v>6674821.6951324809</v>
       </c>
       <c r="O93" s="10"/>
       <c r="Q93" s="43">
         <f>MAX(0,Q$87-Q92)</f>
-        <v>8899999.9999999963</v>
+        <v>32687310.398630932</v>
       </c>
       <c r="R93" s="43">
         <f>MAX(0,R$87-R92)</f>
-        <v>8900000</v>
+        <v>19310672.311120946</v>
       </c>
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="125"/>
-      <c r="B94" s="111"/>
-      <c r="C94" s="123"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7150,9 +7150,9 @@
       <c r="S94" s="61"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="125"/>
-      <c r="B95" s="111"/>
-      <c r="C95" s="123"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="112"/>
       <c r="D95" s="48" t="s">
         <v>62</v>
       </c>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="H95" s="43">
         <f t="shared" ref="H95" si="134">IF(H94="Unlimited",H93,MIN(H94,H93))</f>
-        <v>255238.25537837809</v>
+        <v>255333.85644359747</v>
       </c>
       <c r="I95" s="10"/>
       <c r="K95" s="43">
@@ -7201,9 +7201,9 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="125"/>
-      <c r="B96" s="111"/>
-      <c r="C96" s="123"/>
+      <c r="A96" s="115"/>
+      <c r="B96" s="116"/>
+      <c r="C96" s="112"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
@@ -7252,9 +7252,9 @@
       <c r="S96" s="61"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="125"/>
-      <c r="B97" s="111"/>
-      <c r="C97" s="123"/>
+      <c r="A97" s="115"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="112"/>
       <c r="D97" s="48" t="s">
         <v>63</v>
       </c>
@@ -7272,11 +7272,11 @@
       </c>
       <c r="H97" s="43">
         <f>H95*H96</f>
-        <v>127619.12768918904</v>
+        <v>127666.92822179873</v>
       </c>
       <c r="I97" s="43">
         <f t="shared" ref="I97" si="141">SUM(E97:H97)</f>
-        <v>1627619.127689189</v>
+        <v>1627666.9282217987</v>
       </c>
       <c r="K97" s="43">
         <f>K95*K96</f>
@@ -7312,13 +7312,13 @@
       </c>
       <c r="U97" s="44">
         <f t="shared" ref="U97" si="143">I97+O97+S97</f>
-        <v>4127619.1276891893</v>
+        <v>4127666.9282217985</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="125"/>
-      <c r="B98" s="111"/>
-      <c r="C98" s="123"/>
+      <c r="A98" s="115"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="112"/>
       <c r="D98" s="9" t="s">
         <v>20</v>
       </c>
@@ -7367,9 +7367,9 @@
       <c r="S98" s="61"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="125"/>
-      <c r="B99" s="111"/>
-      <c r="C99" s="123"/>
+      <c r="A99" s="115"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="112"/>
       <c r="D99" s="9" t="s">
         <v>24</v>
       </c>
@@ -7392,40 +7392,40 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="125"/>
-      <c r="B100" s="111"/>
-      <c r="C100" s="123"/>
+      <c r="A100" s="115"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="112"/>
       <c r="D100" s="49" t="s">
         <v>64</v>
       </c>
       <c r="E100" s="51">
         <f>IF($U100=0,0,E97/$U97*$U100)</f>
-        <v>363405.62285352178</v>
+        <v>363401.41442715703</v>
       </c>
       <c r="F100" s="51">
         <f>IF($U100=0,0,F97/$U97*$U100)</f>
-        <v>363405.62285352178</v>
+        <v>363401.41442715703</v>
       </c>
       <c r="G100" s="51">
         <f>IF($U100=0,0,G97/$U97*$U100)</f>
-        <v>363405.62285352178</v>
+        <v>363401.41442715703</v>
       </c>
       <c r="H100" s="51">
         <f>IF($U100=0,0,H97/$U97*$U100)</f>
-        <v>92755.017171825733</v>
+        <v>92788.684582743983</v>
       </c>
       <c r="I100" s="42">
         <f>SUM(E100:H100)</f>
-        <v>1182971.8857323912</v>
+        <v>1182992.9278642151</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="51">
         <f>IF($U100=0,0,K97/$U97*$U100)</f>
-        <v>363405.62285352178</v>
+        <v>363401.41442715703</v>
       </c>
       <c r="L100" s="51">
         <f>IF($U100=0,0,L97/$U97*$U100)</f>
-        <v>363405.62285352178</v>
+        <v>363401.41442715703</v>
       </c>
       <c r="M100" s="51">
         <f>IF($U100=0,0,M97/$U97*$U100)</f>
@@ -7433,24 +7433,24 @@
       </c>
       <c r="N100" s="51">
         <f>IF($U100=0,0,N97/$U97*$U100)</f>
-        <v>363405.62285352178</v>
+        <v>363401.41442715703</v>
       </c>
       <c r="O100" s="42">
         <f>SUM(K100:N100)</f>
-        <v>1090216.8685605654</v>
+        <v>1090204.2432814711</v>
       </c>
       <c r="P100" s="10"/>
       <c r="Q100" s="51">
         <f>IF($U100=0,0,Q97/$U97*$U100)</f>
-        <v>363405.62285352178</v>
+        <v>363401.41442715703</v>
       </c>
       <c r="R100" s="51">
         <f>IF($U100=0,0,R97/$U97*$U100)</f>
-        <v>363405.62285352178</v>
+        <v>363401.41442715703</v>
       </c>
       <c r="S100" s="42">
         <f>SUM(Q100:R100)</f>
-        <v>726811.24570704356</v>
+        <v>726802.82885431405</v>
       </c>
       <c r="T100" s="10"/>
       <c r="U100" s="42">
@@ -7459,9 +7459,9 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="125"/>
-      <c r="B101" s="111"/>
-      <c r="C101" s="122" t="s">
+      <c r="A101" s="115"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="111" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="10"/>
@@ -7473,9 +7473,9 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="125"/>
-      <c r="B102" s="111"/>
-      <c r="C102" s="123"/>
+      <c r="A102" s="115"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="112"/>
       <c r="D102" s="9" t="s">
         <v>25</v>
       </c>
@@ -7528,9 +7528,9 @@
       <c r="U102" s="10"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="125"/>
-      <c r="B103" s="111"/>
-      <c r="C103" s="123"/>
+      <c r="A103" s="115"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="112"/>
       <c r="D103" s="9" t="s">
         <v>14</v>
       </c>
@@ -7583,9 +7583,9 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="125"/>
-      <c r="B104" s="111"/>
-      <c r="C104" s="123"/>
+      <c r="A104" s="115"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="112"/>
       <c r="D104" s="9" t="s">
         <v>36</v>
       </c>
@@ -7634,9 +7634,9 @@
       <c r="S104" s="61"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="125"/>
-      <c r="B105" s="111"/>
-      <c r="C105" s="123"/>
+      <c r="A105" s="115"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="112"/>
       <c r="D105" s="9" t="s">
         <v>22</v>
       </c>
@@ -7685,23 +7685,23 @@
       <c r="S105" s="61"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="125"/>
-      <c r="B106" s="111"/>
-      <c r="C106" s="123"/>
+      <c r="A106" s="115"/>
+      <c r="B106" s="116"/>
+      <c r="C106" s="112"/>
       <c r="D106" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E106" s="43">
         <f>MAX(0,E$87-E105)</f>
-        <v>5211351.8108529747</v>
+        <v>5211299.1817060858</v>
       </c>
       <c r="F106" s="43">
         <f>MAX(0,F$87-F105)</f>
-        <v>5211351.8108529747</v>
+        <v>5211299.1817060858</v>
       </c>
       <c r="G106" s="43">
         <f>MAX(0,G$87-G105)</f>
-        <v>2322058.122915674</v>
+        <v>2322067.7801442286</v>
       </c>
       <c r="H106" s="43">
         <f>MAX(0,H$87-H105)</f>
@@ -7710,11 +7710,11 @@
       <c r="I106" s="10"/>
       <c r="K106" s="43">
         <f>MAX(0,K$87-K105)</f>
-        <v>8387999.9999999963</v>
+        <v>28458640.408090103</v>
       </c>
       <c r="L106" s="43">
         <f>MAX(0,L$87-L105)</f>
-        <v>6100000</v>
+        <v>15590039.08642919</v>
       </c>
       <c r="M106" s="43">
         <f>MAX(0,M$87-M105)</f>
@@ -7722,23 +7722,23 @@
       </c>
       <c r="N106" s="43">
         <f>MAX(0,N$87-N105)</f>
-        <v>1800000</v>
+        <v>5674821.6951324809</v>
       </c>
       <c r="O106" s="10"/>
       <c r="Q106" s="43">
         <f>MAX(0,Q$87-Q105)</f>
-        <v>7899999.9999999963</v>
+        <v>31687310.398630932</v>
       </c>
       <c r="R106" s="43">
         <f>MAX(0,R$87-R105)</f>
-        <v>7900000</v>
+        <v>18310672.311120946</v>
       </c>
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="125"/>
-      <c r="B107" s="111"/>
-      <c r="C107" s="123"/>
+      <c r="A107" s="115"/>
+      <c r="B107" s="116"/>
+      <c r="C107" s="112"/>
       <c r="D107" s="9" t="s">
         <v>21</v>
       </c>
@@ -7787,9 +7787,9 @@
       <c r="S107" s="61"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="125"/>
-      <c r="B108" s="111"/>
-      <c r="C108" s="123"/>
+      <c r="A108" s="115"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="112"/>
       <c r="D108" s="48" t="s">
         <v>62</v>
       </c>
@@ -7803,7 +7803,7 @@
       </c>
       <c r="G108" s="43">
         <f t="shared" ref="G108" si="146">IF(G107="Unlimited",G106,MIN(G107,G106))</f>
-        <v>2322058.122915674</v>
+        <v>2322067.7801442286</v>
       </c>
       <c r="H108" s="43">
         <f t="shared" ref="H108" si="147">IF(H107="Unlimited",H106,MIN(H107,H106))</f>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="N108" s="43">
         <f t="shared" ref="N108" si="151">IF(N107="Unlimited",N106,MIN(N107,N106))</f>
-        <v>1800000</v>
+        <v>3000000</v>
       </c>
       <c r="O108" s="10"/>
       <c r="Q108" s="43">
@@ -7838,9 +7838,9 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="125"/>
-      <c r="B109" s="111"/>
-      <c r="C109" s="123"/>
+      <c r="A109" s="115"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="112"/>
       <c r="D109" s="9" t="s">
         <v>23</v>
       </c>
@@ -7889,9 +7889,9 @@
       <c r="S109" s="61"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="125"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="123"/>
+      <c r="A110" s="115"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="112"/>
       <c r="D110" s="48" t="s">
         <v>63</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="G110" s="43">
         <f>G108*G109</f>
-        <v>2089852.3106241066</v>
+        <v>2089861.0021298057</v>
       </c>
       <c r="H110" s="43">
         <f>H108*H109</f>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="I110" s="43">
         <f t="shared" ref="I110" si="154">SUM(E110:H110)</f>
-        <v>7489852.3106241068</v>
+        <v>7489861.0021298062</v>
       </c>
       <c r="K110" s="43">
         <f>K108*K109</f>
@@ -7929,11 +7929,11 @@
       </c>
       <c r="N110" s="43">
         <f>N108*N109</f>
-        <v>1620000</v>
+        <v>2700000</v>
       </c>
       <c r="O110" s="43">
         <f t="shared" ref="O110" si="155">SUM(K110:N110)</f>
-        <v>7020000</v>
+        <v>8100000</v>
       </c>
       <c r="Q110" s="43">
         <f>Q108*Q109</f>
@@ -7949,13 +7949,13 @@
       </c>
       <c r="U110" s="44">
         <f t="shared" ref="U110" si="156">I110+O110+S110</f>
-        <v>19909852.310624108</v>
+        <v>20989861.002129808</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="125"/>
-      <c r="B111" s="111"/>
-      <c r="C111" s="123"/>
+      <c r="A111" s="115"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="112"/>
       <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
@@ -8004,9 +8004,9 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="125"/>
-      <c r="B112" s="111"/>
-      <c r="C112" s="123"/>
+      <c r="A112" s="115"/>
+      <c r="B112" s="116"/>
+      <c r="C112" s="112"/>
       <c r="D112" s="9" t="s">
         <v>24</v>
       </c>
@@ -8029,23 +8029,23 @@
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="125"/>
-      <c r="B113" s="111"/>
-      <c r="C113" s="123"/>
+      <c r="A113" s="115"/>
+      <c r="B113" s="116"/>
+      <c r="C113" s="112"/>
       <c r="D113" s="49" t="s">
         <v>64</v>
       </c>
       <c r="E113" s="51">
         <f>IF($U113=0,0,E110/$U110*$U113)</f>
-        <v>1220501.2684616079</v>
+        <v>1157701.8064833453</v>
       </c>
       <c r="F113" s="51">
         <f>IF($U113=0,0,F110/$U110*$U113)</f>
-        <v>1220501.2684616079</v>
+        <v>1157701.8064833453</v>
       </c>
       <c r="G113" s="51">
         <f>IF($U113=0,0,G110/$U110*$U113)</f>
-        <v>944691.62815338676</v>
+        <v>896087.3546165817</v>
       </c>
       <c r="H113" s="51">
         <f>IF($U113=0,0,H110/$U110*$U113)</f>
@@ -8053,16 +8053,16 @@
       </c>
       <c r="I113" s="42">
         <f>SUM(E113:H113)</f>
-        <v>3385694.1650766023</v>
+        <v>3211490.9675832726</v>
       </c>
       <c r="J113" s="10"/>
       <c r="K113" s="51">
         <f>IF($U113=0,0,K110/$U110*$U113)</f>
-        <v>1220501.2684616079</v>
+        <v>1157701.8064833453</v>
       </c>
       <c r="L113" s="51">
         <f>IF($U113=0,0,L110/$U110*$U113)</f>
-        <v>1220501.2684616079</v>
+        <v>1157701.8064833453</v>
       </c>
       <c r="M113" s="51">
         <f>IF($U113=0,0,M110/$U110*$U113)</f>
@@ -8070,24 +8070,24 @@
       </c>
       <c r="N113" s="51">
         <f>IF($U113=0,0,N110/$U110*$U113)</f>
-        <v>732300.76107696479</v>
+        <v>1157701.8064833453</v>
       </c>
       <c r="O113" s="42">
         <f>SUM(K113:N113)</f>
-        <v>3173303.2980001806</v>
+        <v>3473105.4194500363</v>
       </c>
       <c r="P113" s="10"/>
       <c r="Q113" s="51">
         <f>IF($U113=0,0,Q110/$U110*$U113)</f>
-        <v>1220501.2684616079</v>
+        <v>1157701.8064833453</v>
       </c>
       <c r="R113" s="51">
         <f>IF($U113=0,0,R110/$U110*$U113)</f>
-        <v>1220501.2684616079</v>
+        <v>1157701.8064833453</v>
       </c>
       <c r="S113" s="42">
         <f>SUM(Q113:R113)</f>
-        <v>2441002.5369232157</v>
+        <v>2315403.6129666907</v>
       </c>
       <c r="T113" s="10"/>
       <c r="U113" s="42">
@@ -8096,11 +8096,11 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="124" t="s">
+      <c r="A114" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="111"/>
-      <c r="C114" s="122" t="s">
+      <c r="B114" s="116"/>
+      <c r="C114" s="111" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="10"/>
@@ -8112,9 +8112,9 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="125"/>
-      <c r="B115" s="111"/>
-      <c r="C115" s="123"/>
+      <c r="A115" s="115"/>
+      <c r="B115" s="116"/>
+      <c r="C115" s="112"/>
       <c r="D115" s="9" t="s">
         <v>25</v>
       </c>
@@ -8167,9 +8167,9 @@
       <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="125"/>
-      <c r="B116" s="111"/>
-      <c r="C116" s="123"/>
+      <c r="A116" s="115"/>
+      <c r="B116" s="116"/>
+      <c r="C116" s="112"/>
       <c r="D116" s="9" t="s">
         <v>14</v>
       </c>
@@ -8222,9 +8222,9 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="125"/>
-      <c r="B117" s="111"/>
-      <c r="C117" s="123"/>
+      <c r="A117" s="115"/>
+      <c r="B117" s="116"/>
+      <c r="C117" s="112"/>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
@@ -8273,9 +8273,9 @@
       <c r="S117" s="61"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="125"/>
-      <c r="B118" s="111"/>
-      <c r="C118" s="123"/>
+      <c r="A118" s="115"/>
+      <c r="B118" s="116"/>
+      <c r="C118" s="112"/>
       <c r="D118" s="9" t="s">
         <v>22</v>
       </c>
@@ -8324,19 +8324,19 @@
       <c r="S118" s="61"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="125"/>
-      <c r="B119" s="111"/>
-      <c r="C119" s="123"/>
+      <c r="A119" s="115"/>
+      <c r="B119" s="116"/>
+      <c r="C119" s="112"/>
       <c r="D119" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E119" s="43">
         <f>MAX(0,E$87-E118)</f>
-        <v>2211351.8108529747</v>
+        <v>2211299.1817060858</v>
       </c>
       <c r="F119" s="43">
         <f>MAX(0,F$87-F118)</f>
-        <v>2211351.8108529747</v>
+        <v>2211299.1817060858</v>
       </c>
       <c r="G119" s="43">
         <f>MAX(0,G$87-G118)</f>
@@ -8349,11 +8349,11 @@
       <c r="I119" s="10"/>
       <c r="K119" s="43">
         <f>MAX(0,K$87-K118)</f>
-        <v>5387999.9999999963</v>
+        <v>25458640.408090103</v>
       </c>
       <c r="L119" s="43">
         <f>MAX(0,L$87-L118)</f>
-        <v>3100000</v>
+        <v>12590039.08642919</v>
       </c>
       <c r="M119" s="43">
         <f>MAX(0,M$87-M118)</f>
@@ -8361,23 +8361,23 @@
       </c>
       <c r="N119" s="43">
         <f>MAX(0,N$87-N118)</f>
-        <v>0</v>
+        <v>2674821.6951324809</v>
       </c>
       <c r="O119" s="10"/>
       <c r="Q119" s="43">
         <f>MAX(0,Q$87-Q118)</f>
-        <v>4899999.9999999963</v>
+        <v>28687310.398630932</v>
       </c>
       <c r="R119" s="43">
         <f>MAX(0,R$87-R118)</f>
-        <v>4900000</v>
+        <v>15310672.311120946</v>
       </c>
       <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="125"/>
-      <c r="B120" s="111"/>
-      <c r="C120" s="123"/>
+      <c r="A120" s="115"/>
+      <c r="B120" s="116"/>
+      <c r="C120" s="112"/>
       <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
@@ -8426,19 +8426,19 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="125"/>
-      <c r="B121" s="111"/>
-      <c r="C121" s="123"/>
+      <c r="A121" s="115"/>
+      <c r="B121" s="116"/>
+      <c r="C121" s="112"/>
       <c r="D121" s="48" t="s">
         <v>62</v>
       </c>
       <c r="E121" s="43">
         <f t="shared" ref="E121" si="157">IF(E120="Unlimited",E119,MIN(E120,E119))</f>
-        <v>2211351.8108529747</v>
+        <v>2211299.1817060858</v>
       </c>
       <c r="F121" s="43">
         <f t="shared" ref="F121" si="158">IF(F120="Unlimited",F119,MIN(F120,F119))</f>
-        <v>2211351.8108529747</v>
+        <v>2211299.1817060858</v>
       </c>
       <c r="G121" s="43">
         <f t="shared" ref="G121" si="159">IF(G120="Unlimited",G119,MIN(G120,G119))</f>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="L121" s="43">
         <f t="shared" ref="L121" si="162">IF(L120="Unlimited",L119,MIN(L120,L119))</f>
-        <v>3100000</v>
+        <v>5000000</v>
       </c>
       <c r="M121" s="43">
         <f t="shared" ref="M121" si="163">IF(M120="Unlimited",M119,MIN(M120,M119))</f>
@@ -8463,23 +8463,23 @@
       </c>
       <c r="N121" s="43">
         <f t="shared" ref="N121" si="164">IF(N120="Unlimited",N119,MIN(N120,N119))</f>
-        <v>0</v>
+        <v>2674821.6951324809</v>
       </c>
       <c r="O121" s="10"/>
       <c r="Q121" s="43">
         <f t="shared" ref="Q121" si="165">IF(Q120="Unlimited",Q119,MIN(Q120,Q119))</f>
-        <v>4899999.9999999963</v>
+        <v>5000000</v>
       </c>
       <c r="R121" s="43">
         <f t="shared" ref="R121" si="166">IF(R120="Unlimited",R119,MIN(R120,R119))</f>
-        <v>4900000</v>
+        <v>5000000</v>
       </c>
       <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="125"/>
-      <c r="B122" s="111"/>
-      <c r="C122" s="123"/>
+      <c r="A122" s="115"/>
+      <c r="B122" s="116"/>
+      <c r="C122" s="112"/>
       <c r="D122" s="9" t="s">
         <v>23</v>
       </c>
@@ -8528,19 +8528,19 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="125"/>
-      <c r="B123" s="111"/>
-      <c r="C123" s="123"/>
+      <c r="A123" s="115"/>
+      <c r="B123" s="116"/>
+      <c r="C123" s="112"/>
       <c r="D123" s="48" t="s">
         <v>63</v>
       </c>
       <c r="E123" s="43">
         <f>E121*E122</f>
-        <v>2211351.8108529747</v>
+        <v>2211299.1817060858</v>
       </c>
       <c r="F123" s="43">
         <f>F121*F122</f>
-        <v>2211351.8108529747</v>
+        <v>2211299.1817060858</v>
       </c>
       <c r="G123" s="43">
         <f>G121*G122</f>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="I123" s="43">
         <f t="shared" ref="I123" si="167">SUM(E123:H123)</f>
-        <v>4422703.6217059493</v>
+        <v>4422598.3634121716</v>
       </c>
       <c r="K123" s="43">
         <f>K121*K122</f>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="L123" s="43">
         <f>L121*L122</f>
-        <v>3100000</v>
+        <v>5000000</v>
       </c>
       <c r="M123" s="43">
         <f>M121*M122</f>
@@ -8568,33 +8568,33 @@
       </c>
       <c r="N123" s="43">
         <f>N121*N122</f>
-        <v>0</v>
+        <v>2674821.6951324809</v>
       </c>
       <c r="O123" s="43">
         <f t="shared" ref="O123" si="168">SUM(K123:N123)</f>
-        <v>8100000</v>
+        <v>12674821.695132481</v>
       </c>
       <c r="Q123" s="43">
         <f>Q121*Q122</f>
-        <v>4899999.9999999963</v>
+        <v>5000000</v>
       </c>
       <c r="R123" s="43">
         <f>R121*R122</f>
-        <v>4900000</v>
+        <v>5000000</v>
       </c>
       <c r="S123" s="43">
         <f>SUM(Q123:R123)</f>
-        <v>9799999.9999999963</v>
+        <v>10000000</v>
       </c>
       <c r="U123" s="44">
         <f t="shared" ref="U123" si="169">I123+O123+S123</f>
-        <v>22322703.621705946</v>
+        <v>27097420.058544651</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="125"/>
-      <c r="B124" s="111"/>
-      <c r="C124" s="123"/>
+      <c r="A124" s="115"/>
+      <c r="B124" s="116"/>
+      <c r="C124" s="112"/>
       <c r="D124" s="9" t="s">
         <v>20</v>
       </c>
@@ -8643,9 +8643,9 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="125"/>
-      <c r="B125" s="111"/>
-      <c r="C125" s="123"/>
+      <c r="A125" s="115"/>
+      <c r="B125" s="116"/>
+      <c r="C125" s="112"/>
       <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
@@ -8668,19 +8668,19 @@
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="125"/>
-      <c r="B126" s="111"/>
-      <c r="C126" s="123"/>
+      <c r="A126" s="115"/>
+      <c r="B126" s="116"/>
+      <c r="C126" s="112"/>
       <c r="D126" s="49" t="s">
         <v>64</v>
       </c>
       <c r="E126" s="51">
         <f>IF($U126=0,0,E123/$U123*$U126)</f>
-        <v>1485943.5364514184</v>
+        <v>1224082.8703960667</v>
       </c>
       <c r="F126" s="51">
         <f>IF($U126=0,0,F123/$U123*$U126)</f>
-        <v>1485943.5364514184</v>
+        <v>1224082.8703960667</v>
       </c>
       <c r="G126" s="51">
         <f>IF($U126=0,0,G123/$U123*$U126)</f>
@@ -8692,16 +8692,16 @@
       </c>
       <c r="I126" s="42">
         <f>SUM(E126:H126)</f>
-        <v>2971887.0729028368</v>
+        <v>2448165.7407921334</v>
       </c>
       <c r="J126" s="10"/>
       <c r="K126" s="51">
         <f>IF($U126=0,0,K123/$U123*$U126)</f>
-        <v>3359808.0801947392</v>
+        <v>2767791.1711875387</v>
       </c>
       <c r="L126" s="51">
         <f>IF($U126=0,0,L123/$U123*$U126)</f>
-        <v>2083081.0097207383</v>
+        <v>2767791.1711875387</v>
       </c>
       <c r="M126" s="51">
         <f>IF($U126=0,0,M123/$U123*$U126)</f>
@@ -8709,24 +8709,24 @@
       </c>
       <c r="N126" s="51">
         <f>IF($U126=0,0,N123/$U123*$U126)</f>
-        <v>0</v>
+        <v>1480669.5744577134</v>
       </c>
       <c r="O126" s="42">
         <f>SUM(K126:N126)</f>
-        <v>5442889.0899154777</v>
+        <v>7016251.9168327907</v>
       </c>
       <c r="P126" s="10"/>
       <c r="Q126" s="51">
         <f>IF($U126=0,0,Q123/$U123*$U126)</f>
-        <v>3292611.9185908418</v>
+        <v>2767791.1711875387</v>
       </c>
       <c r="R126" s="51">
         <f>IF($U126=0,0,R123/$U123*$U126)</f>
-        <v>3292611.9185908441</v>
+        <v>2767791.1711875387</v>
       </c>
       <c r="S126" s="42">
         <f>SUM(Q126:R126)</f>
-        <v>6585223.8371816855</v>
+        <v>5535582.3423750773</v>
       </c>
       <c r="T126" s="10"/>
       <c r="U126" s="42">
@@ -8735,9 +8735,9 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="125"/>
-      <c r="B127" s="111"/>
-      <c r="C127" s="122" t="s">
+      <c r="A127" s="115"/>
+      <c r="B127" s="116"/>
+      <c r="C127" s="111" t="s">
         <v>79</v>
       </c>
       <c r="I127" s="10"/>
@@ -8749,9 +8749,9 @@
       <c r="U127" s="10"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="125"/>
-      <c r="B128" s="111"/>
-      <c r="C128" s="123"/>
+      <c r="A128" s="115"/>
+      <c r="B128" s="116"/>
+      <c r="C128" s="112"/>
       <c r="D128" s="9" t="s">
         <v>25</v>
       </c>
@@ -8804,9 +8804,9 @@
       <c r="U128" s="10"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="125"/>
-      <c r="B129" s="111"/>
-      <c r="C129" s="123"/>
+      <c r="A129" s="115"/>
+      <c r="B129" s="116"/>
+      <c r="C129" s="112"/>
       <c r="D129" s="9" t="s">
         <v>14</v>
       </c>
@@ -8859,9 +8859,9 @@
       <c r="U129" s="10"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="125"/>
-      <c r="B130" s="111"/>
-      <c r="C130" s="123"/>
+      <c r="A130" s="115"/>
+      <c r="B130" s="116"/>
+      <c r="C130" s="112"/>
       <c r="D130" s="9" t="s">
         <v>36</v>
       </c>
@@ -8910,9 +8910,9 @@
       <c r="S130" s="61"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="125"/>
-      <c r="B131" s="111"/>
-      <c r="C131" s="123"/>
+      <c r="A131" s="115"/>
+      <c r="B131" s="116"/>
+      <c r="C131" s="112"/>
       <c r="D131" s="9" t="s">
         <v>22</v>
       </c>
@@ -8961,9 +8961,9 @@
       <c r="S131" s="61"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="125"/>
-      <c r="B132" s="111"/>
-      <c r="C132" s="123"/>
+      <c r="A132" s="115"/>
+      <c r="B132" s="116"/>
+      <c r="C132" s="112"/>
       <c r="D132" s="48" t="s">
         <v>61</v>
       </c>
@@ -8986,11 +8986,11 @@
       <c r="I132" s="10"/>
       <c r="K132" s="43">
         <f>MAX(0,K$87-K131)</f>
-        <v>387999.99999999627</v>
+        <v>20458640.408090103</v>
       </c>
       <c r="L132" s="43">
         <f>MAX(0,L$87-L131)</f>
-        <v>0</v>
+        <v>7590039.0864291899</v>
       </c>
       <c r="M132" s="43">
         <f>MAX(0,M$87-M131)</f>
@@ -9003,18 +9003,18 @@
       <c r="O132" s="10"/>
       <c r="Q132" s="43">
         <f>MAX(0,Q$87-Q131)</f>
-        <v>0</v>
+        <v>23687310.398630932</v>
       </c>
       <c r="R132" s="43">
         <f>MAX(0,R$87-R131)</f>
-        <v>0</v>
+        <v>10310672.311120946</v>
       </c>
       <c r="S132" s="10"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="125"/>
-      <c r="B133" s="111"/>
-      <c r="C133" s="123"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="116"/>
+      <c r="C133" s="112"/>
       <c r="D133" s="9" t="s">
         <v>21</v>
       </c>
@@ -9063,9 +9063,9 @@
       <c r="S133" s="61"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="125"/>
-      <c r="B134" s="111"/>
-      <c r="C134" s="123"/>
+      <c r="A134" s="115"/>
+      <c r="B134" s="116"/>
+      <c r="C134" s="112"/>
       <c r="D134" s="48" t="s">
         <v>62</v>
       </c>
@@ -9088,11 +9088,11 @@
       <c r="I134" s="10"/>
       <c r="K134" s="43">
         <f t="shared" ref="K134" si="174">IF(K133="Unlimited",K132,MIN(K133,K132))</f>
-        <v>387999.99999999627</v>
+        <v>10000000</v>
       </c>
       <c r="L134" s="43">
         <f t="shared" ref="L134" si="175">IF(L133="Unlimited",L132,MIN(L133,L132))</f>
-        <v>0</v>
+        <v>7590039.0864291899</v>
       </c>
       <c r="M134" s="43">
         <f t="shared" ref="M134" si="176">IF(M133="Unlimited",M132,MIN(M133,M132))</f>
@@ -9105,18 +9105,18 @@
       <c r="O134" s="10"/>
       <c r="Q134" s="43">
         <f t="shared" ref="Q134" si="178">IF(Q133="Unlimited",Q132,MIN(Q133,Q132))</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="R134" s="43">
         <f t="shared" ref="R134" si="179">IF(R133="Unlimited",R132,MIN(R133,R132))</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="S134" s="10"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="125"/>
-      <c r="B135" s="111"/>
-      <c r="C135" s="123"/>
+      <c r="A135" s="115"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="112"/>
       <c r="D135" s="9" t="s">
         <v>23</v>
       </c>
@@ -9165,9 +9165,9 @@
       <c r="S135" s="61"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="125"/>
-      <c r="B136" s="111"/>
-      <c r="C136" s="123"/>
+      <c r="A136" s="115"/>
+      <c r="B136" s="116"/>
+      <c r="C136" s="112"/>
       <c r="D136" s="48" t="s">
         <v>63</v>
       </c>
@@ -9193,11 +9193,11 @@
       </c>
       <c r="K136" s="43">
         <f>K134*K135</f>
-        <v>387999.99999999627</v>
+        <v>10000000</v>
       </c>
       <c r="L136" s="43">
         <f>L134*L135</f>
-        <v>0</v>
+        <v>7590039.0864291899</v>
       </c>
       <c r="M136" s="43">
         <f>M134*M135</f>
@@ -9209,29 +9209,29 @@
       </c>
       <c r="O136" s="43">
         <f t="shared" ref="O136" si="181">SUM(K136:N136)</f>
-        <v>387999.99999999627</v>
+        <v>17590039.08642919</v>
       </c>
       <c r="Q136" s="43">
         <f>Q134*Q135</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="R136" s="43">
         <f>R134*R135</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="S136" s="43">
         <f>SUM(Q136:R136)</f>
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="U136" s="44">
         <f t="shared" ref="U136" si="182">I136+O136+S136</f>
-        <v>387999.99999999627</v>
+        <v>37590039.086429194</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="125"/>
-      <c r="B137" s="111"/>
-      <c r="C137" s="123"/>
+      <c r="A137" s="115"/>
+      <c r="B137" s="116"/>
+      <c r="C137" s="112"/>
       <c r="D137" s="9" t="s">
         <v>20</v>
       </c>
@@ -9280,9 +9280,9 @@
       <c r="S137" s="61"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="125"/>
-      <c r="B138" s="111"/>
-      <c r="C138" s="123"/>
+      <c r="A138" s="115"/>
+      <c r="B138" s="116"/>
+      <c r="C138" s="112"/>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
@@ -9305,9 +9305,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="125"/>
-      <c r="B139" s="111"/>
-      <c r="C139" s="123"/>
+      <c r="A139" s="115"/>
+      <c r="B139" s="116"/>
+      <c r="C139" s="112"/>
       <c r="D139" s="49" t="s">
         <v>64</v>
       </c>
@@ -9334,11 +9334,11 @@
       <c r="J139" s="10"/>
       <c r="K139" s="51">
         <f>IF($U139=0,0,K136/$U136*$U139)</f>
-        <v>387999.99999999627</v>
+        <v>5320558.4474160401</v>
       </c>
       <c r="L139" s="51">
         <f>IF($U139=0,0,L136/$U136*$U139)</f>
-        <v>0</v>
+        <v>4038324.6577518755</v>
       </c>
       <c r="M139" s="51">
         <f>IF($U139=0,0,M136/$U136*$U139)</f>
@@ -9350,31 +9350,31 @@
       </c>
       <c r="O139" s="42">
         <f>SUM(K139:N139)</f>
-        <v>387999.99999999627</v>
+        <v>9358883.105167916</v>
       </c>
       <c r="P139" s="10"/>
       <c r="Q139" s="51">
         <f>IF($U139=0,0,Q136/$U136*$U139)</f>
-        <v>0</v>
+        <v>5320558.4474160401</v>
       </c>
       <c r="R139" s="51">
         <f>IF($U139=0,0,R136/$U136*$U139)</f>
-        <v>0</v>
+        <v>5320558.4474160401</v>
       </c>
       <c r="S139" s="42">
         <f>SUM(Q139:R139)</f>
-        <v>0</v>
+        <v>10641116.89483208</v>
       </c>
       <c r="T139" s="10"/>
       <c r="U139" s="42">
         <f>MIN(U136,IF(OR(U138="Unlimited",U138=""),10^18,U138))</f>
-        <v>387999.99999999627</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="125"/>
-      <c r="B140" s="111"/>
-      <c r="C140" s="121" t="s">
+      <c r="A140" s="115"/>
+      <c r="B140" s="116"/>
+      <c r="C140" s="113" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="10"/>
@@ -9386,9 +9386,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="125"/>
-      <c r="B141" s="111"/>
-      <c r="C141" s="121"/>
+      <c r="A141" s="115"/>
+      <c r="B141" s="116"/>
+      <c r="C141" s="113"/>
       <c r="D141" s="9" t="s">
         <v>25</v>
       </c>
@@ -9441,9 +9441,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="125"/>
-      <c r="B142" s="111"/>
-      <c r="C142" s="121"/>
+      <c r="A142" s="115"/>
+      <c r="B142" s="116"/>
+      <c r="C142" s="113"/>
       <c r="D142" s="9" t="s">
         <v>14</v>
       </c>
@@ -9496,9 +9496,9 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="125"/>
-      <c r="B143" s="111"/>
-      <c r="C143" s="121"/>
+      <c r="A143" s="115"/>
+      <c r="B143" s="116"/>
+      <c r="C143" s="113"/>
       <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
@@ -9547,9 +9547,9 @@
       <c r="S143" s="61"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="125"/>
-      <c r="B144" s="111"/>
-      <c r="C144" s="121"/>
+      <c r="A144" s="115"/>
+      <c r="B144" s="116"/>
+      <c r="C144" s="113"/>
       <c r="D144" s="9" t="s">
         <v>22</v>
       </c>
@@ -9598,9 +9598,9 @@
       <c r="S144" s="61"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="125"/>
-      <c r="B145" s="111"/>
-      <c r="C145" s="121"/>
+      <c r="A145" s="115"/>
+      <c r="B145" s="116"/>
+      <c r="C145" s="113"/>
       <c r="D145" s="48" t="s">
         <v>61</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="I145" s="10"/>
       <c r="K145" s="43">
         <f>MAX(0,K$87-K144)</f>
-        <v>0</v>
+        <v>10458640.408090103</v>
       </c>
       <c r="L145" s="43">
         <f>MAX(0,L$87-L144)</f>
@@ -9640,18 +9640,18 @@
       <c r="O145" s="10"/>
       <c r="Q145" s="43">
         <f>MAX(0,Q$87-Q144)</f>
-        <v>0</v>
+        <v>13687310.398630932</v>
       </c>
       <c r="R145" s="43">
         <f>MAX(0,R$87-R144)</f>
-        <v>0</v>
+        <v>310672.31112094596</v>
       </c>
       <c r="S145" s="10"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="125"/>
-      <c r="B146" s="111"/>
-      <c r="C146" s="121"/>
+      <c r="A146" s="115"/>
+      <c r="B146" s="116"/>
+      <c r="C146" s="113"/>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
@@ -9700,9 +9700,9 @@
       <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="125"/>
-      <c r="B147" s="111"/>
-      <c r="C147" s="121"/>
+      <c r="A147" s="115"/>
+      <c r="B147" s="116"/>
+      <c r="C147" s="113"/>
       <c r="D147" s="48" t="s">
         <v>62</v>
       </c>
@@ -9725,7 +9725,7 @@
       <c r="I147" s="10"/>
       <c r="K147" s="43">
         <f t="shared" ref="K147" si="187">IF(K146="Unlimited",K145,MIN(K146,K145))</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="L147" s="43">
         <f t="shared" ref="L147" si="188">IF(L146="Unlimited",L145,MIN(L146,L145))</f>
@@ -9742,18 +9742,18 @@
       <c r="O147" s="10"/>
       <c r="Q147" s="43">
         <f t="shared" ref="Q147" si="191">IF(Q146="Unlimited",Q145,MIN(Q146,Q145))</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="R147" s="43">
         <f t="shared" ref="R147" si="192">IF(R146="Unlimited",R145,MIN(R146,R145))</f>
-        <v>0</v>
+        <v>310672.31112094596</v>
       </c>
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="125"/>
-      <c r="B148" s="111"/>
-      <c r="C148" s="121"/>
+      <c r="A148" s="115"/>
+      <c r="B148" s="116"/>
+      <c r="C148" s="113"/>
       <c r="D148" s="9" t="s">
         <v>23</v>
       </c>
@@ -9802,9 +9802,9 @@
       <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="125"/>
-      <c r="B149" s="111"/>
-      <c r="C149" s="121"/>
+      <c r="A149" s="115"/>
+      <c r="B149" s="116"/>
+      <c r="C149" s="113"/>
       <c r="D149" s="48" t="s">
         <v>63</v>
       </c>
@@ -9830,7 +9830,7 @@
       </c>
       <c r="K149" s="43">
         <f>K147*K148</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="L149" s="43">
         <f>L147*L148</f>
@@ -9846,29 +9846,29 @@
       </c>
       <c r="O149" s="43">
         <f t="shared" ref="O149" si="194">SUM(K149:N149)</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="Q149" s="43">
         <f>Q147*Q148</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="R149" s="43">
         <f>R147*R148</f>
-        <v>0</v>
+        <v>310672.31112094596</v>
       </c>
       <c r="S149" s="43">
         <f>SUM(Q149:R149)</f>
-        <v>0</v>
+        <v>10310672.311120946</v>
       </c>
       <c r="U149" s="44">
         <f t="shared" ref="U149" si="195">I149+O149+S149</f>
-        <v>0</v>
+        <v>20310672.311120946</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="125"/>
-      <c r="B150" s="111"/>
-      <c r="C150" s="121"/>
+      <c r="A150" s="115"/>
+      <c r="B150" s="116"/>
+      <c r="C150" s="113"/>
       <c r="D150" s="9" t="s">
         <v>20</v>
       </c>
@@ -9917,9 +9917,9 @@
       <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="125"/>
-      <c r="B151" s="111"/>
-      <c r="C151" s="121"/>
+      <c r="A151" s="115"/>
+      <c r="B151" s="116"/>
+      <c r="C151" s="113"/>
       <c r="D151" s="9" t="s">
         <v>24</v>
       </c>
@@ -9942,9 +9942,9 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="125"/>
-      <c r="B152" s="111"/>
-      <c r="C152" s="121"/>
+      <c r="A152" s="115"/>
+      <c r="B152" s="116"/>
+      <c r="C152" s="113"/>
       <c r="D152" s="49" t="s">
         <v>64</v>
       </c>
@@ -9971,7 +9971,7 @@
       <c r="J152" s="10"/>
       <c r="K152" s="51">
         <f>IF($U152=0,0,K149/$U149*$U152)</f>
-        <v>0</v>
+        <v>4923519.9341602195</v>
       </c>
       <c r="L152" s="51">
         <f>IF($U152=0,0,L149/$U149*$U152)</f>
@@ -9987,89 +9987,89 @@
       </c>
       <c r="O152" s="42">
         <f>SUM(K152:N152)</f>
-        <v>0</v>
+        <v>4923519.9341602195</v>
       </c>
       <c r="P152" s="10"/>
       <c r="Q152" s="51">
         <f>IF($U152=0,0,Q149/$U149*$U152)</f>
-        <v>0</v>
+        <v>4923519.9341602195</v>
       </c>
       <c r="R152" s="51">
         <f>IF($U152=0,0,R149/$U149*$U152)</f>
-        <v>0</v>
+        <v>152960.13167956032</v>
       </c>
       <c r="S152" s="42">
         <f>SUM(Q152:R152)</f>
-        <v>0</v>
+        <v>5076480.0658397796</v>
       </c>
       <c r="T152" s="10"/>
       <c r="U152" s="42">
         <f>MIN(U149,IF(OR(U151="Unlimited",U151=""),10^18,U151))</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="125"/>
-      <c r="B153" s="111"/>
-      <c r="C153" s="121"/>
+      <c r="A153" s="115"/>
+      <c r="B153" s="116"/>
+      <c r="C153" s="113"/>
       <c r="D153" s="52" t="s">
         <v>67</v>
       </c>
       <c r="E153" s="53">
         <f>E$31-E45-E59-E73-E86-E100-E113-E126-E139-E152</f>
-        <v>4141501.3830864257</v>
+        <v>4466113.0903995167</v>
       </c>
       <c r="F153" s="53">
         <f t="shared" ref="F153:H153" si="196">F$31-F45-F59-F73-F86-F100-F113-F126-F139-F152</f>
-        <v>4141501.3830864257</v>
+        <v>4466113.0903995167</v>
       </c>
       <c r="G153" s="53">
         <f t="shared" si="196"/>
-        <v>3013960.8719087653</v>
+        <v>3062579.0111004896</v>
       </c>
       <c r="H153" s="53">
         <f t="shared" si="196"/>
-        <v>1162483.2382065523</v>
+        <v>1162545.1718608534</v>
       </c>
       <c r="I153" s="54">
         <f t="shared" ref="I153" si="197">SUM(E153:H153)</f>
-        <v>12459446.87628817</v>
+        <v>13157350.363760376</v>
       </c>
       <c r="K153" s="53">
         <f>K$31-K45-K59-K73-K86-K100-K113-K126-K139-K152</f>
-        <v>5056285.0284901317</v>
+        <v>15925667.6344158</v>
       </c>
       <c r="L153" s="53">
         <f t="shared" ref="L153" si="198">L$31-L45-L59-L73-L86-L100-L113-L126-L139-L152</f>
-        <v>4433012.0989641314</v>
+        <v>9262820.0365792736</v>
       </c>
       <c r="M153" s="53">
         <f t="shared" ref="M153" si="199">M$31-M45-M59-M73-M86-M100-M113-M126-M139-M152</f>
-        <v>74242.448000000033</v>
+        <v>233516.34059634013</v>
       </c>
       <c r="N153" s="53">
         <f t="shared" ref="N153" si="200">N$31-N45-N59-N73-N86-N100-N113-N126-N139-N152</f>
-        <v>2704293.6160695134</v>
+        <v>4673048.8997642649</v>
       </c>
       <c r="O153" s="54">
         <f t="shared" ref="O153" si="201">SUM(K153:N153)</f>
-        <v>12267833.191523775</v>
+        <v>30095052.911355678</v>
       </c>
       <c r="Q153" s="53">
         <f t="shared" ref="Q153" si="202">Q$31-Q45-Q59-Q73-Q86-Q100-Q113-Q126-Q139-Q152</f>
-        <v>5023481.1900940258</v>
+        <v>19154337.62495663</v>
       </c>
       <c r="R153" s="53">
         <f t="shared" ref="R153" si="203">R$31-R45-R59-R73-R86-R100-R113-R126-R139-R152</f>
-        <v>5023481.1900940277</v>
+        <v>10548259.339927301</v>
       </c>
       <c r="S153" s="54">
         <f>SUM(Q153:R153)</f>
-        <v>10046962.380188053</v>
+        <v>29702596.964883931</v>
       </c>
       <c r="U153" s="54">
         <f t="shared" ref="U153" si="204">I153+O153+S153</f>
-        <v>34774242.447999999</v>
+        <v>72955000.23999998</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -10113,6 +10113,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C127:C139"/>
     <mergeCell ref="C140:C153"/>
     <mergeCell ref="A34:A60"/>
@@ -10129,17 +10140,6 @@
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="C47:C60"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A8:C11"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="5" orientation="landscape" r:id="rId1"/>
@@ -10155,9 +10155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
+++ b/ftest/data/fm24/Worked_Example_Calculation_Net_Loss_Pre_Cat_Simple_Complex_Test_Case_working.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest2\ftest\data\fm24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4BA14A3-7D9F-4B55-AFC0-97D1F8A2248E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DA8A3C9-5850-45AB-AFB1-3AB13F0387EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="18972" windowHeight="5916" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="146">
   <si>
     <t>Policy Limit</t>
   </si>
@@ -1097,21 +1097,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1140,6 +1125,21 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2935,7 +2935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -3095,11 +3095,11 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="33" t="s">
         <v>38</v>
       </c>
@@ -3164,9 +3164,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="33" t="s">
         <v>39</v>
       </c>
@@ -3231,9 +3231,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
@@ -3298,9 +3298,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
@@ -3385,13 +3385,13 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="116"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
@@ -3434,9 +3434,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
@@ -3489,9 +3489,9 @@
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
@@ -3544,11 +3544,11 @@
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="33" t="s">
         <v>38</v>
       </c>
@@ -3613,9 +3613,9 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="122"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
@@ -3680,9 +3680,9 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="122"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="33" t="s">
         <v>40</v>
       </c>
@@ -3747,9 +3747,9 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="125"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="35" t="s">
         <v>47</v>
       </c>
@@ -3854,13 +3854,13 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="121" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3915,9 +3915,9 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
@@ -3970,9 +3970,9 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
@@ -4025,9 +4025,9 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="36" t="s">
         <v>53</v>
       </c>
@@ -4080,9 +4080,9 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="113" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="121" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -4137,9 +4137,9 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="113"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
@@ -4201,11 +4201,11 @@
       <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="121" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -4239,9 +4239,9 @@
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="36" t="s">
         <v>59</v>
       </c>
@@ -4303,9 +4303,9 @@
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="113" t="s">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="121" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -4339,9 +4339,9 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
@@ -4448,13 +4448,13 @@
       <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="121" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4497,9 +4497,9 @@
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
@@ -4540,9 +4540,9 @@
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="115"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4583,9 +4583,9 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="115"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
@@ -4626,9 +4626,9 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="115"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="48" t="s">
         <v>61</v>
       </c>
@@ -4681,9 +4681,9 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="115"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="121"/>
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
@@ -4724,9 +4724,9 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="115"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="121"/>
       <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
@@ -4779,9 +4779,9 @@
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="115"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -4822,9 +4822,9 @@
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="48" t="s">
         <v>63</v>
       </c>
@@ -4877,9 +4877,9 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="115"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
@@ -4920,9 +4920,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="115"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
@@ -4963,9 +4963,9 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="115"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="49" t="s">
         <v>64</v>
       </c>
@@ -5030,9 +5030,9 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="115"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="36" t="s">
         <v>65</v>
       </c>
@@ -5097,11 +5097,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="115"/>
-      <c r="B47" s="116" t="s">
+      <c r="A47" s="125"/>
+      <c r="B47" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="113" t="s">
+      <c r="C47" s="121" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="10"/>
@@ -5124,9 +5124,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="115"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="121"/>
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
@@ -5152,9 +5152,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="115"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="121"/>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
@@ -5180,9 +5180,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="115"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="121"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
@@ -5208,9 +5208,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="115"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="121"/>
       <c r="D51" s="9" t="s">
         <v>22</v>
       </c>
@@ -5236,9 +5236,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="115"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="121"/>
       <c r="D52" s="48" t="s">
         <v>61</v>
       </c>
@@ -5270,9 +5270,9 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="115"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="9" t="s">
         <v>21</v>
       </c>
@@ -5298,9 +5298,9 @@
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="115"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="48" t="s">
         <v>62</v>
       </c>
@@ -5332,9 +5332,9 @@
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="115"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
@@ -5360,9 +5360,9 @@
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="115"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="48" t="s">
         <v>63</v>
       </c>
@@ -5394,9 +5394,9 @@
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="115"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
@@ -5422,9 +5422,9 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="115"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="113"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="121"/>
       <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
@@ -5450,9 +5450,9 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="115"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="113"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="121"/>
       <c r="D59" s="49" t="s">
         <v>64</v>
       </c>
@@ -5517,9 +5517,9 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="115"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="113"/>
+      <c r="A60" s="125"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="121"/>
       <c r="D60" s="36" t="s">
         <v>66</v>
       </c>
@@ -5584,13 +5584,13 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="114" t="s">
+      <c r="A61" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="111" t="s">
+      <c r="C61" s="122" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="10"/>
@@ -5613,9 +5613,9 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="115"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="112"/>
+      <c r="A62" s="125"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="9" t="s">
         <v>25</v>
       </c>
@@ -5656,9 +5656,9 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="115"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="112"/>
+      <c r="A63" s="125"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="9" t="s">
         <v>14</v>
       </c>
@@ -5699,9 +5699,9 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="115"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="112"/>
+      <c r="A64" s="125"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5742,9 +5742,9 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="115"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="112"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
@@ -5785,9 +5785,9 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="112"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="48" t="s">
         <v>61</v>
       </c>
@@ -5840,9 +5840,9 @@
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="115"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="112"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="9" t="s">
         <v>21</v>
       </c>
@@ -5883,9 +5883,9 @@
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="115"/>
-      <c r="B68" s="116"/>
-      <c r="C68" s="112"/>
+      <c r="A68" s="125"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="48" t="s">
         <v>62</v>
       </c>
@@ -5938,9 +5938,9 @@
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="115"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="112"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="9" t="s">
         <v>23</v>
       </c>
@@ -5981,9 +5981,9 @@
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="115"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="112"/>
+      <c r="A70" s="125"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="48" t="s">
         <v>63</v>
       </c>
@@ -6048,9 +6048,9 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="115"/>
-      <c r="B71" s="116"/>
-      <c r="C71" s="112"/>
+      <c r="A71" s="125"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="9" t="s">
         <v>20</v>
       </c>
@@ -6091,9 +6091,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="115"/>
-      <c r="B72" s="116"/>
-      <c r="C72" s="112"/>
+      <c r="A72" s="125"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="123"/>
       <c r="D72" s="9" t="s">
         <v>24</v>
       </c>
@@ -6119,9 +6119,9 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="115"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="112"/>
+      <c r="A73" s="125"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="49" t="s">
         <v>64</v>
       </c>
@@ -6186,9 +6186,9 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="115"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="113" t="s">
+      <c r="A74" s="125"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="121" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="10"/>
@@ -6211,9 +6211,9 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="115"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="113"/>
+      <c r="A75" s="125"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="121"/>
       <c r="D75" s="9" t="s">
         <v>25</v>
       </c>
@@ -6248,9 +6248,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="115"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="113"/>
+      <c r="A76" s="125"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="121"/>
       <c r="D76" s="9" t="s">
         <v>14</v>
       </c>
@@ -6285,9 +6285,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="115"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="113"/>
+      <c r="A77" s="125"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="121"/>
       <c r="D77" s="9" t="s">
         <v>36</v>
       </c>
@@ -6322,9 +6322,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="115"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="113"/>
+      <c r="A78" s="125"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="121"/>
       <c r="D78" s="9" t="s">
         <v>22</v>
       </c>
@@ -6359,9 +6359,9 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="115"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="113"/>
+      <c r="A79" s="125"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="121"/>
       <c r="D79" s="48" t="s">
         <v>61</v>
       </c>
@@ -6414,9 +6414,9 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="115"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="113"/>
+      <c r="A80" s="125"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="121"/>
       <c r="D80" s="9" t="s">
         <v>21</v>
       </c>
@@ -6451,9 +6451,9 @@
       <c r="U80" s="10"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="115"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="113"/>
+      <c r="A81" s="125"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="121"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -6506,9 +6506,9 @@
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="115"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="113"/>
+      <c r="A82" s="125"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="121"/>
       <c r="D82" s="9" t="s">
         <v>23</v>
       </c>
@@ -6543,9 +6543,9 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="115"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="113"/>
+      <c r="A83" s="125"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="121"/>
       <c r="D83" s="48" t="s">
         <v>63</v>
       </c>
@@ -6610,9 +6610,9 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="115"/>
-      <c r="B84" s="116"/>
-      <c r="C84" s="113"/>
+      <c r="A84" s="125"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="121"/>
       <c r="D84" s="9" t="s">
         <v>20</v>
       </c>
@@ -6647,9 +6647,9 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="115"/>
-      <c r="B85" s="116"/>
-      <c r="C85" s="113"/>
+      <c r="A85" s="125"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="121"/>
       <c r="D85" s="9" t="s">
         <v>24</v>
       </c>
@@ -6675,9 +6675,9 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="115"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="113"/>
+      <c r="A86" s="125"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="121"/>
       <c r="D86" s="49" t="s">
         <v>64</v>
       </c>
@@ -6742,9 +6742,9 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="115"/>
-      <c r="B87" s="116"/>
-      <c r="C87" s="113"/>
+      <c r="A87" s="125"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="121"/>
       <c r="D87" s="36" t="s">
         <v>68</v>
       </c>
@@ -6809,11 +6809,11 @@
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="115"/>
-      <c r="B88" s="116" t="s">
+      <c r="A88" s="125"/>
+      <c r="B88" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="122" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="10"/>
@@ -6836,9 +6836,9 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="115"/>
-      <c r="B89" s="116"/>
-      <c r="C89" s="112"/>
+      <c r="A89" s="125"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="123"/>
       <c r="D89" s="9" t="s">
         <v>25</v>
       </c>
@@ -6891,9 +6891,9 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="115"/>
-      <c r="B90" s="116"/>
-      <c r="C90" s="112"/>
+      <c r="A90" s="125"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="123"/>
       <c r="D90" s="9" t="s">
         <v>14</v>
       </c>
@@ -6946,9 +6946,9 @@
       <c r="U90" s="10"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="115"/>
-      <c r="B91" s="116"/>
-      <c r="C91" s="112"/>
+      <c r="A91" s="125"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="123"/>
       <c r="D91" s="9" t="s">
         <v>36</v>
       </c>
@@ -6997,9 +6997,9 @@
       <c r="S91" s="61"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="115"/>
-      <c r="B92" s="116"/>
-      <c r="C92" s="112"/>
+      <c r="A92" s="125"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="123"/>
       <c r="D92" s="9" t="s">
         <v>22</v>
       </c>
@@ -7048,9 +7048,9 @@
       <c r="S92" s="61"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="115"/>
-      <c r="B93" s="116"/>
-      <c r="C93" s="112"/>
+      <c r="A93" s="125"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="48" t="s">
         <v>61</v>
       </c>
@@ -7099,9 +7099,9 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="115"/>
-      <c r="B94" s="116"/>
-      <c r="C94" s="112"/>
+      <c r="A94" s="125"/>
+      <c r="B94" s="111"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7150,9 +7150,9 @@
       <c r="S94" s="61"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="115"/>
-      <c r="B95" s="116"/>
-      <c r="C95" s="112"/>
+      <c r="A95" s="125"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="48" t="s">
         <v>62</v>
       </c>
@@ -7201,9 +7201,9 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="115"/>
-      <c r="B96" s="116"/>
-      <c r="C96" s="112"/>
+      <c r="A96" s="125"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
@@ -7252,9 +7252,9 @@
       <c r="S96" s="61"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="115"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="112"/>
+      <c r="A97" s="125"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="123"/>
       <c r="D97" s="48" t="s">
         <v>63</v>
       </c>
@@ -7316,9 +7316,9 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="115"/>
-      <c r="B98" s="116"/>
-      <c r="C98" s="112"/>
+      <c r="A98" s="125"/>
+      <c r="B98" s="111"/>
+      <c r="C98" s="123"/>
       <c r="D98" s="9" t="s">
         <v>20</v>
       </c>
@@ -7367,9 +7367,9 @@
       <c r="S98" s="61"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="115"/>
-      <c r="B99" s="116"/>
-      <c r="C99" s="112"/>
+      <c r="A99" s="125"/>
+      <c r="B99" s="111"/>
+      <c r="C99" s="123"/>
       <c r="D99" s="9" t="s">
         <v>24</v>
       </c>
@@ -7392,9 +7392,9 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="115"/>
-      <c r="B100" s="116"/>
-      <c r="C100" s="112"/>
+      <c r="A100" s="125"/>
+      <c r="B100" s="111"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="49" t="s">
         <v>64</v>
       </c>
@@ -7459,9 +7459,9 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="115"/>
-      <c r="B101" s="116"/>
-      <c r="C101" s="111" t="s">
+      <c r="A101" s="125"/>
+      <c r="B101" s="111"/>
+      <c r="C101" s="122" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="10"/>
@@ -7473,9 +7473,9 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="115"/>
-      <c r="B102" s="116"/>
-      <c r="C102" s="112"/>
+      <c r="A102" s="125"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="123"/>
       <c r="D102" s="9" t="s">
         <v>25</v>
       </c>
@@ -7528,9 +7528,9 @@
       <c r="U102" s="10"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="115"/>
-      <c r="B103" s="116"/>
-      <c r="C103" s="112"/>
+      <c r="A103" s="125"/>
+      <c r="B103" s="111"/>
+      <c r="C103" s="123"/>
       <c r="D103" s="9" t="s">
         <v>14</v>
       </c>
@@ -7583,9 +7583,9 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="115"/>
-      <c r="B104" s="116"/>
-      <c r="C104" s="112"/>
+      <c r="A104" s="125"/>
+      <c r="B104" s="111"/>
+      <c r="C104" s="123"/>
       <c r="D104" s="9" t="s">
         <v>36</v>
       </c>
@@ -7634,9 +7634,9 @@
       <c r="S104" s="61"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="115"/>
-      <c r="B105" s="116"/>
-      <c r="C105" s="112"/>
+      <c r="A105" s="125"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="123"/>
       <c r="D105" s="9" t="s">
         <v>22</v>
       </c>
@@ -7685,9 +7685,9 @@
       <c r="S105" s="61"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="115"/>
-      <c r="B106" s="116"/>
-      <c r="C106" s="112"/>
+      <c r="A106" s="125"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="123"/>
       <c r="D106" s="48" t="s">
         <v>61</v>
       </c>
@@ -7736,9 +7736,9 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="115"/>
-      <c r="B107" s="116"/>
-      <c r="C107" s="112"/>
+      <c r="A107" s="125"/>
+      <c r="B107" s="111"/>
+      <c r="C107" s="123"/>
       <c r="D107" s="9" t="s">
         <v>21</v>
       </c>
@@ -7787,9 +7787,9 @@
       <c r="S107" s="61"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="115"/>
-      <c r="B108" s="116"/>
-      <c r="C108" s="112"/>
+      <c r="A108" s="125"/>
+      <c r="B108" s="111"/>
+      <c r="C108" s="123"/>
       <c r="D108" s="48" t="s">
         <v>62</v>
       </c>
@@ -7838,9 +7838,9 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="115"/>
-      <c r="B109" s="116"/>
-      <c r="C109" s="112"/>
+      <c r="A109" s="125"/>
+      <c r="B109" s="111"/>
+      <c r="C109" s="123"/>
       <c r="D109" s="9" t="s">
         <v>23</v>
       </c>
@@ -7889,9 +7889,9 @@
       <c r="S109" s="61"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="115"/>
-      <c r="B110" s="116"/>
-      <c r="C110" s="112"/>
+      <c r="A110" s="125"/>
+      <c r="B110" s="111"/>
+      <c r="C110" s="123"/>
       <c r="D110" s="48" t="s">
         <v>63</v>
       </c>
@@ -7953,9 +7953,9 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="115"/>
-      <c r="B111" s="116"/>
-      <c r="C111" s="112"/>
+      <c r="A111" s="125"/>
+      <c r="B111" s="111"/>
+      <c r="C111" s="123"/>
       <c r="D111" s="9" t="s">
         <v>20</v>
       </c>
@@ -8004,9 +8004,9 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="115"/>
-      <c r="B112" s="116"/>
-      <c r="C112" s="112"/>
+      <c r="A112" s="125"/>
+      <c r="B112" s="111"/>
+      <c r="C112" s="123"/>
       <c r="D112" s="9" t="s">
         <v>24</v>
       </c>
@@ -8029,9 +8029,9 @@
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="115"/>
-      <c r="B113" s="116"/>
-      <c r="C113" s="112"/>
+      <c r="A113" s="125"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="123"/>
       <c r="D113" s="49" t="s">
         <v>64</v>
       </c>
@@ -8096,11 +8096,11 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="114" t="s">
+      <c r="A114" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="116"/>
-      <c r="C114" s="111" t="s">
+      <c r="B114" s="111"/>
+      <c r="C114" s="122" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="10"/>
@@ -8112,9 +8112,9 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="115"/>
-      <c r="B115" s="116"/>
-      <c r="C115" s="112"/>
+      <c r="A115" s="125"/>
+      <c r="B115" s="111"/>
+      <c r="C115" s="123"/>
       <c r="D115" s="9" t="s">
         <v>25</v>
       </c>
@@ -8167,9 +8167,9 @@
       <c r="U115" s="10"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="115"/>
-      <c r="B116" s="116"/>
-      <c r="C116" s="112"/>
+      <c r="A116" s="125"/>
+      <c r="B116" s="111"/>
+      <c r="C116" s="123"/>
       <c r="D116" s="9" t="s">
         <v>14</v>
       </c>
@@ -8222,9 +8222,9 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="115"/>
-      <c r="B117" s="116"/>
-      <c r="C117" s="112"/>
+      <c r="A117" s="125"/>
+      <c r="B117" s="111"/>
+      <c r="C117" s="123"/>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
@@ -8273,9 +8273,9 @@
       <c r="S117" s="61"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="115"/>
-      <c r="B118" s="116"/>
-      <c r="C118" s="112"/>
+      <c r="A118" s="125"/>
+      <c r="B118" s="111"/>
+      <c r="C118" s="123"/>
       <c r="D118" s="9" t="s">
         <v>22</v>
       </c>
@@ -8324,9 +8324,9 @@
       <c r="S118" s="61"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="115"/>
-      <c r="B119" s="116"/>
-      <c r="C119" s="112"/>
+      <c r="A119" s="125"/>
+      <c r="B119" s="111"/>
+      <c r="C119" s="123"/>
       <c r="D119" s="48" t="s">
         <v>61</v>
       </c>
@@ -8375,9 +8375,9 @@
       <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="115"/>
-      <c r="B120" s="116"/>
-      <c r="C120" s="112"/>
+      <c r="A120" s="125"/>
+      <c r="B120" s="111"/>
+      <c r="C120" s="123"/>
       <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
@@ -8426,9 +8426,9 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="115"/>
-      <c r="B121" s="116"/>
-      <c r="C121" s="112"/>
+      <c r="A121" s="125"/>
+      <c r="B121" s="111"/>
+      <c r="C121" s="123"/>
       <c r="D121" s="48" t="s">
         <v>62</v>
       </c>
@@ -8477,9 +8477,9 @@
       <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="115"/>
-      <c r="B122" s="116"/>
-      <c r="C122" s="112"/>
+      <c r="A122" s="125"/>
+      <c r="B122" s="111"/>
+      <c r="C122" s="123"/>
       <c r="D122" s="9" t="s">
         <v>23</v>
       </c>
@@ -8528,9 +8528,9 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="115"/>
-      <c r="B123" s="116"/>
-      <c r="C123" s="112"/>
+      <c r="A123" s="125"/>
+      <c r="B123" s="111"/>
+      <c r="C123" s="123"/>
       <c r="D123" s="48" t="s">
         <v>63</v>
       </c>
@@ -8592,9 +8592,9 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="115"/>
-      <c r="B124" s="116"/>
-      <c r="C124" s="112"/>
+      <c r="A124" s="125"/>
+      <c r="B124" s="111"/>
+      <c r="C124" s="123"/>
       <c r="D124" s="9" t="s">
         <v>20</v>
       </c>
@@ -8643,9 +8643,9 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="115"/>
-      <c r="B125" s="116"/>
-      <c r="C125" s="112"/>
+      <c r="A125" s="125"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="123"/>
       <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
@@ -8668,9 +8668,9 @@
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="115"/>
-      <c r="B126" s="116"/>
-      <c r="C126" s="112"/>
+      <c r="A126" s="125"/>
+      <c r="B126" s="111"/>
+      <c r="C126" s="123"/>
       <c r="D126" s="49" t="s">
         <v>64</v>
       </c>
@@ -8735,9 +8735,9 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="115"/>
-      <c r="B127" s="116"/>
-      <c r="C127" s="111" t="s">
+      <c r="A127" s="125"/>
+      <c r="B127" s="111"/>
+      <c r="C127" s="122" t="s">
         <v>79</v>
       </c>
       <c r="I127" s="10"/>
@@ -8749,9 +8749,9 @@
       <c r="U127" s="10"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="115"/>
-      <c r="B128" s="116"/>
-      <c r="C128" s="112"/>
+      <c r="A128" s="125"/>
+      <c r="B128" s="111"/>
+      <c r="C128" s="123"/>
       <c r="D128" s="9" t="s">
         <v>25</v>
       </c>
@@ -8804,9 +8804,9 @@
       <c r="U128" s="10"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="115"/>
-      <c r="B129" s="116"/>
-      <c r="C129" s="112"/>
+      <c r="A129" s="125"/>
+      <c r="B129" s="111"/>
+      <c r="C129" s="123"/>
       <c r="D129" s="9" t="s">
         <v>14</v>
       </c>
@@ -8859,9 +8859,9 @@
       <c r="U129" s="10"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="115"/>
-      <c r="B130" s="116"/>
-      <c r="C130" s="112"/>
+      <c r="A130" s="125"/>
+      <c r="B130" s="111"/>
+      <c r="C130" s="123"/>
       <c r="D130" s="9" t="s">
         <v>36</v>
       </c>
@@ -8910,9 +8910,9 @@
       <c r="S130" s="61"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="115"/>
-      <c r="B131" s="116"/>
-      <c r="C131" s="112"/>
+      <c r="A131" s="125"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="123"/>
       <c r="D131" s="9" t="s">
         <v>22</v>
       </c>
@@ -8961,9 +8961,9 @@
       <c r="S131" s="61"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="115"/>
-      <c r="B132" s="116"/>
-      <c r="C132" s="112"/>
+      <c r="A132" s="125"/>
+      <c r="B132" s="111"/>
+      <c r="C132" s="123"/>
       <c r="D132" s="48" t="s">
         <v>61</v>
       </c>
@@ -9012,9 +9012,9 @@
       <c r="S132" s="10"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="115"/>
-      <c r="B133" s="116"/>
-      <c r="C133" s="112"/>
+      <c r="A133" s="125"/>
+      <c r="B133" s="111"/>
+      <c r="C133" s="123"/>
       <c r="D133" s="9" t="s">
         <v>21</v>
       </c>
@@ -9063,9 +9063,9 @@
       <c r="S133" s="61"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="115"/>
-      <c r="B134" s="116"/>
-      <c r="C134" s="112"/>
+      <c r="A134" s="125"/>
+      <c r="B134" s="111"/>
+      <c r="C134" s="123"/>
       <c r="D134" s="48" t="s">
         <v>62</v>
       </c>
@@ -9114,9 +9114,9 @@
       <c r="S134" s="10"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="115"/>
-      <c r="B135" s="116"/>
-      <c r="C135" s="112"/>
+      <c r="A135" s="125"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="123"/>
       <c r="D135" s="9" t="s">
         <v>23</v>
       </c>
@@ -9165,9 +9165,9 @@
       <c r="S135" s="61"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="115"/>
-      <c r="B136" s="116"/>
-      <c r="C136" s="112"/>
+      <c r="A136" s="125"/>
+      <c r="B136" s="111"/>
+      <c r="C136" s="123"/>
       <c r="D136" s="48" t="s">
         <v>63</v>
       </c>
@@ -9229,9 +9229,9 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="115"/>
-      <c r="B137" s="116"/>
-      <c r="C137" s="112"/>
+      <c r="A137" s="125"/>
+      <c r="B137" s="111"/>
+      <c r="C137" s="123"/>
       <c r="D137" s="9" t="s">
         <v>20</v>
       </c>
@@ -9280,9 +9280,9 @@
       <c r="S137" s="61"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="115"/>
-      <c r="B138" s="116"/>
-      <c r="C138" s="112"/>
+      <c r="A138" s="125"/>
+      <c r="B138" s="111"/>
+      <c r="C138" s="123"/>
       <c r="D138" s="9" t="s">
         <v>24</v>
       </c>
@@ -9305,9 +9305,9 @@
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="115"/>
-      <c r="B139" s="116"/>
-      <c r="C139" s="112"/>
+      <c r="A139" s="125"/>
+      <c r="B139" s="111"/>
+      <c r="C139" s="123"/>
       <c r="D139" s="49" t="s">
         <v>64</v>
       </c>
@@ -9372,9 +9372,9 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="115"/>
-      <c r="B140" s="116"/>
-      <c r="C140" s="113" t="s">
+      <c r="A140" s="125"/>
+      <c r="B140" s="111"/>
+      <c r="C140" s="121" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="10"/>
@@ -9386,9 +9386,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="115"/>
-      <c r="B141" s="116"/>
-      <c r="C141" s="113"/>
+      <c r="A141" s="125"/>
+      <c r="B141" s="111"/>
+      <c r="C141" s="121"/>
       <c r="D141" s="9" t="s">
         <v>25</v>
       </c>
@@ -9441,9 +9441,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="115"/>
-      <c r="B142" s="116"/>
-      <c r="C142" s="113"/>
+      <c r="A142" s="125"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="121"/>
       <c r="D142" s="9" t="s">
         <v>14</v>
       </c>
@@ -9496,9 +9496,9 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="115"/>
-      <c r="B143" s="116"/>
-      <c r="C143" s="113"/>
+      <c r="A143" s="125"/>
+      <c r="B143" s="111"/>
+      <c r="C143" s="121"/>
       <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
@@ -9547,9 +9547,9 @@
       <c r="S143" s="61"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="115"/>
-      <c r="B144" s="116"/>
-      <c r="C144" s="113"/>
+      <c r="A144" s="125"/>
+      <c r="B144" s="111"/>
+      <c r="C144" s="121"/>
       <c r="D144" s="9" t="s">
         <v>22</v>
       </c>
@@ -9598,9 +9598,9 @@
       <c r="S144" s="61"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="115"/>
-      <c r="B145" s="116"/>
-      <c r="C145" s="113"/>
+      <c r="A145" s="125"/>
+      <c r="B145" s="111"/>
+      <c r="C145" s="121"/>
       <c r="D145" s="48" t="s">
         <v>61</v>
       </c>
@@ -9649,9 +9649,9 @@
       <c r="S145" s="10"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="115"/>
-      <c r="B146" s="116"/>
-      <c r="C146" s="113"/>
+      <c r="A146" s="125"/>
+      <c r="B146" s="111"/>
+      <c r="C146" s="121"/>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
@@ -9700,9 +9700,9 @@
       <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="115"/>
-      <c r="B147" s="116"/>
-      <c r="C147" s="113"/>
+      <c r="A147" s="125"/>
+      <c r="B147" s="111"/>
+      <c r="C147" s="121"/>
       <c r="D147" s="48" t="s">
         <v>62</v>
       </c>
@@ -9751,9 +9751,9 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="115"/>
-      <c r="B148" s="116"/>
-      <c r="C148" s="113"/>
+      <c r="A148" s="125"/>
+      <c r="B148" s="111"/>
+      <c r="C148" s="121"/>
       <c r="D148" s="9" t="s">
         <v>23</v>
       </c>
@@ -9802,9 +9802,9 @@
       <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="115"/>
-      <c r="B149" s="116"/>
-      <c r="C149" s="113"/>
+      <c r="A149" s="125"/>
+      <c r="B149" s="111"/>
+      <c r="C149" s="121"/>
       <c r="D149" s="48" t="s">
         <v>63</v>
       </c>
@@ -9866,9 +9866,9 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="115"/>
-      <c r="B150" s="116"/>
-      <c r="C150" s="113"/>
+      <c r="A150" s="125"/>
+      <c r="B150" s="111"/>
+      <c r="C150" s="121"/>
       <c r="D150" s="9" t="s">
         <v>20</v>
       </c>
@@ -9917,9 +9917,9 @@
       <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="115"/>
-      <c r="B151" s="116"/>
-      <c r="C151" s="113"/>
+      <c r="A151" s="125"/>
+      <c r="B151" s="111"/>
+      <c r="C151" s="121"/>
       <c r="D151" s="9" t="s">
         <v>24</v>
       </c>
@@ -9942,9 +9942,9 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="115"/>
-      <c r="B152" s="116"/>
-      <c r="C152" s="113"/>
+      <c r="A152" s="125"/>
+      <c r="B152" s="111"/>
+      <c r="C152" s="121"/>
       <c r="D152" s="49" t="s">
         <v>64</v>
       </c>
@@ -10009,9 +10009,9 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="115"/>
-      <c r="B153" s="116"/>
-      <c r="C153" s="113"/>
+      <c r="A153" s="125"/>
+      <c r="B153" s="111"/>
+      <c r="C153" s="121"/>
       <c r="D153" s="52" t="s">
         <v>67</v>
       </c>
@@ -10113,17 +10113,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A8:C11"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C127:C139"/>
     <mergeCell ref="C140:C153"/>
     <mergeCell ref="A34:A60"/>
@@ -10140,6 +10129,17 @@
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="C47:C60"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="5" orientation="landscape" r:id="rId1"/>
@@ -10153,9 +10153,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA233"/>
+  <dimension ref="A3:AA233"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10173,11 +10173,6 @@
     <col min="23" max="23" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>136</v>
-      </c>
-    </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>102</v>
